--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-17.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="G2" t="n">
         <v>5.5</v>
@@ -676,7 +676,7 @@
         <v>1.72</v>
       </c>
       <c r="I2" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="J2" t="n">
         <v>3.85</v>
@@ -691,13 +691,13 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="O2" t="n">
         <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="Q2" t="n">
         <v>1.92</v>
@@ -709,10 +709,10 @@
         <v>2.68</v>
       </c>
       <c r="T2" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="U2" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V2" t="n">
         <v>2.16</v>
@@ -721,16 +721,16 @@
         <v>1.22</v>
       </c>
       <c r="X2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AB2" t="n">
         <v>970</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +820,7 @@
         <v>4.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -832,10 +832,10 @@
         <v>1.15</v>
       </c>
       <c r="P3" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R3" t="n">
         <v>1.78</v>
@@ -844,10 +844,10 @@
         <v>2.12</v>
       </c>
       <c r="T3" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="U3" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="V3" t="n">
         <v>1.4</v>
@@ -868,13 +868,13 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -886,13 +886,13 @@
         <v>13.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ3" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK3" t="n">
         <v>23</v>
@@ -901,10 +901,10 @@
         <v>29</v>
       </c>
       <c r="AM3" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AO3" t="n">
         <v>970</v>
@@ -943,7 +943,7 @@
         <v>3.45</v>
       </c>
       <c r="H4" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I4" t="n">
         <v>2.32</v>
@@ -961,7 +961,7 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="O4" t="n">
         <v>1.29</v>
@@ -970,7 +970,7 @@
         <v>2.02</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="R4" t="n">
         <v>1.38</v>
@@ -982,7 +982,7 @@
         <v>1.68</v>
       </c>
       <c r="U4" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V4" t="n">
         <v>1.75</v>
@@ -1006,7 +1006,7 @@
         <v>15</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD4" t="n">
         <v>13</v>
@@ -1090,7 +1090,7 @@
         <v>4.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
@@ -1099,13 +1099,13 @@
         <v>5.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R5" t="n">
         <v>1.6</v>
@@ -1117,7 +1117,7 @@
         <v>1.53</v>
       </c>
       <c r="U5" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="V5" t="n">
         <v>1.7</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G6" t="n">
         <v>2.02</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="Q6" t="n">
         <v>1.92</v>
@@ -1345,19 +1345,19 @@
         <v>1.61</v>
       </c>
       <c r="G7" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="G8" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H8" t="n">
         <v>2.32</v>
       </c>
       <c r="I8" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="J8" t="n">
         <v>3.05</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -1621,10 +1621,10 @@
         <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K9" t="n">
         <v>4.1</v>
@@ -1645,7 +1645,7 @@
         <v>2.38</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H10" t="n">
         <v>3.8</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q10" t="n">
         <v>1.64</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q11" t="n">
         <v>1.69</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="G12" t="n">
         <v>2.16</v>
       </c>
       <c r="H12" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K12" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>1.76</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2161,7 +2161,7 @@
         <v>2.02</v>
       </c>
       <c r="I13" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
         <v>6</v>
@@ -2182,7 +2182,7 @@
         <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="Q13" t="n">
         <v>1.55</v>
@@ -2206,10 +2206,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z13" t="n">
         <v>16.5</v>
@@ -2230,7 +2230,7 @@
         <v>18</v>
       </c>
       <c r="AF13" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AG13" t="n">
         <v>15.5</v>
@@ -2293,16 +2293,16 @@
         <v>2.6</v>
       </c>
       <c r="H14" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="I14" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="J14" t="n">
         <v>3.05</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="G15" t="n">
         <v>2.5</v>
       </c>
       <c r="H15" t="n">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="I15" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="J15" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="K15" t="n">
-        <v>5.5</v>
+        <v>3.55</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1.17</v>
       </c>
       <c r="G16" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="H16" t="n">
         <v>18.5</v>
@@ -2569,7 +2569,7 @@
         <v>19</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K16" t="n">
         <v>10.5</v>
@@ -2593,7 +2593,7 @@
         <v>1.31</v>
       </c>
       <c r="R16" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="S16" t="n">
         <v>1.78</v>
@@ -2602,7 +2602,7 @@
         <v>1.99</v>
       </c>
       <c r="U16" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2659,7 +2659,7 @@
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AO16" t="n">
         <v>300</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="G17" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="H17" t="n">
         <v>3.05</v>
       </c>
       <c r="I17" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K17" t="n">
         <v>3.45</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>1.24</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.02</v>
+        <v>1.63</v>
       </c>
       <c r="G20" t="n">
-        <v>2.56</v>
+        <v>1000</v>
       </c>
       <c r="H20" t="n">
-        <v>2.86</v>
+        <v>1.04</v>
       </c>
       <c r="I20" t="n">
-        <v>4.9</v>
+        <v>980</v>
       </c>
       <c r="J20" t="n">
-        <v>2.84</v>
+        <v>1.01</v>
       </c>
       <c r="K20" t="n">
-        <v>3.85</v>
+        <v>980</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3121,16 +3121,16 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>2.74</v>
+        <v>1.24</v>
       </c>
       <c r="O20" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="P20" t="n">
-        <v>1.66</v>
+        <v>1.24</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.97</v>
+        <v>1.01</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.74</v>
+        <v>1.04</v>
       </c>
       <c r="G21" t="n">
-        <v>4.4</v>
+        <v>980</v>
       </c>
       <c r="H21" t="n">
-        <v>2.02</v>
+        <v>1.04</v>
       </c>
       <c r="I21" t="n">
-        <v>2.58</v>
+        <v>980</v>
       </c>
       <c r="J21" t="n">
-        <v>2.58</v>
+        <v>1.02</v>
       </c>
       <c r="K21" t="n">
-        <v>4</v>
+        <v>980</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3256,16 +3256,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="O21" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="P21" t="n">
-        <v>1.68</v>
+        <v>1.53</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.94</v>
+        <v>1.36</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.67</v>
+        <v>1.04</v>
       </c>
       <c r="G23" t="n">
-        <v>2.16</v>
+        <v>1000</v>
       </c>
       <c r="H23" t="n">
-        <v>3.45</v>
+        <v>1.04</v>
       </c>
       <c r="I23" t="n">
-        <v>6.6</v>
+        <v>980</v>
       </c>
       <c r="J23" t="n">
-        <v>3.15</v>
+        <v>1.02</v>
       </c>
       <c r="K23" t="n">
-        <v>4</v>
+        <v>980</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3526,16 +3526,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="O23" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="P23" t="n">
         <v>1.24</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G24" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="H24" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I24" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="J24" t="n">
         <v>3.1</v>
       </c>
       <c r="K24" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3670,7 +3670,7 @@
         <v>1.61</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="G25" t="n">
         <v>8.4</v>
       </c>
       <c r="H25" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="I25" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="J25" t="n">
         <v>4.8</v>
@@ -3799,10 +3799,10 @@
         <v>4.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P25" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q25" t="n">
         <v>1.77</v>
@@ -3811,10 +3811,10 @@
         <v>1.47</v>
       </c>
       <c r="S25" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="T25" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U25" t="n">
         <v>1.93</v>
@@ -3829,19 +3829,19 @@
         <v>22</v>
       </c>
       <c r="Y25" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z25" t="n">
         <v>8.800000000000001</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>8.6</v>
       </c>
       <c r="AA25" t="n">
         <v>13</v>
       </c>
       <c r="AB25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC25" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD25" t="n">
         <v>10.5</v>
@@ -3850,13 +3850,13 @@
         <v>16</v>
       </c>
       <c r="AF25" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
         <v>30</v>
       </c>
       <c r="AH25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI25" t="n">
         <v>38</v>
@@ -3874,7 +3874,7 @@
         <v>160</v>
       </c>
       <c r="AN25" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AO25" t="n">
         <v>6.8</v>
@@ -3910,10 +3910,10 @@
         <v>2.72</v>
       </c>
       <c r="G26" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="H26" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="I26" t="n">
         <v>3</v>
@@ -4048,10 +4048,10 @@
         <v>1.66</v>
       </c>
       <c r="H27" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I27" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="J27" t="n">
         <v>4.1</v>
@@ -4072,10 +4072,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="G28" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="H28" t="n">
         <v>3.2</v>
@@ -4192,7 +4192,7 @@
         <v>3.1</v>
       </c>
       <c r="K28" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -4207,10 +4207,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -4315,19 +4315,19 @@
         <v>2.4</v>
       </c>
       <c r="G29" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="H29" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I29" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4342,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="Q29" t="n">
         <v>2.36</v>
@@ -4450,10 +4450,10 @@
         <v>1.78</v>
       </c>
       <c r="G30" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="H30" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I30" t="n">
         <v>5.6</v>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="G31" t="n">
         <v>2.52</v>
@@ -4591,7 +4591,7 @@
         <v>3.25</v>
       </c>
       <c r="I31" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J31" t="n">
         <v>3.25</v>
@@ -4723,16 +4723,16 @@
         <v>1.38</v>
       </c>
       <c r="H32" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="I32" t="n">
         <v>11</v>
       </c>
       <c r="J32" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K32" t="n">
         <v>5.8</v>
-      </c>
-      <c r="K32" t="n">
-        <v>5.9</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4747,19 +4747,19 @@
         <v>1.26</v>
       </c>
       <c r="P32" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q32" t="n">
         <v>1.77</v>
       </c>
       <c r="R32" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="S32" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="T32" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U32" t="n">
         <v>1.81</v>
@@ -4801,7 +4801,7 @@
         <v>11</v>
       </c>
       <c r="AH32" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI32" t="n">
         <v>1000</v>
@@ -4810,7 +4810,7 @@
         <v>11</v>
       </c>
       <c r="AK32" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL32" t="n">
         <v>42</v>
@@ -4819,7 +4819,7 @@
         <v>220</v>
       </c>
       <c r="AN32" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AO32" t="n">
         <v>310</v>
@@ -4879,25 +4879,25 @@
         <v>6.2</v>
       </c>
       <c r="O33" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P33" t="n">
         <v>2.72</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="R33" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S33" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="T33" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="U33" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -4906,10 +4906,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="Y33" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z33" t="n">
         <v>980</v>
@@ -4936,7 +4936,7 @@
         <v>13</v>
       </c>
       <c r="AH33" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AI33" t="n">
         <v>980</v>
@@ -4954,7 +4954,7 @@
         <v>55</v>
       </c>
       <c r="AN33" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AO33" t="n">
         <v>14</v>
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="G34" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="H34" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I34" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J34" t="n">
         <v>4.2</v>
       </c>
       <c r="K34" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -5017,22 +5017,22 @@
         <v>1.21</v>
       </c>
       <c r="P34" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R34" t="n">
         <v>1.58</v>
       </c>
       <c r="S34" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="T34" t="n">
         <v>1.67</v>
       </c>
       <c r="U34" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -5047,7 +5047,7 @@
         <v>23</v>
       </c>
       <c r="Z34" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AA34" t="n">
         <v>120</v>
@@ -5056,10 +5056,10 @@
         <v>12</v>
       </c>
       <c r="AC34" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD34" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE34" t="n">
         <v>55</v>
@@ -5083,16 +5083,16 @@
         <v>16.5</v>
       </c>
       <c r="AL34" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM34" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN34" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AO34" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35">
@@ -5122,28 +5122,28 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="G35" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="H35" t="n">
         <v>2.88</v>
       </c>
       <c r="I35" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="J35" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K35" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N35" t="n">
         <v>4.3</v>
@@ -5152,13 +5152,13 @@
         <v>1.27</v>
       </c>
       <c r="P35" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R35" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S35" t="n">
         <v>3.05</v>
@@ -5176,13 +5176,13 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Z35" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AA35" t="n">
         <v>50</v>
@@ -5191,43 +5191,43 @@
         <v>14.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD35" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AE35" t="n">
         <v>32</v>
       </c>
       <c r="AF35" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH35" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI35" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AJ35" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AK35" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL35" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AM35" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN35" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO35" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36">
@@ -5260,10 +5260,10 @@
         <v>2.28</v>
       </c>
       <c r="G36" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H36" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I36" t="n">
         <v>3.35</v>
@@ -5272,7 +5272,7 @@
         <v>3.7</v>
       </c>
       <c r="K36" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -5287,22 +5287,22 @@
         <v>1.26</v>
       </c>
       <c r="P36" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q36" t="n">
         <v>1.79</v>
       </c>
       <c r="R36" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S36" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="T36" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U36" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -5314,7 +5314,7 @@
         <v>20</v>
       </c>
       <c r="Y36" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Z36" t="n">
         <v>28</v>
@@ -5323,43 +5323,43 @@
         <v>55</v>
       </c>
       <c r="AB36" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD36" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF36" t="n">
         <v>16</v>
       </c>
-      <c r="AE36" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AG36" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH36" t="n">
         <v>17.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AJ36" t="n">
         <v>30</v>
       </c>
       <c r="AK36" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL36" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM36" t="n">
         <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO36" t="n">
         <v>32</v>
@@ -5593,7 +5593,7 @@
         <v>70</v>
       </c>
       <c r="AB38" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC38" t="n">
         <v>7.4</v>
@@ -5629,7 +5629,7 @@
         <v>110</v>
       </c>
       <c r="AN38" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO38" t="n">
         <v>55</v>
@@ -5668,7 +5668,7 @@
         <v>1.79</v>
       </c>
       <c r="H39" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I39" t="n">
         <v>5.1</v>
@@ -5743,7 +5743,7 @@
         <v>11.5</v>
       </c>
       <c r="AG39" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH39" t="n">
         <v>18.5</v>
@@ -5800,10 +5800,10 @@
         <v>2.8</v>
       </c>
       <c r="G40" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="H40" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I40" t="n">
         <v>2.94</v>
@@ -5842,7 +5842,7 @@
         <v>1.97</v>
       </c>
       <c r="U40" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -5857,19 +5857,19 @@
         <v>10</v>
       </c>
       <c r="Z40" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AA40" t="n">
         <v>50</v>
       </c>
       <c r="AB40" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC40" t="n">
         <v>7</v>
       </c>
       <c r="AD40" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE40" t="n">
         <v>38</v>
@@ -5878,7 +5878,7 @@
         <v>18</v>
       </c>
       <c r="AG40" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH40" t="n">
         <v>19.5</v>
@@ -5887,7 +5887,7 @@
         <v>60</v>
       </c>
       <c r="AJ40" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AK40" t="n">
         <v>36</v>
@@ -5941,13 +5941,13 @@
         <v>5.1</v>
       </c>
       <c r="I41" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J41" t="n">
         <v>4.1</v>
       </c>
       <c r="K41" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -5968,10 +5968,10 @@
         <v>1.69</v>
       </c>
       <c r="R41" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S41" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T41" t="n">
         <v>1.7</v>
@@ -6070,19 +6070,19 @@
         <v>1.24</v>
       </c>
       <c r="G42" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="H42" t="n">
         <v>14.5</v>
       </c>
       <c r="I42" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="J42" t="n">
         <v>7.6</v>
       </c>
       <c r="K42" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -6112,7 +6112,7 @@
         <v>2.2</v>
       </c>
       <c r="U42" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -6136,7 +6136,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC42" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AD42" t="n">
         <v>55</v>
@@ -6208,16 +6208,16 @@
         <v>4.9</v>
       </c>
       <c r="H43" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="I43" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="J43" t="n">
         <v>4</v>
       </c>
       <c r="K43" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -6337,7 +6337,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G44" t="n">
         <v>2.2</v>
@@ -6505,7 +6505,7 @@
         <v>2.26</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -6889,7 +6889,7 @@
         <v>2.46</v>
       </c>
       <c r="J48" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K48" t="n">
         <v>4.2</v>
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>6.8</v>
+        <v>1.09</v>
       </c>
       <c r="G49" t="n">
         <v>8.6</v>
       </c>
       <c r="H49" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="I49" t="n">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="J49" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="K49" t="n">
-        <v>7.4</v>
+        <v>950</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -7042,10 +7042,10 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>2.38</v>
+        <v>2.66</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -7180,7 +7180,7 @@
         <v>1.88</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
@@ -7423,10 +7423,10 @@
         <v>10.5</v>
       </c>
       <c r="H52" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="I52" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="J52" t="n">
         <v>4</v>
@@ -7450,7 +7450,7 @@
         <v>1.92</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -7690,16 +7690,16 @@
         <v>1.99</v>
       </c>
       <c r="G54" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H54" t="n">
         <v>3.8</v>
       </c>
       <c r="I54" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="J54" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K54" t="n">
         <v>3.85</v>
@@ -7720,7 +7720,7 @@
         <v>1.81</v>
       </c>
       <c r="Q54" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G55" t="n">
         <v>3.65</v>
@@ -7834,7 +7834,7 @@
         <v>2.56</v>
       </c>
       <c r="J55" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K55" t="n">
         <v>3.45</v>
@@ -7990,7 +7990,7 @@
         <v>1.83</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -8092,19 +8092,19 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="G57" t="n">
         <v>3.6</v>
       </c>
       <c r="H57" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="I57" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="J57" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="K57" t="n">
         <v>4.4</v>
@@ -8125,7 +8125,7 @@
         <v>2.34</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="G58" t="n">
         <v>1.49</v>
@@ -8236,7 +8236,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="I58" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J58" t="n">
         <v>4.6</v>
@@ -8260,10 +8260,10 @@
         <v>2.2</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R58" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S58" t="n">
         <v>2.92</v>
@@ -8272,7 +8272,7 @@
         <v>1.98</v>
       </c>
       <c r="U58" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
@@ -8311,19 +8311,19 @@
         <v>10.5</v>
       </c>
       <c r="AH58" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI58" t="n">
         <v>130</v>
       </c>
       <c r="AJ58" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AK58" t="n">
         <v>16.5</v>
       </c>
       <c r="AL58" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM58" t="n">
         <v>160</v>
@@ -8362,19 +8362,19 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="G59" t="n">
         <v>4.8</v>
       </c>
       <c r="H59" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="I59" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="J59" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="K59" t="n">
         <v>3.5</v>
@@ -8392,10 +8392,10 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -8497,22 +8497,22 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.12</v>
+        <v>1.04</v>
       </c>
       <c r="G60" t="n">
-        <v>2.64</v>
+        <v>85</v>
       </c>
       <c r="H60" t="n">
-        <v>2.78</v>
+        <v>1.04</v>
       </c>
       <c r="I60" t="n">
-        <v>4.3</v>
+        <v>85</v>
       </c>
       <c r="J60" t="n">
-        <v>2.9</v>
+        <v>1.02</v>
       </c>
       <c r="K60" t="n">
-        <v>4.6</v>
+        <v>950</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -8521,16 +8521,16 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>2.8</v>
+        <v>1.24</v>
       </c>
       <c r="O60" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="P60" t="n">
-        <v>1.65</v>
+        <v>1.24</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="R60" t="n">
         <v>0</v>
@@ -8665,7 +8665,7 @@
         <v>1.24</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
@@ -8767,22 +8767,22 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>1.24</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.02</v>
+        <v>1.35</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
@@ -9070,7 +9070,7 @@
         <v>1.24</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.02</v>
+        <v>1.34</v>
       </c>
       <c r="R64" t="n">
         <v>0</v>
@@ -9172,19 +9172,19 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="G65" t="n">
         <v>1.49</v>
       </c>
       <c r="H65" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="I65" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="J65" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K65" t="n">
         <v>4.8</v>
@@ -9196,13 +9196,13 @@
         <v>1.07</v>
       </c>
       <c r="N65" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="O65" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P65" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="Q65" t="n">
         <v>2.06</v>
@@ -9217,7 +9217,7 @@
         <v>2.28</v>
       </c>
       <c r="U65" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="V65" t="n">
         <v>0</v>
@@ -9229,13 +9229,13 @@
         <v>14.5</v>
       </c>
       <c r="Y65" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="Z65" t="n">
         <v>1000</v>
       </c>
       <c r="AA65" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="AB65" t="n">
         <v>7</v>
@@ -9244,13 +9244,13 @@
         <v>10.5</v>
       </c>
       <c r="AD65" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AE65" t="n">
         <v>1000</v>
       </c>
       <c r="AF65" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AG65" t="n">
         <v>11</v>
@@ -9259,7 +9259,7 @@
         <v>34</v>
       </c>
       <c r="AI65" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="AJ65" t="n">
         <v>12.5</v>
@@ -9271,13 +9271,13 @@
         <v>55</v>
       </c>
       <c r="AM65" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AN65" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AO65" t="n">
-        <v>410</v>
+        <v>360</v>
       </c>
     </row>
     <row r="66">
@@ -9367,7 +9367,7 @@
         <v>14.5</v>
       </c>
       <c r="Z66" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA66" t="n">
         <v>200</v>
@@ -9400,7 +9400,7 @@
         <v>23</v>
       </c>
       <c r="AK66" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL66" t="n">
         <v>65</v>
@@ -9451,10 +9451,10 @@
         <v>5.1</v>
       </c>
       <c r="I67" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J67" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K67" t="n">
         <v>3.85</v>
@@ -9472,10 +9472,10 @@
         <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="R67" t="n">
         <v>0</v>
@@ -9712,22 +9712,22 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="G69" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H69" t="n">
-        <v>3.25</v>
+        <v>3.85</v>
       </c>
       <c r="I69" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J69" t="n">
         <v>3.6</v>
       </c>
       <c r="K69" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -9847,16 +9847,16 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="G70" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="H70" t="n">
         <v>1.57</v>
       </c>
       <c r="I70" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="J70" t="n">
         <v>4.5</v>
@@ -9892,7 +9892,7 @@
         <v>2.06</v>
       </c>
       <c r="U70" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V70" t="n">
         <v>0</v>
@@ -9901,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="X70" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -9913,13 +9913,13 @@
         <v>14.5</v>
       </c>
       <c r="AB70" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC70" t="n">
         <v>10</v>
       </c>
       <c r="AD70" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE70" t="n">
         <v>17</v>
@@ -9985,7 +9985,7 @@
         <v>5.5</v>
       </c>
       <c r="G71" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="H71" t="n">
         <v>1.61</v>
@@ -10006,7 +10006,7 @@
         <v>1.02</v>
       </c>
       <c r="N71" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="O71" t="n">
         <v>1.11</v>
@@ -10015,16 +10015,16 @@
         <v>3.55</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="R71" t="n">
         <v>2.04</v>
       </c>
       <c r="S71" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="T71" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="U71" t="n">
         <v>3.05</v>
@@ -10051,7 +10051,7 @@
         <v>40</v>
       </c>
       <c r="AC71" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD71" t="n">
         <v>11</v>
@@ -10069,7 +10069,7 @@
         <v>16</v>
       </c>
       <c r="AI71" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ71" t="n">
         <v>130</v>
@@ -10081,13 +10081,13 @@
         <v>44</v>
       </c>
       <c r="AM71" t="n">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="AN71" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO71" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="72">
@@ -10117,7 +10117,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="G72" t="n">
         <v>2.04</v>
@@ -10129,7 +10129,7 @@
         <v>4.5</v>
       </c>
       <c r="J72" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K72" t="n">
         <v>3.75</v>
@@ -10201,7 +10201,7 @@
         <v>10.5</v>
       </c>
       <c r="AH72" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI72" t="n">
         <v>70</v>
@@ -10252,10 +10252,10 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="G73" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="H73" t="n">
         <v>2.96</v>
@@ -10264,7 +10264,7 @@
         <v>3.25</v>
       </c>
       <c r="J73" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K73" t="n">
         <v>3.3</v>
@@ -10282,10 +10282,10 @@
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R73" t="n">
         <v>0</v>
@@ -10387,16 +10387,16 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="G74" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H74" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="I74" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="J74" t="n">
         <v>3.2</v>
@@ -10417,10 +10417,10 @@
         <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R74" t="n">
         <v>0</v>
@@ -10522,10 +10522,10 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="G75" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="H75" t="n">
         <v>2.62</v>
@@ -10552,10 +10552,10 @@
         <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -10681,28 +10681,28 @@
         <v>1.03</v>
       </c>
       <c r="N76" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O76" t="n">
         <v>1.21</v>
       </c>
       <c r="P76" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R76" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S76" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="T76" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="U76" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V76" t="n">
         <v>1.06</v>
@@ -10711,10 +10711,10 @@
         <v>4.1</v>
       </c>
       <c r="X76" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y76" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z76" t="n">
         <v>160</v>
@@ -10723,19 +10723,19 @@
         <v>1000</v>
       </c>
       <c r="AB76" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC76" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AD76" t="n">
         <v>60</v>
       </c>
       <c r="AE76" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="AF76" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG76" t="n">
         <v>13</v>
@@ -10744,7 +10744,7 @@
         <v>40</v>
       </c>
       <c r="AI76" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AJ76" t="n">
         <v>11.5</v>
@@ -10756,13 +10756,13 @@
         <v>50</v>
       </c>
       <c r="AM76" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AN76" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AO76" t="n">
-        <v>460</v>
+        <v>430</v>
       </c>
     </row>
     <row r="77">
@@ -10795,7 +10795,7 @@
         <v>3.15</v>
       </c>
       <c r="G77" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H77" t="n">
         <v>2.54</v>
@@ -10825,7 +10825,7 @@
         <v>1.56</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
@@ -10957,10 +10957,10 @@
         <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.01</v>
+        <v>1.93</v>
       </c>
       <c r="R78" t="n">
         <v>0</v>
@@ -11107,7 +11107,7 @@
         <v>2.08</v>
       </c>
       <c r="U79" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V79" t="n">
         <v>0</v>
@@ -11122,7 +11122,7 @@
         <v>8.6</v>
       </c>
       <c r="Z79" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA79" t="n">
         <v>14.5</v>
@@ -11131,7 +11131,7 @@
         <v>23</v>
       </c>
       <c r="AC79" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD79" t="n">
         <v>11</v>
@@ -11152,7 +11152,7 @@
         <v>48</v>
       </c>
       <c r="AJ79" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AK79" t="n">
         <v>170</v>
@@ -11161,10 +11161,10 @@
         <v>160</v>
       </c>
       <c r="AM79" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AN79" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="AO79" t="n">
         <v>12</v>
@@ -11197,16 +11197,16 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="G80" t="n">
         <v>1.54</v>
       </c>
       <c r="H80" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I80" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J80" t="n">
         <v>4.7</v>
@@ -11230,7 +11230,7 @@
         <v>2.42</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R80" t="n">
         <v>0</v>
@@ -11332,10 +11332,10 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="G81" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="H81" t="n">
         <v>2.76</v>
@@ -11362,7 +11362,7 @@
         <v>1.23</v>
       </c>
       <c r="P81" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q81" t="n">
         <v>1.73</v>
@@ -11470,7 +11470,7 @@
         <v>2</v>
       </c>
       <c r="G82" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H82" t="n">
         <v>3.8</v>
@@ -11482,7 +11482,7 @@
         <v>3.7</v>
       </c>
       <c r="K82" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -11500,7 +11500,7 @@
         <v>2.12</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R82" t="n">
         <v>0</v>
@@ -11605,16 +11605,16 @@
         <v>6</v>
       </c>
       <c r="G83" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="H83" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="I83" t="n">
         <v>1.69</v>
       </c>
       <c r="J83" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K83" t="n">
         <v>4.3</v>
@@ -11638,16 +11638,16 @@
         <v>1.92</v>
       </c>
       <c r="R83" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S83" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T83" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U83" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V83" t="n">
         <v>0</v>
@@ -11740,7 +11740,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="G84" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="H84" t="n">
         <v>1.35</v>
@@ -11881,7 +11881,7 @@
         <v>7.6</v>
       </c>
       <c r="I85" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="J85" t="n">
         <v>4.7</v>
@@ -12007,10 +12007,10 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="G86" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="H86" t="n">
         <v>5.1</v>
@@ -12040,7 +12040,7 @@
         <v>2.16</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="R86" t="n">
         <v>0</v>
@@ -12142,13 +12142,13 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="G87" t="n">
         <v>1.49</v>
       </c>
       <c r="H87" t="n">
-        <v>4.8</v>
+        <v>1.04</v>
       </c>
       <c r="I87" t="n">
         <v>1000</v>
@@ -12157,7 +12157,7 @@
         <v>4.4</v>
       </c>
       <c r="K87" t="n">
-        <v>7.8</v>
+        <v>950</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -12172,10 +12172,10 @@
         <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="R87" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-17.xlsx
@@ -676,7 +676,7 @@
         <v>1.76</v>
       </c>
       <c r="I2" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="J2" t="n">
         <v>3.85</v>
@@ -805,7 +805,7 @@
         <v>2.12</v>
       </c>
       <c r="G3" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H3" t="n">
         <v>3.3</v>
@@ -814,7 +814,7 @@
         <v>3.35</v>
       </c>
       <c r="J3" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K3" t="n">
         <v>4.4</v>
@@ -838,16 +838,16 @@
         <v>1.46</v>
       </c>
       <c r="R3" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S3" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="T3" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="U3" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="V3" t="n">
         <v>1.42</v>
@@ -904,10 +904,10 @@
         <v>55</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO3" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -940,7 +940,7 @@
         <v>3.35</v>
       </c>
       <c r="G4" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H4" t="n">
         <v>2.28</v>
@@ -949,7 +949,7 @@
         <v>2.32</v>
       </c>
       <c r="J4" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K4" t="n">
         <v>3.75</v>
@@ -961,25 +961,25 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="R4" t="n">
         <v>1.41</v>
       </c>
       <c r="S4" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T4" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U4" t="n">
         <v>2.24</v>
@@ -988,7 +988,7 @@
         <v>1.76</v>
       </c>
       <c r="W4" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X4" t="n">
         <v>16.5</v>
@@ -1033,7 +1033,7 @@
         <v>38</v>
       </c>
       <c r="AL4" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM4" t="n">
         <v>85</v>
@@ -1210,7 +1210,7 @@
         <v>2.9</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H6" t="n">
         <v>2.38</v>
@@ -1240,13 +1240,13 @@
         <v>2.44</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="R6" t="n">
         <v>1.59</v>
       </c>
       <c r="S6" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="T6" t="n">
         <v>1.56</v>
@@ -1489,19 +1489,19 @@
         <v>2.98</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
         <v>3.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O8" t="n">
         <v>1.3</v>
@@ -1510,19 +1510,19 @@
         <v>1.84</v>
       </c>
       <c r="Q8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U8" t="n">
         <v>1.94</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.1</v>
       </c>
       <c r="V8" t="n">
         <v>1.51</v>
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z8" t="n">
         <v>23</v>
@@ -1549,13 +1549,13 @@
         <v>9.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE8" t="n">
         <v>38</v>
       </c>
       <c r="AF8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG8" t="n">
         <v>15.5</v>
@@ -1576,13 +1576,13 @@
         <v>55</v>
       </c>
       <c r="AM8" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO8" t="n">
         <v>34</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="G9" t="n">
         <v>1000</v>
@@ -1750,7 +1750,7 @@
         <v>1.81</v>
       </c>
       <c r="G10" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H10" t="n">
         <v>4.5</v>
@@ -1759,7 +1759,7 @@
         <v>6</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K10" t="n">
         <v>4</v>
@@ -1780,7 +1780,7 @@
         <v>1.78</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R10" t="n">
         <v>1.24</v>
@@ -1798,7 +1798,7 @@
         <v>1.2</v>
       </c>
       <c r="W10" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="X10" t="n">
         <v>18</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G12" t="n">
         <v>3.8</v>
@@ -2026,10 +2026,10 @@
         <v>2.3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="J12" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K12" t="n">
         <v>3.5</v>
@@ -2290,7 +2290,7 @@
         <v>2.2</v>
       </c>
       <c r="G14" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="H14" t="n">
         <v>3.2</v>
@@ -2299,7 +2299,7 @@
         <v>4.1</v>
       </c>
       <c r="J14" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K14" t="n">
         <v>4.3</v>
@@ -2338,7 +2338,7 @@
         <v>1.32</v>
       </c>
       <c r="W14" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X14" t="n">
         <v>22</v>
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.02</v>
+        <v>2.52</v>
       </c>
       <c r="G15" t="n">
         <v>1000</v>
       </c>
       <c r="H15" t="n">
-        <v>1.02</v>
+        <v>1.43</v>
       </c>
       <c r="I15" t="n">
-        <v>1000</v>
+        <v>1.69</v>
       </c>
       <c r="J15" t="n">
-        <v>1.02</v>
+        <v>2.52</v>
       </c>
       <c r="K15" t="n">
         <v>1000</v>
@@ -2470,7 +2470,7 @@
         <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>1.01</v>
+        <v>2.44</v>
       </c>
       <c r="W15" t="n">
         <v>1.01</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="G18" t="n">
         <v>2.04</v>
@@ -2863,7 +2863,7 @@
         <v>1.61</v>
       </c>
       <c r="R18" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="S18" t="n">
         <v>2.5</v>
@@ -2875,7 +2875,7 @@
         <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W18" t="n">
         <v>1.96</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="G20" t="n">
         <v>3.25</v>
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G21" t="n">
         <v>3.05</v>
       </c>
       <c r="H21" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="I21" t="n">
         <v>2.9</v>
@@ -3256,13 +3256,13 @@
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="O21" t="n">
         <v>1.28</v>
       </c>
       <c r="P21" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q21" t="n">
         <v>1.8</v>
@@ -3280,10 +3280,10 @@
         <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W21" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3391,16 +3391,16 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="O22" t="n">
         <v>1.3</v>
       </c>
       <c r="P22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q22" t="n">
         <v>1.79</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.78</v>
       </c>
       <c r="R22" t="n">
         <v>1.29</v>
@@ -3526,19 +3526,19 @@
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O23" t="n">
         <v>1.18</v>
       </c>
       <c r="P23" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="Q23" t="n">
         <v>1.56</v>
       </c>
       <c r="R23" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="S23" t="n">
         <v>2.36</v>
@@ -3556,7 +3556,7 @@
         <v>1.35</v>
       </c>
       <c r="X23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y23" t="n">
         <v>15</v>
@@ -3577,13 +3577,13 @@
         <v>10.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF23" t="n">
         <v>32</v>
       </c>
       <c r="AG23" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH23" t="n">
         <v>14</v>
@@ -3601,7 +3601,7 @@
         <v>36</v>
       </c>
       <c r="AM23" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AN23" t="n">
         <v>23</v>
@@ -3640,13 +3640,13 @@
         <v>2.62</v>
       </c>
       <c r="G24" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="H24" t="n">
         <v>2.52</v>
       </c>
       <c r="I24" t="n">
-        <v>2.96</v>
+        <v>2.84</v>
       </c>
       <c r="J24" t="n">
         <v>3.55</v>
@@ -3784,7 +3784,7 @@
         <v>3.4</v>
       </c>
       <c r="J25" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K25" t="n">
         <v>3.6</v>
@@ -3820,7 +3820,7 @@
         <v>1.95</v>
       </c>
       <c r="V25" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W25" t="n">
         <v>1.62</v>
@@ -3910,16 +3910,16 @@
         <v>2.36</v>
       </c>
       <c r="G26" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="H26" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I26" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J26" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K26" t="n">
         <v>3.5</v>
@@ -3931,43 +3931,43 @@
         <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O26" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P26" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R26" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S26" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="T26" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="U26" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V26" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W26" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="X26" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y26" t="n">
         <v>13.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA26" t="n">
         <v>65</v>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G27" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="H27" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="I27" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="J27" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K27" t="n">
-        <v>4.9</v>
+        <v>7.2</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
@@ -4090,10 +4090,10 @@
         <v>1.01</v>
       </c>
       <c r="V27" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="W27" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4177,112 +4177,112 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="G28" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="H28" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="I28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J28" t="n">
+        <v>10</v>
+      </c>
+      <c r="K28" t="n">
         <v>10.5</v>
       </c>
-      <c r="K28" t="n">
-        <v>11</v>
-      </c>
       <c r="L28" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="M28" t="n">
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="O28" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="P28" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="R28" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="S28" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="T28" t="n">
         <v>1.97</v>
       </c>
       <c r="U28" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="V28" t="n">
         <v>1.05</v>
       </c>
       <c r="W28" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="X28" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Y28" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Z28" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC28" t="n">
         <v>25</v>
       </c>
       <c r="AD28" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AE28" t="n">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="AF28" t="n">
         <v>10.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH28" t="n">
         <v>40</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ28" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK28" t="n">
         <v>13</v>
       </c>
       <c r="AL28" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN28" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="AO28" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29">
@@ -4348,7 +4348,7 @@
         <v>2.24</v>
       </c>
       <c r="R29" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S29" t="n">
         <v>3.7</v>
@@ -4366,7 +4366,7 @@
         <v>1.53</v>
       </c>
       <c r="X29" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Y29" t="n">
         <v>11</v>
@@ -4459,10 +4459,10 @@
         <v>4.7</v>
       </c>
       <c r="J30" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K30" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4477,19 +4477,19 @@
         <v>1.41</v>
       </c>
       <c r="P30" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R30" t="n">
         <v>1.19</v>
       </c>
       <c r="S30" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T30" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="U30" t="n">
         <v>1.01</v>
@@ -4513,7 +4513,7 @@
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC30" t="n">
         <v>9.800000000000001</v>
@@ -4522,7 +4522,7 @@
         <v>25</v>
       </c>
       <c r="AE30" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF30" t="n">
         <v>18</v>
@@ -4537,7 +4537,7 @@
         <v>100</v>
       </c>
       <c r="AJ30" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AK30" t="n">
         <v>36</v>
@@ -4582,46 +4582,46 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.6</v>
+        <v>2.34</v>
       </c>
       <c r="G31" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="H31" t="n">
-        <v>2.96</v>
+        <v>2.66</v>
       </c>
       <c r="I31" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="J31" t="n">
         <v>2.66</v>
       </c>
       <c r="K31" t="n">
-        <v>3.35</v>
+        <v>5.1</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N31" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="O31" t="n">
-        <v>1.49</v>
+        <v>1.07</v>
       </c>
       <c r="P31" t="n">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="R31" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S31" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="T31" t="n">
         <v>1.84</v>
@@ -4630,10 +4630,10 @@
         <v>1.69</v>
       </c>
       <c r="V31" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="W31" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="X31" t="n">
         <v>11</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="G32" t="n">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="H32" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="I32" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="J32" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="K32" t="n">
-        <v>3.95</v>
+        <v>4.7</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
@@ -4741,7 +4741,7 @@
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="O32" t="n">
         <v>1.01</v>
@@ -4762,13 +4762,13 @@
         <v>1.01</v>
       </c>
       <c r="U32" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="V32" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="W32" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="X32" t="n">
         <v>15</v>
@@ -4780,25 +4780,25 @@
         <v>18</v>
       </c>
       <c r="AA32" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB32" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC32" t="n">
         <v>11</v>
       </c>
       <c r="AD32" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE32" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF32" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AG32" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AH32" t="n">
         <v>30</v>
@@ -4996,10 +4996,10 @@
         <v>2.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K34" t="n">
         <v>3.55</v>
@@ -5008,13 +5008,13 @@
         <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N34" t="n">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="O34" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P34" t="n">
         <v>1.62</v>
@@ -5023,28 +5023,28 @@
         <v>2.34</v>
       </c>
       <c r="R34" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S34" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="T34" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="U34" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V34" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="W34" t="n">
         <v>1.32</v>
       </c>
       <c r="X34" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z34" t="n">
         <v>14.5</v>
@@ -5062,7 +5062,7 @@
         <v>12</v>
       </c>
       <c r="AE34" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AF34" t="n">
         <v>27</v>
@@ -5074,25 +5074,25 @@
         <v>22</v>
       </c>
       <c r="AI34" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK34" t="n">
         <v>55</v>
       </c>
-      <c r="AJ34" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>60</v>
-      </c>
       <c r="AL34" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM34" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AN34" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
@@ -5122,31 +5122,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="G35" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="I35" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="J35" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="K35" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="L35" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M35" t="n">
         <v>1.09</v>
       </c>
       <c r="N35" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="O35" t="n">
         <v>1.45</v>
@@ -5155,58 +5155,58 @@
         <v>1.62</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="R35" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="S35" t="n">
         <v>4.5</v>
       </c>
       <c r="T35" t="n">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="U35" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="V35" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W35" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="X35" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z35" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA35" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="AB35" t="n">
         <v>7.8</v>
       </c>
       <c r="AC35" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD35" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE35" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF35" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG35" t="n">
         <v>13</v>
       </c>
       <c r="AH35" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AI35" t="n">
         <v>140</v>
@@ -5221,13 +5221,13 @@
         <v>65</v>
       </c>
       <c r="AM35" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AN35" t="n">
         <v>20</v>
       </c>
       <c r="AO35" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36">
@@ -5281,13 +5281,13 @@
         <v>1.08</v>
       </c>
       <c r="N36" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="O36" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="P36" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="Q36" t="n">
         <v>2.1</v>
@@ -5347,7 +5347,7 @@
         <v>46</v>
       </c>
       <c r="AJ36" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="n">
         <v>60</v>
@@ -5866,7 +5866,7 @@
         <v>13</v>
       </c>
       <c r="AC40" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD40" t="n">
         <v>29</v>
@@ -5881,7 +5881,7 @@
         <v>15</v>
       </c>
       <c r="AH40" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI40" t="n">
         <v>95</v>
@@ -5944,7 +5944,7 @@
         <v>3.95</v>
       </c>
       <c r="J41" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K41" t="n">
         <v>3.4</v>
@@ -5977,10 +5977,10 @@
         <v>1.01</v>
       </c>
       <c r="U41" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V41" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="W41" t="n">
         <v>1.62</v>
@@ -6079,7 +6079,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="J42" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K42" t="n">
         <v>5</v>
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="G43" t="n">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="H43" t="n">
         <v>6.6</v>
@@ -6223,7 +6223,7 @@
         <v>1.01</v>
       </c>
       <c r="M43" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N43" t="n">
         <v>1.98</v>
@@ -6253,7 +6253,7 @@
         <v>1.11</v>
       </c>
       <c r="W43" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6385,7 +6385,7 @@
         <v>2.1</v>
       </c>
       <c r="V44" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="W44" t="n">
         <v>1.54</v>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="G45" t="n">
         <v>8.4</v>
@@ -6508,7 +6508,7 @@
         <v>1.79</v>
       </c>
       <c r="R45" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S45" t="n">
         <v>3</v>
@@ -6748,7 +6748,7 @@
         <v>2.66</v>
       </c>
       <c r="H47" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I47" t="n">
         <v>3.55</v>
@@ -6802,13 +6802,13 @@
         <v>14.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA47" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB47" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC47" t="n">
         <v>8.6</v>
@@ -6823,10 +6823,10 @@
         <v>20</v>
       </c>
       <c r="AG47" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH47" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI47" t="n">
         <v>65</v>
@@ -6877,16 +6877,16 @@
         </is>
       </c>
       <c r="F48" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="G48" t="n">
         <v>2.52</v>
-      </c>
-      <c r="G48" t="n">
-        <v>2.54</v>
       </c>
       <c r="H48" t="n">
         <v>2.8</v>
       </c>
       <c r="I48" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="J48" t="n">
         <v>3.95</v>
@@ -6928,7 +6928,7 @@
         <v>1.53</v>
       </c>
       <c r="W48" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X48" t="n">
         <v>28</v>
@@ -6970,7 +6970,7 @@
         <v>36</v>
       </c>
       <c r="AK48" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL48" t="n">
         <v>27</v>
@@ -7045,13 +7045,13 @@
         <v>2.2</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R49" t="n">
         <v>1.47</v>
       </c>
       <c r="S49" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T49" t="n">
         <v>1.67</v>
@@ -7069,7 +7069,7 @@
         <v>17.5</v>
       </c>
       <c r="Y49" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z49" t="n">
         <v>25</v>
@@ -7081,7 +7081,7 @@
         <v>12.5</v>
       </c>
       <c r="AC49" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD49" t="n">
         <v>14</v>
@@ -7102,7 +7102,7 @@
         <v>42</v>
       </c>
       <c r="AJ49" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK49" t="n">
         <v>22</v>
@@ -7150,13 +7150,13 @@
         <v>1.35</v>
       </c>
       <c r="G50" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="H50" t="n">
         <v>10.5</v>
       </c>
       <c r="I50" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="J50" t="n">
         <v>5.8</v>
@@ -7183,7 +7183,7 @@
         <v>1.75</v>
       </c>
       <c r="R50" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S50" t="n">
         <v>2.92</v>
@@ -7192,13 +7192,13 @@
         <v>2.18</v>
       </c>
       <c r="U50" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="V50" t="n">
         <v>1.09</v>
       </c>
       <c r="W50" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="X50" t="n">
         <v>19.5</v>
@@ -7246,7 +7246,7 @@
         <v>40</v>
       </c>
       <c r="AM50" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AN50" t="n">
         <v>5.5</v>
@@ -7288,10 +7288,10 @@
         <v>1.73</v>
       </c>
       <c r="H51" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I51" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J51" t="n">
         <v>4.3</v>
@@ -7345,7 +7345,7 @@
         <v>44</v>
       </c>
       <c r="AA51" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB51" t="n">
         <v>11.5</v>
@@ -7462,7 +7462,7 @@
         <v>1.68</v>
       </c>
       <c r="U52" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V52" t="n">
         <v>1.49</v>
@@ -7552,16 +7552,16 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G53" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="H53" t="n">
         <v>5</v>
       </c>
       <c r="I53" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J53" t="n">
         <v>4.1</v>
@@ -7570,7 +7570,7 @@
         <v>4.2</v>
       </c>
       <c r="L53" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M53" t="n">
         <v>1.05</v>
@@ -7582,28 +7582,28 @@
         <v>1.22</v>
       </c>
       <c r="P53" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R53" t="n">
         <v>1.56</v>
       </c>
       <c r="S53" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T53" t="n">
         <v>1.69</v>
       </c>
       <c r="U53" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="V53" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W53" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="X53" t="n">
         <v>20</v>
@@ -7825,13 +7825,13 @@
         <v>3.9</v>
       </c>
       <c r="G55" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H55" t="n">
         <v>1.8</v>
       </c>
       <c r="I55" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="J55" t="n">
         <v>3.75</v>
@@ -7879,7 +7879,7 @@
         <v>24</v>
       </c>
       <c r="Y55" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z55" t="n">
         <v>15.5</v>
@@ -8233,7 +8233,7 @@
         <v>2.3</v>
       </c>
       <c r="H58" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I58" t="n">
         <v>3.75</v>
@@ -8245,7 +8245,7 @@
         <v>3.45</v>
       </c>
       <c r="L58" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="M58" t="n">
         <v>1.08</v>
@@ -8260,7 +8260,7 @@
         <v>1.84</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R58" t="n">
         <v>1.32</v>
@@ -8329,7 +8329,7 @@
         <v>110</v>
       </c>
       <c r="AN58" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO58" t="n">
         <v>48</v>
@@ -8371,7 +8371,7 @@
         <v>4.9</v>
       </c>
       <c r="I59" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J59" t="n">
         <v>4.1</v>
@@ -8380,7 +8380,7 @@
         <v>4.2</v>
       </c>
       <c r="L59" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M59" t="n">
         <v>1.05</v>
@@ -8401,16 +8401,16 @@
         <v>1.47</v>
       </c>
       <c r="S59" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T59" t="n">
         <v>1.79</v>
       </c>
       <c r="U59" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V59" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W59" t="n">
         <v>2.28</v>
@@ -8428,7 +8428,7 @@
         <v>120</v>
       </c>
       <c r="AB59" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC59" t="n">
         <v>8.800000000000001</v>
@@ -8446,7 +8446,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH59" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI59" t="n">
         <v>60</v>
@@ -8497,16 +8497,16 @@
         </is>
       </c>
       <c r="F60" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G60" t="n">
         <v>2.8</v>
       </c>
-      <c r="G60" t="n">
-        <v>2.82</v>
-      </c>
       <c r="H60" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="I60" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="J60" t="n">
         <v>3.25</v>
@@ -8515,13 +8515,13 @@
         <v>3.3</v>
       </c>
       <c r="L60" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M60" t="n">
         <v>1.1</v>
       </c>
       <c r="N60" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O60" t="n">
         <v>1.44</v>
@@ -8545,10 +8545,10 @@
         <v>2</v>
       </c>
       <c r="V60" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="W60" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="X60" t="n">
         <v>10</v>
@@ -8560,10 +8560,10 @@
         <v>17.5</v>
       </c>
       <c r="AA60" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB60" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC60" t="n">
         <v>7</v>
@@ -8572,7 +8572,7 @@
         <v>13</v>
       </c>
       <c r="AE60" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF60" t="n">
         <v>16.5</v>
@@ -8602,7 +8602,7 @@
         <v>36</v>
       </c>
       <c r="AO60" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61">
@@ -8632,10 +8632,10 @@
         </is>
       </c>
       <c r="F61" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G61" t="n">
         <v>1.26</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1.27</v>
       </c>
       <c r="H61" t="n">
         <v>14.5</v>
@@ -8650,19 +8650,19 @@
         <v>7.4</v>
       </c>
       <c r="L61" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M61" t="n">
         <v>1.03</v>
       </c>
       <c r="N61" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O61" t="n">
         <v>1.2</v>
       </c>
       <c r="P61" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="Q61" t="n">
         <v>1.62</v>
@@ -8689,16 +8689,16 @@
         <v>26</v>
       </c>
       <c r="Y61" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Z61" t="n">
         <v>150</v>
       </c>
       <c r="AA61" t="n">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="AB61" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC61" t="n">
         <v>15</v>
@@ -8710,7 +8710,7 @@
         <v>280</v>
       </c>
       <c r="AF61" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AG61" t="n">
         <v>11.5</v>
@@ -8734,7 +8734,7 @@
         <v>210</v>
       </c>
       <c r="AN61" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AO61" t="n">
         <v>360</v>
@@ -8776,7 +8776,7 @@
         <v>2.8</v>
       </c>
       <c r="I62" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J62" t="n">
         <v>3.45</v>
@@ -8809,13 +8809,13 @@
         <v>2.7</v>
       </c>
       <c r="T62" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="U62" t="n">
         <v>2.06</v>
       </c>
       <c r="V62" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W62" t="n">
         <v>1.61</v>
@@ -8926,7 +8926,7 @@
         <v>1.01</v>
       </c>
       <c r="N63" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="O63" t="n">
         <v>1.29</v>
@@ -9037,7 +9037,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G64" t="n">
         <v>3.9</v>
@@ -9067,7 +9067,7 @@
         <v>1.23</v>
       </c>
       <c r="P64" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q64" t="n">
         <v>1.66</v>
@@ -9079,7 +9079,7 @@
         <v>2.68</v>
       </c>
       <c r="T64" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U64" t="n">
         <v>2.34</v>
@@ -9094,16 +9094,16 @@
         <v>21</v>
       </c>
       <c r="Y64" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z64" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA64" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB64" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC64" t="n">
         <v>9.4</v>
@@ -9112,7 +9112,7 @@
         <v>12</v>
       </c>
       <c r="AE64" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF64" t="n">
         <v>29</v>
@@ -9127,7 +9127,7 @@
         <v>34</v>
       </c>
       <c r="AJ64" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK64" t="n">
         <v>40</v>
@@ -9175,7 +9175,7 @@
         <v>2.3</v>
       </c>
       <c r="G65" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="H65" t="n">
         <v>2.82</v>
@@ -9220,7 +9220,7 @@
         <v>1.01</v>
       </c>
       <c r="V65" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="W65" t="n">
         <v>1.59</v>
@@ -9337,13 +9337,13 @@
         <v>1.21</v>
       </c>
       <c r="P66" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="R66" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S66" t="n">
         <v>2.34</v>
@@ -9475,7 +9475,7 @@
         <v>2.2</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R67" t="n">
         <v>1.43</v>
@@ -9712,22 +9712,22 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G69" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H69" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="I69" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="J69" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K69" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L69" t="n">
         <v>1.01</v>
@@ -9772,10 +9772,10 @@
         <v>17</v>
       </c>
       <c r="Z69" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA69" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB69" t="n">
         <v>22</v>
@@ -9787,7 +9787,7 @@
         <v>16</v>
       </c>
       <c r="AE69" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF69" t="n">
         <v>34</v>
@@ -9853,7 +9853,7 @@
         <v>8.6</v>
       </c>
       <c r="H70" t="n">
-        <v>1.35</v>
+        <v>1.15</v>
       </c>
       <c r="I70" t="n">
         <v>1.51</v>
@@ -9862,7 +9862,7 @@
         <v>4.7</v>
       </c>
       <c r="K70" t="n">
-        <v>7.8</v>
+        <v>980</v>
       </c>
       <c r="L70" t="n">
         <v>1.01</v>
@@ -9871,13 +9871,13 @@
         <v>1.01</v>
       </c>
       <c r="N70" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="O70" t="n">
         <v>1.15</v>
       </c>
       <c r="P70" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="Q70" t="n">
         <v>1.38</v>
@@ -9886,7 +9886,7 @@
         <v>1.58</v>
       </c>
       <c r="S70" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="T70" t="n">
         <v>1.01</v>
@@ -9934,7 +9934,7 @@
         <v>32</v>
       </c>
       <c r="AI70" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ70" t="n">
         <v>1000</v>
@@ -9985,16 +9985,16 @@
         <v>2.54</v>
       </c>
       <c r="G71" t="n">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="H71" t="n">
         <v>2.64</v>
       </c>
       <c r="I71" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J71" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K71" t="n">
         <v>3.85</v>
@@ -10033,7 +10033,7 @@
         <v>1.44</v>
       </c>
       <c r="W71" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="X71" t="n">
         <v>21</v>
@@ -10120,13 +10120,13 @@
         <v>3.75</v>
       </c>
       <c r="G72" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="H72" t="n">
         <v>1.73</v>
       </c>
       <c r="I72" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="J72" t="n">
         <v>3.5</v>
@@ -10165,10 +10165,10 @@
         <v>1.01</v>
       </c>
       <c r="V72" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="W72" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X72" t="n">
         <v>1000</v>
@@ -10285,13 +10285,13 @@
         <v>1.92</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R73" t="n">
         <v>1.22</v>
       </c>
       <c r="S73" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="T73" t="n">
         <v>1.01</v>
@@ -10435,7 +10435,7 @@
         <v>1.01</v>
       </c>
       <c r="V74" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="W74" t="n">
         <v>1.83</v>
@@ -10546,7 +10546,7 @@
         <v>1.12</v>
       </c>
       <c r="N75" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="O75" t="n">
         <v>1.52</v>
@@ -10561,10 +10561,10 @@
         <v>1.22</v>
       </c>
       <c r="S75" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="T75" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U75" t="n">
         <v>1.84</v>
@@ -10621,7 +10621,7 @@
         <v>90</v>
       </c>
       <c r="AM75" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN75" t="n">
         <v>85</v>
@@ -10657,7 +10657,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="G76" t="n">
         <v>3.55</v>
@@ -10666,7 +10666,7 @@
         <v>2.42</v>
       </c>
       <c r="I76" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="J76" t="n">
         <v>3.1</v>
@@ -10705,10 +10705,10 @@
         <v>1.01</v>
       </c>
       <c r="V76" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W76" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X76" t="n">
         <v>1000</v>
@@ -10792,7 +10792,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="G77" t="n">
         <v>1.7</v>
@@ -10825,7 +10825,7 @@
         <v>1.81</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="R77" t="n">
         <v>1.3</v>
@@ -10843,7 +10843,7 @@
         <v>1.17</v>
       </c>
       <c r="W77" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="X77" t="n">
         <v>14</v>
@@ -11068,7 +11068,7 @@
         <v>1.57</v>
       </c>
       <c r="H79" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I79" t="n">
         <v>7.2</v>
@@ -11104,7 +11104,7 @@
         <v>1.96</v>
       </c>
       <c r="T79" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="U79" t="n">
         <v>1.01</v>
@@ -11116,7 +11116,7 @@
         <v>2.74</v>
       </c>
       <c r="X79" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y79" t="n">
         <v>38</v>
@@ -11161,7 +11161,7 @@
         <v>25</v>
       </c>
       <c r="AM79" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN79" t="n">
         <v>4.9</v>
@@ -11206,7 +11206,7 @@
         <v>2.22</v>
       </c>
       <c r="I80" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="J80" t="n">
         <v>3.75</v>
@@ -11245,7 +11245,7 @@
         <v>1.01</v>
       </c>
       <c r="V80" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W80" t="n">
         <v>1.43</v>
@@ -11344,7 +11344,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="J81" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="K81" t="n">
         <v>5.1</v>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="G82" t="n">
         <v>1.92</v>
@@ -11479,7 +11479,7 @@
         <v>5.9</v>
       </c>
       <c r="J82" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="K82" t="n">
         <v>4.6</v>
@@ -11500,13 +11500,13 @@
         <v>2.16</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R82" t="n">
         <v>1.18</v>
       </c>
       <c r="S82" t="n">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="T82" t="n">
         <v>1.01</v>
@@ -11539,10 +11539,10 @@
         <v>13.5</v>
       </c>
       <c r="AD82" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AE82" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF82" t="n">
         <v>18</v>
@@ -11560,10 +11560,10 @@
         <v>29</v>
       </c>
       <c r="AK82" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL82" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM82" t="n">
         <v>1000</v>
@@ -11605,16 +11605,16 @@
         <v>3.75</v>
       </c>
       <c r="G83" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H83" t="n">
         <v>2.18</v>
       </c>
       <c r="I83" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="J83" t="n">
-        <v>3.15</v>
+        <v>2.86</v>
       </c>
       <c r="K83" t="n">
         <v>3.5</v>
@@ -11653,7 +11653,7 @@
         <v>1.66</v>
       </c>
       <c r="W83" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X83" t="n">
         <v>1000</v>
@@ -11737,22 +11737,22 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="G84" t="n">
-        <v>15</v>
+        <v>870</v>
       </c>
       <c r="H84" t="n">
-        <v>1.35</v>
+        <v>1.04</v>
       </c>
       <c r="I84" t="n">
-        <v>1.47</v>
+        <v>110</v>
       </c>
       <c r="J84" t="n">
-        <v>3.6</v>
+        <v>1.01</v>
       </c>
       <c r="K84" t="n">
-        <v>5.6</v>
+        <v>950</v>
       </c>
       <c r="L84" t="n">
         <v>1.39</v>
@@ -11785,10 +11785,10 @@
         <v>1.01</v>
       </c>
       <c r="V84" t="n">
-        <v>2.92</v>
+        <v>1.01</v>
       </c>
       <c r="W84" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="X84" t="n">
         <v>23</v>
@@ -11881,7 +11881,7 @@
         <v>2.36</v>
       </c>
       <c r="I85" t="n">
-        <v>2.66</v>
+        <v>2.84</v>
       </c>
       <c r="J85" t="n">
         <v>3.3</v>
@@ -11896,16 +11896,16 @@
         <v>1.01</v>
       </c>
       <c r="N85" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="O85" t="n">
         <v>1.31</v>
       </c>
       <c r="P85" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="R85" t="n">
         <v>1.29</v>
@@ -11923,7 +11923,7 @@
         <v>1.55</v>
       </c>
       <c r="W85" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="X85" t="n">
         <v>1000</v>
@@ -12016,13 +12016,13 @@
         <v>3.1</v>
       </c>
       <c r="I86" t="n">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="J86" t="n">
         <v>2.8</v>
       </c>
       <c r="K86" t="n">
-        <v>950</v>
+        <v>9</v>
       </c>
       <c r="L86" t="n">
         <v>1.01</v>
@@ -12055,7 +12055,7 @@
         <v>1.01</v>
       </c>
       <c r="V86" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="W86" t="n">
         <v>1.61</v>
@@ -12154,7 +12154,7 @@
         <v>4.1</v>
       </c>
       <c r="J87" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="K87" t="n">
         <v>4.7</v>
@@ -12166,7 +12166,7 @@
         <v>1.01</v>
       </c>
       <c r="N87" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="O87" t="n">
         <v>1.48</v>
@@ -12283,16 +12283,16 @@
         <v>4.8</v>
       </c>
       <c r="H88" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I88" t="n">
         <v>2.88</v>
       </c>
       <c r="J88" t="n">
-        <v>2.26</v>
+        <v>2.62</v>
       </c>
       <c r="K88" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L88" t="n">
         <v>1.01</v>
@@ -12301,22 +12301,22 @@
         <v>1.01</v>
       </c>
       <c r="N88" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="O88" t="n">
         <v>1.01</v>
       </c>
       <c r="P88" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R88" t="n">
         <v>1.18</v>
       </c>
       <c r="S88" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T88" t="n">
         <v>1.01</v>
@@ -12412,19 +12412,19 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="G89" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+      <c r="I89" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J89" t="n">
         <v>2.76</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I89" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J89" t="n">
-        <v>3</v>
       </c>
       <c r="K89" t="n">
         <v>3.55</v>
@@ -12436,13 +12436,13 @@
         <v>1.01</v>
       </c>
       <c r="N89" t="n">
-        <v>2.92</v>
+        <v>1.67</v>
       </c>
       <c r="O89" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="P89" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="Q89" t="n">
         <v>2.2</v>
@@ -12451,28 +12451,28 @@
         <v>1.18</v>
       </c>
       <c r="S89" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T89" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U89" t="n">
         <v>1.01</v>
       </c>
       <c r="V89" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="W89" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="X89" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y89" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z89" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AA89" t="n">
         <v>1000</v>
@@ -12490,7 +12490,7 @@
         <v>1000</v>
       </c>
       <c r="AF89" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG89" t="n">
         <v>17.5</v>
@@ -12505,7 +12505,7 @@
         <v>1000</v>
       </c>
       <c r="AK89" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AL89" t="n">
         <v>1000</v>
@@ -12547,22 +12547,22 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="G90" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="H90" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="I90" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="J90" t="n">
         <v>3.3</v>
       </c>
       <c r="K90" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L90" t="n">
         <v>1.01</v>
@@ -12574,7 +12574,7 @@
         <v>3.2</v>
       </c>
       <c r="O90" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P90" t="n">
         <v>1.76</v>
@@ -12592,22 +12592,22 @@
         <v>1.01</v>
       </c>
       <c r="U90" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="V90" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="W90" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="X90" t="n">
         <v>17.5</v>
       </c>
       <c r="Y90" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z90" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA90" t="n">
         <v>1000</v>
@@ -12616,7 +12616,7 @@
         <v>11</v>
       </c>
       <c r="AC90" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD90" t="n">
         <v>23</v>
@@ -12718,10 +12718,10 @@
         <v>1.3</v>
       </c>
       <c r="R91" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="S91" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="T91" t="n">
         <v>1.75</v>
@@ -12751,7 +12751,7 @@
         <v>18</v>
       </c>
       <c r="AC91" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AD91" t="n">
         <v>65</v>
@@ -12826,10 +12826,10 @@
         <v>1.77</v>
       </c>
       <c r="I92" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="J92" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K92" t="n">
         <v>4.7</v>
@@ -12865,7 +12865,7 @@
         <v>1.01</v>
       </c>
       <c r="V92" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="W92" t="n">
         <v>1.23</v>
@@ -12952,10 +12952,10 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="G93" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H93" t="n">
         <v>2.54</v>
@@ -12973,91 +12973,91 @@
         <v>1.01</v>
       </c>
       <c r="M93" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N93" t="n">
-        <v>2.06</v>
+        <v>4.2</v>
       </c>
       <c r="O93" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P93" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="R93" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="S93" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="T93" t="n">
-        <v>1.51</v>
+        <v>1.62</v>
       </c>
       <c r="U93" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="V93" t="n">
         <v>1.54</v>
       </c>
       <c r="W93" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X93" t="n">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="Y93" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="Z93" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE93" t="n">
         <v>28</v>
       </c>
-      <c r="AA93" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB93" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC93" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD93" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE93" t="n">
+      <c r="AF93" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL93" t="n">
         <v>40</v>
       </c>
-      <c r="AF93" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG93" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH93" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI93" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ93" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK93" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL93" t="n">
-        <v>55</v>
-      </c>
       <c r="AM93" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AN93" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AO93" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94">
@@ -13090,7 +13090,7 @@
         <v>1.49</v>
       </c>
       <c r="G94" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="H94" t="n">
         <v>8.199999999999999</v>
@@ -13108,7 +13108,7 @@
         <v>1.42</v>
       </c>
       <c r="M94" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N94" t="n">
         <v>3.55</v>
@@ -13117,10 +13117,10 @@
         <v>1.36</v>
       </c>
       <c r="P94" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R94" t="n">
         <v>1.33</v>
@@ -13138,7 +13138,7 @@
         <v>1.12</v>
       </c>
       <c r="W94" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="X94" t="n">
         <v>13</v>
@@ -13162,7 +13162,7 @@
         <v>34</v>
       </c>
       <c r="AE94" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AF94" t="n">
         <v>7.6</v>
@@ -13192,7 +13192,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AO94" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="95">
@@ -13222,7 +13222,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="G95" t="n">
         <v>13</v>
@@ -13246,16 +13246,16 @@
         <v>1.01</v>
       </c>
       <c r="N95" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="O95" t="n">
         <v>1.01</v>
       </c>
       <c r="P95" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.91</v>
+        <v>1.81</v>
       </c>
       <c r="R95" t="n">
         <v>1.27</v>
@@ -13357,22 +13357,22 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="G96" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="H96" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I96" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J96" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K96" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="L96" t="n">
         <v>1.01</v>
@@ -13381,22 +13381,22 @@
         <v>1.01</v>
       </c>
       <c r="N96" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="O96" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="P96" t="n">
         <v>2.14</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R96" t="n">
-        <v>1.07</v>
+        <v>1.47</v>
       </c>
       <c r="S96" t="n">
-        <v>1.52</v>
+        <v>2.22</v>
       </c>
       <c r="T96" t="n">
         <v>1.01</v>
@@ -13405,16 +13405,16 @@
         <v>1.01</v>
       </c>
       <c r="V96" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W96" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="X96" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y96" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Z96" t="n">
         <v>1000</v>
@@ -13423,37 +13423,37 @@
         <v>1000</v>
       </c>
       <c r="AB96" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC96" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AD96" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AE96" t="n">
         <v>1000</v>
       </c>
       <c r="AF96" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AG96" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH96" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI96" t="n">
         <v>1000</v>
       </c>
       <c r="AJ96" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK96" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL96" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM96" t="n">
         <v>1000</v>
@@ -13492,7 +13492,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="G97" t="n">
         <v>7</v>
@@ -13501,7 +13501,7 @@
         <v>1.57</v>
       </c>
       <c r="I97" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="J97" t="n">
         <v>4.5</v>
@@ -13519,7 +13519,7 @@
         <v>3.95</v>
       </c>
       <c r="O97" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P97" t="n">
         <v>2</v>
@@ -13540,7 +13540,7 @@
         <v>1.92</v>
       </c>
       <c r="V97" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="W97" t="n">
         <v>1.16</v>
@@ -13564,16 +13564,16 @@
         <v>9.6</v>
       </c>
       <c r="AD97" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE97" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF97" t="n">
         <v>55</v>
       </c>
       <c r="AG97" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH97" t="n">
         <v>25</v>
@@ -13582,16 +13582,16 @@
         <v>38</v>
       </c>
       <c r="AJ97" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AK97" t="n">
         <v>110</v>
       </c>
       <c r="AL97" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM97" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN97" t="n">
         <v>130</v>
@@ -13627,13 +13627,13 @@
         </is>
       </c>
       <c r="F98" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G98" t="n">
         <v>5.4</v>
       </c>
-      <c r="G98" t="n">
-        <v>5.5</v>
-      </c>
       <c r="H98" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="I98" t="n">
         <v>1.62</v>
@@ -13660,7 +13660,7 @@
         <v>3.6</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="R98" t="n">
         <v>2.08</v>
@@ -13702,7 +13702,7 @@
         <v>11</v>
       </c>
       <c r="AE98" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF98" t="n">
         <v>65</v>
@@ -13801,7 +13801,7 @@
         <v>1.18</v>
       </c>
       <c r="S99" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="T99" t="n">
         <v>1.01</v>
@@ -13909,19 +13909,19 @@
         <v>14</v>
       </c>
       <c r="J100" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="K100" t="n">
         <v>8</v>
       </c>
       <c r="L100" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="M100" t="n">
         <v>1.01</v>
       </c>
       <c r="N100" t="n">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="O100" t="n">
         <v>1.08</v>
@@ -13930,13 +13930,13 @@
         <v>3.5</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="R100" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S100" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="T100" t="n">
         <v>1.61</v>
@@ -13945,10 +13945,10 @@
         <v>2.08</v>
       </c>
       <c r="V100" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W100" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="X100" t="n">
         <v>1000</v>
@@ -14038,7 +14038,7 @@
         <v>1.85</v>
       </c>
       <c r="H101" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I101" t="n">
         <v>5.8</v>
@@ -14080,7 +14080,7 @@
         <v>1.75</v>
       </c>
       <c r="V101" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W101" t="n">
         <v>2.16</v>
@@ -14134,7 +14134,7 @@
         <v>230</v>
       </c>
       <c r="AN101" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO101" t="n">
         <v>180</v>
@@ -14302,112 +14302,112 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="G103" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="H103" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="I103" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="J103" t="n">
         <v>4.5</v>
       </c>
       <c r="K103" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L103" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M103" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N103" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="O103" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P103" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="Q103" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R103" t="n">
         <v>1.54</v>
       </c>
-      <c r="R103" t="n">
-        <v>0</v>
-      </c>
       <c r="S103" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="T103" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U103" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="V103" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="W103" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="X103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y103" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="104">
@@ -14437,112 +14437,112 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="G104" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="H104" t="n">
         <v>2.62</v>
       </c>
       <c r="I104" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J104" t="n">
         <v>3.15</v>
-      </c>
-      <c r="J104" t="n">
-        <v>3.1</v>
       </c>
       <c r="K104" t="n">
         <v>3.6</v>
       </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M104" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N104" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="O104" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P104" t="n">
         <v>1.75</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R104" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S104" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="T104" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U104" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V104" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="W104" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="X104" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y104" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Z104" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA104" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB104" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC104" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD104" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AE104" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AF104" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AG104" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AH104" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI104" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ104" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AK104" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL104" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="105">
@@ -14590,16 +14590,16 @@
         <v>3.4</v>
       </c>
       <c r="L105" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="M105" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N105" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="O105" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="P105" t="n">
         <v>1.69</v>
@@ -14608,76 +14608,76 @@
         <v>2.24</v>
       </c>
       <c r="R105" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S105" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="T105" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U105" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V105" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="W105" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="X105" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y105" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z105" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AA105" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB105" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC105" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD105" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE105" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AF105" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG105" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH105" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI105" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ105" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AK105" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AL105" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AM105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="106">
@@ -14719,7 +14719,7 @@
         <v>16</v>
       </c>
       <c r="J106" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="K106" t="n">
         <v>7</v>
@@ -14752,7 +14752,7 @@
         <v>2.14</v>
       </c>
       <c r="U106" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="V106" t="n">
         <v>1.06</v>
@@ -14797,7 +14797,7 @@
         <v>210</v>
       </c>
       <c r="AJ106" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AK106" t="n">
         <v>17</v>
@@ -14809,7 +14809,7 @@
         <v>240</v>
       </c>
       <c r="AN106" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO106" t="n">
         <v>430</v>
@@ -14860,7 +14860,7 @@
         <v>3.8</v>
       </c>
       <c r="L107" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M107" t="n">
         <v>1.07</v>
@@ -14872,10 +14872,10 @@
         <v>1.32</v>
       </c>
       <c r="P107" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="R107" t="n">
         <v>1.39</v>
@@ -14890,10 +14890,10 @@
         <v>2.14</v>
       </c>
       <c r="V107" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W107" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="X107" t="n">
         <v>15</v>
@@ -14980,7 +14980,7 @@
         <v>2.74</v>
       </c>
       <c r="G108" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="H108" t="n">
         <v>3</v>
@@ -14995,94 +14995,94 @@
         <v>3.15</v>
       </c>
       <c r="L108" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="M108" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N108" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="O108" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="P108" t="n">
         <v>1.49</v>
       </c>
       <c r="Q108" t="n">
-        <v>2.46</v>
+        <v>2.66</v>
       </c>
       <c r="R108" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S108" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="T108" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U108" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V108" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="W108" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="X108" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y108" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Z108" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA108" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB108" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC108" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD108" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AE108" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF108" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AG108" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH108" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI108" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ108" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AK108" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL108" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM108" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN108" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO108" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="109">
@@ -15112,7 +15112,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G109" t="n">
         <v>3.75</v>
@@ -15121,7 +15121,7 @@
         <v>2.56</v>
       </c>
       <c r="I109" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="J109" t="n">
         <v>2.94</v>
@@ -15130,94 +15130,94 @@
         <v>3.3</v>
       </c>
       <c r="L109" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M109" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N109" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="O109" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="P109" t="n">
         <v>1.56</v>
       </c>
       <c r="Q109" t="n">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="R109" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S109" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="T109" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="U109" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="V109" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="W109" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="X109" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y109" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z109" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AA109" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB109" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC109" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD109" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AE109" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF109" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG109" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AH109" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI109" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AJ109" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AK109" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AL109" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="110">
@@ -15265,16 +15265,16 @@
         <v>6.2</v>
       </c>
       <c r="L110" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M110" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N110" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="O110" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="P110" t="n">
         <v>3</v>
@@ -15283,76 +15283,76 @@
         <v>1.44</v>
       </c>
       <c r="R110" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="S110" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="T110" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="U110" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="V110" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="W110" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="X110" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Y110" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z110" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA110" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AB110" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AC110" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AD110" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE110" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AF110" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AG110" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AH110" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI110" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AJ110" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AK110" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AL110" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM110" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN110" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AO110" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="111">
@@ -15385,22 +15385,22 @@
         <v>2.3</v>
       </c>
       <c r="G111" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="H111" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I111" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J111" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="K111" t="n">
         <v>3.95</v>
       </c>
       <c r="L111" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M111" t="n">
         <v>1.05</v>
@@ -15430,19 +15430,19 @@
         <v>2.42</v>
       </c>
       <c r="V111" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W111" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="X111" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y111" t="n">
         <v>16</v>
       </c>
       <c r="Z111" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA111" t="n">
         <v>55</v>
@@ -15454,16 +15454,16 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD111" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE111" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF111" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG111" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH111" t="n">
         <v>15.5</v>
@@ -15475,19 +15475,19 @@
         <v>32</v>
       </c>
       <c r="AK111" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL111" t="n">
         <v>32</v>
       </c>
       <c r="AM111" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN111" t="n">
         <v>15</v>
       </c>
       <c r="AO111" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112">
@@ -15535,16 +15535,16 @@
         <v>3.5</v>
       </c>
       <c r="L112" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M112" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N112" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="O112" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P112" t="n">
         <v>1.81</v>
@@ -15553,76 +15553,76 @@
         <v>2.08</v>
       </c>
       <c r="R112" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S112" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="T112" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U112" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="V112" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="W112" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="X112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y112" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Z112" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA112" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB112" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC112" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD112" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE112" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AF112" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AG112" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AH112" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI112" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ112" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK112" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AL112" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="113">
@@ -15655,109 +15655,109 @@
         <v>1.99</v>
       </c>
       <c r="G113" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H113" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I113" t="n">
         <v>3.95</v>
       </c>
       <c r="J113" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K113" t="n">
         <v>4.4</v>
       </c>
       <c r="L113" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M113" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N113" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="O113" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="P113" t="n">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="Q113" t="n">
         <v>1.5</v>
       </c>
       <c r="R113" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S113" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="T113" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U113" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V113" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W113" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="X113" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Y113" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Z113" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AA113" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AB113" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC113" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD113" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE113" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AF113" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG113" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH113" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI113" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ113" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK113" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL113" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AM113" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AN113" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO113" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="114">
@@ -15796,16 +15796,16 @@
         <v>1.56</v>
       </c>
       <c r="I114" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="J114" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K114" t="n">
         <v>4.5</v>
       </c>
       <c r="L114" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M114" t="n">
         <v>1.08</v>
@@ -15826,70 +15826,70 @@
         <v>1.31</v>
       </c>
       <c r="S114" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="T114" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="U114" t="n">
         <v>1.78</v>
       </c>
       <c r="V114" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="W114" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="X114" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Y114" t="n">
         <v>7.2</v>
       </c>
       <c r="Z114" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA114" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB114" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AC114" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD114" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE114" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF114" t="n">
-        <v>420</v>
+        <v>65</v>
       </c>
       <c r="AG114" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AH114" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI114" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ114" t="n">
         <v>280</v>
       </c>
       <c r="AK114" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AL114" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AM114" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AN114" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="AO114" t="n">
         <v>9.800000000000001</v>
@@ -16204,7 +16204,7 @@
         <v>2.8</v>
       </c>
       <c r="J117" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K117" t="n">
         <v>3.7</v>
@@ -16222,7 +16222,7 @@
         <v>1.23</v>
       </c>
       <c r="P117" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q117" t="n">
         <v>1.72</v>
@@ -16246,58 +16246,58 @@
         <v>0</v>
       </c>
       <c r="X117" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y117" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z117" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA117" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AB117" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC117" t="n">
         <v>8.4</v>
       </c>
       <c r="AD117" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE117" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF117" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG117" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH117" t="n">
         <v>14.5</v>
       </c>
       <c r="AI117" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AJ117" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK117" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL117" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM117" t="n">
         <v>65</v>
       </c>
       <c r="AN117" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO117" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118">
@@ -16339,7 +16339,7 @@
         <v>4.3</v>
       </c>
       <c r="J118" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K118" t="n">
         <v>3.9</v>
@@ -16462,13 +16462,13 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="G119" t="n">
         <v>6.4</v>
       </c>
       <c r="H119" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="I119" t="n">
         <v>1.68</v>
@@ -16486,28 +16486,28 @@
         <v>1.06</v>
       </c>
       <c r="N119" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="O119" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P119" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="Q119" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R119" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="S119" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T119" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U119" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V119" t="n">
         <v>0</v>
@@ -16516,7 +16516,7 @@
         <v>0</v>
       </c>
       <c r="X119" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y119" t="n">
         <v>8.4</v>
@@ -16525,7 +16525,7 @@
         <v>10</v>
       </c>
       <c r="AA119" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AB119" t="n">
         <v>21</v>
@@ -16567,7 +16567,7 @@
         <v>1000</v>
       </c>
       <c r="AO119" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="120">
@@ -16603,7 +16603,7 @@
         <v>12.5</v>
       </c>
       <c r="H120" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="I120" t="n">
         <v>1.39</v>
@@ -16630,7 +16630,7 @@
         <v>2.2</v>
       </c>
       <c r="Q120" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="R120" t="n">
         <v>0</v>
@@ -17035,7 +17035,7 @@
         <v>2.02</v>
       </c>
       <c r="Q123" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R123" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-17.xlsx
@@ -715,7 +715,7 @@
         <v>2.08</v>
       </c>
       <c r="V2" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="W2" t="n">
         <v>1.23</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.12</v>
       </c>
-      <c r="G3" t="n">
-        <v>2.16</v>
-      </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I3" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J3" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K3" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.23</v>
@@ -844,7 +844,7 @@
         <v>2.14</v>
       </c>
       <c r="T3" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="U3" t="n">
         <v>3.05</v>
@@ -853,61 +853,61 @@
         <v>1.42</v>
       </c>
       <c r="W3" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="X3" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Y3" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Z3" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AJ3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL3" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AM3" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -964,13 +964,13 @@
         <v>4.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
         <v>2.04</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="R4" t="n">
         <v>1.41</v>
@@ -979,10 +979,10 @@
         <v>3.25</v>
       </c>
       <c r="T4" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U4" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V4" t="n">
         <v>1.76</v>
@@ -1042,7 +1042,7 @@
         <v>34</v>
       </c>
       <c r="AO4" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="G6" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
         <v>2.38</v>
@@ -1231,31 +1231,31 @@
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="R6" t="n">
         <v>1.59</v>
       </c>
       <c r="S6" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="T6" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U6" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="V6" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="W6" t="n">
         <v>1.5</v>
@@ -1267,19 +1267,19 @@
         <v>15.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA6" t="n">
         <v>34</v>
       </c>
       <c r="AB6" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AC6" t="n">
         <v>9.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE6" t="n">
         <v>22</v>
@@ -1486,7 +1486,7 @@
         <v>2.58</v>
       </c>
       <c r="I8" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="J8" t="n">
         <v>3.25</v>
@@ -1501,28 +1501,28 @@
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P8" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="R8" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S8" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T8" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U8" t="n">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
         <v>1.51</v>
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z8" t="n">
         <v>23</v>
@@ -1549,13 +1549,13 @@
         <v>9.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE8" t="n">
         <v>38</v>
       </c>
       <c r="AF8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG8" t="n">
         <v>15.5</v>
@@ -1576,13 +1576,13 @@
         <v>55</v>
       </c>
       <c r="AM8" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO8" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>15</v>
+        <v>4.6</v>
       </c>
       <c r="G9" t="n">
         <v>1000</v>
@@ -1621,10 +1621,10 @@
         <v>1.13</v>
       </c>
       <c r="I9" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="J9" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K9" t="n">
         <v>13</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="G10" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="H10" t="n">
         <v>4.5</v>
@@ -1759,7 +1759,7 @@
         <v>6</v>
       </c>
       <c r="J10" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="K10" t="n">
         <v>4</v>
@@ -1768,19 +1768,19 @@
         <v>1.35</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
         <v>1.78</v>
       </c>
       <c r="O10" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="P10" t="n">
         <v>1.78</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R10" t="n">
         <v>1.24</v>
@@ -1798,10 +1798,10 @@
         <v>1.2</v>
       </c>
       <c r="W10" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="X10" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
         <v>23</v>
@@ -1825,13 +1825,13 @@
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG10" t="n">
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
@@ -1894,7 +1894,7 @@
         <v>8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K11" t="n">
         <v>4.4</v>
@@ -2038,25 +2038,25 @@
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>2.58</v>
+        <v>1.58</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.06</v>
       </c>
       <c r="P12" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R12" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="T12" t="n">
         <v>1.69</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G13" t="n">
         <v>2.34</v>
@@ -2299,7 +2299,7 @@
         <v>4.1</v>
       </c>
       <c r="J14" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K14" t="n">
         <v>4.3</v>
@@ -2308,7 +2308,7 @@
         <v>1.29</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
         <v>1.94</v>
@@ -2341,7 +2341,7 @@
         <v>1.6</v>
       </c>
       <c r="X14" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
         <v>20</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.52</v>
+        <v>2.9</v>
       </c>
       <c r="G15" t="n">
         <v>1000</v>
@@ -2431,13 +2431,13 @@
         <v>1.43</v>
       </c>
       <c r="I15" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="J15" t="n">
-        <v>2.52</v>
+        <v>2.74</v>
       </c>
       <c r="K15" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2455,13 +2455,13 @@
         <v>1.24</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="R15" t="n">
         <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="T15" t="n">
         <v>1.01</v>
@@ -2470,46 +2470,46 @@
         <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>2.44</v>
+        <v>2.66</v>
       </c>
       <c r="W15" t="n">
         <v>1.01</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
       <c r="AJ15" t="n">
         <v>1000</v>
@@ -2527,7 +2527,7 @@
         <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -2830,7 +2830,7 @@
         <v>1.97</v>
       </c>
       <c r="G18" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H18" t="n">
         <v>3.85</v>
@@ -2878,7 +2878,7 @@
         <v>1.32</v>
       </c>
       <c r="W18" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="X18" t="n">
         <v>23</v>
@@ -3127,7 +3127,7 @@
         <v>1.27</v>
       </c>
       <c r="P20" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q20" t="n">
         <v>1.78</v>
@@ -3139,7 +3139,7 @@
         <v>3</v>
       </c>
       <c r="T20" t="n">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="U20" t="n">
         <v>2.3</v>
@@ -3151,7 +3151,7 @@
         <v>1.45</v>
       </c>
       <c r="X20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y20" t="n">
         <v>12.5</v>
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="G21" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="H21" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I21" t="n">
         <v>2.9</v>
@@ -3541,7 +3541,7 @@
         <v>1.7</v>
       </c>
       <c r="S23" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="T23" t="n">
         <v>1.53</v>
@@ -3565,7 +3565,7 @@
         <v>16</v>
       </c>
       <c r="AA23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB23" t="n">
         <v>22</v>
@@ -3577,7 +3577,7 @@
         <v>10.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF23" t="n">
         <v>32</v>
@@ -3640,13 +3640,13 @@
         <v>2.62</v>
       </c>
       <c r="G24" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="H24" t="n">
         <v>2.52</v>
       </c>
       <c r="I24" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="J24" t="n">
         <v>3.55</v>
@@ -3919,7 +3919,7 @@
         <v>3.6</v>
       </c>
       <c r="J26" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K26" t="n">
         <v>3.5</v>
@@ -3937,13 +3937,13 @@
         <v>1.41</v>
       </c>
       <c r="P26" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q26" t="n">
         <v>2.2</v>
       </c>
       <c r="R26" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S26" t="n">
         <v>4.1</v>
@@ -3952,7 +3952,7 @@
         <v>1.89</v>
       </c>
       <c r="U26" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="V26" t="n">
         <v>1.38</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="G27" t="n">
         <v>5.4</v>
@@ -4057,7 +4057,7 @@
         <v>3.6</v>
       </c>
       <c r="K27" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="G28" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="H28" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I28" t="n">
         <v>18</v>
       </c>
-      <c r="I28" t="n">
-        <v>19</v>
-      </c>
       <c r="J28" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="K28" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L28" t="n">
         <v>1.19</v>
@@ -4219,19 +4219,19 @@
         <v>1.82</v>
       </c>
       <c r="T28" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="U28" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
         <v>1.05</v>
       </c>
       <c r="W28" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="X28" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Y28" t="n">
         <v>80</v>
@@ -4243,16 +4243,16 @@
         <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AD28" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AE28" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AF28" t="n">
         <v>10.5</v>
@@ -4267,7 +4267,7 @@
         <v>160</v>
       </c>
       <c r="AJ28" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AK28" t="n">
         <v>13</v>
@@ -4276,13 +4276,13 @@
         <v>34</v>
       </c>
       <c r="AM28" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="AO28" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G29" t="n">
         <v>2.88</v>
@@ -4321,7 +4321,7 @@
         <v>2.94</v>
       </c>
       <c r="I29" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J29" t="n">
         <v>3.05</v>
@@ -4357,10 +4357,10 @@
         <v>1.74</v>
       </c>
       <c r="U29" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="V29" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W29" t="n">
         <v>1.53</v>
@@ -4480,16 +4480,16 @@
         <v>1.69</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R30" t="n">
         <v>1.19</v>
       </c>
       <c r="S30" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="T30" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="U30" t="n">
         <v>1.01</v>
@@ -4507,7 +4507,7 @@
         <v>17</v>
       </c>
       <c r="Z30" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AA30" t="n">
         <v>1000</v>
@@ -4522,7 +4522,7 @@
         <v>25</v>
       </c>
       <c r="AE30" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF30" t="n">
         <v>18</v>
@@ -4531,16 +4531,16 @@
         <v>15.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AI30" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ30" t="n">
         <v>38</v>
       </c>
       <c r="AK30" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL30" t="n">
         <v>65</v>
@@ -4582,34 +4582,34 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G31" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="H31" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="I31" t="n">
         <v>3.85</v>
       </c>
       <c r="J31" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="K31" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N31" t="n">
         <v>2.42</v>
       </c>
       <c r="O31" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="P31" t="n">
         <v>1.44</v>
@@ -4618,10 +4618,10 @@
         <v>2.3</v>
       </c>
       <c r="R31" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S31" t="n">
-        <v>3.75</v>
+        <v>2.32</v>
       </c>
       <c r="T31" t="n">
         <v>1.84</v>
@@ -4723,16 +4723,16 @@
         <v>4.5</v>
       </c>
       <c r="H32" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="I32" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="J32" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="K32" t="n">
-        <v>4.7</v>
+        <v>3.95</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
@@ -4741,7 +4741,7 @@
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="O32" t="n">
         <v>1.01</v>
@@ -4750,13 +4750,13 @@
         <v>1.63</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R32" t="n">
         <v>1.18</v>
       </c>
       <c r="S32" t="n">
-        <v>3.35</v>
+        <v>2.14</v>
       </c>
       <c r="T32" t="n">
         <v>1.01</v>
@@ -4765,7 +4765,7 @@
         <v>1.61</v>
       </c>
       <c r="V32" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="W32" t="n">
         <v>1.28</v>
@@ -4780,7 +4780,7 @@
         <v>18</v>
       </c>
       <c r="AA32" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AB32" t="n">
         <v>17.5</v>
@@ -4789,7 +4789,7 @@
         <v>11</v>
       </c>
       <c r="AD32" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE32" t="n">
         <v>40</v>
@@ -4852,13 +4852,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="G33" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="H33" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="I33" t="n">
         <v>500</v>
@@ -4867,7 +4867,7 @@
         <v>5.3</v>
       </c>
       <c r="K33" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
@@ -4876,22 +4876,22 @@
         <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="O33" t="n">
         <v>1.21</v>
       </c>
       <c r="P33" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="Q33" t="n">
         <v>1.58</v>
       </c>
       <c r="R33" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="S33" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T33" t="n">
         <v>1.01</v>
@@ -4903,7 +4903,7 @@
         <v>1.01</v>
       </c>
       <c r="W33" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="X33" t="n">
         <v>1000</v>
@@ -5017,7 +5017,7 @@
         <v>1.42</v>
       </c>
       <c r="P34" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="Q34" t="n">
         <v>2.34</v>
@@ -5089,7 +5089,7 @@
         <v>160</v>
       </c>
       <c r="AN34" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AO34" t="n">
         <v>26</v>
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H35" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="I35" t="n">
         <v>6</v>
       </c>
       <c r="J35" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="K35" t="n">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="L35" t="n">
         <v>1.44</v>
@@ -5149,22 +5149,22 @@
         <v>2.76</v>
       </c>
       <c r="O35" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P35" t="n">
         <v>1.62</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R35" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S35" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T35" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="U35" t="n">
         <v>1.74</v>
@@ -5173,16 +5173,16 @@
         <v>1.2</v>
       </c>
       <c r="W35" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="X35" t="n">
         <v>12.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA35" t="n">
         <v>190</v>
@@ -5194,31 +5194,31 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD35" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE35" t="n">
         <v>120</v>
       </c>
       <c r="AF35" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH35" t="n">
         <v>30</v>
       </c>
       <c r="AI35" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ35" t="n">
         <v>23</v>
       </c>
       <c r="AK35" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL35" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM35" t="n">
         <v>230</v>
@@ -5278,7 +5278,7 @@
         <v>1.43</v>
       </c>
       <c r="M36" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N36" t="n">
         <v>2.6</v>
@@ -5287,22 +5287,22 @@
         <v>1.36</v>
       </c>
       <c r="P36" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="Q36" t="n">
         <v>2.1</v>
       </c>
       <c r="R36" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="S36" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="T36" t="n">
         <v>1.9</v>
       </c>
       <c r="U36" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V36" t="n">
         <v>1.8</v>
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="H37" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I37" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J37" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K37" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -5416,16 +5416,16 @@
         <v>1.1</v>
       </c>
       <c r="N37" t="n">
-        <v>1.64</v>
+        <v>1.97</v>
       </c>
       <c r="O37" t="n">
-        <v>1.12</v>
+        <v>1.44</v>
       </c>
       <c r="P37" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R37" t="n">
         <v>1.23</v>
@@ -5443,7 +5443,7 @@
         <v>1.27</v>
       </c>
       <c r="W37" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X37" t="n">
         <v>12.5</v>
@@ -5458,7 +5458,7 @@
         <v>120</v>
       </c>
       <c r="AB37" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC37" t="n">
         <v>8.199999999999999</v>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G39" t="n">
         <v>2.54</v>
@@ -5674,7 +5674,7 @@
         <v>3.75</v>
       </c>
       <c r="J39" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K39" t="n">
         <v>3.7</v>
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="G40" t="n">
         <v>1.92</v>
@@ -5806,13 +5806,13 @@
         <v>4.8</v>
       </c>
       <c r="I40" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="J40" t="n">
         <v>3.7</v>
       </c>
       <c r="K40" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
@@ -5821,10 +5821,10 @@
         <v>1.05</v>
       </c>
       <c r="N40" t="n">
-        <v>1.98</v>
+        <v>3.35</v>
       </c>
       <c r="O40" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="P40" t="n">
         <v>1.98</v>
@@ -5836,7 +5836,7 @@
         <v>1.32</v>
       </c>
       <c r="S40" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="T40" t="n">
         <v>1.65</v>
@@ -5845,7 +5845,7 @@
         <v>1.01</v>
       </c>
       <c r="V40" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="W40" t="n">
         <v>2.08</v>
@@ -5854,7 +5854,7 @@
         <v>1000</v>
       </c>
       <c r="Y40" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Z40" t="n">
         <v>55</v>
@@ -5869,37 +5869,37 @@
         <v>12.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AE40" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH40" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AI40" t="n">
         <v>95</v>
       </c>
       <c r="AJ40" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK40" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AL40" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM40" t="n">
         <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO40" t="n">
         <v>1000</v>
@@ -6088,7 +6088,7 @@
         <v>1.34</v>
       </c>
       <c r="M42" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N42" t="n">
         <v>2.16</v>
@@ -6121,7 +6121,7 @@
         <v>2.78</v>
       </c>
       <c r="X42" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y42" t="n">
         <v>34</v>
@@ -6217,7 +6217,7 @@
         <v>4.1</v>
       </c>
       <c r="K43" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L43" t="n">
         <v>1.01</v>
@@ -6343,7 +6343,7 @@
         <v>2.86</v>
       </c>
       <c r="H44" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I44" t="n">
         <v>3.05</v>
@@ -6370,7 +6370,7 @@
         <v>1.83</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R44" t="n">
         <v>1.31</v>
@@ -6475,16 +6475,16 @@
         <v>8</v>
       </c>
       <c r="G45" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="H45" t="n">
         <v>1.47</v>
       </c>
       <c r="I45" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="J45" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="K45" t="n">
         <v>5.1</v>
@@ -6520,7 +6520,7 @@
         <v>1.92</v>
       </c>
       <c r="V45" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="W45" t="n">
         <v>1.13</v>
@@ -6538,7 +6538,7 @@
         <v>12.5</v>
       </c>
       <c r="AB45" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC45" t="n">
         <v>10.5</v>
@@ -6610,7 +6610,7 @@
         <v>6.4</v>
       </c>
       <c r="G46" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H46" t="n">
         <v>1.33</v>
@@ -6658,7 +6658,7 @@
         <v>2.68</v>
       </c>
       <c r="W46" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="X46" t="n">
         <v>1000</v>
@@ -6799,7 +6799,7 @@
         <v>1000</v>
       </c>
       <c r="Y47" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z47" t="n">
         <v>29</v>
@@ -6814,7 +6814,7 @@
         <v>8.6</v>
       </c>
       <c r="AD47" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE47" t="n">
         <v>55</v>
@@ -6823,22 +6823,22 @@
         <v>20</v>
       </c>
       <c r="AG47" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH47" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI47" t="n">
         <v>65</v>
       </c>
       <c r="AJ47" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AK47" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL47" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM47" t="n">
         <v>1000</v>
@@ -7147,16 +7147,16 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="G50" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="H50" t="n">
         <v>10.5</v>
       </c>
       <c r="I50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J50" t="n">
         <v>5.8</v>
@@ -7195,10 +7195,10 @@
         <v>1.79</v>
       </c>
       <c r="V50" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W50" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="X50" t="n">
         <v>19.5</v>
@@ -7351,7 +7351,7 @@
         <v>11.5</v>
       </c>
       <c r="AC51" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD51" t="n">
         <v>20</v>
@@ -7417,22 +7417,22 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="G52" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H52" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I52" t="n">
         <v>3.05</v>
       </c>
       <c r="J52" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K52" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L52" t="n">
         <v>1.37</v>
@@ -7468,7 +7468,7 @@
         <v>1.49</v>
       </c>
       <c r="W52" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="X52" t="n">
         <v>17.5</v>
@@ -7552,16 +7552,16 @@
         </is>
       </c>
       <c r="F53" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G53" t="n">
         <v>1.78</v>
       </c>
-      <c r="G53" t="n">
-        <v>1.79</v>
-      </c>
       <c r="H53" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I53" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J53" t="n">
         <v>4.1</v>
@@ -7600,10 +7600,10 @@
         <v>2.4</v>
       </c>
       <c r="V53" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W53" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="X53" t="n">
         <v>20</v>
@@ -7657,7 +7657,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AO53" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54">
@@ -7840,7 +7840,7 @@
         <v>4.6</v>
       </c>
       <c r="L55" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M55" t="n">
         <v>1.04</v>
@@ -7873,7 +7873,7 @@
         <v>1.98</v>
       </c>
       <c r="W55" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X55" t="n">
         <v>24</v>
@@ -8101,7 +8101,7 @@
         <v>1.04</v>
       </c>
       <c r="I57" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="J57" t="n">
         <v>1.02</v>
@@ -8227,10 +8227,10 @@
         </is>
       </c>
       <c r="F58" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G58" t="n">
         <v>2.28</v>
-      </c>
-      <c r="G58" t="n">
-        <v>2.3</v>
       </c>
       <c r="H58" t="n">
         <v>3.7</v>
@@ -8239,10 +8239,10 @@
         <v>3.75</v>
       </c>
       <c r="J58" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K58" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L58" t="n">
         <v>1.47</v>
@@ -8257,13 +8257,13 @@
         <v>1.38</v>
       </c>
       <c r="P58" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R58" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S58" t="n">
         <v>4</v>
@@ -8278,13 +8278,13 @@
         <v>1.36</v>
       </c>
       <c r="W58" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="X58" t="n">
         <v>12</v>
       </c>
       <c r="Y58" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z58" t="n">
         <v>24</v>
@@ -8311,7 +8311,7 @@
         <v>11</v>
       </c>
       <c r="AH58" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI58" t="n">
         <v>60</v>
@@ -8365,7 +8365,7 @@
         <v>1.77</v>
       </c>
       <c r="G59" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="H59" t="n">
         <v>4.9</v>
@@ -8428,7 +8428,7 @@
         <v>120</v>
       </c>
       <c r="AB59" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC59" t="n">
         <v>8.800000000000001</v>
@@ -8500,13 +8500,13 @@
         <v>2.76</v>
       </c>
       <c r="G60" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="H60" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I60" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="J60" t="n">
         <v>3.25</v>
@@ -8530,10 +8530,10 @@
         <v>1.71</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R60" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S60" t="n">
         <v>4.5</v>
@@ -8551,19 +8551,19 @@
         <v>1.56</v>
       </c>
       <c r="X60" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y60" t="n">
         <v>10</v>
       </c>
       <c r="Z60" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AA60" t="n">
         <v>48</v>
       </c>
       <c r="AB60" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC60" t="n">
         <v>7</v>
@@ -8689,13 +8689,13 @@
         <v>26</v>
       </c>
       <c r="Y61" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Z61" t="n">
         <v>150</v>
       </c>
       <c r="AA61" t="n">
-        <v>710</v>
+        <v>730</v>
       </c>
       <c r="AB61" t="n">
         <v>9.4</v>
@@ -8707,7 +8707,7 @@
         <v>55</v>
       </c>
       <c r="AE61" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AF61" t="n">
         <v>7.2</v>
@@ -8776,7 +8776,7 @@
         <v>2.8</v>
       </c>
       <c r="I62" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J62" t="n">
         <v>3.45</v>
@@ -8800,7 +8800,7 @@
         <v>2.04</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R62" t="n">
         <v>1.41</v>
@@ -8809,13 +8809,13 @@
         <v>2.7</v>
       </c>
       <c r="T62" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U62" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V62" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W62" t="n">
         <v>1.61</v>
@@ -8863,7 +8863,7 @@
         <v>32</v>
       </c>
       <c r="AL62" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AM62" t="n">
         <v>95</v>
@@ -8914,7 +8914,7 @@
         <v>4.4</v>
       </c>
       <c r="J63" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K63" t="n">
         <v>4</v>
@@ -8944,7 +8944,7 @@
         <v>2.94</v>
       </c>
       <c r="T63" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="U63" t="n">
         <v>1.74</v>
@@ -9037,7 +9037,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G64" t="n">
         <v>3.9</v>
@@ -9061,7 +9061,7 @@
         <v>1.05</v>
       </c>
       <c r="N64" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O64" t="n">
         <v>1.23</v>
@@ -9115,7 +9115,7 @@
         <v>22</v>
       </c>
       <c r="AF64" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AG64" t="n">
         <v>16</v>
@@ -9181,10 +9181,10 @@
         <v>2.82</v>
       </c>
       <c r="I65" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J65" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K65" t="n">
         <v>4.2</v>
@@ -9220,7 +9220,7 @@
         <v>1.01</v>
       </c>
       <c r="V65" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="W65" t="n">
         <v>1.59</v>
@@ -9331,7 +9331,7 @@
         <v>1.01</v>
       </c>
       <c r="N66" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="O66" t="n">
         <v>1.21</v>
@@ -9343,7 +9343,7 @@
         <v>1.62</v>
       </c>
       <c r="R66" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S66" t="n">
         <v>2.34</v>
@@ -9412,7 +9412,7 @@
         <v>1000</v>
       </c>
       <c r="AO66" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67">
@@ -9484,7 +9484,7 @@
         <v>2.3</v>
       </c>
       <c r="T67" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="U67" t="n">
         <v>1.76</v>
@@ -9547,7 +9547,7 @@
         <v>1000</v>
       </c>
       <c r="AO67" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="68">
@@ -9601,13 +9601,13 @@
         <v>1.01</v>
       </c>
       <c r="N68" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="O68" t="n">
         <v>1.01</v>
       </c>
       <c r="P68" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="Q68" t="n">
         <v>2.04</v>
@@ -9715,16 +9715,16 @@
         <v>3.05</v>
       </c>
       <c r="G69" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H69" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I69" t="n">
         <v>2.44</v>
       </c>
       <c r="J69" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K69" t="n">
         <v>4.3</v>
@@ -9802,7 +9802,7 @@
         <v>44</v>
       </c>
       <c r="AJ69" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK69" t="n">
         <v>48</v>
@@ -9853,7 +9853,7 @@
         <v>8.6</v>
       </c>
       <c r="H70" t="n">
-        <v>1.15</v>
+        <v>1.28</v>
       </c>
       <c r="I70" t="n">
         <v>1.51</v>
@@ -9952,7 +9952,7 @@
         <v>1000</v>
       </c>
       <c r="AO70" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
@@ -9991,7 +9991,7 @@
         <v>2.64</v>
       </c>
       <c r="I71" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J71" t="n">
         <v>3.35</v>
@@ -10030,7 +10030,7 @@
         <v>1.01</v>
       </c>
       <c r="V71" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="W71" t="n">
         <v>1.47</v>
@@ -10276,7 +10276,7 @@
         <v>1.01</v>
       </c>
       <c r="N73" t="n">
-        <v>1.92</v>
+        <v>1.02</v>
       </c>
       <c r="O73" t="n">
         <v>1.24</v>
@@ -10291,7 +10291,7 @@
         <v>1.22</v>
       </c>
       <c r="S73" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="T73" t="n">
         <v>1.01</v>
@@ -10522,7 +10522,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="G75" t="n">
         <v>4.1</v>
@@ -10540,7 +10540,7 @@
         <v>3.2</v>
       </c>
       <c r="L75" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M75" t="n">
         <v>1.12</v>
@@ -10552,19 +10552,19 @@
         <v>1.52</v>
       </c>
       <c r="P75" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="R75" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S75" t="n">
         <v>5.2</v>
       </c>
       <c r="T75" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U75" t="n">
         <v>1.84</v>
@@ -10621,7 +10621,7 @@
         <v>90</v>
       </c>
       <c r="AM75" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN75" t="n">
         <v>85</v>
@@ -10657,16 +10657,16 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G76" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="H76" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I76" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="J76" t="n">
         <v>3.1</v>
@@ -10705,7 +10705,7 @@
         <v>1.01</v>
       </c>
       <c r="V76" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="W76" t="n">
         <v>1.4</v>
@@ -10822,10 +10822,10 @@
         <v>1.36</v>
       </c>
       <c r="P77" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R77" t="n">
         <v>1.3</v>
@@ -10927,7 +10927,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G78" t="n">
         <v>2.34</v>
@@ -11197,7 +11197,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="G80" t="n">
         <v>3.3</v>
@@ -11212,7 +11212,7 @@
         <v>3.75</v>
       </c>
       <c r="K80" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L80" t="n">
         <v>1.01</v>
@@ -11332,7 +11332,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="G81" t="n">
         <v>1.47</v>
@@ -11344,7 +11344,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="J81" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="K81" t="n">
         <v>5.1</v>
@@ -11380,7 +11380,7 @@
         <v>1.9</v>
       </c>
       <c r="V81" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W81" t="n">
         <v>3.1</v>
@@ -11413,7 +11413,7 @@
         <v>8.4</v>
       </c>
       <c r="AG81" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH81" t="n">
         <v>26</v>
@@ -11470,16 +11470,16 @@
         <v>1.75</v>
       </c>
       <c r="G82" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="H82" t="n">
         <v>4.3</v>
       </c>
       <c r="I82" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J82" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="K82" t="n">
         <v>4.6</v>
@@ -11503,10 +11503,10 @@
         <v>1.68</v>
       </c>
       <c r="R82" t="n">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="S82" t="n">
-        <v>1.69</v>
+        <v>2.42</v>
       </c>
       <c r="T82" t="n">
         <v>1.01</v>
@@ -11518,7 +11518,7 @@
         <v>1.2</v>
       </c>
       <c r="W82" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="X82" t="n">
         <v>29</v>
@@ -11605,16 +11605,16 @@
         <v>3.75</v>
       </c>
       <c r="G83" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="H83" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I83" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="J83" t="n">
-        <v>2.86</v>
+        <v>3.15</v>
       </c>
       <c r="K83" t="n">
         <v>3.5</v>
@@ -11650,10 +11650,10 @@
         <v>1.74</v>
       </c>
       <c r="V83" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="W83" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="X83" t="n">
         <v>1000</v>
@@ -11842,7 +11842,7 @@
         <v>1000</v>
       </c>
       <c r="AO84" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="85">
@@ -11896,16 +11896,16 @@
         <v>1.01</v>
       </c>
       <c r="N85" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="O85" t="n">
         <v>1.31</v>
       </c>
       <c r="P85" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="R85" t="n">
         <v>1.29</v>
@@ -11920,7 +11920,7 @@
         <v>1.01</v>
       </c>
       <c r="V85" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W85" t="n">
         <v>1.38</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.98</v>
+        <v>1.04</v>
       </c>
       <c r="G86" t="n">
         <v>2.62</v>
@@ -12016,13 +12016,13 @@
         <v>3.1</v>
       </c>
       <c r="I86" t="n">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="J86" t="n">
         <v>2.8</v>
       </c>
       <c r="K86" t="n">
-        <v>9</v>
+        <v>950</v>
       </c>
       <c r="L86" t="n">
         <v>1.01</v>
@@ -12046,7 +12046,7 @@
         <v>1.18</v>
       </c>
       <c r="S86" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T86" t="n">
         <v>1.01</v>
@@ -12055,7 +12055,7 @@
         <v>1.01</v>
       </c>
       <c r="V86" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="W86" t="n">
         <v>1.61</v>
@@ -12142,10 +12142,10 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="G87" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="H87" t="n">
         <v>2.94</v>
@@ -12157,7 +12157,7 @@
         <v>2.8</v>
       </c>
       <c r="K87" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L87" t="n">
         <v>1.01</v>
@@ -12175,13 +12175,13 @@
         <v>1.51</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R87" t="n">
         <v>1.18</v>
       </c>
       <c r="S87" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="T87" t="n">
         <v>1.01</v>
@@ -12193,7 +12193,7 @@
         <v>1.32</v>
       </c>
       <c r="W87" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X87" t="n">
         <v>1000</v>
@@ -12277,22 +12277,22 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="G88" t="n">
         <v>4.8</v>
       </c>
       <c r="H88" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="I88" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="J88" t="n">
         <v>2.62</v>
       </c>
       <c r="K88" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="L88" t="n">
         <v>1.01</v>
@@ -12301,13 +12301,13 @@
         <v>1.01</v>
       </c>
       <c r="N88" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="O88" t="n">
         <v>1.01</v>
       </c>
       <c r="P88" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="Q88" t="n">
         <v>2.4</v>
@@ -12316,7 +12316,7 @@
         <v>1.18</v>
       </c>
       <c r="S88" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T88" t="n">
         <v>1.01</v>
@@ -12325,10 +12325,10 @@
         <v>1.01</v>
       </c>
       <c r="V88" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W88" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X88" t="n">
         <v>1000</v>
@@ -12436,16 +12436,16 @@
         <v>1.01</v>
       </c>
       <c r="N89" t="n">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="O89" t="n">
         <v>1.01</v>
       </c>
       <c r="P89" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R89" t="n">
         <v>1.18</v>
@@ -12547,10 +12547,10 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="G90" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="H90" t="n">
         <v>3.6</v>
@@ -12559,10 +12559,10 @@
         <v>4.3</v>
       </c>
       <c r="J90" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="K90" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L90" t="n">
         <v>1.01</v>
@@ -12586,28 +12586,28 @@
         <v>1.28</v>
       </c>
       <c r="S90" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T90" t="n">
         <v>1.01</v>
       </c>
       <c r="U90" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V90" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W90" t="n">
         <v>1.7</v>
       </c>
-      <c r="V90" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W90" t="n">
-        <v>1.76</v>
-      </c>
       <c r="X90" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Y90" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Z90" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AA90" t="n">
         <v>1000</v>
@@ -12616,13 +12616,13 @@
         <v>11</v>
       </c>
       <c r="AC90" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD90" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE90" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF90" t="n">
         <v>17</v>
@@ -12631,13 +12631,13 @@
         <v>14.5</v>
       </c>
       <c r="AH90" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AI90" t="n">
         <v>1000</v>
       </c>
       <c r="AJ90" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AK90" t="n">
         <v>32</v>
@@ -12703,13 +12703,13 @@
         <v>1.19</v>
       </c>
       <c r="M91" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N91" t="n">
-        <v>3.45</v>
+        <v>7.2</v>
       </c>
       <c r="O91" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="P91" t="n">
         <v>3.45</v>
@@ -12721,7 +12721,7 @@
         <v>1.86</v>
       </c>
       <c r="S91" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="T91" t="n">
         <v>1.75</v>
@@ -12736,7 +12736,7 @@
         <v>5.2</v>
       </c>
       <c r="X91" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Y91" t="n">
         <v>1000</v>
@@ -12826,10 +12826,10 @@
         <v>1.77</v>
       </c>
       <c r="I92" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="J92" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K92" t="n">
         <v>4.7</v>
@@ -12856,7 +12856,7 @@
         <v>1.55</v>
       </c>
       <c r="S92" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="T92" t="n">
         <v>1.01</v>
@@ -12865,10 +12865,10 @@
         <v>1.01</v>
       </c>
       <c r="V92" t="n">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="W92" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X92" t="n">
         <v>1000</v>
@@ -12952,7 +12952,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="G93" t="n">
         <v>3.15</v>
@@ -12964,16 +12964,16 @@
         <v>2.84</v>
       </c>
       <c r="J93" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K93" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="L93" t="n">
         <v>1.01</v>
       </c>
       <c r="M93" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N93" t="n">
         <v>4.2</v>
@@ -12988,10 +12988,10 @@
         <v>1.78</v>
       </c>
       <c r="R93" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S93" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="T93" t="n">
         <v>1.62</v>
@@ -13054,7 +13054,7 @@
         <v>75</v>
       </c>
       <c r="AN93" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AO93" t="n">
         <v>24</v>
@@ -13087,16 +13087,16 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="G94" t="n">
         <v>1.51</v>
       </c>
       <c r="H94" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="I94" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="J94" t="n">
         <v>4.6</v>
@@ -13105,13 +13105,13 @@
         <v>4.7</v>
       </c>
       <c r="L94" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M94" t="n">
         <v>1.08</v>
       </c>
       <c r="N94" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O94" t="n">
         <v>1.36</v>
@@ -13120,13 +13120,13 @@
         <v>1.88</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R94" t="n">
         <v>1.33</v>
       </c>
       <c r="S94" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T94" t="n">
         <v>2.28</v>
@@ -13135,7 +13135,7 @@
         <v>1.73</v>
       </c>
       <c r="V94" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W94" t="n">
         <v>2.96</v>
@@ -13408,7 +13408,7 @@
         <v>1.18</v>
       </c>
       <c r="W96" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="X96" t="n">
         <v>32</v>
@@ -13459,7 +13459,7 @@
         <v>1000</v>
       </c>
       <c r="AN96" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO96" t="n">
         <v>1000</v>
@@ -13495,7 +13495,7 @@
         <v>6.6</v>
       </c>
       <c r="G97" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="H97" t="n">
         <v>1.57</v>
@@ -13510,13 +13510,13 @@
         <v>4.6</v>
       </c>
       <c r="L97" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="M97" t="n">
         <v>1.06</v>
       </c>
       <c r="N97" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O97" t="n">
         <v>1.31</v>
@@ -13531,7 +13531,7 @@
         <v>1.38</v>
       </c>
       <c r="S97" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T97" t="n">
         <v>2.04</v>
@@ -13543,7 +13543,7 @@
         <v>2.68</v>
       </c>
       <c r="W97" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="X97" t="n">
         <v>15</v>
@@ -13555,7 +13555,7 @@
         <v>8.6</v>
       </c>
       <c r="AA97" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB97" t="n">
         <v>22</v>
@@ -13588,7 +13588,7 @@
         <v>110</v>
       </c>
       <c r="AL97" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AM97" t="n">
         <v>140</v>
@@ -13630,13 +13630,13 @@
         <v>5.3</v>
       </c>
       <c r="G98" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H98" t="n">
         <v>1.61</v>
       </c>
       <c r="I98" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="J98" t="n">
         <v>5</v>
@@ -13645,19 +13645,19 @@
         <v>5.2</v>
       </c>
       <c r="L98" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M98" t="n">
         <v>1.02</v>
       </c>
       <c r="N98" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O98" t="n">
         <v>1.11</v>
       </c>
       <c r="P98" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Q98" t="n">
         <v>1.35</v>
@@ -13666,10 +13666,10 @@
         <v>2.08</v>
       </c>
       <c r="S98" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="T98" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="U98" t="n">
         <v>3</v>
@@ -13804,10 +13804,10 @@
         <v>1.7</v>
       </c>
       <c r="T99" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="U99" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V99" t="n">
         <v>1.68</v>
@@ -13816,7 +13816,7 @@
         <v>1.32</v>
       </c>
       <c r="X99" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y99" t="n">
         <v>1000</v>
@@ -13921,7 +13921,7 @@
         <v>1.01</v>
       </c>
       <c r="N100" t="n">
-        <v>3.55</v>
+        <v>1.01</v>
       </c>
       <c r="O100" t="n">
         <v>1.08</v>
@@ -13930,13 +13930,13 @@
         <v>3.5</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="R100" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S100" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="T100" t="n">
         <v>1.61</v>
@@ -14032,25 +14032,25 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="G101" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="H101" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="I101" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J101" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K101" t="n">
         <v>3.6</v>
       </c>
       <c r="L101" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="M101" t="n">
         <v>1.11</v>
@@ -14065,28 +14065,28 @@
         <v>1.64</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="R101" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S101" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T101" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="U101" t="n">
         <v>1.75</v>
       </c>
       <c r="V101" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W101" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="X101" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y101" t="n">
         <v>14.5</v>
@@ -14095,13 +14095,13 @@
         <v>42</v>
       </c>
       <c r="AA101" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AB101" t="n">
         <v>6.6</v>
       </c>
       <c r="AC101" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD101" t="n">
         <v>24</v>
@@ -14119,10 +14119,10 @@
         <v>27</v>
       </c>
       <c r="AI101" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ101" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK101" t="n">
         <v>24</v>
@@ -14131,13 +14131,13 @@
         <v>55</v>
       </c>
       <c r="AM101" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="AN101" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO101" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="102">
@@ -14173,7 +14173,7 @@
         <v>1.83</v>
       </c>
       <c r="H102" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I102" t="n">
         <v>5.8</v>
@@ -14182,13 +14182,13 @@
         <v>3.55</v>
       </c>
       <c r="K102" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L102" t="n">
         <v>1.46</v>
       </c>
       <c r="M102" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N102" t="n">
         <v>3.2</v>
@@ -14221,7 +14221,7 @@
         <v>2.2</v>
       </c>
       <c r="X102" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y102" t="n">
         <v>22</v>
@@ -14437,19 +14437,19 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G104" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="H104" t="n">
         <v>2.62</v>
       </c>
       <c r="I104" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J104" t="n">
         <v>3.1</v>
-      </c>
-      <c r="J104" t="n">
-        <v>3.15</v>
       </c>
       <c r="K104" t="n">
         <v>3.6</v>
@@ -14485,7 +14485,7 @@
         <v>1.01</v>
       </c>
       <c r="V104" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W104" t="n">
         <v>1.46</v>
@@ -14584,10 +14584,10 @@
         <v>2.76</v>
       </c>
       <c r="J105" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K105" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L105" t="n">
         <v>1.48</v>
@@ -14620,7 +14620,7 @@
         <v>1.01</v>
       </c>
       <c r="V105" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="W105" t="n">
         <v>1.43</v>
@@ -14866,7 +14866,7 @@
         <v>1.07</v>
       </c>
       <c r="N107" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O107" t="n">
         <v>1.32</v>
@@ -14902,7 +14902,7 @@
         <v>16</v>
       </c>
       <c r="Z107" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA107" t="n">
         <v>110</v>
@@ -14932,13 +14932,13 @@
         <v>70</v>
       </c>
       <c r="AJ107" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK107" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL107" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AM107" t="n">
         <v>120</v>
@@ -15007,7 +15007,7 @@
         <v>1.55</v>
       </c>
       <c r="P108" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="Q108" t="n">
         <v>2.66</v>
@@ -15031,7 +15031,7 @@
         <v>1.53</v>
       </c>
       <c r="X108" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Y108" t="n">
         <v>11.5</v>
@@ -15043,34 +15043,34 @@
         <v>70</v>
       </c>
       <c r="AB108" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC108" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD108" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AE108" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF108" t="n">
         <v>21</v>
       </c>
       <c r="AG108" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AH108" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI108" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ108" t="n">
         <v>65</v>
       </c>
       <c r="AK108" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AL108" t="n">
         <v>1000</v>
@@ -15160,7 +15160,7 @@
         <v>1.83</v>
       </c>
       <c r="V109" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W109" t="n">
         <v>1.38</v>
@@ -15184,31 +15184,31 @@
         <v>10</v>
       </c>
       <c r="AD109" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AE109" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF109" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AG109" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AH109" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI109" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ109" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AK109" t="n">
         <v>70</v>
       </c>
       <c r="AL109" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM109" t="n">
         <v>1000</v>
@@ -15256,7 +15256,7 @@
         <v>1.41</v>
       </c>
       <c r="I110" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="J110" t="n">
         <v>5.4</v>
@@ -15283,10 +15283,10 @@
         <v>1.44</v>
       </c>
       <c r="R110" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S110" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T110" t="n">
         <v>1.68</v>
@@ -15325,7 +15325,7 @@
         <v>14</v>
       </c>
       <c r="AF110" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AG110" t="n">
         <v>30</v>
@@ -15346,10 +15346,10 @@
         <v>70</v>
       </c>
       <c r="AM110" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN110" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AO110" t="n">
         <v>4.4</v>
@@ -15397,7 +15397,7 @@
         <v>3.8</v>
       </c>
       <c r="K111" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L111" t="n">
         <v>1.32</v>
@@ -15433,7 +15433,7 @@
         <v>1.43</v>
       </c>
       <c r="W111" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="X111" t="n">
         <v>21</v>
@@ -15541,7 +15541,7 @@
         <v>1.08</v>
       </c>
       <c r="N112" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O112" t="n">
         <v>1.36</v>
@@ -15556,13 +15556,13 @@
         <v>1.25</v>
       </c>
       <c r="S112" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T112" t="n">
         <v>1.01</v>
       </c>
       <c r="U112" t="n">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="V112" t="n">
         <v>1.47</v>
@@ -15655,13 +15655,13 @@
         <v>1.99</v>
       </c>
       <c r="G113" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H113" t="n">
         <v>3.65</v>
       </c>
       <c r="I113" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="J113" t="n">
         <v>3.65</v>
@@ -15676,10 +15676,10 @@
         <v>1.01</v>
       </c>
       <c r="N113" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="O113" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P113" t="n">
         <v>2.68</v>
@@ -15688,76 +15688,76 @@
         <v>1.5</v>
       </c>
       <c r="R113" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S113" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="T113" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="U113" t="n">
-        <v>1.01</v>
+        <v>2.54</v>
       </c>
       <c r="V113" t="n">
         <v>1.33</v>
       </c>
       <c r="W113" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X113" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z113" t="n">
         <v>36</v>
       </c>
-      <c r="Y113" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z113" t="n">
-        <v>44</v>
-      </c>
       <c r="AA113" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AB113" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK113" t="n">
         <v>20</v>
       </c>
-      <c r="AC113" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD113" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE113" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF113" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG113" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH113" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI113" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ113" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK113" t="n">
-        <v>23</v>
-      </c>
       <c r="AL113" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AM113" t="n">
         <v>55</v>
       </c>
       <c r="AN113" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO113" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114">
@@ -15790,10 +15790,10 @@
         <v>7.4</v>
       </c>
       <c r="G114" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H114" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="I114" t="n">
         <v>1.57</v>
@@ -15805,7 +15805,7 @@
         <v>4.5</v>
       </c>
       <c r="L114" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M114" t="n">
         <v>1.08</v>
@@ -15829,7 +15829,7 @@
         <v>3.8</v>
       </c>
       <c r="T114" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="U114" t="n">
         <v>1.78</v>
@@ -15838,7 +15838,7 @@
         <v>2.74</v>
       </c>
       <c r="W114" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="X114" t="n">
         <v>13</v>
@@ -15847,13 +15847,13 @@
         <v>7.2</v>
       </c>
       <c r="Z114" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AA114" t="n">
         <v>13.5</v>
       </c>
       <c r="AB114" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC114" t="n">
         <v>9.4</v>
@@ -15868,7 +15868,7 @@
         <v>65</v>
       </c>
       <c r="AG114" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH114" t="n">
         <v>27</v>
@@ -15886,13 +15886,13 @@
         <v>140</v>
       </c>
       <c r="AM114" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AN114" t="n">
         <v>230</v>
       </c>
       <c r="AO114" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115">
@@ -15922,112 +15922,112 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="G115" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="H115" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="I115" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="J115" t="n">
         <v>4.6</v>
       </c>
       <c r="K115" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L115" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M115" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N115" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O115" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P115" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q115" t="n">
         <v>1.59</v>
       </c>
       <c r="R115" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="S115" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="T115" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U115" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="V115" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W115" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="X115" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Y115" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Z115" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AA115" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB115" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC115" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD115" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AE115" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF115" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AG115" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH115" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI115" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AJ115" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AK115" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AL115" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM115" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN115" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AO115" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="116">
@@ -16057,7 +16057,7 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="G116" t="n">
         <v>3.25</v>
@@ -16066,25 +16066,25 @@
         <v>2.28</v>
       </c>
       <c r="I116" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="J116" t="n">
         <v>3.8</v>
       </c>
       <c r="K116" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L116" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M116" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N116" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="O116" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P116" t="n">
         <v>2.38</v>
@@ -16093,76 +16093,76 @@
         <v>1.63</v>
       </c>
       <c r="R116" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="S116" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="T116" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U116" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V116" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="W116" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X116" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y116" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z116" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA116" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AB116" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AC116" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AD116" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE116" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF116" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AG116" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH116" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI116" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AJ116" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AK116" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AL116" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM116" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN116" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO116" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="117">
@@ -16195,10 +16195,10 @@
         <v>2.72</v>
       </c>
       <c r="G117" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="H117" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="I117" t="n">
         <v>2.8</v>
@@ -16210,7 +16210,7 @@
         <v>3.7</v>
       </c>
       <c r="L117" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M117" t="n">
         <v>1.05</v>
@@ -16240,10 +16240,10 @@
         <v>2.58</v>
       </c>
       <c r="V117" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="W117" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="X117" t="n">
         <v>18.5</v>
@@ -16345,16 +16345,16 @@
         <v>3.9</v>
       </c>
       <c r="L118" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M118" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N118" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="O118" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P118" t="n">
         <v>2.06</v>
@@ -16363,76 +16363,76 @@
         <v>1.81</v>
       </c>
       <c r="R118" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S118" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="T118" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U118" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V118" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W118" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="X118" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y118" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z118" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AA118" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB118" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC118" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD118" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AE118" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF118" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AG118" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH118" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI118" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ118" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK118" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL118" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM118" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN118" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO118" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="119">
@@ -16480,7 +16480,7 @@
         <v>4.3</v>
       </c>
       <c r="L119" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M119" t="n">
         <v>1.06</v>
@@ -16492,7 +16492,7 @@
         <v>1.32</v>
       </c>
       <c r="P119" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q119" t="n">
         <v>1.94</v>
@@ -16501,7 +16501,7 @@
         <v>1.37</v>
       </c>
       <c r="S119" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T119" t="n">
         <v>1.95</v>
@@ -16510,61 +16510,61 @@
         <v>1.98</v>
       </c>
       <c r="V119" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="W119" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="X119" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y119" t="n">
         <v>8.4</v>
       </c>
       <c r="Z119" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA119" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AB119" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AC119" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD119" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE119" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF119" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG119" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH119" t="n">
         <v>23</v>
       </c>
       <c r="AI119" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ119" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AK119" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AL119" t="n">
         <v>90</v>
       </c>
       <c r="AM119" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN119" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AO119" t="n">
         <v>10.5</v>
@@ -16600,10 +16600,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="G120" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="H120" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="I120" t="n">
         <v>1.39</v>
@@ -16612,7 +16612,7 @@
         <v>5.4</v>
       </c>
       <c r="K120" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L120" t="n">
         <v>0</v>
@@ -16735,7 +16735,7 @@
         <v>1.36</v>
       </c>
       <c r="G121" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H121" t="n">
         <v>7.6</v>
@@ -16744,22 +16744,22 @@
         <v>12.5</v>
       </c>
       <c r="J121" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="K121" t="n">
         <v>5.5</v>
       </c>
       <c r="L121" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M121" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N121" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="O121" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P121" t="n">
         <v>1.94</v>
@@ -16768,76 +16768,76 @@
         <v>1.85</v>
       </c>
       <c r="R121" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S121" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="T121" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U121" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V121" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="W121" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="X121" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Y121" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="Z121" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA121" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB121" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC121" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AD121" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AE121" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF121" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG121" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH121" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AI121" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ121" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AK121" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AL121" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM121" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN121" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO121" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="122">
@@ -17137,7 +17137,7 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="G124" t="n">
         <v>1.38</v>
@@ -17155,16 +17155,16 @@
         <v>10.5</v>
       </c>
       <c r="L124" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M124" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N124" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="O124" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P124" t="n">
         <v>2.34</v>
@@ -17173,76 +17173,76 @@
         <v>1.46</v>
       </c>
       <c r="R124" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="S124" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="T124" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U124" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V124" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="W124" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="X124" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Y124" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z124" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA124" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB124" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC124" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AD124" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE124" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF124" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AG124" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AH124" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AI124" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ124" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AK124" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL124" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM124" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN124" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO124" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-17.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="G2" t="n">
         <v>5.4</v>
       </c>
       <c r="H2" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="I2" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="J2" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K2" t="n">
         <v>4.3</v>
@@ -697,31 +697,31 @@
         <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q2" t="n">
         <v>1.92</v>
       </c>
       <c r="R2" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S2" t="n">
         <v>3.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U2" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="W2" t="n">
         <v>1.23</v>
       </c>
       <c r="X2" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="Y2" t="n">
         <v>9.800000000000001</v>
@@ -730,10 +730,10 @@
         <v>12</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AB2" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AC2" t="n">
         <v>9.4</v>
@@ -757,7 +757,7 @@
         <v>970</v>
       </c>
       <c r="AJ2" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AK2" t="n">
         <v>70</v>
@@ -766,13 +766,13 @@
         <v>70</v>
       </c>
       <c r="AM2" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN2" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AO2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -805,7 +805,7 @@
         <v>2.1</v>
       </c>
       <c r="G3" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H3" t="n">
         <v>3.35</v>
@@ -814,7 +814,7 @@
         <v>3.4</v>
       </c>
       <c r="J3" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K3" t="n">
         <v>4.5</v>
@@ -844,16 +844,16 @@
         <v>2.14</v>
       </c>
       <c r="T3" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="U3" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W3" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="X3" t="n">
         <v>30</v>
@@ -862,10 +862,10 @@
         <v>25</v>
       </c>
       <c r="Z3" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB3" t="n">
         <v>18.5</v>
@@ -874,13 +874,13 @@
         <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
         <v>30</v>
       </c>
       <c r="AF3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG3" t="n">
         <v>12</v>
@@ -889,22 +889,22 @@
         <v>14.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ3" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AK3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL3" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AM3" t="n">
         <v>48</v>
       </c>
       <c r="AN3" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AO3" t="n">
         <v>17</v>
@@ -940,22 +940,22 @@
         <v>3.35</v>
       </c>
       <c r="G4" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H4" t="n">
         <v>2.28</v>
       </c>
       <c r="I4" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K4" t="n">
         <v>3.75</v>
       </c>
       <c r="L4" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
@@ -964,22 +964,22 @@
         <v>4.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="R4" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="S4" t="n">
         <v>3.25</v>
       </c>
       <c r="T4" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U4" t="n">
         <v>2.26</v>
@@ -988,19 +988,19 @@
         <v>1.76</v>
       </c>
       <c r="W4" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X4" t="n">
         <v>16.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
         <v>15.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB4" t="n">
         <v>14.5</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="G6" t="n">
         <v>3</v>
@@ -1216,7 +1216,7 @@
         <v>2.38</v>
       </c>
       <c r="I6" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
@@ -1240,19 +1240,19 @@
         <v>2.46</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R6" t="n">
         <v>1.59</v>
       </c>
       <c r="S6" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="T6" t="n">
         <v>1.57</v>
       </c>
       <c r="U6" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="V6" t="n">
         <v>1.71</v>
@@ -1261,10 +1261,10 @@
         <v>1.5</v>
       </c>
       <c r="X6" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z6" t="n">
         <v>18.5</v>
@@ -1273,7 +1273,7 @@
         <v>34</v>
       </c>
       <c r="AB6" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC6" t="n">
         <v>9.4</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="G8" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="H8" t="n">
-        <v>2.58</v>
+        <v>2.44</v>
       </c>
       <c r="I8" t="n">
-        <v>2.96</v>
+        <v>3.25</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.8</v>
+        <v>5.3</v>
       </c>
       <c r="L8" t="n">
         <v>1.4</v>
@@ -1504,13 +1504,13 @@
         <v>3.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
         <v>1.86</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R8" t="n">
         <v>1.33</v>
@@ -1519,22 +1519,22 @@
         <v>3.35</v>
       </c>
       <c r="T8" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="V8" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="W8" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="X8" t="n">
         <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z8" t="n">
         <v>23</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.6</v>
+        <v>17</v>
       </c>
       <c r="G9" t="n">
         <v>1000</v>
@@ -1627,7 +1627,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1750,10 +1750,10 @@
         <v>1.83</v>
       </c>
       <c r="G10" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
-        <v>4.5</v>
+        <v>3.85</v>
       </c>
       <c r="I10" t="n">
         <v>6</v>
@@ -1762,7 +1762,7 @@
         <v>3.2</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="L10" t="n">
         <v>1.35</v>
@@ -1771,22 +1771,22 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>1.78</v>
+        <v>1.66</v>
       </c>
       <c r="O10" t="n">
         <v>1.05</v>
       </c>
       <c r="P10" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="R10" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S10" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T10" t="n">
         <v>1.01</v>
@@ -1798,10 +1798,10 @@
         <v>1.2</v>
       </c>
       <c r="W10" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y10" t="n">
         <v>23</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="G11" t="n">
-        <v>1.74</v>
+        <v>1.9</v>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="I11" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="J11" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>4.4</v>
+        <v>7.2</v>
       </c>
       <c r="L11" t="n">
         <v>1.33</v>
@@ -1906,22 +1906,22 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="O11" t="n">
         <v>1.01</v>
       </c>
       <c r="P11" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="R11" t="n">
         <v>1.16</v>
       </c>
       <c r="S11" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T11" t="n">
         <v>1.01</v>
@@ -1933,7 +1933,7 @@
         <v>1.16</v>
       </c>
       <c r="W11" t="n">
-        <v>2.34</v>
+        <v>2.12</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="G12" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="H12" t="n">
         <v>2.3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>2.78</v>
       </c>
       <c r="K12" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2041,34 +2041,34 @@
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="O12" t="n">
         <v>1.06</v>
       </c>
       <c r="P12" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="R12" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S12" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T12" t="n">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="U12" t="n">
         <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="W12" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="X12" t="n">
         <v>11</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.08</v>
+        <v>1.66</v>
       </c>
       <c r="G13" t="n">
-        <v>2.34</v>
+        <v>6.6</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I13" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="J13" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2287,46 +2287,46 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="G14" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I14" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="J14" t="n">
         <v>3.2</v>
       </c>
       <c r="K14" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="L14" t="n">
         <v>1.29</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="O14" t="n">
         <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R14" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S14" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T14" t="n">
         <v>1.01</v>
@@ -2335,13 +2335,13 @@
         <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="W14" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y14" t="n">
         <v>20</v>
@@ -2356,7 +2356,7 @@
         <v>15.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD14" t="n">
         <v>21</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.9</v>
+        <v>2.74</v>
       </c>
       <c r="G15" t="n">
         <v>1000</v>
@@ -2431,10 +2431,10 @@
         <v>1.43</v>
       </c>
       <c r="I15" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="J15" t="n">
-        <v>2.74</v>
+        <v>2.64</v>
       </c>
       <c r="K15" t="n">
         <v>32</v>
@@ -2470,7 +2470,7 @@
         <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>2.66</v>
+        <v>2.52</v>
       </c>
       <c r="W15" t="n">
         <v>1.01</v>
@@ -2482,7 +2482,7 @@
         <v>28</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA15" t="n">
         <v>36</v>
@@ -2506,10 +2506,10 @@
         <v>150</v>
       </c>
       <c r="AH15" t="n">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="AI15" t="n">
-        <v>470</v>
+        <v>420</v>
       </c>
       <c r="AJ15" t="n">
         <v>1000</v>
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="G18" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H18" t="n">
         <v>3.85</v>
@@ -2878,61 +2878,61 @@
         <v>1.32</v>
       </c>
       <c r="W18" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="X18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y18" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Z18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL18" t="n">
         <v>34</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AM18" t="n">
         <v>80</v>
       </c>
-      <c r="AB18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG18" t="n">
+      <c r="AN18" t="n">
         <v>11.5</v>
       </c>
-      <c r="AH18" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AO18" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2995,7 +2995,7 @@
         <v>2.16</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R19" t="n">
         <v>1.47</v>
@@ -3025,22 +3025,22 @@
         <v>34</v>
       </c>
       <c r="AA19" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB19" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
         <v>10</v>
       </c>
       <c r="AD19" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
         <v>48</v>
       </c>
       <c r="AF19" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
         <v>12.5</v>
@@ -3061,7 +3061,7 @@
         <v>46</v>
       </c>
       <c r="AM19" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN19" t="n">
         <v>1000</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="G20" t="n">
         <v>3.25</v>
@@ -3109,10 +3109,10 @@
         <v>2.52</v>
       </c>
       <c r="J20" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K20" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L20" t="n">
         <v>1.35</v>
@@ -3139,28 +3139,28 @@
         <v>3</v>
       </c>
       <c r="T20" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="U20" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V20" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="W20" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X20" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Y20" t="n">
         <v>12.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA20" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB20" t="n">
         <v>14.5</v>
@@ -3169,13 +3169,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD20" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE20" t="n">
         <v>25</v>
       </c>
       <c r="AF20" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AG20" t="n">
         <v>13.5</v>
@@ -3187,7 +3187,7 @@
         <v>36</v>
       </c>
       <c r="AJ20" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="n">
         <v>34</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="G21" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="H21" t="n">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="I21" t="n">
-        <v>2.9</v>
+        <v>3.35</v>
       </c>
       <c r="J21" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>3.85</v>
+        <v>4.8</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3265,10 +3265,10 @@
         <v>1.94</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R21" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="S21" t="n">
         <v>2.66</v>
@@ -3280,10 +3280,10 @@
         <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="W21" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3367,25 +3367,25 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="G22" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H22" t="n">
         <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J22" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="K22" t="n">
         <v>5.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M22" t="n">
         <v>1.01</v>
@@ -3400,13 +3400,13 @@
         <v>1.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R22" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S22" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="T22" t="n">
         <v>1.01</v>
@@ -3415,10 +3415,10 @@
         <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W22" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="X22" t="n">
         <v>20</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G23" t="n">
         <v>3.8</v>
-      </c>
-      <c r="G23" t="n">
-        <v>3.85</v>
       </c>
       <c r="H23" t="n">
         <v>2.04</v>
@@ -3550,7 +3550,7 @@
         <v>2.8</v>
       </c>
       <c r="V23" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="W23" t="n">
         <v>1.35</v>
@@ -3565,7 +3565,7 @@
         <v>16</v>
       </c>
       <c r="AA23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB23" t="n">
         <v>22</v>
@@ -3583,7 +3583,7 @@
         <v>32</v>
       </c>
       <c r="AG23" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH23" t="n">
         <v>14</v>
@@ -3595,13 +3595,13 @@
         <v>70</v>
       </c>
       <c r="AK23" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL23" t="n">
         <v>36</v>
       </c>
       <c r="AM23" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AN23" t="n">
         <v>23</v>
@@ -3637,31 +3637,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="G24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J24" t="n">
         <v>3.1</v>
       </c>
-      <c r="H24" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.55</v>
-      </c>
       <c r="K24" t="n">
-        <v>4.1</v>
+        <v>5.6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M24" t="n">
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O24" t="n">
         <v>1.25</v>
@@ -3676,19 +3676,19 @@
         <v>1.38</v>
       </c>
       <c r="S24" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="T24" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="U24" t="n">
         <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="W24" t="n">
-        <v>1.51</v>
+        <v>1.4</v>
       </c>
       <c r="X24" t="n">
         <v>28</v>
@@ -3778,13 +3778,13 @@
         <v>2.6</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="I25" t="n">
         <v>3.4</v>
       </c>
       <c r="J25" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K25" t="n">
         <v>3.6</v>
@@ -3805,7 +3805,7 @@
         <v>1.69</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R25" t="n">
         <v>1.26</v>
@@ -3820,16 +3820,16 @@
         <v>1.95</v>
       </c>
       <c r="V25" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W25" t="n">
         <v>1.62</v>
       </c>
       <c r="X25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y25" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Z25" t="n">
         <v>22</v>
@@ -3838,7 +3838,7 @@
         <v>60</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AC25" t="n">
         <v>7.8</v>
@@ -3853,10 +3853,10 @@
         <v>17</v>
       </c>
       <c r="AG25" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AH25" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AI25" t="n">
         <v>60</v>
@@ -3865,7 +3865,7 @@
         <v>42</v>
       </c>
       <c r="AK25" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AL25" t="n">
         <v>70</v>
@@ -3874,7 +3874,7 @@
         <v>150</v>
       </c>
       <c r="AN25" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AO25" t="n">
         <v>46</v>
@@ -3907,19 +3907,19 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="G26" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H26" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J26" t="n">
         <v>3.2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.15</v>
       </c>
       <c r="K26" t="n">
         <v>3.5</v>
@@ -3937,7 +3937,7 @@
         <v>1.41</v>
       </c>
       <c r="P26" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q26" t="n">
         <v>2.2</v>
@@ -3955,22 +3955,22 @@
         <v>1.92</v>
       </c>
       <c r="V26" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W26" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="X26" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y26" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA26" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AB26" t="n">
         <v>11</v>
@@ -3979,37 +3979,37 @@
         <v>9</v>
       </c>
       <c r="AD26" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE26" t="n">
         <v>50</v>
       </c>
       <c r="AF26" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI26" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ26" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK26" t="n">
         <v>32</v>
       </c>
       <c r="AL26" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM26" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN26" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO26" t="n">
         <v>55</v>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G27" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="H27" t="n">
         <v>1.75</v>
       </c>
       <c r="I27" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="J27" t="n">
         <v>3.6</v>
       </c>
       <c r="K27" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
@@ -4066,19 +4066,19 @@
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="O27" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P27" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="R27" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="S27" t="n">
         <v>2.48</v>
@@ -4090,10 +4090,10 @@
         <v>1.01</v>
       </c>
       <c r="V27" t="n">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="W27" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4183,16 +4183,16 @@
         <v>1.2</v>
       </c>
       <c r="H28" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="I28" t="n">
         <v>17.5</v>
-      </c>
-      <c r="I28" t="n">
-        <v>18</v>
       </c>
       <c r="J28" t="n">
         <v>9.6</v>
       </c>
       <c r="K28" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="L28" t="n">
         <v>1.19</v>
@@ -4201,7 +4201,7 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O28" t="n">
         <v>1.1</v>
@@ -4213,19 +4213,19 @@
         <v>1.32</v>
       </c>
       <c r="R28" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="S28" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="T28" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V28" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W28" t="n">
         <v>6</v>
@@ -4243,16 +4243,16 @@
         <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AD28" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AE28" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AF28" t="n">
         <v>10.5</v>
@@ -4261,28 +4261,28 @@
         <v>13</v>
       </c>
       <c r="AH28" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AI28" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ28" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AK28" t="n">
         <v>13</v>
       </c>
       <c r="AL28" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN28" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AO28" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29">
@@ -4312,10 +4312,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="G29" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="H29" t="n">
         <v>2.94</v>
@@ -4324,7 +4324,7 @@
         <v>3.15</v>
       </c>
       <c r="J29" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="K29" t="n">
         <v>3.4</v>
@@ -4336,25 +4336,25 @@
         <v>1.09</v>
       </c>
       <c r="N29" t="n">
-        <v>1.66</v>
+        <v>1.25</v>
       </c>
       <c r="O29" t="n">
         <v>1.43</v>
       </c>
       <c r="P29" t="n">
-        <v>1.66</v>
+        <v>1.25</v>
       </c>
       <c r="Q29" t="n">
         <v>2.24</v>
       </c>
       <c r="R29" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="S29" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T29" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U29" t="n">
         <v>1.8</v>
@@ -4363,7 +4363,7 @@
         <v>1.46</v>
       </c>
       <c r="W29" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X29" t="n">
         <v>11.5</v>
@@ -4447,61 +4447,61 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G30" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H30" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I30" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="J30" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K30" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M30" t="n">
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="O30" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="P30" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="R30" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S30" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="T30" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="U30" t="n">
         <v>1.01</v>
       </c>
       <c r="V30" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="W30" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X30" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y30" t="n">
         <v>17</v>
@@ -4540,7 +4540,7 @@
         <v>38</v>
       </c>
       <c r="AK30" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL30" t="n">
         <v>65</v>
@@ -4582,19 +4582,19 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="G31" t="n">
         <v>3.15</v>
       </c>
       <c r="H31" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="I31" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="J31" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="K31" t="n">
         <v>4.9</v>
@@ -4606,13 +4606,13 @@
         <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="O31" t="n">
         <v>1.01</v>
       </c>
       <c r="P31" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q31" t="n">
         <v>2.3</v>
@@ -4621,37 +4621,37 @@
         <v>1.18</v>
       </c>
       <c r="S31" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="T31" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="U31" t="n">
         <v>1.69</v>
       </c>
       <c r="V31" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="W31" t="n">
         <v>1.46</v>
       </c>
       <c r="X31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y31" t="n">
         <v>11</v>
       </c>
-      <c r="Y31" t="n">
-        <v>11.5</v>
-      </c>
       <c r="Z31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA31" t="n">
         <v>75</v>
       </c>
       <c r="AB31" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD31" t="n">
         <v>17.5</v>
@@ -4663,31 +4663,31 @@
         <v>21</v>
       </c>
       <c r="AG31" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI31" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ31" t="n">
         <v>60</v>
       </c>
       <c r="AK31" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AL31" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO31" t="n">
         <v>75</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>70</v>
       </c>
     </row>
     <row r="32">
@@ -4717,40 +4717,40 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G32" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="H32" t="n">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="I32" t="n">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="J32" t="n">
         <v>2.94</v>
       </c>
       <c r="K32" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M32" t="n">
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="O32" t="n">
         <v>1.01</v>
       </c>
       <c r="P32" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R32" t="n">
         <v>1.18</v>
@@ -4759,19 +4759,19 @@
         <v>2.14</v>
       </c>
       <c r="T32" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="U32" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="V32" t="n">
-        <v>1.78</v>
+        <v>1.69</v>
       </c>
       <c r="W32" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X32" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y32" t="n">
         <v>11</v>
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="G33" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I33" t="n">
         <v>500</v>
       </c>
       <c r="J33" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="K33" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
@@ -4876,22 +4876,22 @@
         <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="O33" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P33" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="R33" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="S33" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="T33" t="n">
         <v>1.01</v>
@@ -4903,7 +4903,7 @@
         <v>1.01</v>
       </c>
       <c r="W33" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="X33" t="n">
         <v>1000</v>
@@ -4990,22 +4990,22 @@
         <v>3.5</v>
       </c>
       <c r="G34" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H34" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="I34" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="J34" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K34" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M34" t="n">
         <v>1.09</v>
@@ -5026,7 +5026,7 @@
         <v>1.24</v>
       </c>
       <c r="S34" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="T34" t="n">
         <v>1.89</v>
@@ -5035,10 +5035,10 @@
         <v>1.91</v>
       </c>
       <c r="V34" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="W34" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="X34" t="n">
         <v>13</v>
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="G35" t="n">
         <v>1.95</v>
       </c>
       <c r="H35" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I35" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="J35" t="n">
         <v>3.3</v>
@@ -5140,94 +5140,94 @@
         <v>3.85</v>
       </c>
       <c r="L35" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N35" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="O35" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P35" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="R35" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="S35" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="T35" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="U35" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="V35" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W35" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X35" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Z35" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AA35" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="AB35" t="n">
         <v>7.8</v>
       </c>
       <c r="AC35" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD35" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE35" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AF35" t="n">
         <v>10.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH35" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AI35" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AJ35" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK35" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL35" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM35" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="AN35" t="n">
         <v>20</v>
       </c>
       <c r="AO35" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36">
@@ -5278,22 +5278,22 @@
         <v>1.43</v>
       </c>
       <c r="M36" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>2.6</v>
+        <v>1.25</v>
       </c>
       <c r="O36" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P36" t="n">
-        <v>1.64</v>
+        <v>1.25</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="R36" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S36" t="n">
         <v>3.45</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="G37" t="n">
         <v>2.2</v>
@@ -5401,7 +5401,7 @@
         <v>4</v>
       </c>
       <c r="I37" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J37" t="n">
         <v>3.25</v>
@@ -5416,7 +5416,7 @@
         <v>1.1</v>
       </c>
       <c r="N37" t="n">
-        <v>1.97</v>
+        <v>2.82</v>
       </c>
       <c r="O37" t="n">
         <v>1.44</v>
@@ -5434,67 +5434,67 @@
         <v>4.4</v>
       </c>
       <c r="T37" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="U37" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="V37" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W37" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X37" t="n">
         <v>12.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA37" t="n">
         <v>120</v>
       </c>
       <c r="AB37" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC37" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD37" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE37" t="n">
         <v>75</v>
       </c>
       <c r="AF37" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI37" t="n">
         <v>95</v>
       </c>
       <c r="AJ37" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AK37" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AL37" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM37" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AN37" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AO37" t="n">
         <v>110</v>
@@ -5662,46 +5662,46 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="G39" t="n">
-        <v>2.54</v>
+        <v>2.8</v>
       </c>
       <c r="H39" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="I39" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="J39" t="n">
-        <v>3.25</v>
+        <v>2.96</v>
       </c>
       <c r="K39" t="n">
-        <v>3.7</v>
+        <v>5.2</v>
       </c>
       <c r="L39" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M39" t="n">
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="O39" t="n">
         <v>1.01</v>
       </c>
       <c r="P39" t="n">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="R39" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S39" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T39" t="n">
         <v>1.01</v>
@@ -5710,10 +5710,10 @@
         <v>1.01</v>
       </c>
       <c r="V39" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="W39" t="n">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5800,16 +5800,16 @@
         <v>1.83</v>
       </c>
       <c r="G40" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="H40" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="I40" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="J40" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K40" t="n">
         <v>4</v>
@@ -5821,22 +5821,22 @@
         <v>1.05</v>
       </c>
       <c r="N40" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="O40" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="P40" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R40" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S40" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="T40" t="n">
         <v>1.65</v>
@@ -5845,64 +5845,64 @@
         <v>1.01</v>
       </c>
       <c r="V40" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="W40" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="X40" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AA40" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB40" t="n">
-        <v>13</v>
+        <v>9.6</v>
       </c>
       <c r="AC40" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="AD40" t="n">
         <v>24</v>
       </c>
       <c r="AE40" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AF40" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH40" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AI40" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AJ40" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AK40" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AL40" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM40" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN40" t="n">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO40" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41">
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="G41" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="H41" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I41" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="J41" t="n">
         <v>3.2</v>
       </c>
       <c r="K41" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
@@ -5956,19 +5956,19 @@
         <v>1.01</v>
       </c>
       <c r="N41" t="n">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="O41" t="n">
         <v>1.02</v>
       </c>
       <c r="P41" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.36</v>
+        <v>2.18</v>
       </c>
       <c r="R41" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S41" t="n">
         <v>3.9</v>
@@ -5980,19 +5980,19 @@
         <v>1.76</v>
       </c>
       <c r="V41" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="W41" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="X41" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z41" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA41" t="n">
         <v>95</v>
@@ -6019,13 +6019,13 @@
         <v>29</v>
       </c>
       <c r="AI41" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AJ41" t="n">
         <v>50</v>
       </c>
       <c r="AK41" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AL41" t="n">
         <v>75</v>
@@ -6070,19 +6070,19 @@
         <v>1.48</v>
       </c>
       <c r="G42" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="H42" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I42" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J42" t="n">
         <v>4.5</v>
       </c>
       <c r="K42" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L42" t="n">
         <v>1.34</v>
@@ -6103,10 +6103,10 @@
         <v>1.75</v>
       </c>
       <c r="R42" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S42" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="T42" t="n">
         <v>1.01</v>
@@ -6115,13 +6115,13 @@
         <v>1.01</v>
       </c>
       <c r="V42" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W42" t="n">
         <v>2.78</v>
       </c>
       <c r="X42" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y42" t="n">
         <v>34</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="G43" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="H43" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="I43" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J43" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K43" t="n">
         <v>4.7</v>
@@ -6223,22 +6223,22 @@
         <v>1.01</v>
       </c>
       <c r="M43" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N43" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="O43" t="n">
         <v>1.3</v>
       </c>
       <c r="P43" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="R43" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S43" t="n">
         <v>2.8</v>
@@ -6247,13 +6247,13 @@
         <v>1.01</v>
       </c>
       <c r="U43" t="n">
-        <v>1.75</v>
+        <v>1.01</v>
       </c>
       <c r="V43" t="n">
         <v>1.11</v>
       </c>
       <c r="W43" t="n">
-        <v>2.62</v>
+        <v>2.44</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6340,19 +6340,19 @@
         <v>2.68</v>
       </c>
       <c r="G44" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="H44" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="I44" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J44" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K44" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L44" t="n">
         <v>1.43</v>
@@ -6367,7 +6367,7 @@
         <v>1.35</v>
       </c>
       <c r="P44" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="Q44" t="n">
         <v>2.04</v>
@@ -6379,16 +6379,16 @@
         <v>3.6</v>
       </c>
       <c r="T44" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U44" t="n">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="V44" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W44" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X44" t="n">
         <v>15</v>
@@ -6427,7 +6427,7 @@
         <v>46</v>
       </c>
       <c r="AJ44" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK44" t="n">
         <v>32</v>
@@ -6472,16 +6472,16 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="G45" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="H45" t="n">
         <v>1.47</v>
       </c>
       <c r="I45" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="J45" t="n">
         <v>4.9</v>
@@ -6610,7 +6610,7 @@
         <v>6.4</v>
       </c>
       <c r="G46" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H46" t="n">
         <v>1.33</v>
@@ -6619,7 +6619,7 @@
         <v>1.58</v>
       </c>
       <c r="J46" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="K46" t="n">
         <v>10.5</v>
@@ -6640,10 +6640,10 @@
         <v>2.06</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R46" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S46" t="n">
         <v>2.32</v>
@@ -6763,28 +6763,28 @@
         <v>1.01</v>
       </c>
       <c r="M47" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N47" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O47" t="n">
         <v>1.39</v>
       </c>
       <c r="P47" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q47" t="n">
         <v>2.12</v>
       </c>
       <c r="R47" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S47" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T47" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="U47" t="n">
         <v>1.01</v>
@@ -6796,25 +6796,25 @@
         <v>1.6</v>
       </c>
       <c r="X47" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y47" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z47" t="n">
         <v>29</v>
       </c>
       <c r="AA47" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AB47" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AD47" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE47" t="n">
         <v>55</v>
@@ -6823,22 +6823,22 @@
         <v>20</v>
       </c>
       <c r="AG47" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH47" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI47" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ47" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK47" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL47" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM47" t="n">
         <v>1000</v>
@@ -6907,13 +6907,13 @@
         <v>1.17</v>
       </c>
       <c r="P48" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Q48" t="n">
         <v>1.53</v>
       </c>
       <c r="R48" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="S48" t="n">
         <v>2.3</v>
@@ -6934,16 +6934,16 @@
         <v>28</v>
       </c>
       <c r="Y48" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z48" t="n">
         <v>24</v>
       </c>
       <c r="AA48" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AB48" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC48" t="n">
         <v>9.800000000000001</v>
@@ -7015,7 +7015,7 @@
         <v>2.28</v>
       </c>
       <c r="G49" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H49" t="n">
         <v>3.35</v>
@@ -7042,16 +7042,16 @@
         <v>1.26</v>
       </c>
       <c r="P49" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R49" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S49" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="T49" t="n">
         <v>1.67</v>
@@ -7102,7 +7102,7 @@
         <v>42</v>
       </c>
       <c r="AJ49" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK49" t="n">
         <v>22</v>
@@ -7150,19 +7150,19 @@
         <v>1.36</v>
       </c>
       <c r="G50" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="H50" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="I50" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="J50" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K50" t="n">
         <v>5.8</v>
-      </c>
-      <c r="K50" t="n">
-        <v>5.9</v>
       </c>
       <c r="L50" t="n">
         <v>1.33</v>
@@ -7180,7 +7180,7 @@
         <v>2.28</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R50" t="n">
         <v>1.51</v>
@@ -7195,10 +7195,10 @@
         <v>1.79</v>
       </c>
       <c r="V50" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W50" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="X50" t="n">
         <v>19.5</v>
@@ -7249,7 +7249,7 @@
         <v>190</v>
       </c>
       <c r="AN50" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AO50" t="n">
         <v>270</v>
@@ -7282,10 +7282,10 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="G51" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="H51" t="n">
         <v>5.3</v>
@@ -7297,7 +7297,7 @@
         <v>4.3</v>
       </c>
       <c r="K51" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L51" t="n">
         <v>1.31</v>
@@ -7312,7 +7312,7 @@
         <v>1.21</v>
       </c>
       <c r="P51" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q51" t="n">
         <v>1.64</v>
@@ -7333,7 +7333,7 @@
         <v>1.22</v>
       </c>
       <c r="W51" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="X51" t="n">
         <v>21</v>
@@ -7345,7 +7345,7 @@
         <v>44</v>
       </c>
       <c r="AA51" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB51" t="n">
         <v>11.5</v>
@@ -7366,7 +7366,7 @@
         <v>10</v>
       </c>
       <c r="AH51" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI51" t="n">
         <v>55</v>
@@ -7465,7 +7465,7 @@
         <v>2.38</v>
       </c>
       <c r="V52" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="W52" t="n">
         <v>1.63</v>
@@ -7480,7 +7480,7 @@
         <v>21</v>
       </c>
       <c r="AA52" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AB52" t="n">
         <v>12.5</v>
@@ -7495,7 +7495,7 @@
         <v>32</v>
       </c>
       <c r="AF52" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG52" t="n">
         <v>12</v>
@@ -7504,25 +7504,25 @@
         <v>16</v>
       </c>
       <c r="AI52" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AJ52" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AK52" t="n">
         <v>26</v>
       </c>
       <c r="AL52" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AM52" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AN52" t="n">
         <v>18.5</v>
       </c>
       <c r="AO52" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53">
@@ -7552,10 +7552,10 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G53" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="H53" t="n">
         <v>5.1</v>
@@ -7588,22 +7588,22 @@
         <v>1.69</v>
       </c>
       <c r="R53" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="S53" t="n">
         <v>2.74</v>
       </c>
       <c r="T53" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U53" t="n">
         <v>2.4</v>
       </c>
       <c r="V53" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W53" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="X53" t="n">
         <v>20</v>
@@ -7654,10 +7654,10 @@
         <v>75</v>
       </c>
       <c r="AN53" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AO53" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54">
@@ -7825,7 +7825,7 @@
         <v>3.9</v>
       </c>
       <c r="G55" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="H55" t="n">
         <v>1.8</v>
@@ -7873,61 +7873,61 @@
         <v>1.98</v>
       </c>
       <c r="W55" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG55" t="n">
         <v>24</v>
       </c>
-      <c r="Y55" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB55" t="n">
+      <c r="AH55" t="n">
         <v>23</v>
       </c>
-      <c r="AC55" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF55" t="n">
+      <c r="AI55" t="n">
         <v>40</v>
       </c>
-      <c r="AG55" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>34</v>
-      </c>
       <c r="AJ55" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AK55" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AL55" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM55" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AN55" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AO55" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="56">
@@ -8233,7 +8233,7 @@
         <v>2.28</v>
       </c>
       <c r="H58" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I58" t="n">
         <v>3.75</v>
@@ -8254,22 +8254,22 @@
         <v>3.55</v>
       </c>
       <c r="O58" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P58" t="n">
         <v>1.86</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R58" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S58" t="n">
         <v>4</v>
       </c>
       <c r="T58" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U58" t="n">
         <v>2.1</v>
@@ -8293,7 +8293,7 @@
         <v>70</v>
       </c>
       <c r="AB58" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC58" t="n">
         <v>7.4</v>
@@ -8302,7 +8302,7 @@
         <v>15</v>
       </c>
       <c r="AE58" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF58" t="n">
         <v>13</v>
@@ -8320,7 +8320,7 @@
         <v>29</v>
       </c>
       <c r="AK58" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL58" t="n">
         <v>42</v>
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G59" t="n">
         <v>1.79</v>
@@ -8395,7 +8395,7 @@
         <v>2.18</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R59" t="n">
         <v>1.47</v>
@@ -8413,10 +8413,10 @@
         <v>1.25</v>
       </c>
       <c r="W59" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="X59" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y59" t="n">
         <v>19.5</v>
@@ -8428,7 +8428,7 @@
         <v>120</v>
       </c>
       <c r="AB59" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC59" t="n">
         <v>8.800000000000001</v>
@@ -8497,16 +8497,16 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="G60" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="H60" t="n">
-        <v>2.98</v>
+        <v>2.88</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J60" t="n">
         <v>3.25</v>
@@ -8530,7 +8530,7 @@
         <v>1.71</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R60" t="n">
         <v>1.26</v>
@@ -8539,31 +8539,31 @@
         <v>4.5</v>
       </c>
       <c r="T60" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U60" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="V60" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W60" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="X60" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y60" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Z60" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA60" t="n">
         <v>48</v>
       </c>
       <c r="AB60" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC60" t="n">
         <v>7</v>
@@ -8572,13 +8572,13 @@
         <v>13</v>
       </c>
       <c r="AE60" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF60" t="n">
         <v>16.5</v>
       </c>
       <c r="AG60" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH60" t="n">
         <v>19.5</v>
@@ -8590,7 +8590,7 @@
         <v>44</v>
       </c>
       <c r="AK60" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL60" t="n">
         <v>55</v>
@@ -8599,10 +8599,10 @@
         <v>130</v>
       </c>
       <c r="AN60" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AO60" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61">
@@ -8632,10 +8632,10 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="G61" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="H61" t="n">
         <v>14.5</v>
@@ -8695,7 +8695,7 @@
         <v>150</v>
       </c>
       <c r="AA61" t="n">
-        <v>730</v>
+        <v>690</v>
       </c>
       <c r="AB61" t="n">
         <v>9.4</v>
@@ -8707,7 +8707,7 @@
         <v>55</v>
       </c>
       <c r="AE61" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AF61" t="n">
         <v>7.2</v>
@@ -8719,7 +8719,7 @@
         <v>38</v>
       </c>
       <c r="AI61" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AJ61" t="n">
         <v>9</v>
@@ -8767,22 +8767,22 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="G62" t="n">
-        <v>2.62</v>
+        <v>2.76</v>
       </c>
       <c r="H62" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="I62" t="n">
         <v>3.35</v>
       </c>
       <c r="J62" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="K62" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="L62" t="n">
         <v>1.27</v>
@@ -8806,19 +8806,19 @@
         <v>1.41</v>
       </c>
       <c r="S62" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="T62" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="U62" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="V62" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="W62" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="X62" t="n">
         <v>21</v>
@@ -8863,7 +8863,7 @@
         <v>32</v>
       </c>
       <c r="AL62" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AM62" t="n">
         <v>95</v>
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="G63" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H63" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="I63" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="J63" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K63" t="n">
-        <v>4</v>
+        <v>6.8</v>
       </c>
       <c r="L63" t="n">
         <v>1.01</v>
@@ -8932,13 +8932,13 @@
         <v>1.29</v>
       </c>
       <c r="P63" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.91</v>
+        <v>1.79</v>
       </c>
       <c r="R63" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S63" t="n">
         <v>2.94</v>
@@ -8947,13 +8947,13 @@
         <v>1.53</v>
       </c>
       <c r="U63" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="V63" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W63" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="X63" t="n">
         <v>21</v>
@@ -9037,7 +9037,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G64" t="n">
         <v>3.9</v>
@@ -9046,10 +9046,10 @@
         <v>2.04</v>
       </c>
       <c r="I64" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="J64" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K64" t="n">
         <v>4.2</v>
@@ -9082,58 +9082,58 @@
         <v>1.6</v>
       </c>
       <c r="U64" t="n">
-        <v>2.34</v>
+        <v>2.2</v>
       </c>
       <c r="V64" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="W64" t="n">
         <v>1.34</v>
       </c>
       <c r="X64" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y64" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z64" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AA64" t="n">
         <v>27</v>
       </c>
       <c r="AB64" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC64" t="n">
         <v>9.4</v>
       </c>
       <c r="AD64" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE64" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AF64" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AG64" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AH64" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AI64" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ64" t="n">
         <v>70</v>
       </c>
       <c r="AK64" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL64" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM64" t="n">
         <v>70</v>
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.3</v>
+        <v>2.12</v>
       </c>
       <c r="G65" t="n">
-        <v>2.62</v>
+        <v>2.9</v>
       </c>
       <c r="H65" t="n">
-        <v>2.82</v>
+        <v>2.54</v>
       </c>
       <c r="I65" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="J65" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="K65" t="n">
-        <v>4.2</v>
+        <v>7.4</v>
       </c>
       <c r="L65" t="n">
         <v>1.01</v>
@@ -9208,10 +9208,10 @@
         <v>1.69</v>
       </c>
       <c r="R65" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S65" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="T65" t="n">
         <v>1.01</v>
@@ -9220,10 +9220,10 @@
         <v>1.01</v>
       </c>
       <c r="V65" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="W65" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="X65" t="n">
         <v>1000</v>
@@ -9325,7 +9325,7 @@
         <v>4.9</v>
       </c>
       <c r="L66" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M66" t="n">
         <v>1.01</v>
@@ -9343,10 +9343,10 @@
         <v>1.62</v>
       </c>
       <c r="R66" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S66" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="T66" t="n">
         <v>1.01</v>
@@ -9361,7 +9361,7 @@
         <v>1.2</v>
       </c>
       <c r="X66" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y66" t="n">
         <v>15.5</v>
@@ -9442,22 +9442,22 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="G67" t="n">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="H67" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="I67" t="n">
         <v>1.65</v>
       </c>
       <c r="J67" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="K67" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L67" t="n">
         <v>1.01</v>
@@ -9466,40 +9466,40 @@
         <v>1.01</v>
       </c>
       <c r="N67" t="n">
-        <v>2.2</v>
+        <v>1.44</v>
       </c>
       <c r="O67" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P67" t="n">
-        <v>2.2</v>
+        <v>1.44</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="R67" t="n">
         <v>1.43</v>
       </c>
       <c r="S67" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="T67" t="n">
-        <v>1.54</v>
+        <v>1.66</v>
       </c>
       <c r="U67" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="V67" t="n">
         <v>2.52</v>
       </c>
       <c r="W67" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="X67" t="n">
         <v>30</v>
       </c>
       <c r="Y67" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z67" t="n">
         <v>15</v>
@@ -9577,22 +9577,22 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="G68" t="n">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="H68" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="I68" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J68" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="K68" t="n">
-        <v>3.75</v>
+        <v>5.3</v>
       </c>
       <c r="L68" t="n">
         <v>1.36</v>
@@ -9610,25 +9610,25 @@
         <v>1.6</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="R68" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S68" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T68" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="U68" t="n">
         <v>1.01</v>
       </c>
       <c r="V68" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="W68" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="X68" t="n">
         <v>16</v>
@@ -9721,7 +9721,7 @@
         <v>2.16</v>
       </c>
       <c r="I69" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="J69" t="n">
         <v>3.65</v>
@@ -9748,70 +9748,70 @@
         <v>1.69</v>
       </c>
       <c r="R69" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S69" t="n">
         <v>2.42</v>
       </c>
       <c r="T69" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="U69" t="n">
         <v>1.01</v>
       </c>
       <c r="V69" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="W69" t="n">
         <v>1.4</v>
       </c>
       <c r="X69" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y69" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD69" t="n">
         <v>17</v>
       </c>
-      <c r="Z69" t="n">
+      <c r="AE69" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH69" t="n">
         <v>23</v>
       </c>
-      <c r="AA69" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB69" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC69" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AH69" t="n">
-        <v>22</v>
-      </c>
       <c r="AI69" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AJ69" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AK69" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AL69" t="n">
         <v>55</v>
       </c>
       <c r="AM69" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN69" t="n">
         <v>1000</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="G70" t="n">
         <v>8.6</v>
@@ -9856,7 +9856,7 @@
         <v>1.28</v>
       </c>
       <c r="I70" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="J70" t="n">
         <v>4.7</v>
@@ -9868,7 +9868,7 @@
         <v>1.01</v>
       </c>
       <c r="M70" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N70" t="n">
         <v>2.42</v>
@@ -9880,13 +9880,13 @@
         <v>2.42</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="R70" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S70" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="T70" t="n">
         <v>1.01</v>
@@ -9895,7 +9895,7 @@
         <v>1.01</v>
       </c>
       <c r="V70" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="W70" t="n">
         <v>1.13</v>
@@ -9982,22 +9982,22 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2.54</v>
+        <v>2.32</v>
       </c>
       <c r="G71" t="n">
         <v>3.1</v>
       </c>
       <c r="H71" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="I71" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="J71" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="K71" t="n">
-        <v>3.85</v>
+        <v>5</v>
       </c>
       <c r="L71" t="n">
         <v>1.31</v>
@@ -10006,13 +10006,13 @@
         <v>1.01</v>
       </c>
       <c r="N71" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="O71" t="n">
         <v>1.31</v>
       </c>
       <c r="P71" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="Q71" t="n">
         <v>1.9</v>
@@ -10021,16 +10021,16 @@
         <v>1.27</v>
       </c>
       <c r="S71" t="n">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="T71" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="U71" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="V71" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="W71" t="n">
         <v>1.47</v>
@@ -10120,19 +10120,19 @@
         <v>3.75</v>
       </c>
       <c r="G72" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="H72" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="I72" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="J72" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="K72" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="L72" t="n">
         <v>1.01</v>
@@ -10141,22 +10141,22 @@
         <v>1.01</v>
       </c>
       <c r="N72" t="n">
-        <v>1.7</v>
+        <v>1.26</v>
       </c>
       <c r="O72" t="n">
         <v>1.01</v>
       </c>
       <c r="P72" t="n">
-        <v>1.7</v>
+        <v>1.26</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.99</v>
+        <v>1.87</v>
       </c>
       <c r="R72" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S72" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T72" t="n">
         <v>1.01</v>
@@ -10165,10 +10165,10 @@
         <v>1.01</v>
       </c>
       <c r="V72" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="W72" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="X72" t="n">
         <v>1000</v>
@@ -10285,7 +10285,7 @@
         <v>1.92</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.68</v>
+        <v>1.24</v>
       </c>
       <c r="R73" t="n">
         <v>1.22</v>
@@ -10390,19 +10390,19 @@
         <v>2</v>
       </c>
       <c r="G74" t="n">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="H74" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I74" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="J74" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="K74" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="L74" t="n">
         <v>1.01</v>
@@ -10411,34 +10411,34 @@
         <v>1.01</v>
       </c>
       <c r="N74" t="n">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
       <c r="O74" t="n">
         <v>1.33</v>
       </c>
       <c r="P74" t="n">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
       <c r="Q74" t="n">
         <v>2</v>
       </c>
       <c r="R74" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S74" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="T74" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="U74" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="V74" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="W74" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="X74" t="n">
         <v>19</v>
@@ -10588,7 +10588,7 @@
         <v>32</v>
       </c>
       <c r="AB75" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC75" t="n">
         <v>7.2</v>
@@ -10606,7 +10606,7 @@
         <v>17.5</v>
       </c>
       <c r="AH75" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI75" t="n">
         <v>60</v>
@@ -10618,7 +10618,7 @@
         <v>65</v>
       </c>
       <c r="AL75" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AM75" t="n">
         <v>180</v>
@@ -10657,19 +10657,19 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G76" t="n">
-        <v>3.45</v>
+        <v>4.6</v>
       </c>
       <c r="H76" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="I76" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="J76" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="K76" t="n">
         <v>3.45</v>
@@ -10681,19 +10681,19 @@
         <v>1.01</v>
       </c>
       <c r="N76" t="n">
-        <v>1.03</v>
+        <v>1.25</v>
       </c>
       <c r="O76" t="n">
         <v>1.42</v>
       </c>
       <c r="P76" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R76" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S76" t="n">
         <v>3.7</v>
@@ -10705,10 +10705,10 @@
         <v>1.01</v>
       </c>
       <c r="V76" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W76" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="X76" t="n">
         <v>1000</v>
@@ -10798,7 +10798,7 @@
         <v>1.7</v>
       </c>
       <c r="H77" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I77" t="n">
         <v>6.8</v>
@@ -10822,7 +10822,7 @@
         <v>1.36</v>
       </c>
       <c r="P77" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q77" t="n">
         <v>2.02</v>
@@ -10831,7 +10831,7 @@
         <v>1.3</v>
       </c>
       <c r="S77" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T77" t="n">
         <v>2.02</v>
@@ -10846,7 +10846,7 @@
         <v>2.38</v>
       </c>
       <c r="X77" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y77" t="n">
         <v>19.5</v>
@@ -10927,22 +10927,22 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="G78" t="n">
-        <v>2.34</v>
+        <v>2.48</v>
       </c>
       <c r="H78" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="I78" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J78" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="K78" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L78" t="n">
         <v>1.01</v>
@@ -10960,7 +10960,7 @@
         <v>1.98</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R78" t="n">
         <v>1.38</v>
@@ -10975,64 +10975,64 @@
         <v>2.16</v>
       </c>
       <c r="V78" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="W78" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="X78" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y78" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z78" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AA78" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB78" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC78" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD78" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE78" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF78" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG78" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH78" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI78" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ78" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AK78" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL78" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM78" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN78" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AO78" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="79">
@@ -11062,22 +11062,22 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="G79" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="H79" t="n">
         <v>6.4</v>
       </c>
       <c r="I79" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="J79" t="n">
         <v>4.8</v>
       </c>
       <c r="K79" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L79" t="n">
         <v>1.2</v>
@@ -11086,13 +11086,13 @@
         <v>1.02</v>
       </c>
       <c r="N79" t="n">
-        <v>3</v>
+        <v>1.73</v>
       </c>
       <c r="O79" t="n">
         <v>1.11</v>
       </c>
       <c r="P79" t="n">
-        <v>3</v>
+        <v>1.73</v>
       </c>
       <c r="Q79" t="n">
         <v>1.4</v>
@@ -11110,10 +11110,10 @@
         <v>1.01</v>
       </c>
       <c r="V79" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W79" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="X79" t="n">
         <v>40</v>
@@ -11206,13 +11206,13 @@
         <v>2.22</v>
       </c>
       <c r="I80" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="J80" t="n">
         <v>3.75</v>
       </c>
       <c r="K80" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L80" t="n">
         <v>1.01</v>
@@ -11221,7 +11221,7 @@
         <v>1.01</v>
       </c>
       <c r="N80" t="n">
-        <v>2.34</v>
+        <v>1.01</v>
       </c>
       <c r="O80" t="n">
         <v>1.2</v>
@@ -11230,13 +11230,13 @@
         <v>2.34</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R80" t="n">
         <v>1.25</v>
       </c>
       <c r="S80" t="n">
-        <v>1.61</v>
+        <v>1.02</v>
       </c>
       <c r="T80" t="n">
         <v>1.01</v>
@@ -11245,7 +11245,7 @@
         <v>1.01</v>
       </c>
       <c r="V80" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="W80" t="n">
         <v>1.43</v>
@@ -11335,7 +11335,7 @@
         <v>1.46</v>
       </c>
       <c r="G81" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="H81" t="n">
         <v>8.4</v>
@@ -11362,10 +11362,10 @@
         <v>1.26</v>
       </c>
       <c r="P81" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R81" t="n">
         <v>1.46</v>
@@ -11374,28 +11374,28 @@
         <v>3</v>
       </c>
       <c r="T81" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U81" t="n">
         <v>1.9</v>
       </c>
       <c r="V81" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W81" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="X81" t="n">
         <v>19.5</v>
       </c>
       <c r="Y81" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z81" t="n">
         <v>75</v>
       </c>
       <c r="AA81" t="n">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="AB81" t="n">
         <v>8.6</v>
@@ -11407,7 +11407,7 @@
         <v>32</v>
       </c>
       <c r="AE81" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF81" t="n">
         <v>8.4</v>
@@ -11416,16 +11416,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH81" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI81" t="n">
         <v>120</v>
       </c>
       <c r="AJ81" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK81" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL81" t="n">
         <v>40</v>
@@ -11467,25 +11467,25 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="G82" t="n">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="H82" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="I82" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="J82" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="K82" t="n">
-        <v>4.6</v>
+        <v>8</v>
       </c>
       <c r="L82" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M82" t="n">
         <v>1.01</v>
@@ -11503,7 +11503,7 @@
         <v>1.68</v>
       </c>
       <c r="R82" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="S82" t="n">
         <v>2.42</v>
@@ -11515,10 +11515,10 @@
         <v>1.01</v>
       </c>
       <c r="V82" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W82" t="n">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="X82" t="n">
         <v>29</v>
@@ -11602,22 +11602,22 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="G83" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H83" t="n">
         <v>2.2</v>
       </c>
       <c r="I83" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="J83" t="n">
-        <v>3.15</v>
+        <v>2.4</v>
       </c>
       <c r="K83" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L83" t="n">
         <v>1.01</v>
@@ -11626,16 +11626,16 @@
         <v>1.01</v>
       </c>
       <c r="N83" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="O83" t="n">
         <v>1.01</v>
       </c>
       <c r="P83" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="R83" t="n">
         <v>1.19</v>
@@ -11644,16 +11644,16 @@
         <v>3.75</v>
       </c>
       <c r="T83" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="U83" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="V83" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="W83" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X83" t="n">
         <v>1000</v>
@@ -11791,40 +11791,40 @@
         <v>1.01</v>
       </c>
       <c r="X84" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y84" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z84" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AA84" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AB84" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AC84" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AD84" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE84" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AF84" t="n">
         <v>1000</v>
       </c>
       <c r="AG84" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AH84" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AI84" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ84" t="n">
         <v>1000</v>
@@ -11842,7 +11842,7 @@
         <v>1000</v>
       </c>
       <c r="AO84" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="85">
@@ -11872,22 +11872,22 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2.92</v>
+        <v>2.66</v>
       </c>
       <c r="G85" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="H85" t="n">
-        <v>2.36</v>
+        <v>2.02</v>
       </c>
       <c r="I85" t="n">
-        <v>2.84</v>
+        <v>2.98</v>
       </c>
       <c r="J85" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="K85" t="n">
-        <v>3.9</v>
+        <v>950</v>
       </c>
       <c r="L85" t="n">
         <v>1.01</v>
@@ -11896,22 +11896,22 @@
         <v>1.01</v>
       </c>
       <c r="N85" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="O85" t="n">
         <v>1.31</v>
       </c>
       <c r="P85" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Q85" t="n">
         <v>1.81</v>
       </c>
       <c r="R85" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S85" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="T85" t="n">
         <v>1.01</v>
@@ -11920,10 +11920,10 @@
         <v>1.01</v>
       </c>
       <c r="V85" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="W85" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="X85" t="n">
         <v>1000</v>
@@ -12010,16 +12010,16 @@
         <v>1.04</v>
       </c>
       <c r="G86" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H86" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I86" t="n">
         <v>160</v>
       </c>
       <c r="J86" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="K86" t="n">
         <v>950</v>
@@ -12031,16 +12031,16 @@
         <v>1.01</v>
       </c>
       <c r="N86" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="O86" t="n">
         <v>1.01</v>
       </c>
       <c r="P86" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R86" t="n">
         <v>1.18</v>
@@ -12058,13 +12058,13 @@
         <v>1.01</v>
       </c>
       <c r="W86" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X86" t="n">
         <v>15</v>
       </c>
       <c r="Y86" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z86" t="n">
         <v>1000</v>
@@ -12079,7 +12079,7 @@
         <v>10</v>
       </c>
       <c r="AD86" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE86" t="n">
         <v>1000</v>
@@ -12142,46 +12142,46 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="G87" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="H87" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="I87" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J87" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="K87" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N87" t="n">
         <v>2.8</v>
       </c>
-      <c r="K87" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L87" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M87" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N87" t="n">
-        <v>2.72</v>
-      </c>
       <c r="O87" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P87" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="R87" t="n">
         <v>1.18</v>
       </c>
       <c r="S87" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="T87" t="n">
         <v>1.01</v>
@@ -12190,7 +12190,7 @@
         <v>1.01</v>
       </c>
       <c r="V87" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W87" t="n">
         <v>1.52</v>
@@ -12283,40 +12283,40 @@
         <v>4.8</v>
       </c>
       <c r="H88" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="I88" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="J88" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="K88" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L88" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M88" t="n">
         <v>1.01</v>
       </c>
       <c r="N88" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="O88" t="n">
         <v>1.01</v>
       </c>
       <c r="P88" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R88" t="n">
         <v>1.18</v>
       </c>
       <c r="S88" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="T88" t="n">
         <v>1.01</v>
@@ -12325,10 +12325,10 @@
         <v>1.01</v>
       </c>
       <c r="V88" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W88" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X88" t="n">
         <v>1000</v>
@@ -12412,64 +12412,64 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2.42</v>
+        <v>2.22</v>
       </c>
       <c r="G89" t="n">
         <v>2.98</v>
       </c>
       <c r="H89" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I89" t="n">
+        <v>4</v>
+      </c>
+      <c r="J89" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K89" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N89" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O89" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P89" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R89" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S89" t="n">
         <v>3</v>
       </c>
-      <c r="I89" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J89" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K89" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L89" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M89" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N89" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="O89" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P89" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R89" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S89" t="n">
-        <v>3.4</v>
-      </c>
       <c r="T89" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="U89" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="V89" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W89" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X89" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y89" t="n">
         <v>16</v>
-      </c>
-      <c r="Y89" t="n">
-        <v>15</v>
       </c>
       <c r="Z89" t="n">
         <v>30</v>
@@ -12478,13 +12478,13 @@
         <v>1000</v>
       </c>
       <c r="AB89" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC89" t="n">
         <v>10.5</v>
       </c>
       <c r="AD89" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE89" t="n">
         <v>1000</v>
@@ -12496,7 +12496,7 @@
         <v>17.5</v>
       </c>
       <c r="AH89" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI89" t="n">
         <v>1000</v>
@@ -12505,7 +12505,7 @@
         <v>1000</v>
       </c>
       <c r="AK89" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AL89" t="n">
         <v>1000</v>
@@ -12550,16 +12550,16 @@
         <v>2.14</v>
       </c>
       <c r="G90" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="H90" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I90" t="n">
         <v>4.3</v>
       </c>
       <c r="J90" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="K90" t="n">
         <v>3.65</v>
@@ -12568,7 +12568,7 @@
         <v>1.01</v>
       </c>
       <c r="M90" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N90" t="n">
         <v>3.2</v>
@@ -12583,76 +12583,76 @@
         <v>2.28</v>
       </c>
       <c r="R90" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S90" t="n">
         <v>3.85</v>
       </c>
       <c r="T90" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="U90" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="V90" t="n">
         <v>1.31</v>
       </c>
       <c r="W90" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="X90" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y90" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="Z90" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AA90" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB90" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AC90" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD90" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH90" t="n">
         <v>20</v>
       </c>
-      <c r="AE90" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF90" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG90" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH90" t="n">
-        <v>24</v>
-      </c>
       <c r="AI90" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ90" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AK90" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AL90" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AM90" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN90" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO90" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91">
@@ -12682,19 +12682,19 @@
         </is>
       </c>
       <c r="F91" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G91" t="n">
         <v>1.2</v>
       </c>
-      <c r="G91" t="n">
-        <v>1.23</v>
-      </c>
       <c r="H91" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="I91" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J91" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K91" t="n">
         <v>9.4</v>
@@ -12703,7 +12703,7 @@
         <v>1.19</v>
       </c>
       <c r="M91" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N91" t="n">
         <v>7.2</v>
@@ -12718,13 +12718,13 @@
         <v>1.3</v>
       </c>
       <c r="R91" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="S91" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="T91" t="n">
-        <v>1.75</v>
+        <v>1.01</v>
       </c>
       <c r="U91" t="n">
         <v>1.01</v>
@@ -12733,13 +12733,13 @@
         <v>1.05</v>
       </c>
       <c r="W91" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="X91" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="Y91" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="Z91" t="n">
         <v>1000</v>
@@ -12748,37 +12748,37 @@
         <v>1000</v>
       </c>
       <c r="AB91" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>75</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>46</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK91" t="n">
         <v>18</v>
       </c>
-      <c r="AC91" t="n">
-        <v>24</v>
-      </c>
-      <c r="AD91" t="n">
-        <v>65</v>
-      </c>
-      <c r="AE91" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF91" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG91" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH91" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI91" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ91" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK91" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AL91" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AM91" t="n">
         <v>1000</v>
@@ -12817,22 +12817,22 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="G92" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="H92" t="n">
-        <v>1.77</v>
+        <v>1.66</v>
       </c>
       <c r="I92" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="J92" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K92" t="n">
-        <v>4.7</v>
+        <v>7</v>
       </c>
       <c r="L92" t="n">
         <v>1.01</v>
@@ -12856,7 +12856,7 @@
         <v>1.55</v>
       </c>
       <c r="S92" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="T92" t="n">
         <v>1.01</v>
@@ -12865,10 +12865,10 @@
         <v>1.01</v>
       </c>
       <c r="V92" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="W92" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="X92" t="n">
         <v>1000</v>
@@ -12952,16 +12952,16 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G93" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H93" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="I93" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="J93" t="n">
         <v>3.2</v>
@@ -12994,25 +12994,25 @@
         <v>2.92</v>
       </c>
       <c r="T93" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U93" t="n">
         <v>2.32</v>
       </c>
       <c r="V93" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W93" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X93" t="n">
         <v>17.5</v>
       </c>
       <c r="Y93" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z93" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AA93" t="n">
         <v>40</v>
@@ -13021,22 +13021,22 @@
         <v>14.5</v>
       </c>
       <c r="AC93" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="AD93" t="n">
         <v>13</v>
       </c>
       <c r="AE93" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF93" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG93" t="n">
         <v>14</v>
       </c>
       <c r="AH93" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI93" t="n">
         <v>38</v>
@@ -13048,10 +13048,10 @@
         <v>32</v>
       </c>
       <c r="AL93" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AM93" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN93" t="n">
         <v>25</v>
@@ -13087,16 +13087,16 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="G94" t="n">
         <v>1.51</v>
       </c>
       <c r="H94" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I94" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J94" t="n">
         <v>4.6</v>
@@ -13108,7 +13108,7 @@
         <v>1.44</v>
       </c>
       <c r="M94" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N94" t="n">
         <v>3.6</v>
@@ -13135,10 +13135,10 @@
         <v>1.73</v>
       </c>
       <c r="V94" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W94" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="X94" t="n">
         <v>13</v>
@@ -13189,7 +13189,7 @@
         <v>210</v>
       </c>
       <c r="AN94" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AO94" t="n">
         <v>270</v>
@@ -13222,22 +13222,22 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>5.7</v>
+        <v>3.25</v>
       </c>
       <c r="G95" t="n">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="H95" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="I95" t="n">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="J95" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="K95" t="n">
-        <v>5.8</v>
+        <v>950</v>
       </c>
       <c r="L95" t="n">
         <v>1.32</v>
@@ -13246,16 +13246,16 @@
         <v>1.01</v>
       </c>
       <c r="N95" t="n">
-        <v>1.88</v>
+        <v>1.74</v>
       </c>
       <c r="O95" t="n">
         <v>1.01</v>
       </c>
       <c r="P95" t="n">
-        <v>1.88</v>
+        <v>1.74</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="R95" t="n">
         <v>1.27</v>
@@ -13270,10 +13270,10 @@
         <v>1.01</v>
       </c>
       <c r="V95" t="n">
-        <v>2.94</v>
+        <v>2.58</v>
       </c>
       <c r="W95" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="X95" t="n">
         <v>1000</v>
@@ -13357,13 +13357,13 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="G96" t="n">
         <v>2.1</v>
       </c>
       <c r="H96" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I96" t="n">
         <v>6.4</v>
@@ -13381,13 +13381,13 @@
         <v>1.01</v>
       </c>
       <c r="N96" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="O96" t="n">
         <v>1.21</v>
       </c>
       <c r="P96" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q96" t="n">
         <v>1.53</v>
@@ -13558,7 +13558,7 @@
         <v>14.5</v>
       </c>
       <c r="AB97" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC97" t="n">
         <v>9.6</v>
@@ -13588,7 +13588,7 @@
         <v>110</v>
       </c>
       <c r="AL97" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM97" t="n">
         <v>140</v>
@@ -13639,7 +13639,7 @@
         <v>1.63</v>
       </c>
       <c r="J98" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K98" t="n">
         <v>5.2</v>
@@ -13663,10 +13663,10 @@
         <v>1.35</v>
       </c>
       <c r="R98" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S98" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="T98" t="n">
         <v>1.46</v>
@@ -13762,22 +13762,22 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="G99" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H99" t="n">
-        <v>2.12</v>
+        <v>1.96</v>
       </c>
       <c r="I99" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="J99" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="K99" t="n">
-        <v>4.7</v>
+        <v>7</v>
       </c>
       <c r="L99" t="n">
         <v>1.01</v>
@@ -13786,37 +13786,37 @@
         <v>1.01</v>
       </c>
       <c r="N99" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="O99" t="n">
         <v>1.25</v>
       </c>
       <c r="P99" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="R99" t="n">
         <v>1.18</v>
       </c>
       <c r="S99" t="n">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="T99" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="U99" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="V99" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="W99" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="X99" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y99" t="n">
         <v>1000</v>
@@ -13897,22 +13897,22 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1.28</v>
+        <v>1.09</v>
       </c>
       <c r="G100" t="n">
         <v>1.32</v>
       </c>
       <c r="H100" t="n">
-        <v>9.800000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="I100" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="J100" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="K100" t="n">
-        <v>8</v>
+        <v>950</v>
       </c>
       <c r="L100" t="n">
         <v>1.01</v>
@@ -13930,10 +13930,10 @@
         <v>3.5</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="R100" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S100" t="n">
         <v>1.33</v>
@@ -13945,10 +13945,10 @@
         <v>2.08</v>
       </c>
       <c r="V100" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="W100" t="n">
-        <v>4</v>
+        <v>2.06</v>
       </c>
       <c r="X100" t="n">
         <v>1000</v>
@@ -14035,7 +14035,7 @@
         <v>1.86</v>
       </c>
       <c r="G101" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="H101" t="n">
         <v>5.4</v>
@@ -14044,10 +14044,10 @@
         <v>5.7</v>
       </c>
       <c r="J101" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K101" t="n">
         <v>3.5</v>
-      </c>
-      <c r="K101" t="n">
-        <v>3.6</v>
       </c>
       <c r="L101" t="n">
         <v>1.54</v>
@@ -14080,7 +14080,7 @@
         <v>1.75</v>
       </c>
       <c r="V101" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W101" t="n">
         <v>2.12</v>
@@ -14089,7 +14089,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Y101" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z101" t="n">
         <v>42</v>
@@ -14104,7 +14104,7 @@
         <v>7.8</v>
       </c>
       <c r="AD101" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE101" t="n">
         <v>100</v>
@@ -14116,7 +14116,7 @@
         <v>10.5</v>
       </c>
       <c r="AH101" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI101" t="n">
         <v>120</v>
@@ -14173,7 +14173,7 @@
         <v>1.83</v>
       </c>
       <c r="H102" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I102" t="n">
         <v>5.8</v>
@@ -14188,7 +14188,7 @@
         <v>1.46</v>
       </c>
       <c r="M102" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N102" t="n">
         <v>3.2</v>
@@ -14203,13 +14203,13 @@
         <v>2.08</v>
       </c>
       <c r="R102" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S102" t="n">
         <v>3.55</v>
       </c>
       <c r="T102" t="n">
-        <v>1.01</v>
+        <v>1.85</v>
       </c>
       <c r="U102" t="n">
         <v>1.01</v>
@@ -14221,7 +14221,7 @@
         <v>2.2</v>
       </c>
       <c r="X102" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y102" t="n">
         <v>22</v>
@@ -14257,7 +14257,7 @@
         <v>1000</v>
       </c>
       <c r="AJ102" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AK102" t="n">
         <v>30</v>
@@ -14326,28 +14326,28 @@
         <v>1.03</v>
       </c>
       <c r="N103" t="n">
-        <v>2.54</v>
+        <v>1.55</v>
       </c>
       <c r="O103" t="n">
         <v>1.16</v>
       </c>
       <c r="P103" t="n">
-        <v>2.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q103" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R103" t="n">
         <v>1.55</v>
-      </c>
-      <c r="R103" t="n">
-        <v>1.54</v>
       </c>
       <c r="S103" t="n">
         <v>2.14</v>
       </c>
       <c r="T103" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="U103" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="V103" t="n">
         <v>2.62</v>
@@ -14359,7 +14359,7 @@
         <v>1000</v>
       </c>
       <c r="Y103" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z103" t="n">
         <v>1000</v>
@@ -14437,58 +14437,58 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="G104" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="H104" t="n">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="I104" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="J104" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K104" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="L104" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M104" t="n">
         <v>1.01</v>
       </c>
       <c r="N104" t="n">
-        <v>1.76</v>
+        <v>1.66</v>
       </c>
       <c r="O104" t="n">
         <v>1.01</v>
       </c>
       <c r="P104" t="n">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.08</v>
+        <v>1.94</v>
       </c>
       <c r="R104" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S104" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T104" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="U104" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="V104" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="W104" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="X104" t="n">
         <v>17</v>
@@ -14572,19 +14572,19 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="G105" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="H105" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="I105" t="n">
-        <v>2.76</v>
+        <v>2.86</v>
       </c>
       <c r="J105" t="n">
-        <v>3.15</v>
+        <v>2.64</v>
       </c>
       <c r="K105" t="n">
         <v>3.45</v>
@@ -14608,7 +14608,7 @@
         <v>2.24</v>
       </c>
       <c r="R105" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="S105" t="n">
         <v>3.75</v>
@@ -14620,10 +14620,10 @@
         <v>1.01</v>
       </c>
       <c r="V105" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="W105" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="X105" t="n">
         <v>15.5</v>
@@ -14710,13 +14710,13 @@
         <v>1.26</v>
       </c>
       <c r="G106" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="H106" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="I106" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="J106" t="n">
         <v>5.8</v>
@@ -14728,91 +14728,91 @@
         <v>1.01</v>
       </c>
       <c r="M106" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N106" t="n">
-        <v>4.7</v>
+        <v>2.12</v>
       </c>
       <c r="O106" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P106" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R106" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S106" t="n">
         <v>2.3</v>
       </c>
-      <c r="Q106" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R106" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S106" t="n">
-        <v>2.54</v>
-      </c>
       <c r="T106" t="n">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="U106" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="V106" t="n">
         <v>1.06</v>
       </c>
       <c r="W106" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="X106" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Y106" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="Z106" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AA106" t="n">
         <v>1000</v>
       </c>
       <c r="AB106" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC106" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AD106" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AE106" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AF106" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AG106" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH106" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AI106" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AJ106" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AK106" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AL106" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM106" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AN106" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="AO106" t="n">
-        <v>430</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="107">
@@ -14842,7 +14842,7 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="G107" t="n">
         <v>2.04</v>
@@ -14851,7 +14851,7 @@
         <v>4.1</v>
       </c>
       <c r="I107" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J107" t="n">
         <v>3.7</v>
@@ -14878,7 +14878,7 @@
         <v>1.92</v>
       </c>
       <c r="R107" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S107" t="n">
         <v>3.35</v>
@@ -14890,7 +14890,7 @@
         <v>2.14</v>
       </c>
       <c r="V107" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W107" t="n">
         <v>1.96</v>
@@ -14902,7 +14902,7 @@
         <v>16</v>
       </c>
       <c r="Z107" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AA107" t="n">
         <v>110</v>
@@ -14914,31 +14914,31 @@
         <v>8.4</v>
       </c>
       <c r="AD107" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AE107" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AF107" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG107" t="n">
         <v>10.5</v>
       </c>
       <c r="AH107" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI107" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ107" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AK107" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AL107" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AM107" t="n">
         <v>120</v>
@@ -14947,7 +14947,7 @@
         <v>14</v>
       </c>
       <c r="AO107" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="108">
@@ -14977,46 +14977,46 @@
         </is>
       </c>
       <c r="F108" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="G108" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H108" t="n">
         <v>2.74</v>
       </c>
-      <c r="G108" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="H108" t="n">
-        <v>3</v>
-      </c>
       <c r="I108" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="J108" t="n">
         <v>3</v>
       </c>
       <c r="K108" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="L108" t="n">
         <v>1.59</v>
       </c>
       <c r="M108" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N108" t="n">
-        <v>2.36</v>
+        <v>1.25</v>
       </c>
       <c r="O108" t="n">
         <v>1.55</v>
       </c>
       <c r="P108" t="n">
-        <v>1.51</v>
+        <v>1.25</v>
       </c>
       <c r="Q108" t="n">
-        <v>2.66</v>
+        <v>1.55</v>
       </c>
       <c r="R108" t="n">
         <v>1.18</v>
       </c>
       <c r="S108" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="T108" t="n">
         <v>1.01</v>
@@ -15025,22 +15025,22 @@
         <v>1.01</v>
       </c>
       <c r="V108" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="W108" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="X108" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Y108" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z108" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA108" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB108" t="n">
         <v>1000</v>
@@ -15055,7 +15055,7 @@
         <v>1000</v>
       </c>
       <c r="AF108" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG108" t="n">
         <v>1000</v>
@@ -15067,7 +15067,7 @@
         <v>1000</v>
       </c>
       <c r="AJ108" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK108" t="n">
         <v>1000</v>
@@ -15112,22 +15112,22 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="G109" t="n">
         <v>3.75</v>
       </c>
       <c r="H109" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="I109" t="n">
-        <v>2.86</v>
+        <v>3.2</v>
       </c>
       <c r="J109" t="n">
-        <v>2.94</v>
+        <v>2.38</v>
       </c>
       <c r="K109" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="L109" t="n">
         <v>1.01</v>
@@ -15136,7 +15136,7 @@
         <v>1.08</v>
       </c>
       <c r="N109" t="n">
-        <v>1.56</v>
+        <v>2.58</v>
       </c>
       <c r="O109" t="n">
         <v>1.09</v>
@@ -15160,28 +15160,28 @@
         <v>1.83</v>
       </c>
       <c r="V109" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="W109" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="X109" t="n">
         <v>12</v>
       </c>
       <c r="Y109" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z109" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA109" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB109" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC109" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD109" t="n">
         <v>1000</v>
@@ -15205,7 +15205,7 @@
         <v>1000</v>
       </c>
       <c r="AK109" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL109" t="n">
         <v>1000</v>
@@ -15253,13 +15253,13 @@
         <v>8.4</v>
       </c>
       <c r="H110" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="I110" t="n">
         <v>1.43</v>
       </c>
       <c r="J110" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K110" t="n">
         <v>6.2</v>
@@ -15295,28 +15295,28 @@
         <v>2.1</v>
       </c>
       <c r="V110" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="W110" t="n">
         <v>1.13</v>
       </c>
       <c r="X110" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="Y110" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Z110" t="n">
         <v>12</v>
       </c>
       <c r="AA110" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB110" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AC110" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AD110" t="n">
         <v>11.5</v>
@@ -15328,13 +15328,13 @@
         <v>75</v>
       </c>
       <c r="AG110" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AH110" t="n">
         <v>21</v>
       </c>
       <c r="AI110" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AJ110" t="n">
         <v>230</v>
@@ -15391,13 +15391,13 @@
         <v>3.1</v>
       </c>
       <c r="I111" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J111" t="n">
         <v>3.8</v>
       </c>
       <c r="K111" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L111" t="n">
         <v>1.32</v>
@@ -15415,7 +15415,7 @@
         <v>2.22</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R111" t="n">
         <v>1.5</v>
@@ -15436,7 +15436,7 @@
         <v>1.7</v>
       </c>
       <c r="X111" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Y111" t="n">
         <v>16</v>
@@ -15457,7 +15457,7 @@
         <v>14</v>
       </c>
       <c r="AE111" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AF111" t="n">
         <v>17.5</v>
@@ -15487,7 +15487,7 @@
         <v>15</v>
       </c>
       <c r="AO111" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112">
@@ -15517,19 +15517,19 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="G112" t="n">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="H112" t="n">
-        <v>2.88</v>
+        <v>2.72</v>
       </c>
       <c r="I112" t="n">
         <v>3.1</v>
       </c>
       <c r="J112" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K112" t="n">
         <v>3.5</v>
@@ -15541,22 +15541,22 @@
         <v>1.08</v>
       </c>
       <c r="N112" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="O112" t="n">
         <v>1.36</v>
       </c>
       <c r="P112" t="n">
-        <v>1.81</v>
+        <v>1.25</v>
       </c>
       <c r="Q112" t="n">
         <v>2.08</v>
       </c>
       <c r="R112" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S112" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T112" t="n">
         <v>1.01</v>
@@ -15568,52 +15568,52 @@
         <v>1.47</v>
       </c>
       <c r="W112" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="X112" t="n">
         <v>1000</v>
       </c>
       <c r="Y112" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z112" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA112" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB112" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC112" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD112" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE112" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF112" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG112" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH112" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI112" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ112" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK112" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL112" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM112" t="n">
         <v>1000</v>
@@ -15673,7 +15673,7 @@
         <v>1.01</v>
       </c>
       <c r="M113" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N113" t="n">
         <v>6.2</v>
@@ -15682,16 +15682,16 @@
         <v>1.15</v>
       </c>
       <c r="P113" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R113" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S113" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="T113" t="n">
         <v>1.47</v>
@@ -15700,19 +15700,19 @@
         <v>2.54</v>
       </c>
       <c r="V113" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W113" t="n">
         <v>1.86</v>
       </c>
       <c r="X113" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y113" t="n">
         <v>28</v>
       </c>
-      <c r="Y113" t="n">
-        <v>25</v>
-      </c>
       <c r="Z113" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AA113" t="n">
         <v>70</v>
@@ -15721,25 +15721,25 @@
         <v>17.5</v>
       </c>
       <c r="AC113" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD113" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AE113" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF113" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AG113" t="n">
         <v>12.5</v>
       </c>
       <c r="AH113" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI113" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ113" t="n">
         <v>27</v>
@@ -15787,10 +15787,10 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="G114" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="H114" t="n">
         <v>1.55</v>
@@ -15805,40 +15805,40 @@
         <v>4.5</v>
       </c>
       <c r="L114" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M114" t="n">
         <v>1.08</v>
       </c>
       <c r="N114" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="O114" t="n">
         <v>1.36</v>
       </c>
       <c r="P114" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="Q114" t="n">
         <v>2.08</v>
       </c>
       <c r="R114" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S114" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="T114" t="n">
         <v>2.16</v>
       </c>
       <c r="U114" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="V114" t="n">
         <v>2.74</v>
       </c>
       <c r="W114" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="X114" t="n">
         <v>13</v>
@@ -15883,10 +15883,10 @@
         <v>140</v>
       </c>
       <c r="AL114" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AM114" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN114" t="n">
         <v>230</v>
@@ -15943,7 +15943,7 @@
         <v>1.01</v>
       </c>
       <c r="M115" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N115" t="n">
         <v>5</v>
@@ -15958,16 +15958,16 @@
         <v>1.59</v>
       </c>
       <c r="R115" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="S115" t="n">
-        <v>2.28</v>
+        <v>2.46</v>
       </c>
       <c r="T115" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="U115" t="n">
-        <v>1.84</v>
+        <v>2.12</v>
       </c>
       <c r="V115" t="n">
         <v>1.17</v>
@@ -15976,58 +15976,58 @@
         <v>2.62</v>
       </c>
       <c r="X115" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL115" t="n">
         <v>32</v>
       </c>
-      <c r="Y115" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z115" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA115" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB115" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC115" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD115" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE115" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF115" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG115" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH115" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI115" t="n">
+      <c r="AM115" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AO115" t="n">
         <v>90</v>
-      </c>
-      <c r="AJ115" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK115" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL115" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM115" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN115" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO115" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="116">
@@ -16057,16 +16057,16 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="G116" t="n">
         <v>3.25</v>
       </c>
       <c r="H116" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="I116" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="J116" t="n">
         <v>3.8</v>
@@ -16081,10 +16081,10 @@
         <v>1.04</v>
       </c>
       <c r="N116" t="n">
-        <v>2.38</v>
+        <v>5</v>
       </c>
       <c r="O116" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P116" t="n">
         <v>2.38</v>
@@ -16093,76 +16093,76 @@
         <v>1.63</v>
       </c>
       <c r="R116" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="S116" t="n">
-        <v>2.3</v>
+        <v>2.56</v>
       </c>
       <c r="T116" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="U116" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="V116" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="W116" t="n">
         <v>1.44</v>
       </c>
       <c r="X116" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y116" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="Z116" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AA116" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AB116" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AC116" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD116" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE116" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK116" t="n">
         <v>32</v>
       </c>
-      <c r="AF116" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG116" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH116" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI116" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ116" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK116" t="n">
-        <v>46</v>
-      </c>
       <c r="AL116" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AM116" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AN116" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO116" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117">
@@ -16192,16 +16192,16 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="G117" t="n">
         <v>2.74</v>
       </c>
       <c r="H117" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="I117" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J117" t="n">
         <v>3.65</v>
@@ -16210,7 +16210,7 @@
         <v>3.7</v>
       </c>
       <c r="L117" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M117" t="n">
         <v>1.05</v>
@@ -16222,7 +16222,7 @@
         <v>1.23</v>
       </c>
       <c r="P117" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q117" t="n">
         <v>1.72</v>
@@ -16240,10 +16240,10 @@
         <v>2.58</v>
       </c>
       <c r="V117" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="W117" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X117" t="n">
         <v>18.5</v>
@@ -16255,7 +16255,7 @@
         <v>20</v>
       </c>
       <c r="AA117" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AB117" t="n">
         <v>14.5</v>
@@ -16327,34 +16327,34 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G118" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H118" t="n">
         <v>3.9</v>
       </c>
       <c r="I118" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J118" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K118" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L118" t="n">
         <v>1.35</v>
       </c>
       <c r="M118" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N118" t="n">
-        <v>2.06</v>
+        <v>4.1</v>
       </c>
       <c r="O118" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P118" t="n">
         <v>2.06</v>
@@ -16363,76 +16363,76 @@
         <v>1.81</v>
       </c>
       <c r="R118" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="S118" t="n">
-        <v>2.62</v>
+        <v>2.84</v>
       </c>
       <c r="T118" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="U118" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="V118" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W118" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="X118" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Y118" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="Z118" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AA118" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM118" t="n">
         <v>100</v>
       </c>
-      <c r="AB118" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC118" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD118" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE118" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF118" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG118" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH118" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI118" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ118" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK118" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL118" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM118" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN118" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AO118" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
     </row>
     <row r="119">
@@ -16483,7 +16483,7 @@
         <v>1.39</v>
       </c>
       <c r="M119" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N119" t="n">
         <v>3.8</v>
@@ -16495,7 +16495,7 @@
         <v>1.96</v>
       </c>
       <c r="Q119" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R119" t="n">
         <v>1.37</v>
@@ -16507,7 +16507,7 @@
         <v>1.95</v>
       </c>
       <c r="U119" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V119" t="n">
         <v>2.46</v>
@@ -16519,7 +16519,7 @@
         <v>15</v>
       </c>
       <c r="Y119" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z119" t="n">
         <v>9.800000000000001</v>
@@ -16537,7 +16537,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AE119" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF119" t="n">
         <v>50</v>
@@ -16546,7 +16546,7 @@
         <v>24</v>
       </c>
       <c r="AH119" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI119" t="n">
         <v>38</v>
@@ -16558,7 +16558,7 @@
         <v>90</v>
       </c>
       <c r="AL119" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AM119" t="n">
         <v>140</v>
@@ -16612,7 +16612,7 @@
         <v>5.4</v>
       </c>
       <c r="K120" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L120" t="n">
         <v>0</v>
@@ -16732,22 +16732,22 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="G121" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="H121" t="n">
-        <v>7.6</v>
+        <v>2.3</v>
       </c>
       <c r="I121" t="n">
-        <v>12.5</v>
+        <v>19</v>
       </c>
       <c r="J121" t="n">
         <v>4.8</v>
       </c>
       <c r="K121" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="L121" t="n">
         <v>1.01</v>
@@ -16756,40 +16756,40 @@
         <v>1.01</v>
       </c>
       <c r="N121" t="n">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="O121" t="n">
         <v>1.28</v>
       </c>
       <c r="P121" t="n">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="Q121" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="R121" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S121" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="T121" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="U121" t="n">
         <v>1.01</v>
       </c>
       <c r="V121" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="W121" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="X121" t="n">
         <v>24</v>
       </c>
       <c r="Y121" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="Z121" t="n">
         <v>1000</v>
@@ -16798,37 +16798,37 @@
         <v>1000</v>
       </c>
       <c r="AB121" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC121" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AD121" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AE121" t="n">
         <v>1000</v>
       </c>
       <c r="AF121" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG121" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH121" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AI121" t="n">
         <v>1000</v>
       </c>
       <c r="AJ121" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AK121" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL121" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM121" t="n">
         <v>1000</v>
@@ -16870,31 +16870,31 @@
         <v>1.64</v>
       </c>
       <c r="G122" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H122" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I122" t="n">
         <v>6.4</v>
       </c>
       <c r="J122" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K122" t="n">
         <v>4.8</v>
       </c>
       <c r="L122" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M122" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N122" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="O122" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P122" t="n">
         <v>2.26</v>
@@ -16903,76 +16903,76 @@
         <v>1.76</v>
       </c>
       <c r="R122" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="S122" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="T122" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="U122" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="V122" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="W122" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="X122" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Y122" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z122" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AA122" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AB122" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC122" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD122" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AE122" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF122" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG122" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH122" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AI122" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ122" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AK122" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AL122" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AM122" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN122" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AO122" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="123">
@@ -17011,7 +17011,7 @@
         <v>10.5</v>
       </c>
       <c r="I123" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="J123" t="n">
         <v>5</v>
@@ -17020,16 +17020,16 @@
         <v>6</v>
       </c>
       <c r="L123" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M123" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N123" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O123" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P123" t="n">
         <v>2.02</v>
@@ -17038,76 +17038,76 @@
         <v>1.93</v>
       </c>
       <c r="R123" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="S123" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T123" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="U123" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="V123" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="W123" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X123" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Y123" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Z123" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AA123" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB123" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC123" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD123" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AE123" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="AF123" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AG123" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH123" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AI123" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AJ123" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AK123" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AL123" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM123" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AN123" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AO123" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="124">
@@ -17137,23 +17137,23 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="G124" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="H124" t="n">
+        <v>5</v>
+      </c>
+      <c r="I124" t="n">
+        <v>25</v>
+      </c>
+      <c r="J124" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K124" t="n">
         <v>11</v>
       </c>
-      <c r="I124" t="n">
-        <v>24</v>
-      </c>
-      <c r="J124" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K124" t="n">
-        <v>10.5</v>
-      </c>
       <c r="L124" t="n">
         <v>1.01</v>
       </c>
@@ -17161,19 +17161,19 @@
         <v>1.01</v>
       </c>
       <c r="N124" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="O124" t="n">
         <v>1.16</v>
       </c>
       <c r="P124" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="Q124" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="R124" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="S124" t="n">
         <v>2.08</v>
@@ -17188,10 +17188,10 @@
         <v>1.04</v>
       </c>
       <c r="W124" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="X124" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="Y124" t="n">
         <v>1000</v>
@@ -17203,10 +17203,10 @@
         <v>1000</v>
       </c>
       <c r="AB124" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC124" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AD124" t="n">
         <v>1000</v>
@@ -17215,25 +17215,25 @@
         <v>1000</v>
       </c>
       <c r="AF124" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG124" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH124" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AI124" t="n">
         <v>1000</v>
       </c>
       <c r="AJ124" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AK124" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL124" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM124" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-17.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="G2" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H2" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="I2" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J2" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K2" t="n">
         <v>4.3</v>
@@ -697,10 +697,10 @@
         <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R2" t="n">
         <v>1.42</v>
@@ -709,28 +709,28 @@
         <v>3.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U2" t="n">
         <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="W2" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
         <v>22</v>
@@ -742,19 +742,19 @@
         <v>11</v>
       </c>
       <c r="AE2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
         <v>46</v>
       </c>
       <c r="AG2" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AH2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AJ2" t="n">
         <v>140</v>
@@ -805,7 +805,7 @@
         <v>2.1</v>
       </c>
       <c r="G3" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H3" t="n">
         <v>3.35</v>
@@ -844,7 +844,7 @@
         <v>2.14</v>
       </c>
       <c r="T3" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="U3" t="n">
         <v>3</v>
@@ -973,13 +973,13 @@
         <v>1.9</v>
       </c>
       <c r="R4" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S4" t="n">
         <v>3.25</v>
       </c>
       <c r="T4" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U4" t="n">
         <v>2.26</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="G6" t="n">
         <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
@@ -1231,22 +1231,22 @@
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="O6" t="n">
         <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="Q6" t="n">
         <v>1.64</v>
       </c>
       <c r="R6" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="S6" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="T6" t="n">
         <v>1.57</v>
@@ -1255,7 +1255,7 @@
         <v>2.62</v>
       </c>
       <c r="V6" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="W6" t="n">
         <v>1.5</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G8" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H8" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J8" t="n">
         <v>3</v>
@@ -1522,10 +1522,10 @@
         <v>1.73</v>
       </c>
       <c r="U8" t="n">
-        <v>1.94</v>
+        <v>2.12</v>
       </c>
       <c r="V8" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W8" t="n">
         <v>1.42</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="G10" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H10" t="n">
         <v>3.85</v>
@@ -1777,16 +1777,16 @@
         <v>1.05</v>
       </c>
       <c r="P10" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R10" t="n">
         <v>1.23</v>
       </c>
       <c r="S10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T10" t="n">
         <v>1.01</v>
@@ -1798,13 +1798,13 @@
         <v>1.2</v>
       </c>
       <c r="W10" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X10" t="n">
         <v>18.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="Z10" t="n">
         <v>55</v>
@@ -1819,28 +1819,28 @@
         <v>12</v>
       </c>
       <c r="AD10" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AK10" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AL10" t="n">
         <v>60</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="G11" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="H11" t="n">
         <v>4.8</v>
@@ -1921,13 +1921,13 @@
         <v>1.16</v>
       </c>
       <c r="S11" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T11" t="n">
         <v>1.01</v>
       </c>
       <c r="U11" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="V11" t="n">
         <v>1.16</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G12" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="H12" t="n">
         <v>2.3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="J12" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="K12" t="n">
         <v>3.45</v>
@@ -2041,19 +2041,19 @@
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="O12" t="n">
         <v>1.06</v>
       </c>
       <c r="P12" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R12" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S12" t="n">
         <v>3.75</v>
@@ -2062,13 +2062,13 @@
         <v>1.78</v>
       </c>
       <c r="U12" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="V12" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="W12" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="X12" t="n">
         <v>11</v>
@@ -2080,7 +2080,7 @@
         <v>15.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AB12" t="n">
         <v>11.5</v>
@@ -2092,7 +2092,7 @@
         <v>12.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AF12" t="n">
         <v>25</v>
@@ -2110,7 +2110,7 @@
         <v>75</v>
       </c>
       <c r="AK12" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AL12" t="n">
         <v>70</v>
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.66</v>
+        <v>1.96</v>
       </c>
       <c r="G13" t="n">
-        <v>6.6</v>
+        <v>2.66</v>
       </c>
       <c r="H13" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="I13" t="n">
         <v>4.2</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K13" t="n">
         <v>6.2</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G14" t="n">
         <v>2.62</v>
@@ -2311,22 +2311,22 @@
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="O14" t="n">
         <v>1.29</v>
       </c>
       <c r="P14" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q14" t="n">
         <v>1.81</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.8</v>
       </c>
       <c r="R14" t="n">
         <v>1.33</v>
       </c>
       <c r="S14" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T14" t="n">
         <v>1.01</v>
@@ -2335,52 +2335,52 @@
         <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W14" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X14" t="n">
         <v>22</v>
       </c>
       <c r="Y14" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AK14" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AL14" t="n">
         <v>1000</v>
@@ -2830,7 +2830,7 @@
         <v>1.99</v>
       </c>
       <c r="G18" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H18" t="n">
         <v>3.85</v>
@@ -2866,7 +2866,7 @@
         <v>1.55</v>
       </c>
       <c r="S18" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="T18" t="n">
         <v>1.01</v>
@@ -2878,7 +2878,7 @@
         <v>1.32</v>
       </c>
       <c r="W18" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="X18" t="n">
         <v>25</v>
@@ -2965,7 +2965,7 @@
         <v>2.08</v>
       </c>
       <c r="G19" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H19" t="n">
         <v>3.7</v>
@@ -2977,7 +2977,7 @@
         <v>3.55</v>
       </c>
       <c r="K19" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L19" t="n">
         <v>1.35</v>
@@ -3013,7 +3013,7 @@
         <v>1.33</v>
       </c>
       <c r="W19" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="G20" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H20" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I20" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="J20" t="n">
         <v>3.6</v>
@@ -3145,10 +3145,10 @@
         <v>2.32</v>
       </c>
       <c r="V20" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="W20" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X20" t="n">
         <v>18</v>
@@ -3160,7 +3160,7 @@
         <v>17</v>
       </c>
       <c r="AA20" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AB20" t="n">
         <v>14.5</v>
@@ -3193,7 +3193,7 @@
         <v>34</v>
       </c>
       <c r="AL20" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM20" t="n">
         <v>75</v>
@@ -3235,10 +3235,10 @@
         <v>2.68</v>
       </c>
       <c r="G21" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H21" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I21" t="n">
         <v>3.35</v>
@@ -3268,7 +3268,7 @@
         <v>1.75</v>
       </c>
       <c r="R21" t="n">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="S21" t="n">
         <v>2.66</v>
@@ -3280,10 +3280,10 @@
         <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W21" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G22" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H22" t="n">
         <v>3.3</v>
@@ -3382,7 +3382,7 @@
         <v>3.2</v>
       </c>
       <c r="K22" t="n">
-        <v>5.2</v>
+        <v>6.8</v>
       </c>
       <c r="L22" t="n">
         <v>1.32</v>
@@ -3391,16 +3391,16 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="O22" t="n">
         <v>1.3</v>
       </c>
       <c r="P22" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R22" t="n">
         <v>1.31</v>
@@ -3418,7 +3418,7 @@
         <v>1.26</v>
       </c>
       <c r="W22" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X22" t="n">
         <v>20</v>
@@ -3433,10 +3433,10 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AC22" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AD22" t="n">
         <v>23</v>
@@ -3445,10 +3445,10 @@
         <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AG22" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AH22" t="n">
         <v>25</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="G23" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H23" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="I23" t="n">
         <v>2.04</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.06</v>
       </c>
       <c r="J23" t="n">
         <v>4</v>
@@ -3538,10 +3538,10 @@
         <v>1.56</v>
       </c>
       <c r="R23" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S23" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="T23" t="n">
         <v>1.53</v>
@@ -3550,7 +3550,7 @@
         <v>2.8</v>
       </c>
       <c r="V23" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="W23" t="n">
         <v>1.35</v>
@@ -3568,7 +3568,7 @@
         <v>24</v>
       </c>
       <c r="AB23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC23" t="n">
         <v>9.6</v>
@@ -3583,7 +3583,7 @@
         <v>32</v>
       </c>
       <c r="AG23" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH23" t="n">
         <v>14</v>
@@ -3595,7 +3595,7 @@
         <v>70</v>
       </c>
       <c r="AK23" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL23" t="n">
         <v>36</v>
@@ -3607,7 +3607,7 @@
         <v>23</v>
       </c>
       <c r="AO23" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="24">
@@ -3640,7 +3640,7 @@
         <v>2.4</v>
       </c>
       <c r="G24" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H24" t="n">
         <v>2.32</v>
@@ -3685,7 +3685,7 @@
         <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W24" t="n">
         <v>1.4</v>
@@ -3772,13 +3772,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G25" t="n">
         <v>2.6</v>
       </c>
       <c r="H25" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
         <v>3.4</v>
@@ -3802,10 +3802,10 @@
         <v>1.41</v>
       </c>
       <c r="P25" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R25" t="n">
         <v>1.26</v>
@@ -3832,10 +3832,10 @@
         <v>12.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AA25" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AB25" t="n">
         <v>10.5</v>
@@ -3844,13 +3844,13 @@
         <v>7.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AE25" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AF25" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AG25" t="n">
         <v>14</v>
@@ -3859,10 +3859,10 @@
         <v>23</v>
       </c>
       <c r="AI25" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ25" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AK25" t="n">
         <v>38</v>
@@ -3877,7 +3877,7 @@
         <v>36</v>
       </c>
       <c r="AO25" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
@@ -3907,19 +3907,19 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G26" t="n">
         <v>2.62</v>
       </c>
       <c r="H26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J26" t="n">
         <v>3.15</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.2</v>
       </c>
       <c r="K26" t="n">
         <v>3.5</v>
@@ -3937,7 +3937,7 @@
         <v>1.41</v>
       </c>
       <c r="P26" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q26" t="n">
         <v>2.2</v>
@@ -3952,16 +3952,16 @@
         <v>1.89</v>
       </c>
       <c r="U26" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V26" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="W26" t="n">
         <v>1.61</v>
       </c>
       <c r="X26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y26" t="n">
         <v>13</v>
@@ -3994,7 +3994,7 @@
         <v>20</v>
       </c>
       <c r="AI26" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ26" t="n">
         <v>38</v>
@@ -4084,13 +4084,13 @@
         <v>2.48</v>
       </c>
       <c r="T27" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="U27" t="n">
         <v>1.01</v>
       </c>
       <c r="V27" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="W27" t="n">
         <v>1.21</v>
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="G28" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="H28" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="I28" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="J28" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="K28" t="n">
         <v>9.6</v>
-      </c>
-      <c r="K28" t="n">
-        <v>10</v>
       </c>
       <c r="L28" t="n">
         <v>1.19</v>
@@ -4228,7 +4228,7 @@
         <v>1.06</v>
       </c>
       <c r="W28" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="X28" t="n">
         <v>60</v>
@@ -4237,7 +4237,7 @@
         <v>80</v>
       </c>
       <c r="Z28" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.56</v>
+        <v>2.72</v>
       </c>
       <c r="G29" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="H29" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="I29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J29" t="n">
         <v>3.15</v>
       </c>
-      <c r="J29" t="n">
-        <v>2.9</v>
-      </c>
       <c r="K29" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L29" t="n">
         <v>1.48</v>
@@ -4336,34 +4336,34 @@
         <v>1.09</v>
       </c>
       <c r="N29" t="n">
-        <v>1.25</v>
+        <v>1.69</v>
       </c>
       <c r="O29" t="n">
         <v>1.43</v>
       </c>
       <c r="P29" t="n">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="R29" t="n">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="S29" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T29" t="n">
         <v>1.75</v>
       </c>
       <c r="U29" t="n">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="V29" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W29" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X29" t="n">
         <v>11.5</v>
@@ -4375,13 +4375,13 @@
         <v>21</v>
       </c>
       <c r="AA29" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB29" t="n">
         <v>10</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD29" t="n">
         <v>14.5</v>
@@ -4450,7 +4450,7 @@
         <v>1.99</v>
       </c>
       <c r="G30" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H30" t="n">
         <v>3.9</v>
@@ -4462,7 +4462,7 @@
         <v>3.2</v>
       </c>
       <c r="K30" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L30" t="n">
         <v>1.37</v>
@@ -4486,7 +4486,7 @@
         <v>1.2</v>
       </c>
       <c r="S30" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T30" t="n">
         <v>1.01</v>
@@ -4498,7 +4498,7 @@
         <v>1.24</v>
       </c>
       <c r="W30" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X30" t="n">
         <v>16</v>
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.4</v>
+        <v>2.16</v>
       </c>
       <c r="G31" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="H31" t="n">
-        <v>2.62</v>
+        <v>2.84</v>
       </c>
       <c r="I31" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="K31" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
@@ -4612,7 +4612,7 @@
         <v>1.01</v>
       </c>
       <c r="P31" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q31" t="n">
         <v>2.3</v>
@@ -4621,73 +4621,73 @@
         <v>1.18</v>
       </c>
       <c r="S31" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="T31" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="U31" t="n">
         <v>1.69</v>
       </c>
       <c r="V31" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="W31" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="X31" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z31" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AA31" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AB31" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG31" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI31" t="n">
         <v>90</v>
       </c>
       <c r="AJ31" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK31" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AL31" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AM31" t="n">
         <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AO31" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
@@ -4723,7 +4723,7 @@
         <v>4.8</v>
       </c>
       <c r="H32" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="I32" t="n">
         <v>2.44</v>
@@ -4756,7 +4756,7 @@
         <v>1.18</v>
       </c>
       <c r="S32" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T32" t="n">
         <v>1.67</v>
@@ -4852,46 +4852,46 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="G33" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H33" t="n">
-        <v>11</v>
+        <v>4.1</v>
       </c>
       <c r="I33" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="J33" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K33" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M33" t="n">
         <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="O33" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P33" t="n">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.6</v>
+        <v>1.24</v>
       </c>
       <c r="R33" t="n">
         <v>1.35</v>
       </c>
       <c r="S33" t="n">
-        <v>2.48</v>
+        <v>2.64</v>
       </c>
       <c r="T33" t="n">
         <v>1.01</v>
@@ -4900,10 +4900,10 @@
         <v>1.01</v>
       </c>
       <c r="V33" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="W33" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="X33" t="n">
         <v>1000</v>
@@ -4990,61 +4990,61 @@
         <v>3.5</v>
       </c>
       <c r="G34" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H34" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="I34" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="J34" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K34" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L34" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M34" t="n">
         <v>1.09</v>
       </c>
       <c r="N34" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="O34" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="P34" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.34</v>
+        <v>2.12</v>
       </c>
       <c r="R34" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="S34" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="T34" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="U34" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="V34" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="W34" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="X34" t="n">
         <v>13</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z34" t="n">
         <v>14.5</v>
@@ -5053,7 +5053,7 @@
         <v>34</v>
       </c>
       <c r="AB34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC34" t="n">
         <v>7.8</v>
@@ -5086,13 +5086,13 @@
         <v>70</v>
       </c>
       <c r="AM34" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN34" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AO34" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35">
@@ -5122,40 +5122,40 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="G35" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="I35" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="J35" t="n">
         <v>3.3</v>
       </c>
       <c r="K35" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N35" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="O35" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P35" t="n">
         <v>1.57</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R35" t="n">
         <v>1.2</v>
@@ -5170,10 +5170,10 @@
         <v>1.7</v>
       </c>
       <c r="V35" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W35" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="X35" t="n">
         <v>10.5</v>
@@ -5182,10 +5182,10 @@
         <v>15</v>
       </c>
       <c r="Z35" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AA35" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="AB35" t="n">
         <v>7.8</v>
@@ -5197,7 +5197,7 @@
         <v>25</v>
       </c>
       <c r="AE35" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF35" t="n">
         <v>10.5</v>
@@ -5206,13 +5206,13 @@
         <v>13</v>
       </c>
       <c r="AH35" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI35" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AJ35" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AK35" t="n">
         <v>26</v>
@@ -5221,13 +5221,13 @@
         <v>60</v>
       </c>
       <c r="AM35" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AN35" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO35" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36">
@@ -5263,7 +5263,7 @@
         <v>4.4</v>
       </c>
       <c r="H36" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="I36" t="n">
         <v>2.24</v>
@@ -5281,16 +5281,16 @@
         <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="O36" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P36" t="n">
         <v>1.25</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R36" t="n">
         <v>1.25</v>
@@ -5311,25 +5311,25 @@
         <v>1.29</v>
       </c>
       <c r="X36" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="Y36" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="Z36" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AA36" t="n">
         <v>29</v>
       </c>
       <c r="AB36" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.4</v>
+        <v>970</v>
       </c>
       <c r="AD36" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AE36" t="n">
         <v>26</v>
@@ -5338,7 +5338,7 @@
         <v>32</v>
       </c>
       <c r="AG36" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AH36" t="n">
         <v>21</v>
@@ -5392,10 +5392,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G37" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H37" t="n">
         <v>4</v>
@@ -5407,7 +5407,7 @@
         <v>3.25</v>
       </c>
       <c r="K37" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -5419,7 +5419,7 @@
         <v>2.82</v>
       </c>
       <c r="O37" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P37" t="n">
         <v>1.63</v>
@@ -5434,25 +5434,25 @@
         <v>4.4</v>
       </c>
       <c r="T37" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U37" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="V37" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W37" t="n">
         <v>1.84</v>
       </c>
       <c r="X37" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y37" t="n">
         <v>13.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA37" t="n">
         <v>120</v>
@@ -5668,7 +5668,7 @@
         <v>2.8</v>
       </c>
       <c r="H39" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I39" t="n">
         <v>4.1</v>
@@ -5677,7 +5677,7 @@
         <v>2.96</v>
       </c>
       <c r="K39" t="n">
-        <v>5.2</v>
+        <v>950</v>
       </c>
       <c r="L39" t="n">
         <v>1.34</v>
@@ -5692,10 +5692,10 @@
         <v>1.01</v>
       </c>
       <c r="P39" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R39" t="n">
         <v>1.25</v>
@@ -5800,7 +5800,7 @@
         <v>1.83</v>
       </c>
       <c r="G40" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="H40" t="n">
         <v>4.6</v>
@@ -5821,34 +5821,34 @@
         <v>1.05</v>
       </c>
       <c r="N40" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O40" t="n">
         <v>1.3</v>
       </c>
       <c r="P40" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="R40" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S40" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="T40" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="U40" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V40" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W40" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X40" t="n">
         <v>16.5</v>
@@ -5932,13 +5932,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="G41" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H41" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I41" t="n">
         <v>4.1</v>
@@ -5947,46 +5947,46 @@
         <v>3.2</v>
       </c>
       <c r="K41" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
       </c>
       <c r="M41" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N41" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="O41" t="n">
-        <v>1.02</v>
+        <v>1.44</v>
       </c>
       <c r="P41" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R41" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S41" t="n">
         <v>3.9</v>
       </c>
       <c r="T41" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="U41" t="n">
         <v>1.76</v>
       </c>
       <c r="V41" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W41" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="X41" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y41" t="n">
         <v>15</v>
@@ -5998,10 +5998,10 @@
         <v>95</v>
       </c>
       <c r="AB41" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC41" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD41" t="n">
         <v>21</v>
@@ -6010,7 +6010,7 @@
         <v>70</v>
       </c>
       <c r="AF41" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG41" t="n">
         <v>17</v>
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="G43" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H43" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I43" t="n">
         <v>9.800000000000001</v>
@@ -6226,13 +6226,13 @@
         <v>1.03</v>
       </c>
       <c r="N43" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="O43" t="n">
         <v>1.3</v>
       </c>
       <c r="P43" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q43" t="n">
         <v>1.74</v>
@@ -6241,19 +6241,19 @@
         <v>1.33</v>
       </c>
       <c r="S43" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T43" t="n">
         <v>1.01</v>
       </c>
       <c r="U43" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="V43" t="n">
         <v>1.11</v>
       </c>
       <c r="W43" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6343,7 +6343,7 @@
         <v>2.88</v>
       </c>
       <c r="H44" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="I44" t="n">
         <v>3.1</v>
@@ -6352,7 +6352,7 @@
         <v>3.2</v>
       </c>
       <c r="K44" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L44" t="n">
         <v>1.43</v>
@@ -6367,25 +6367,25 @@
         <v>1.35</v>
       </c>
       <c r="P44" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R44" t="n">
         <v>1.31</v>
       </c>
       <c r="S44" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T44" t="n">
         <v>1.67</v>
       </c>
       <c r="U44" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="V44" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W44" t="n">
         <v>1.53</v>
@@ -6475,7 +6475,7 @@
         <v>7.8</v>
       </c>
       <c r="G45" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="H45" t="n">
         <v>1.47</v>
@@ -6508,7 +6508,7 @@
         <v>1.79</v>
       </c>
       <c r="R45" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S45" t="n">
         <v>3</v>
@@ -6640,10 +6640,10 @@
         <v>2.06</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R46" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S46" t="n">
         <v>2.32</v>
@@ -6742,13 +6742,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G47" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="H47" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I47" t="n">
         <v>3.55</v>
@@ -6757,13 +6757,13 @@
         <v>3.1</v>
       </c>
       <c r="K47" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L47" t="n">
         <v>1.01</v>
       </c>
       <c r="M47" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N47" t="n">
         <v>3.25</v>
@@ -6781,22 +6781,22 @@
         <v>1.27</v>
       </c>
       <c r="S47" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="T47" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="U47" t="n">
-        <v>1.01</v>
+        <v>1.99</v>
       </c>
       <c r="V47" t="n">
         <v>1.39</v>
       </c>
       <c r="W47" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X47" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y47" t="n">
         <v>15</v>
@@ -6811,10 +6811,10 @@
         <v>12.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD47" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AE47" t="n">
         <v>55</v>
@@ -6883,10 +6883,10 @@
         <v>2.52</v>
       </c>
       <c r="H48" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="I48" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="J48" t="n">
         <v>3.95</v>
@@ -6913,7 +6913,7 @@
         <v>1.53</v>
       </c>
       <c r="R48" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="S48" t="n">
         <v>2.3</v>
@@ -6928,7 +6928,7 @@
         <v>1.53</v>
       </c>
       <c r="W48" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X48" t="n">
         <v>28</v>
@@ -7153,7 +7153,7 @@
         <v>1.38</v>
       </c>
       <c r="H50" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I50" t="n">
         <v>11.5</v>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G53" t="n">
         <v>1.79</v>
@@ -7600,7 +7600,7 @@
         <v>2.4</v>
       </c>
       <c r="V53" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W53" t="n">
         <v>2.26</v>
@@ -7873,7 +7873,7 @@
         <v>1.98</v>
       </c>
       <c r="W55" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="X55" t="n">
         <v>1000</v>
@@ -8257,7 +8257,7 @@
         <v>1.37</v>
       </c>
       <c r="P58" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q58" t="n">
         <v>2.12</v>
@@ -8272,7 +8272,7 @@
         <v>1.86</v>
       </c>
       <c r="U58" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V58" t="n">
         <v>1.36</v>
@@ -8395,7 +8395,7 @@
         <v>2.18</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R59" t="n">
         <v>1.47</v>
@@ -8497,16 +8497,16 @@
         </is>
       </c>
       <c r="F60" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G60" t="n">
         <v>2.84</v>
       </c>
-      <c r="G60" t="n">
-        <v>2.86</v>
-      </c>
       <c r="H60" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="I60" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="J60" t="n">
         <v>3.25</v>
@@ -8539,19 +8539,19 @@
         <v>4.5</v>
       </c>
       <c r="T60" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="U60" t="n">
         <v>1.97</v>
       </c>
       <c r="V60" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="W60" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X60" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y60" t="n">
         <v>9.6</v>
@@ -8638,7 +8638,7 @@
         <v>1.27</v>
       </c>
       <c r="H61" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="I61" t="n">
         <v>15</v>
@@ -8674,7 +8674,7 @@
         <v>2.6</v>
       </c>
       <c r="T61" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="U61" t="n">
         <v>1.77</v>
@@ -8683,7 +8683,7 @@
         <v>1.07</v>
       </c>
       <c r="W61" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="X61" t="n">
         <v>26</v>
@@ -8695,7 +8695,7 @@
         <v>150</v>
       </c>
       <c r="AA61" t="n">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="AB61" t="n">
         <v>9.4</v>
@@ -8710,7 +8710,7 @@
         <v>260</v>
       </c>
       <c r="AF61" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AG61" t="n">
         <v>11.5</v>
@@ -8779,7 +8779,7 @@
         <v>3.35</v>
       </c>
       <c r="J62" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K62" t="n">
         <v>4.5</v>
@@ -8800,13 +8800,13 @@
         <v>2.04</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R62" t="n">
         <v>1.41</v>
       </c>
       <c r="S62" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T62" t="n">
         <v>1.64</v>
@@ -8815,7 +8815,7 @@
         <v>2.24</v>
       </c>
       <c r="V62" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="W62" t="n">
         <v>1.57</v>
@@ -8824,7 +8824,7 @@
         <v>21</v>
       </c>
       <c r="Y62" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="Z62" t="n">
         <v>26</v>
@@ -8833,13 +8833,13 @@
         <v>60</v>
       </c>
       <c r="AB62" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AC62" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AD62" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AE62" t="n">
         <v>40</v>
@@ -8848,7 +8848,7 @@
         <v>21</v>
       </c>
       <c r="AG62" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AH62" t="n">
         <v>20</v>
@@ -8863,7 +8863,7 @@
         <v>32</v>
       </c>
       <c r="AL62" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AM62" t="n">
         <v>95</v>
@@ -8908,7 +8908,7 @@
         <v>2.4</v>
       </c>
       <c r="H63" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I63" t="n">
         <v>4.9</v>
@@ -9046,7 +9046,7 @@
         <v>2.04</v>
       </c>
       <c r="I64" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="J64" t="n">
         <v>3.65</v>
@@ -9082,10 +9082,10 @@
         <v>1.6</v>
       </c>
       <c r="U64" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="V64" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="W64" t="n">
         <v>1.34</v>
@@ -9097,19 +9097,19 @@
         <v>14</v>
       </c>
       <c r="Z64" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AA64" t="n">
         <v>27</v>
       </c>
       <c r="AB64" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AC64" t="n">
-        <v>9.4</v>
+        <v>970</v>
       </c>
       <c r="AD64" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AE64" t="n">
         <v>25</v>
@@ -9118,10 +9118,10 @@
         <v>32</v>
       </c>
       <c r="AG64" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AH64" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AI64" t="n">
         <v>32</v>
@@ -9142,7 +9142,7 @@
         <v>34</v>
       </c>
       <c r="AO64" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
     </row>
     <row r="65">
@@ -9175,10 +9175,10 @@
         <v>2.12</v>
       </c>
       <c r="G65" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H65" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I65" t="n">
         <v>3.7</v>
@@ -9208,7 +9208,7 @@
         <v>1.69</v>
       </c>
       <c r="R65" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S65" t="n">
         <v>2.46</v>
@@ -9328,10 +9328,10 @@
         <v>1.22</v>
       </c>
       <c r="M66" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N66" t="n">
-        <v>2.28</v>
+        <v>4.5</v>
       </c>
       <c r="O66" t="n">
         <v>1.21</v>
@@ -9343,16 +9343,16 @@
         <v>1.62</v>
       </c>
       <c r="R66" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="S66" t="n">
-        <v>2.32</v>
+        <v>2.56</v>
       </c>
       <c r="T66" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="U66" t="n">
-        <v>1.01</v>
+        <v>1.99</v>
       </c>
       <c r="V66" t="n">
         <v>2.32</v>
@@ -9361,58 +9361,58 @@
         <v>1.2</v>
       </c>
       <c r="X66" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI66" t="n">
         <v>32</v>
       </c>
-      <c r="Y66" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA66" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB66" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC66" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF66" t="n">
+      <c r="AJ66" t="n">
+        <v>160</v>
+      </c>
+      <c r="AK66" t="n">
         <v>70</v>
       </c>
-      <c r="AG66" t="n">
-        <v>30</v>
-      </c>
-      <c r="AH66" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK66" t="n">
-        <v>95</v>
-      </c>
       <c r="AL66" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AM66" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN66" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO66" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
@@ -9448,7 +9448,7 @@
         <v>9.6</v>
       </c>
       <c r="H67" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="I67" t="n">
         <v>1.65</v>
@@ -9475,7 +9475,7 @@
         <v>1.44</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R67" t="n">
         <v>1.43</v>
@@ -9601,7 +9601,7 @@
         <v>1.01</v>
       </c>
       <c r="N68" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="O68" t="n">
         <v>1.01</v>
@@ -9610,19 +9610,19 @@
         <v>1.6</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R68" t="n">
         <v>1.23</v>
       </c>
       <c r="S68" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T68" t="n">
         <v>1.65</v>
       </c>
       <c r="U68" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="V68" t="n">
         <v>1.25</v>
@@ -9634,7 +9634,7 @@
         <v>16</v>
       </c>
       <c r="Y68" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="Z68" t="n">
         <v>40</v>
@@ -9655,10 +9655,10 @@
         <v>85</v>
       </c>
       <c r="AF68" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AG68" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AH68" t="n">
         <v>29</v>
@@ -9748,7 +9748,7 @@
         <v>1.69</v>
       </c>
       <c r="R69" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S69" t="n">
         <v>2.42</v>
@@ -9757,7 +9757,7 @@
         <v>1.43</v>
       </c>
       <c r="U69" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="V69" t="n">
         <v>1.71</v>
@@ -9856,7 +9856,7 @@
         <v>1.28</v>
       </c>
       <c r="I70" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="J70" t="n">
         <v>4.7</v>
@@ -9871,7 +9871,7 @@
         <v>1.02</v>
       </c>
       <c r="N70" t="n">
-        <v>2.42</v>
+        <v>3.9</v>
       </c>
       <c r="O70" t="n">
         <v>1.15</v>
@@ -9883,10 +9883,10 @@
         <v>1.37</v>
       </c>
       <c r="R70" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S70" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="T70" t="n">
         <v>1.01</v>
@@ -9904,22 +9904,22 @@
         <v>44</v>
       </c>
       <c r="Y70" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="Z70" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AA70" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AB70" t="n">
         <v>1000</v>
       </c>
       <c r="AC70" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AD70" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AE70" t="n">
         <v>20</v>
@@ -9982,13 +9982,13 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G71" t="n">
         <v>3.1</v>
       </c>
       <c r="H71" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="I71" t="n">
         <v>3.45</v>
@@ -10006,13 +10006,13 @@
         <v>1.01</v>
       </c>
       <c r="N71" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="O71" t="n">
         <v>1.31</v>
       </c>
       <c r="P71" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q71" t="n">
         <v>1.9</v>
@@ -10033,7 +10033,7 @@
         <v>1.41</v>
       </c>
       <c r="W71" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X71" t="n">
         <v>21</v>
@@ -10123,7 +10123,7 @@
         <v>6.4</v>
       </c>
       <c r="H72" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="I72" t="n">
         <v>2.08</v>
@@ -10285,13 +10285,13 @@
         <v>1.92</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.24</v>
+        <v>1.73</v>
       </c>
       <c r="R73" t="n">
         <v>1.22</v>
       </c>
       <c r="S73" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="T73" t="n">
         <v>1.01</v>
@@ -10390,7 +10390,7 @@
         <v>2</v>
       </c>
       <c r="G74" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H74" t="n">
         <v>3.7</v>
@@ -10399,7 +10399,7 @@
         <v>5.3</v>
       </c>
       <c r="J74" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="K74" t="n">
         <v>4.4</v>
@@ -10411,13 +10411,13 @@
         <v>1.01</v>
       </c>
       <c r="N74" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="O74" t="n">
         <v>1.33</v>
       </c>
       <c r="P74" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q74" t="n">
         <v>2</v>
@@ -10438,7 +10438,7 @@
         <v>1.23</v>
       </c>
       <c r="W74" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X74" t="n">
         <v>19</v>
@@ -10540,7 +10540,7 @@
         <v>3.2</v>
       </c>
       <c r="L75" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="M75" t="n">
         <v>1.12</v>
@@ -10660,16 +10660,16 @@
         <v>3.3</v>
       </c>
       <c r="G76" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="H76" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I76" t="n">
-        <v>2.74</v>
+        <v>3.15</v>
       </c>
       <c r="J76" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="K76" t="n">
         <v>3.45</v>
@@ -10705,7 +10705,7 @@
         <v>1.01</v>
       </c>
       <c r="V76" t="n">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="W76" t="n">
         <v>1.35</v>
@@ -10825,7 +10825,7 @@
         <v>1.81</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="R77" t="n">
         <v>1.3</v>
@@ -10927,22 +10927,22 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="G78" t="n">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="H78" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="I78" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J78" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K78" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="L78" t="n">
         <v>1.01</v>
@@ -10975,64 +10975,64 @@
         <v>2.16</v>
       </c>
       <c r="V78" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="W78" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="X78" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y78" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z78" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AA78" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB78" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC78" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD78" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE78" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF78" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG78" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH78" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI78" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ78" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK78" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL78" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM78" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN78" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AO78" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79">
@@ -11086,19 +11086,19 @@
         <v>1.02</v>
       </c>
       <c r="N79" t="n">
-        <v>1.73</v>
+        <v>3.9</v>
       </c>
       <c r="O79" t="n">
         <v>1.11</v>
       </c>
       <c r="P79" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q79" t="n">
         <v>1.4</v>
       </c>
       <c r="R79" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="S79" t="n">
         <v>1.96</v>
@@ -11362,7 +11362,7 @@
         <v>1.26</v>
       </c>
       <c r="P81" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q81" t="n">
         <v>1.78</v>
@@ -11383,7 +11383,7 @@
         <v>1.12</v>
       </c>
       <c r="W81" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="X81" t="n">
         <v>19.5</v>
@@ -11485,7 +11485,7 @@
         <v>8</v>
       </c>
       <c r="L82" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M82" t="n">
         <v>1.01</v>
@@ -11503,7 +11503,7 @@
         <v>1.68</v>
       </c>
       <c r="R82" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="S82" t="n">
         <v>2.42</v>
@@ -11602,7 +11602,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="G83" t="n">
         <v>5</v>
@@ -11611,13 +11611,13 @@
         <v>2.2</v>
       </c>
       <c r="I83" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="J83" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="K83" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L83" t="n">
         <v>1.01</v>
@@ -11626,16 +11626,16 @@
         <v>1.01</v>
       </c>
       <c r="N83" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="O83" t="n">
         <v>1.01</v>
       </c>
       <c r="P83" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R83" t="n">
         <v>1.19</v>
@@ -11650,10 +11650,10 @@
         <v>1.01</v>
       </c>
       <c r="V83" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="W83" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X83" t="n">
         <v>1000</v>
@@ -11746,7 +11746,7 @@
         <v>1.04</v>
       </c>
       <c r="I84" t="n">
-        <v>110</v>
+        <v>970</v>
       </c>
       <c r="J84" t="n">
         <v>1.01</v>
@@ -11872,13 +11872,13 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="G85" t="n">
         <v>3.95</v>
       </c>
       <c r="H85" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="I85" t="n">
         <v>2.98</v>
@@ -11887,7 +11887,7 @@
         <v>3</v>
       </c>
       <c r="K85" t="n">
-        <v>950</v>
+        <v>6.2</v>
       </c>
       <c r="L85" t="n">
         <v>1.01</v>
@@ -11896,16 +11896,16 @@
         <v>1.01</v>
       </c>
       <c r="N85" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="O85" t="n">
         <v>1.31</v>
       </c>
       <c r="P85" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R85" t="n">
         <v>1.31</v>
@@ -11920,7 +11920,7 @@
         <v>1.01</v>
       </c>
       <c r="V85" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W85" t="n">
         <v>1.34</v>
@@ -12151,7 +12151,7 @@
         <v>2.88</v>
       </c>
       <c r="I87" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J87" t="n">
         <v>2.68</v>
@@ -12190,7 +12190,7 @@
         <v>1.01</v>
       </c>
       <c r="V87" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W87" t="n">
         <v>1.52</v>
@@ -12301,13 +12301,13 @@
         <v>1.01</v>
       </c>
       <c r="N88" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="O88" t="n">
         <v>1.01</v>
       </c>
       <c r="P88" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="Q88" t="n">
         <v>2.38</v>
@@ -12412,22 +12412,22 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="G89" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="H89" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I89" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="J89" t="n">
         <v>2.8</v>
       </c>
       <c r="K89" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="L89" t="n">
         <v>1.37</v>
@@ -12451,28 +12451,28 @@
         <v>1.19</v>
       </c>
       <c r="S89" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="T89" t="n">
         <v>1.01</v>
       </c>
       <c r="U89" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="V89" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="W89" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="X89" t="n">
         <v>17</v>
       </c>
       <c r="Y89" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z89" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA89" t="n">
         <v>1000</v>
@@ -12502,7 +12502,7 @@
         <v>1000</v>
       </c>
       <c r="AJ89" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK89" t="n">
         <v>46</v>
@@ -12547,16 +12547,16 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="G90" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="H90" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I90" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="J90" t="n">
         <v>2.92</v>
@@ -12565,7 +12565,7 @@
         <v>3.65</v>
       </c>
       <c r="L90" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M90" t="n">
         <v>1.08</v>
@@ -12577,7 +12577,7 @@
         <v>1.37</v>
       </c>
       <c r="P90" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="Q90" t="n">
         <v>2.28</v>
@@ -12595,22 +12595,22 @@
         <v>1.96</v>
       </c>
       <c r="V90" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="W90" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="X90" t="n">
         <v>14</v>
       </c>
       <c r="Y90" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z90" t="n">
         <v>28</v>
       </c>
       <c r="AA90" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AB90" t="n">
         <v>9.4</v>
@@ -12619,13 +12619,13 @@
         <v>8</v>
       </c>
       <c r="AD90" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE90" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF90" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG90" t="n">
         <v>12</v>
@@ -12637,7 +12637,7 @@
         <v>65</v>
       </c>
       <c r="AJ90" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AK90" t="n">
         <v>28</v>
@@ -12649,10 +12649,10 @@
         <v>140</v>
       </c>
       <c r="AN90" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO90" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91">
@@ -12685,16 +12685,16 @@
         <v>1.19</v>
       </c>
       <c r="G91" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="H91" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="I91" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J91" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="K91" t="n">
         <v>9.4</v>
@@ -12730,10 +12730,10 @@
         <v>1.01</v>
       </c>
       <c r="V91" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W91" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="X91" t="n">
         <v>60</v>
@@ -12778,7 +12778,7 @@
         <v>18</v>
       </c>
       <c r="AL91" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM91" t="n">
         <v>1000</v>
@@ -12823,7 +12823,7 @@
         <v>5.7</v>
       </c>
       <c r="H92" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="I92" t="n">
         <v>2</v>
@@ -12832,7 +12832,7 @@
         <v>3.9</v>
       </c>
       <c r="K92" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="L92" t="n">
         <v>1.01</v>
@@ -12958,13 +12958,13 @@
         <v>3.1</v>
       </c>
       <c r="H93" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="I93" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J93" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K93" t="n">
         <v>3.7</v>
@@ -13000,7 +13000,7 @@
         <v>2.32</v>
       </c>
       <c r="V93" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="W93" t="n">
         <v>1.47</v>
@@ -13009,13 +13009,13 @@
         <v>17.5</v>
       </c>
       <c r="Y93" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z93" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA93" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB93" t="n">
         <v>14.5</v>
@@ -13027,7 +13027,7 @@
         <v>13</v>
       </c>
       <c r="AE93" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF93" t="n">
         <v>23</v>
@@ -13048,7 +13048,7 @@
         <v>32</v>
       </c>
       <c r="AL93" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AM93" t="n">
         <v>70</v>
@@ -13057,7 +13057,7 @@
         <v>25</v>
       </c>
       <c r="AO93" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94">
@@ -13096,7 +13096,7 @@
         <v>8.6</v>
       </c>
       <c r="I94" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="J94" t="n">
         <v>4.6</v>
@@ -13231,7 +13231,7 @@
         <v>1.35</v>
       </c>
       <c r="I95" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="J95" t="n">
         <v>4</v>
@@ -13246,16 +13246,16 @@
         <v>1.01</v>
       </c>
       <c r="N95" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="O95" t="n">
         <v>1.01</v>
       </c>
       <c r="P95" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R95" t="n">
         <v>1.27</v>
@@ -13357,10 +13357,10 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="G96" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H96" t="n">
         <v>3.75</v>
@@ -13372,7 +13372,7 @@
         <v>3.6</v>
       </c>
       <c r="K96" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="L96" t="n">
         <v>1.01</v>
@@ -13408,7 +13408,7 @@
         <v>1.18</v>
       </c>
       <c r="W96" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="X96" t="n">
         <v>32</v>
@@ -13423,10 +13423,10 @@
         <v>1000</v>
       </c>
       <c r="AB96" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AC96" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AD96" t="n">
         <v>26</v>
@@ -13435,10 +13435,10 @@
         <v>1000</v>
       </c>
       <c r="AF96" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AG96" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AH96" t="n">
         <v>23</v>
@@ -13459,7 +13459,7 @@
         <v>1000</v>
       </c>
       <c r="AN96" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AO96" t="n">
         <v>1000</v>
@@ -13513,7 +13513,7 @@
         <v>1.4</v>
       </c>
       <c r="M97" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N97" t="n">
         <v>4</v>
@@ -13588,7 +13588,7 @@
         <v>110</v>
       </c>
       <c r="AL97" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AM97" t="n">
         <v>140</v>
@@ -13636,7 +13636,7 @@
         <v>1.61</v>
       </c>
       <c r="I98" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="J98" t="n">
         <v>5.1</v>
@@ -13675,7 +13675,7 @@
         <v>3</v>
       </c>
       <c r="V98" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="W98" t="n">
         <v>1.22</v>
@@ -13771,7 +13771,7 @@
         <v>1.96</v>
       </c>
       <c r="I99" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="J99" t="n">
         <v>3.25</v>
@@ -13795,13 +13795,13 @@
         <v>2.04</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="R99" t="n">
         <v>1.18</v>
       </c>
       <c r="S99" t="n">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="T99" t="n">
         <v>1.64</v>
@@ -13930,13 +13930,13 @@
         <v>3.5</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="R100" t="n">
         <v>2.02</v>
       </c>
       <c r="S100" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="T100" t="n">
         <v>1.61</v>
@@ -14035,10 +14035,10 @@
         <v>1.86</v>
       </c>
       <c r="G101" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="H101" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I101" t="n">
         <v>5.7</v>
@@ -14083,7 +14083,7 @@
         <v>1.21</v>
       </c>
       <c r="W101" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X101" t="n">
         <v>9.199999999999999</v>
@@ -14188,7 +14188,7 @@
         <v>1.46</v>
       </c>
       <c r="M102" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N102" t="n">
         <v>3.2</v>
@@ -14203,16 +14203,16 @@
         <v>2.08</v>
       </c>
       <c r="R102" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S102" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="T102" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="U102" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="V102" t="n">
         <v>1.21</v>
@@ -14224,55 +14224,55 @@
         <v>15</v>
       </c>
       <c r="Y102" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD102" t="n">
         <v>22</v>
       </c>
-      <c r="Z102" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA102" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB102" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC102" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD102" t="n">
-        <v>30</v>
-      </c>
       <c r="AE102" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF102" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG102" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH102" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AI102" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ102" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AK102" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AL102" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AM102" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN102" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO102" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103">
@@ -14308,7 +14308,7 @@
         <v>6.6</v>
       </c>
       <c r="H103" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="I103" t="n">
         <v>1.61</v>
@@ -14326,19 +14326,19 @@
         <v>1.03</v>
       </c>
       <c r="N103" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="O103" t="n">
         <v>1.16</v>
       </c>
       <c r="P103" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q103" t="n">
         <v>1.54</v>
       </c>
       <c r="R103" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S103" t="n">
         <v>2.14</v>
@@ -14347,7 +14347,7 @@
         <v>1.56</v>
       </c>
       <c r="U103" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="V103" t="n">
         <v>2.62</v>
@@ -14443,7 +14443,7 @@
         <v>3.5</v>
       </c>
       <c r="H104" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I104" t="n">
         <v>3.3</v>
@@ -14455,28 +14455,28 @@
         <v>4.6</v>
       </c>
       <c r="L104" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M104" t="n">
         <v>1.01</v>
       </c>
       <c r="N104" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="O104" t="n">
         <v>1.01</v>
       </c>
       <c r="P104" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R104" t="n">
         <v>1.27</v>
       </c>
       <c r="S104" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T104" t="n">
         <v>1.59</v>
@@ -14485,7 +14485,7 @@
         <v>1.73</v>
       </c>
       <c r="V104" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W104" t="n">
         <v>1.4</v>
@@ -14572,19 +14572,19 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="G105" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H105" t="n">
         <v>2.36</v>
       </c>
       <c r="I105" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="J105" t="n">
-        <v>2.64</v>
+        <v>3.2</v>
       </c>
       <c r="K105" t="n">
         <v>3.45</v>
@@ -14623,7 +14623,7 @@
         <v>1.54</v>
       </c>
       <c r="W105" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X105" t="n">
         <v>15.5</v>
@@ -14740,10 +14740,10 @@
         <v>2.12</v>
       </c>
       <c r="Q106" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R106" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S106" t="n">
         <v>2.3</v>
@@ -14842,7 +14842,7 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G107" t="n">
         <v>2.04</v>
@@ -14878,7 +14878,7 @@
         <v>1.92</v>
       </c>
       <c r="R107" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S107" t="n">
         <v>3.35</v>
@@ -14977,13 +14977,13 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="G108" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H108" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="I108" t="n">
         <v>3.15</v>
@@ -14992,7 +14992,7 @@
         <v>3</v>
       </c>
       <c r="K108" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L108" t="n">
         <v>1.59</v>
@@ -15112,7 +15112,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G109" t="n">
         <v>3.75</v>
@@ -15160,13 +15160,13 @@
         <v>1.83</v>
       </c>
       <c r="V109" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="W109" t="n">
         <v>1.36</v>
       </c>
       <c r="X109" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y109" t="n">
         <v>1000</v>
@@ -15253,13 +15253,13 @@
         <v>8.4</v>
       </c>
       <c r="H110" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="I110" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="J110" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="K110" t="n">
         <v>6.2</v>
@@ -15292,10 +15292,10 @@
         <v>1.68</v>
       </c>
       <c r="U110" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="V110" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="W110" t="n">
         <v>1.13</v>
@@ -15415,7 +15415,7 @@
         <v>2.22</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R111" t="n">
         <v>1.5</v>
@@ -15517,19 +15517,19 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="G112" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H112" t="n">
-        <v>2.72</v>
+        <v>2.9</v>
       </c>
       <c r="I112" t="n">
         <v>3.1</v>
       </c>
       <c r="J112" t="n">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="K112" t="n">
         <v>3.5</v>
@@ -15547,16 +15547,16 @@
         <v>1.36</v>
       </c>
       <c r="P112" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="Q112" t="n">
-        <v>2.08</v>
+        <v>1.36</v>
       </c>
       <c r="R112" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S112" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T112" t="n">
         <v>1.01</v>
@@ -15568,7 +15568,7 @@
         <v>1.47</v>
       </c>
       <c r="W112" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="X112" t="n">
         <v>1000</v>
@@ -15655,10 +15655,10 @@
         <v>1.99</v>
       </c>
       <c r="G113" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="H113" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I113" t="n">
         <v>4.1</v>
@@ -15682,7 +15682,7 @@
         <v>1.15</v>
       </c>
       <c r="P113" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="Q113" t="n">
         <v>1.51</v>
@@ -15691,7 +15691,7 @@
         <v>1.72</v>
       </c>
       <c r="S113" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="T113" t="n">
         <v>1.47</v>
@@ -15703,16 +15703,16 @@
         <v>1.32</v>
       </c>
       <c r="W113" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="X113" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y113" t="n">
         <v>28</v>
       </c>
       <c r="Z113" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AA113" t="n">
         <v>70</v>
@@ -15724,13 +15724,13 @@
         <v>11</v>
       </c>
       <c r="AD113" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE113" t="n">
         <v>40</v>
       </c>
       <c r="AF113" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG113" t="n">
         <v>12.5</v>
@@ -15751,7 +15751,7 @@
         <v>27</v>
       </c>
       <c r="AM113" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AN113" t="n">
         <v>8.800000000000001</v>
@@ -15793,7 +15793,7 @@
         <v>7.6</v>
       </c>
       <c r="H114" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="I114" t="n">
         <v>1.57</v>
@@ -15817,7 +15817,7 @@
         <v>1.36</v>
       </c>
       <c r="P114" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q114" t="n">
         <v>2.08</v>
@@ -15847,7 +15847,7 @@
         <v>7.2</v>
       </c>
       <c r="Z114" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA114" t="n">
         <v>13.5</v>
@@ -15958,7 +15958,7 @@
         <v>1.59</v>
       </c>
       <c r="R115" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S115" t="n">
         <v>2.46</v>
@@ -15973,7 +15973,7 @@
         <v>1.17</v>
       </c>
       <c r="W115" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="X115" t="n">
         <v>25</v>
@@ -16027,7 +16027,7 @@
         <v>6.6</v>
       </c>
       <c r="AO115" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="116">
@@ -16063,7 +16063,7 @@
         <v>3.25</v>
       </c>
       <c r="H116" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I116" t="n">
         <v>2.36</v>
@@ -16072,7 +16072,7 @@
         <v>3.8</v>
       </c>
       <c r="K116" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L116" t="n">
         <v>1.29</v>
@@ -16093,16 +16093,16 @@
         <v>1.63</v>
       </c>
       <c r="R116" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S116" t="n">
         <v>2.56</v>
       </c>
       <c r="T116" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="U116" t="n">
-        <v>2.24</v>
+        <v>2.5</v>
       </c>
       <c r="V116" t="n">
         <v>1.73</v>
@@ -16231,7 +16231,7 @@
         <v>1.53</v>
       </c>
       <c r="S117" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T117" t="n">
         <v>1.6</v>
@@ -16327,19 +16327,19 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G118" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H118" t="n">
         <v>3.9</v>
       </c>
       <c r="I118" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J118" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K118" t="n">
         <v>3.95</v>
@@ -16357,16 +16357,16 @@
         <v>1.26</v>
       </c>
       <c r="P118" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q118" t="n">
         <v>1.81</v>
       </c>
       <c r="R118" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="S118" t="n">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="T118" t="n">
         <v>1.71</v>
@@ -16375,10 +16375,10 @@
         <v>2.18</v>
       </c>
       <c r="V118" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W118" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X118" t="n">
         <v>18</v>
@@ -16426,7 +16426,7 @@
         <v>36</v>
       </c>
       <c r="AM118" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN118" t="n">
         <v>13.5</v>
@@ -16483,7 +16483,7 @@
         <v>1.39</v>
       </c>
       <c r="M119" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N119" t="n">
         <v>3.8</v>
@@ -16495,10 +16495,10 @@
         <v>1.96</v>
       </c>
       <c r="Q119" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R119" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S119" t="n">
         <v>3.4</v>
@@ -16507,7 +16507,7 @@
         <v>1.95</v>
       </c>
       <c r="U119" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="V119" t="n">
         <v>2.46</v>
@@ -16522,7 +16522,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="Z119" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AA119" t="n">
         <v>16</v>
@@ -16756,34 +16756,34 @@
         <v>1.01</v>
       </c>
       <c r="N121" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="O121" t="n">
         <v>1.28</v>
       </c>
       <c r="P121" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q121" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R121" t="n">
         <v>1.31</v>
       </c>
       <c r="S121" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T121" t="n">
         <v>1.82</v>
       </c>
       <c r="U121" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="V121" t="n">
         <v>1.05</v>
       </c>
       <c r="W121" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="X121" t="n">
         <v>24</v>
@@ -16870,7 +16870,7 @@
         <v>1.64</v>
       </c>
       <c r="G122" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H122" t="n">
         <v>5.3</v>
@@ -16903,7 +16903,7 @@
         <v>1.76</v>
       </c>
       <c r="R122" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S122" t="n">
         <v>2.6</v>
@@ -16918,7 +16918,7 @@
         <v>1.19</v>
       </c>
       <c r="W122" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="X122" t="n">
         <v>22</v>
@@ -17074,7 +17074,7 @@
         <v>12.5</v>
       </c>
       <c r="AD123" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AE123" t="n">
         <v>270</v>
@@ -17161,22 +17161,22 @@
         <v>1.01</v>
       </c>
       <c r="N124" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="O124" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P124" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q124" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R124" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S124" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T124" t="n">
         <v>1.01</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO124"/>
+  <dimension ref="A1:AO126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,64 +667,64 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G2" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="H2" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="I2" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="J2" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
         <v>4.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="O2" t="n">
         <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="R2" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="S2" t="n">
         <v>3.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V2" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="W2" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="Z2" t="n">
         <v>11.5</v>
@@ -733,7 +733,7 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
         <v>9.4</v>
@@ -748,10 +748,10 @@
         <v>46</v>
       </c>
       <c r="AG2" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI2" t="n">
         <v>980</v>
@@ -760,19 +760,19 @@
         <v>140</v>
       </c>
       <c r="AK2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM2" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="3">
@@ -805,10 +805,10 @@
         <v>2.1</v>
       </c>
       <c r="G3" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="H3" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
         <v>3.4</v>
@@ -841,19 +841,19 @@
         <v>1.83</v>
       </c>
       <c r="S3" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="T3" t="n">
         <v>1.47</v>
       </c>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="V3" t="n">
         <v>1.41</v>
       </c>
       <c r="W3" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="X3" t="n">
         <v>30</v>
@@ -946,7 +946,7 @@
         <v>2.28</v>
       </c>
       <c r="I4" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="J4" t="n">
         <v>3.65</v>
@@ -967,7 +967,7 @@
         <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q4" t="n">
         <v>1.9</v>
@@ -1216,7 +1216,7 @@
         <v>2.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
@@ -1237,10 +1237,10 @@
         <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R6" t="n">
         <v>1.58</v>
@@ -1504,7 +1504,7 @@
         <v>3.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P8" t="n">
         <v>1.86</v>
@@ -1522,7 +1522,7 @@
         <v>1.73</v>
       </c>
       <c r="U8" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
         <v>1.45</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>17</v>
+        <v>4.6</v>
       </c>
       <c r="G9" t="n">
         <v>1000</v>
@@ -1621,10 +1621,10 @@
         <v>1.13</v>
       </c>
       <c r="I9" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="J9" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="K9" t="n">
         <v>15</v>
@@ -1807,7 +1807,7 @@
         <v>980</v>
       </c>
       <c r="Z10" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
@@ -1816,7 +1816,7 @@
         <v>11.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD10" t="n">
         <v>980</v>
@@ -1924,7 +1924,7 @@
         <v>3.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="U11" t="n">
         <v>1.69</v>
@@ -2023,10 +2023,10 @@
         <v>4.5</v>
       </c>
       <c r="H12" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="I12" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="J12" t="n">
         <v>2.84</v>
@@ -2038,13 +2038,13 @@
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
         <v>1.6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="P12" t="n">
         <v>1.6</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.96</v>
+        <v>1.04</v>
       </c>
       <c r="G13" t="n">
-        <v>2.66</v>
+        <v>1000</v>
       </c>
       <c r="H13" t="n">
-        <v>2.94</v>
+        <v>1.18</v>
       </c>
       <c r="I13" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="J13" t="n">
-        <v>3.45</v>
+        <v>1.18</v>
       </c>
       <c r="K13" t="n">
-        <v>6.2</v>
+        <v>980</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>2.74</v>
       </c>
       <c r="T14" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="U14" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="V14" t="n">
         <v>1.3</v>
@@ -2341,7 +2341,7 @@
         <v>1.62</v>
       </c>
       <c r="X14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y14" t="n">
         <v>1000</v>
@@ -2881,55 +2881,55 @@
         <v>1.98</v>
       </c>
       <c r="X18" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2968,13 +2968,13 @@
         <v>2.18</v>
       </c>
       <c r="H19" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K19" t="n">
         <v>3.8</v>
@@ -3004,7 +3004,7 @@
         <v>2.88</v>
       </c>
       <c r="T19" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="U19" t="n">
         <v>1.01</v>
@@ -3028,13 +3028,13 @@
         <v>100</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC19" t="n">
         <v>10</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE19" t="n">
         <v>48</v>
@@ -3049,7 +3049,7 @@
         <v>18.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AJ19" t="n">
         <v>34</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="G23" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H23" t="n">
         <v>2.02</v>
@@ -3538,10 +3538,10 @@
         <v>1.56</v>
       </c>
       <c r="R23" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="S23" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T23" t="n">
         <v>1.53</v>
@@ -3550,10 +3550,10 @@
         <v>2.8</v>
       </c>
       <c r="V23" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="W23" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X23" t="n">
         <v>24</v>
@@ -3604,10 +3604,10 @@
         <v>50</v>
       </c>
       <c r="AN23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO23" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="24">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="G25" t="n">
         <v>2.6</v>
@@ -3787,7 +3787,7 @@
         <v>3.15</v>
       </c>
       <c r="K25" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3802,7 +3802,7 @@
         <v>1.41</v>
       </c>
       <c r="P25" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q25" t="n">
         <v>2.2</v>
@@ -3814,7 +3814,7 @@
         <v>4.1</v>
       </c>
       <c r="T25" t="n">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="U25" t="n">
         <v>1.95</v>
@@ -3826,31 +3826,31 @@
         <v>1.62</v>
       </c>
       <c r="X25" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="Y25" t="n">
         <v>12.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA25" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB25" t="n">
         <v>10.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.8</v>
+        <v>970</v>
       </c>
       <c r="AD25" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF25" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AG25" t="n">
         <v>14</v>
@@ -3865,19 +3865,19 @@
         <v>46</v>
       </c>
       <c r="AK25" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL25" t="n">
         <v>70</v>
       </c>
       <c r="AM25" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN25" t="n">
         <v>36</v>
       </c>
       <c r="AO25" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
@@ -3907,19 +3907,19 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G26" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="H26" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I26" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="J26" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K26" t="n">
         <v>3.5</v>
@@ -3940,10 +3940,10 @@
         <v>1.69</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="R26" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S26" t="n">
         <v>4.1</v>
@@ -3955,22 +3955,22 @@
         <v>1.94</v>
       </c>
       <c r="V26" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="W26" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="X26" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA26" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB26" t="n">
         <v>11</v>
@@ -3982,25 +3982,25 @@
         <v>18</v>
       </c>
       <c r="AE26" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF26" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG26" t="n">
         <v>14.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AI26" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ26" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK26" t="n">
         <v>38</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>32</v>
       </c>
       <c r="AL26" t="n">
         <v>60</v>
@@ -4012,7 +4012,7 @@
         <v>34</v>
       </c>
       <c r="AO26" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
@@ -4183,7 +4183,7 @@
         <v>1.21</v>
       </c>
       <c r="H28" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="I28" t="n">
         <v>17</v>
@@ -4201,10 +4201,10 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="O28" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="P28" t="n">
         <v>3.95</v>
@@ -4219,7 +4219,7 @@
         <v>1.81</v>
       </c>
       <c r="T28" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U28" t="n">
         <v>2.04</v>
@@ -4258,7 +4258,7 @@
         <v>10.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH28" t="n">
         <v>38</v>
@@ -4270,7 +4270,7 @@
         <v>10.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL28" t="n">
         <v>36</v>
@@ -4279,7 +4279,7 @@
         <v>150</v>
       </c>
       <c r="AN28" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="AO28" t="n">
         <v>250</v>
@@ -4315,55 +4315,55 @@
         <v>2.72</v>
       </c>
       <c r="G29" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H29" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="I29" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J29" t="n">
         <v>3.1</v>
       </c>
-      <c r="J29" t="n">
-        <v>3.15</v>
-      </c>
       <c r="K29" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L29" t="n">
         <v>1.48</v>
       </c>
       <c r="M29" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>1.69</v>
+        <v>2.8</v>
       </c>
       <c r="O29" t="n">
         <v>1.43</v>
       </c>
       <c r="P29" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R29" t="n">
         <v>1.22</v>
       </c>
       <c r="S29" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T29" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="U29" t="n">
         <v>1.89</v>
       </c>
       <c r="V29" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W29" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="X29" t="n">
         <v>11.5</v>
@@ -4717,91 +4717,91 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.5</v>
+        <v>1.04</v>
       </c>
       <c r="G32" t="n">
-        <v>4.8</v>
+        <v>500</v>
       </c>
       <c r="H32" t="n">
-        <v>1.9</v>
+        <v>1.04</v>
       </c>
       <c r="I32" t="n">
-        <v>2.44</v>
+        <v>190</v>
       </c>
       <c r="J32" t="n">
-        <v>2.94</v>
+        <v>1.02</v>
       </c>
       <c r="K32" t="n">
-        <v>4.3</v>
+        <v>950</v>
       </c>
       <c r="L32" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M32" t="n">
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>1.53</v>
+        <v>1.24</v>
       </c>
       <c r="O32" t="n">
         <v>1.01</v>
       </c>
       <c r="P32" t="n">
-        <v>1.53</v>
+        <v>1.24</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="R32" t="n">
         <v>1.18</v>
       </c>
       <c r="S32" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="T32" t="n">
-        <v>1.67</v>
+        <v>1.01</v>
       </c>
       <c r="U32" t="n">
         <v>1.01</v>
       </c>
       <c r="V32" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="W32" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="X32" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z32" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AA32" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD32" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE32" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
         <v>1000</v>
@@ -5131,7 +5131,7 @@
         <v>4.9</v>
       </c>
       <c r="I35" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J35" t="n">
         <v>3.3</v>
@@ -5257,19 +5257,19 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="G36" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H36" t="n">
         <v>2.04</v>
       </c>
       <c r="I36" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="J36" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="K36" t="n">
         <v>3.6</v>
@@ -5278,7 +5278,7 @@
         <v>1.43</v>
       </c>
       <c r="M36" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N36" t="n">
         <v>1.01</v>
@@ -5305,7 +5305,7 @@
         <v>1.83</v>
       </c>
       <c r="V36" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="W36" t="n">
         <v>1.29</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
         <v>2.18</v>
@@ -5401,7 +5401,7 @@
         <v>4</v>
       </c>
       <c r="I37" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J37" t="n">
         <v>3.25</v>
@@ -5419,13 +5419,13 @@
         <v>2.82</v>
       </c>
       <c r="O37" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P37" t="n">
         <v>1.63</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R37" t="n">
         <v>1.23</v>
@@ -5437,7 +5437,7 @@
         <v>1.88</v>
       </c>
       <c r="U37" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="V37" t="n">
         <v>1.27</v>
@@ -5461,7 +5461,7 @@
         <v>7.6</v>
       </c>
       <c r="AC37" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD37" t="n">
         <v>19</v>
@@ -5479,7 +5479,7 @@
         <v>24</v>
       </c>
       <c r="AI37" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AJ37" t="n">
         <v>28</v>
@@ -5662,46 +5662,46 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.08</v>
+        <v>1.04</v>
       </c>
       <c r="G39" t="n">
-        <v>2.8</v>
+        <v>980</v>
       </c>
       <c r="H39" t="n">
-        <v>3.1</v>
+        <v>1.04</v>
       </c>
       <c r="I39" t="n">
-        <v>4.1</v>
+        <v>980</v>
       </c>
       <c r="J39" t="n">
-        <v>2.96</v>
+        <v>1.02</v>
       </c>
       <c r="K39" t="n">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="L39" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M39" t="n">
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>1.69</v>
+        <v>1.25</v>
       </c>
       <c r="O39" t="n">
         <v>1.01</v>
       </c>
       <c r="P39" t="n">
-        <v>1.69</v>
+        <v>1.24</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.9</v>
+        <v>1.02</v>
       </c>
       <c r="R39" t="n">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="S39" t="n">
-        <v>3.2</v>
+        <v>1.02</v>
       </c>
       <c r="T39" t="n">
         <v>1.01</v>
@@ -5710,10 +5710,10 @@
         <v>1.01</v>
       </c>
       <c r="V39" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="W39" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="G40" t="n">
         <v>1.95</v>
@@ -5806,13 +5806,13 @@
         <v>4.6</v>
       </c>
       <c r="I40" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="J40" t="n">
         <v>3.65</v>
       </c>
       <c r="K40" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
@@ -5830,7 +5830,7 @@
         <v>1.94</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R40" t="n">
         <v>1.35</v>
@@ -5842,10 +5842,10 @@
         <v>1.73</v>
       </c>
       <c r="U40" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V40" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W40" t="n">
         <v>2.04</v>
@@ -5866,7 +5866,7 @@
         <v>9.6</v>
       </c>
       <c r="AC40" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD40" t="n">
         <v>24</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G41" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="H41" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I41" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J41" t="n">
         <v>3.2</v>
       </c>
       <c r="K41" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
@@ -5956,7 +5956,7 @@
         <v>1.06</v>
       </c>
       <c r="N41" t="n">
-        <v>1.56</v>
+        <v>2.74</v>
       </c>
       <c r="O41" t="n">
         <v>1.44</v>
@@ -5968,10 +5968,10 @@
         <v>2.2</v>
       </c>
       <c r="R41" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="S41" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T41" t="n">
         <v>1.83</v>
@@ -5980,16 +5980,16 @@
         <v>1.76</v>
       </c>
       <c r="V41" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W41" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="X41" t="n">
         <v>12</v>
       </c>
       <c r="Y41" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z41" t="n">
         <v>32</v>
@@ -6013,7 +6013,7 @@
         <v>20</v>
       </c>
       <c r="AG41" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH41" t="n">
         <v>29</v>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="G42" t="n">
         <v>1.55</v>
@@ -6076,103 +6076,103 @@
         <v>7.2</v>
       </c>
       <c r="I42" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="J42" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K42" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L42" t="n">
         <v>1.34</v>
       </c>
       <c r="M42" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N42" t="n">
-        <v>2.16</v>
+        <v>4.3</v>
       </c>
       <c r="O42" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P42" t="n">
         <v>2.16</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R42" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="S42" t="n">
-        <v>2.62</v>
+        <v>2.92</v>
       </c>
       <c r="T42" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="U42" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="V42" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W42" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="X42" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y42" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="Z42" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AA42" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AB42" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="AC42" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AD42" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AE42" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF42" t="n">
-        <v>13</v>
+        <v>9.6</v>
       </c>
       <c r="AG42" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AI42" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ42" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AK42" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AL42" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AM42" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN42" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AO42" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43">
@@ -6205,7 +6205,7 @@
         <v>1.53</v>
       </c>
       <c r="G43" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H43" t="n">
         <v>6</v>
@@ -6226,16 +6226,16 @@
         <v>1.03</v>
       </c>
       <c r="N43" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="O43" t="n">
         <v>1.3</v>
       </c>
       <c r="P43" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="R43" t="n">
         <v>1.33</v>
@@ -6253,7 +6253,7 @@
         <v>1.11</v>
       </c>
       <c r="W43" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6337,16 +6337,16 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="G44" t="n">
         <v>2.88</v>
       </c>
       <c r="H44" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="I44" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J44" t="n">
         <v>3.2</v>
@@ -6364,25 +6364,25 @@
         <v>3.4</v>
       </c>
       <c r="O44" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P44" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q44" t="n">
         <v>2.06</v>
       </c>
       <c r="R44" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S44" t="n">
         <v>3.65</v>
       </c>
       <c r="T44" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="U44" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V44" t="n">
         <v>1.48</v>
@@ -6406,7 +6406,7 @@
         <v>11</v>
       </c>
       <c r="AC44" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD44" t="n">
         <v>13</v>
@@ -6508,7 +6508,7 @@
         <v>1.79</v>
       </c>
       <c r="R45" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S45" t="n">
         <v>3</v>
@@ -6544,13 +6544,13 @@
         <v>10.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AE45" t="n">
         <v>15</v>
       </c>
       <c r="AF45" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG45" t="n">
         <v>30</v>
@@ -6745,10 +6745,10 @@
         <v>2.46</v>
       </c>
       <c r="G47" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H47" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I47" t="n">
         <v>3.55</v>
@@ -6763,10 +6763,10 @@
         <v>1.01</v>
       </c>
       <c r="M47" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N47" t="n">
-        <v>3.25</v>
+        <v>1.79</v>
       </c>
       <c r="O47" t="n">
         <v>1.39</v>
@@ -6778,67 +6778,67 @@
         <v>2.12</v>
       </c>
       <c r="R47" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="S47" t="n">
-        <v>3.45</v>
+        <v>2.14</v>
       </c>
       <c r="T47" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="U47" t="n">
-        <v>1.99</v>
+        <v>2.12</v>
       </c>
       <c r="V47" t="n">
         <v>1.39</v>
       </c>
       <c r="W47" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X47" t="n">
         <v>1000</v>
       </c>
       <c r="Y47" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z47" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AA47" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC47" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD47" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE47" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF47" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG47" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH47" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI47" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ47" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK47" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL47" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM47" t="n">
         <v>1000</v>
@@ -6883,7 +6883,7 @@
         <v>2.52</v>
       </c>
       <c r="H48" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="I48" t="n">
         <v>2.86</v>
@@ -6913,7 +6913,7 @@
         <v>1.53</v>
       </c>
       <c r="R48" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="S48" t="n">
         <v>2.3</v>
@@ -6922,7 +6922,7 @@
         <v>1.49</v>
       </c>
       <c r="U48" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="V48" t="n">
         <v>1.53</v>
@@ -7186,7 +7186,7 @@
         <v>1.51</v>
       </c>
       <c r="S50" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="T50" t="n">
         <v>2.18</v>
@@ -7294,10 +7294,10 @@
         <v>5.5</v>
       </c>
       <c r="J51" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K51" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L51" t="n">
         <v>1.31</v>
@@ -7312,10 +7312,10 @@
         <v>1.21</v>
       </c>
       <c r="P51" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R51" t="n">
         <v>1.6</v>
@@ -7330,10 +7330,10 @@
         <v>2.38</v>
       </c>
       <c r="V51" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W51" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="X51" t="n">
         <v>21</v>
@@ -7351,7 +7351,7 @@
         <v>11.5</v>
       </c>
       <c r="AC51" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD51" t="n">
         <v>20</v>
@@ -7447,7 +7447,7 @@
         <v>1.27</v>
       </c>
       <c r="P52" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q52" t="n">
         <v>1.83</v>
@@ -7459,7 +7459,7 @@
         <v>3.05</v>
       </c>
       <c r="T52" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U52" t="n">
         <v>2.38</v>
@@ -7585,7 +7585,7 @@
         <v>2.42</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R53" t="n">
         <v>1.55</v>
@@ -7834,7 +7834,7 @@
         <v>2.02</v>
       </c>
       <c r="J55" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="K55" t="n">
         <v>4.6</v>
@@ -7873,55 +7873,55 @@
         <v>1.98</v>
       </c>
       <c r="W55" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="X55" t="n">
         <v>1000</v>
       </c>
       <c r="Y55" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z55" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AA55" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AB55" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AC55" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD55" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE55" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AF55" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AG55" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AH55" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI55" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ55" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AK55" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL55" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM55" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN55" t="n">
         <v>1000</v>
@@ -8236,7 +8236,7 @@
         <v>3.65</v>
       </c>
       <c r="I58" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J58" t="n">
         <v>3.45</v>
@@ -8275,7 +8275,7 @@
         <v>2.12</v>
       </c>
       <c r="V58" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W58" t="n">
         <v>1.78</v>
@@ -8392,10 +8392,10 @@
         <v>1.26</v>
       </c>
       <c r="P59" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R59" t="n">
         <v>1.47</v>
@@ -8407,7 +8407,7 @@
         <v>1.79</v>
       </c>
       <c r="U59" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V59" t="n">
         <v>1.25</v>
@@ -8497,13 +8497,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="G60" t="n">
         <v>2.84</v>
       </c>
       <c r="H60" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="I60" t="n">
         <v>2.94</v>
@@ -8521,13 +8521,13 @@
         <v>1.1</v>
       </c>
       <c r="N60" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O60" t="n">
         <v>1.44</v>
       </c>
       <c r="P60" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q60" t="n">
         <v>2.36</v>
@@ -8539,7 +8539,7 @@
         <v>4.5</v>
       </c>
       <c r="T60" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U60" t="n">
         <v>1.97</v>
@@ -8551,7 +8551,7 @@
         <v>1.54</v>
       </c>
       <c r="X60" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y60" t="n">
         <v>9.6</v>
@@ -8608,7 +8608,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -8623,127 +8623,127 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="F61" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K61" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N61" t="n">
+        <v>4</v>
+      </c>
+      <c r="O61" t="n">
         <v>1.26</v>
       </c>
-      <c r="G61" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="H61" t="n">
-        <v>14</v>
-      </c>
-      <c r="I61" t="n">
-        <v>15</v>
-      </c>
-      <c r="J61" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K61" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="L61" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M61" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N61" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="O61" t="n">
-        <v>1.2</v>
-      </c>
       <c r="P61" t="n">
-        <v>2.54</v>
+        <v>2.04</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.62</v>
+        <v>1.77</v>
       </c>
       <c r="R61" t="n">
-        <v>1.61</v>
+        <v>1.41</v>
       </c>
       <c r="S61" t="n">
-        <v>2.6</v>
+        <v>2.74</v>
       </c>
       <c r="T61" t="n">
-        <v>2.24</v>
+        <v>1.56</v>
       </c>
       <c r="U61" t="n">
-        <v>1.77</v>
+        <v>2.08</v>
       </c>
       <c r="V61" t="n">
-        <v>1.07</v>
+        <v>1.38</v>
       </c>
       <c r="W61" t="n">
-        <v>4.7</v>
+        <v>1.59</v>
       </c>
       <c r="X61" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z61" t="n">
         <v>26</v>
       </c>
-      <c r="Y61" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>150</v>
-      </c>
       <c r="AA61" t="n">
-        <v>680</v>
+        <v>60</v>
       </c>
       <c r="AB61" t="n">
-        <v>9.4</v>
+        <v>970</v>
       </c>
       <c r="AC61" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AD61" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AE61" t="n">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="AF61" t="n">
-        <v>7.6</v>
+        <v>21</v>
       </c>
       <c r="AG61" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AH61" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL61" t="n">
         <v>38</v>
       </c>
-      <c r="AI61" t="n">
-        <v>200</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK61" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL61" t="n">
-        <v>40</v>
-      </c>
       <c r="AM61" t="n">
-        <v>210</v>
+        <v>95</v>
       </c>
       <c r="AN61" t="n">
-        <v>4.4</v>
+        <v>22</v>
       </c>
       <c r="AO61" t="n">
-        <v>360</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -8758,121 +8758,121 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.34</v>
+        <v>1.25</v>
       </c>
       <c r="G62" t="n">
-        <v>2.76</v>
+        <v>1.27</v>
       </c>
       <c r="H62" t="n">
-        <v>2.84</v>
+        <v>15</v>
       </c>
       <c r="I62" t="n">
-        <v>3.35</v>
+        <v>15.5</v>
       </c>
       <c r="J62" t="n">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="K62" t="n">
-        <v>4.5</v>
+        <v>7.4</v>
       </c>
       <c r="L62" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M62" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N62" t="n">
-        <v>4</v>
+        <v>5.6</v>
       </c>
       <c r="O62" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="P62" t="n">
-        <v>2.04</v>
+        <v>2.56</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.76</v>
+        <v>1.62</v>
       </c>
       <c r="R62" t="n">
-        <v>1.41</v>
+        <v>1.61</v>
       </c>
       <c r="S62" t="n">
-        <v>2.74</v>
+        <v>2.6</v>
       </c>
       <c r="T62" t="n">
-        <v>1.64</v>
+        <v>2.24</v>
       </c>
       <c r="U62" t="n">
-        <v>2.24</v>
+        <v>1.77</v>
       </c>
       <c r="V62" t="n">
-        <v>1.43</v>
+        <v>1.06</v>
       </c>
       <c r="W62" t="n">
-        <v>1.57</v>
+        <v>4.7</v>
       </c>
       <c r="X62" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Y62" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="Z62" t="n">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="AA62" t="n">
-        <v>60</v>
+        <v>720</v>
       </c>
       <c r="AB62" t="n">
-        <v>970</v>
+        <v>9.4</v>
       </c>
       <c r="AC62" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AD62" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AE62" t="n">
+        <v>270</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>210</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL62" t="n">
         <v>40</v>
       </c>
-      <c r="AF62" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG62" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH62" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI62" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ62" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK62" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL62" t="n">
-        <v>44</v>
-      </c>
       <c r="AM62" t="n">
-        <v>95</v>
+        <v>210</v>
       </c>
       <c r="AN62" t="n">
-        <v>22</v>
+        <v>4.4</v>
       </c>
       <c r="AO62" t="n">
-        <v>32</v>
+        <v>360</v>
       </c>
     </row>
     <row r="63">
@@ -8893,121 +8893,121 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F63" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G63" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J63" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K63" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N63" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P63" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U63" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V63" t="n">
         <v>1.84</v>
       </c>
-      <c r="G63" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I63" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K63" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L63" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M63" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N63" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="O63" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P63" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R63" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S63" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="T63" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U63" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V63" t="n">
-        <v>1.25</v>
-      </c>
       <c r="W63" t="n">
-        <v>1.71</v>
+        <v>1.35</v>
       </c>
       <c r="X63" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y63" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Z63" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL63" t="n">
         <v>44</v>
       </c>
-      <c r="AA63" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK63" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL63" t="n">
-        <v>55</v>
-      </c>
       <c r="AM63" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN63" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO63" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="64">
@@ -9028,121 +9028,121 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>3.5</v>
+        <v>2.12</v>
       </c>
       <c r="G64" t="n">
-        <v>3.9</v>
+        <v>2.88</v>
       </c>
       <c r="H64" t="n">
-        <v>2.04</v>
+        <v>2.56</v>
       </c>
       <c r="I64" t="n">
-        <v>2.2</v>
+        <v>3.7</v>
       </c>
       <c r="J64" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="K64" t="n">
-        <v>4.2</v>
+        <v>7.4</v>
       </c>
       <c r="L64" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M64" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N64" t="n">
-        <v>4.5</v>
+        <v>2.16</v>
       </c>
       <c r="O64" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P64" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="R64" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="S64" t="n">
-        <v>2.68</v>
+        <v>2.46</v>
       </c>
       <c r="T64" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="U64" t="n">
-        <v>2.32</v>
+        <v>1.01</v>
       </c>
       <c r="V64" t="n">
-        <v>1.83</v>
+        <v>1.37</v>
       </c>
       <c r="W64" t="n">
-        <v>1.34</v>
+        <v>1.53</v>
       </c>
       <c r="X64" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y64" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z64" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA64" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AB64" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC64" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD64" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE64" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AF64" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG64" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH64" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI64" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ64" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK64" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AL64" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM64" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN64" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO64" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="65">
@@ -9163,121 +9163,121 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.12</v>
+        <v>5.1</v>
       </c>
       <c r="G65" t="n">
-        <v>2.88</v>
+        <v>6.2</v>
       </c>
       <c r="H65" t="n">
-        <v>2.56</v>
+        <v>1.62</v>
       </c>
       <c r="I65" t="n">
-        <v>3.7</v>
+        <v>1.74</v>
       </c>
       <c r="J65" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="K65" t="n">
-        <v>7.4</v>
+        <v>4.9</v>
       </c>
       <c r="L65" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M65" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N65" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P65" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U65" t="n">
         <v>2.16</v>
       </c>
-      <c r="O65" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P65" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R65" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S65" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="T65" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U65" t="n">
-        <v>1.01</v>
-      </c>
       <c r="V65" t="n">
-        <v>1.37</v>
+        <v>2.34</v>
       </c>
       <c r="W65" t="n">
-        <v>1.53</v>
+        <v>1.2</v>
       </c>
       <c r="X65" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y65" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z65" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AA65" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AB65" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AC65" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD65" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE65" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AF65" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AG65" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AH65" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI65" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ65" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AK65" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL65" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM65" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN65" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO65" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
@@ -9298,121 +9298,121 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="G66" t="n">
-        <v>6.2</v>
+        <v>9.6</v>
       </c>
       <c r="H66" t="n">
-        <v>1.61</v>
+        <v>1.47</v>
       </c>
       <c r="I66" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="J66" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="K66" t="n">
         <v>4.9</v>
       </c>
       <c r="L66" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="M66" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N66" t="n">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="O66" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P66" t="n">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="R66" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="S66" t="n">
-        <v>2.56</v>
+        <v>2.32</v>
       </c>
       <c r="T66" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="U66" t="n">
-        <v>1.99</v>
+        <v>1.89</v>
       </c>
       <c r="V66" t="n">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="W66" t="n">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="X66" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE66" t="n">
         <v>23</v>
       </c>
-      <c r="Y66" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA66" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB66" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC66" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>17</v>
-      </c>
       <c r="AF66" t="n">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="AG66" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="AH66" t="n">
-        <v>19.5</v>
+        <v>30</v>
       </c>
       <c r="AI66" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AJ66" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AK66" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AL66" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AM66" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN66" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AO66" t="n">
-        <v>8</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="67">
@@ -9433,112 +9433,112 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>5.2</v>
+        <v>1.9</v>
       </c>
       <c r="G67" t="n">
-        <v>9.6</v>
+        <v>2.32</v>
       </c>
       <c r="H67" t="n">
-        <v>1.47</v>
+        <v>3.65</v>
       </c>
       <c r="I67" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K67" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T67" t="n">
         <v>1.65</v>
       </c>
-      <c r="J67" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K67" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L67" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N67" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="O67" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P67" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R67" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S67" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="T67" t="n">
+      <c r="U67" t="n">
         <v>1.66</v>
       </c>
-      <c r="U67" t="n">
-        <v>1.01</v>
-      </c>
       <c r="V67" t="n">
-        <v>2.52</v>
+        <v>1.22</v>
       </c>
       <c r="W67" t="n">
-        <v>1.11</v>
+        <v>1.75</v>
       </c>
       <c r="X67" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Y67" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="Z67" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="AA67" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AB67" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK67" t="n">
         <v>34</v>
       </c>
-      <c r="AC67" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD67" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE67" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF67" t="n">
-        <v>85</v>
-      </c>
-      <c r="AG67" t="n">
-        <v>36</v>
-      </c>
-      <c r="AH67" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI67" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ67" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK67" t="n">
-        <v>100</v>
-      </c>
       <c r="AL67" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="AM67" t="n">
         <v>1000</v>
@@ -9547,7 +9547,7 @@
         <v>1000</v>
       </c>
       <c r="AO67" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="68">
@@ -9568,115 +9568,115 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.9</v>
+        <v>3.05</v>
       </c>
       <c r="G68" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H68" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I68" t="n">
         <v>2.42</v>
       </c>
-      <c r="H68" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I68" t="n">
-        <v>5</v>
-      </c>
       <c r="J68" t="n">
-        <v>2.92</v>
+        <v>3.65</v>
       </c>
       <c r="K68" t="n">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
       <c r="L68" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="M68" t="n">
         <v>1.01</v>
       </c>
       <c r="N68" t="n">
-        <v>1.61</v>
+        <v>2.16</v>
       </c>
       <c r="O68" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="P68" t="n">
-        <v>1.6</v>
+        <v>2.16</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.98</v>
+        <v>1.69</v>
       </c>
       <c r="R68" t="n">
-        <v>1.23</v>
+        <v>1.43</v>
       </c>
       <c r="S68" t="n">
-        <v>3.4</v>
+        <v>2.42</v>
       </c>
       <c r="T68" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="U68" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="V68" t="n">
-        <v>1.25</v>
+        <v>1.71</v>
       </c>
       <c r="W68" t="n">
-        <v>1.7</v>
+        <v>1.41</v>
       </c>
       <c r="X68" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="Y68" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="Z68" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AA68" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB68" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AC68" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AD68" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH68" t="n">
         <v>23</v>
       </c>
-      <c r="AE68" t="n">
+      <c r="AI68" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ68" t="n">
         <v>85</v>
       </c>
-      <c r="AF68" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH68" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI68" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>38</v>
-      </c>
       <c r="AK68" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AL68" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM68" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN68" t="n">
         <v>1000</v>
@@ -9703,121 +9703,121 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3.05</v>
+        <v>5.9</v>
       </c>
       <c r="G69" t="n">
-        <v>3.5</v>
+        <v>8.6</v>
       </c>
       <c r="H69" t="n">
-        <v>2.16</v>
+        <v>1.28</v>
       </c>
       <c r="I69" t="n">
-        <v>2.4</v>
+        <v>1.54</v>
       </c>
       <c r="J69" t="n">
-        <v>3.65</v>
+        <v>4.7</v>
       </c>
       <c r="K69" t="n">
-        <v>4.3</v>
+        <v>980</v>
       </c>
       <c r="L69" t="n">
         <v>1.01</v>
       </c>
       <c r="M69" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N69" t="n">
-        <v>2.16</v>
+        <v>3.9</v>
       </c>
       <c r="O69" t="n">
-        <v>1.23</v>
+        <v>1.15</v>
       </c>
       <c r="P69" t="n">
-        <v>2.16</v>
+        <v>2.42</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.69</v>
+        <v>1.37</v>
       </c>
       <c r="R69" t="n">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="S69" t="n">
-        <v>2.42</v>
+        <v>2</v>
       </c>
       <c r="T69" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="U69" t="n">
-        <v>1.92</v>
+        <v>1.01</v>
       </c>
       <c r="V69" t="n">
-        <v>1.71</v>
+        <v>2.8</v>
       </c>
       <c r="W69" t="n">
-        <v>1.4</v>
+        <v>1.13</v>
       </c>
       <c r="X69" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="Y69" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="Z69" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AA69" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AB69" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AC69" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AD69" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AE69" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH69" t="n">
         <v>32</v>
       </c>
-      <c r="AF69" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH69" t="n">
-        <v>23</v>
-      </c>
       <c r="AI69" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ69" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AK69" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AL69" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM69" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN69" t="n">
         <v>1000</v>
       </c>
       <c r="AO69" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70">
@@ -9838,112 +9838,112 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>5.9</v>
+        <v>2.34</v>
       </c>
       <c r="G70" t="n">
-        <v>8.6</v>
+        <v>3.1</v>
       </c>
       <c r="H70" t="n">
-        <v>1.28</v>
+        <v>2.52</v>
       </c>
       <c r="I70" t="n">
-        <v>1.54</v>
+        <v>3.45</v>
       </c>
       <c r="J70" t="n">
-        <v>4.7</v>
+        <v>3.05</v>
       </c>
       <c r="K70" t="n">
-        <v>980</v>
+        <v>5</v>
       </c>
       <c r="L70" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M70" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N70" t="n">
-        <v>3.9</v>
+        <v>1.78</v>
       </c>
       <c r="O70" t="n">
-        <v>1.15</v>
+        <v>1.31</v>
       </c>
       <c r="P70" t="n">
-        <v>2.42</v>
+        <v>1.77</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.37</v>
+        <v>1.9</v>
       </c>
       <c r="R70" t="n">
-        <v>1.6</v>
+        <v>1.27</v>
       </c>
       <c r="S70" t="n">
-        <v>1.99</v>
+        <v>2.9</v>
       </c>
       <c r="T70" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="U70" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="V70" t="n">
-        <v>2.8</v>
+        <v>1.41</v>
       </c>
       <c r="W70" t="n">
-        <v>1.13</v>
+        <v>1.48</v>
       </c>
       <c r="X70" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="Y70" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="Z70" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AA70" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AB70" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC70" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AD70" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AE70" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="AF70" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AG70" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH70" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AI70" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ70" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK70" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL70" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM70" t="n">
         <v>1000</v>
@@ -9952,13 +9952,13 @@
         <v>1000</v>
       </c>
       <c r="AO70" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -9973,112 +9973,112 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Akritas Chlorakas</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>A.E.L.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2.34</v>
+        <v>3.75</v>
       </c>
       <c r="G71" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K71" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R71" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S71" t="n">
         <v>3.1</v>
       </c>
-      <c r="H71" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="I71" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J71" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K71" t="n">
-        <v>5</v>
-      </c>
-      <c r="L71" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M71" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N71" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="O71" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P71" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R71" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S71" t="n">
-        <v>2.9</v>
-      </c>
       <c r="T71" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="U71" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="V71" t="n">
-        <v>1.41</v>
+        <v>1.92</v>
       </c>
       <c r="W71" t="n">
-        <v>1.48</v>
+        <v>1.19</v>
       </c>
       <c r="X71" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y71" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z71" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AA71" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB71" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AC71" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD71" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AE71" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF71" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AG71" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AH71" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI71" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ71" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK71" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL71" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM71" t="n">
         <v>1000</v>
@@ -10093,7 +10093,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -10108,31 +10108,31 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Akritas Chlorakas</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>A.E.L.</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3.75</v>
+        <v>1.84</v>
       </c>
       <c r="G72" t="n">
-        <v>6.4</v>
+        <v>2.38</v>
       </c>
       <c r="H72" t="n">
-        <v>1.78</v>
+        <v>3.3</v>
       </c>
       <c r="I72" t="n">
-        <v>2.08</v>
+        <v>4.9</v>
       </c>
       <c r="J72" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K72" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="L72" t="n">
         <v>1.01</v>
@@ -10141,79 +10141,79 @@
         <v>1.01</v>
       </c>
       <c r="N72" t="n">
-        <v>1.26</v>
+        <v>1.89</v>
       </c>
       <c r="O72" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="P72" t="n">
-        <v>1.26</v>
+        <v>1.88</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="R72" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="S72" t="n">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="T72" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="U72" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="V72" t="n">
-        <v>1.92</v>
+        <v>1.25</v>
       </c>
       <c r="W72" t="n">
-        <v>1.18</v>
+        <v>1.72</v>
       </c>
       <c r="X72" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y72" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z72" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA72" t="n">
         <v>1000</v>
       </c>
       <c r="AB72" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC72" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD72" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AE72" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF72" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AG72" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH72" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI72" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ72" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK72" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL72" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM72" t="n">
         <v>1000</v>
@@ -10261,7 +10261,7 @@
         <v>1.49</v>
       </c>
       <c r="I73" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="J73" t="n">
         <v>4.3</v>
@@ -10276,22 +10276,22 @@
         <v>1.01</v>
       </c>
       <c r="N73" t="n">
-        <v>1.02</v>
+        <v>2.02</v>
       </c>
       <c r="O73" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P73" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.73</v>
+        <v>1.25</v>
       </c>
       <c r="R73" t="n">
         <v>1.22</v>
       </c>
       <c r="S73" t="n">
-        <v>1.73</v>
+        <v>1.01</v>
       </c>
       <c r="T73" t="n">
         <v>1.01</v>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="G74" t="n">
         <v>2.4</v>
@@ -10402,7 +10402,7 @@
         <v>2.54</v>
       </c>
       <c r="K74" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="L74" t="n">
         <v>1.01</v>
@@ -10411,13 +10411,13 @@
         <v>1.01</v>
       </c>
       <c r="N74" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="O74" t="n">
         <v>1.33</v>
       </c>
       <c r="P74" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q74" t="n">
         <v>2</v>
@@ -10426,7 +10426,7 @@
         <v>1.26</v>
       </c>
       <c r="S74" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T74" t="n">
         <v>1.56</v>
@@ -10435,7 +10435,7 @@
         <v>1.69</v>
       </c>
       <c r="V74" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W74" t="n">
         <v>1.71</v>
@@ -10591,7 +10591,7 @@
         <v>11.5</v>
       </c>
       <c r="AC75" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD75" t="n">
         <v>12</v>
@@ -10618,7 +10618,7 @@
         <v>65</v>
       </c>
       <c r="AL75" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AM75" t="n">
         <v>180</v>
@@ -10657,31 +10657,31 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G76" t="n">
         <v>3.8</v>
       </c>
       <c r="H76" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="I76" t="n">
-        <v>3.15</v>
+        <v>2.74</v>
       </c>
       <c r="J76" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="K76" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L76" t="n">
         <v>1.48</v>
       </c>
       <c r="M76" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N76" t="n">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="O76" t="n">
         <v>1.42</v>
@@ -10690,13 +10690,13 @@
         <v>1.25</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.26</v>
+        <v>1.43</v>
       </c>
       <c r="R76" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="S76" t="n">
-        <v>3.7</v>
+        <v>1.02</v>
       </c>
       <c r="T76" t="n">
         <v>1.01</v>
@@ -10705,10 +10705,10 @@
         <v>1.01</v>
       </c>
       <c r="V76" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W76" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X76" t="n">
         <v>1000</v>
@@ -10792,19 +10792,19 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="G77" t="n">
         <v>1.7</v>
       </c>
       <c r="H77" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I77" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J77" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K77" t="n">
         <v>4.2</v>
@@ -10816,28 +10816,28 @@
         <v>1.07</v>
       </c>
       <c r="N77" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O77" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P77" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="R77" t="n">
         <v>1.3</v>
       </c>
       <c r="S77" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T77" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U77" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="V77" t="n">
         <v>1.17</v>
@@ -10879,7 +10879,7 @@
         <v>25</v>
       </c>
       <c r="AI77" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ77" t="n">
         <v>18</v>
@@ -10930,10 +10930,10 @@
         <v>2.08</v>
       </c>
       <c r="G78" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H78" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I78" t="n">
         <v>3.9</v>
@@ -10957,7 +10957,7 @@
         <v>1.28</v>
       </c>
       <c r="P78" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q78" t="n">
         <v>1.84</v>
@@ -10969,7 +10969,7 @@
         <v>3.05</v>
       </c>
       <c r="T78" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="U78" t="n">
         <v>2.16</v>
@@ -10978,7 +10978,7 @@
         <v>1.34</v>
       </c>
       <c r="W78" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X78" t="n">
         <v>19</v>
@@ -11026,7 +11026,7 @@
         <v>36</v>
       </c>
       <c r="AM78" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN78" t="n">
         <v>18</v>
@@ -11038,7 +11038,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -11053,127 +11053,127 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1.49</v>
+        <v>2.9</v>
       </c>
       <c r="G79" t="n">
-        <v>1.56</v>
+        <v>3.3</v>
       </c>
       <c r="H79" t="n">
-        <v>6.4</v>
+        <v>2.24</v>
       </c>
       <c r="I79" t="n">
-        <v>7.8</v>
+        <v>2.48</v>
       </c>
       <c r="J79" t="n">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="K79" t="n">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="L79" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N79" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O79" t="n">
         <v>1.2</v>
       </c>
-      <c r="M79" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N79" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O79" t="n">
-        <v>1.11</v>
-      </c>
       <c r="P79" t="n">
-        <v>1.74</v>
+        <v>2.34</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.4</v>
+        <v>1.61</v>
       </c>
       <c r="R79" t="n">
-        <v>1.74</v>
+        <v>1.25</v>
       </c>
       <c r="S79" t="n">
-        <v>1.96</v>
+        <v>1.61</v>
       </c>
       <c r="T79" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="U79" t="n">
         <v>1.01</v>
       </c>
       <c r="V79" t="n">
-        <v>1.15</v>
+        <v>1.67</v>
       </c>
       <c r="W79" t="n">
-        <v>2.78</v>
+        <v>1.43</v>
       </c>
       <c r="X79" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="Y79" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Z79" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AA79" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AB79" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC79" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD79" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AE79" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF79" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG79" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH79" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI79" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ79" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AK79" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL79" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AM79" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN79" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
       <c r="AO79" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -11188,121 +11188,121 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2.9</v>
+        <v>1.52</v>
       </c>
       <c r="G80" t="n">
-        <v>3.3</v>
+        <v>1.56</v>
       </c>
       <c r="H80" t="n">
-        <v>2.22</v>
+        <v>6.4</v>
       </c>
       <c r="I80" t="n">
-        <v>2.48</v>
+        <v>7.4</v>
       </c>
       <c r="J80" t="n">
-        <v>3.75</v>
+        <v>4.8</v>
       </c>
       <c r="K80" t="n">
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="L80" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M80" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N80" t="n">
-        <v>1.01</v>
+        <v>3.9</v>
       </c>
       <c r="O80" t="n">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="P80" t="n">
-        <v>2.34</v>
+        <v>2.88</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.61</v>
+        <v>1.41</v>
       </c>
       <c r="R80" t="n">
-        <v>1.25</v>
+        <v>1.74</v>
       </c>
       <c r="S80" t="n">
-        <v>1.02</v>
+        <v>1.96</v>
       </c>
       <c r="T80" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="U80" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="V80" t="n">
-        <v>1.67</v>
+        <v>1.16</v>
       </c>
       <c r="W80" t="n">
-        <v>1.43</v>
+        <v>2.78</v>
       </c>
       <c r="X80" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="Y80" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Z80" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA80" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB80" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AC80" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD80" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AE80" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF80" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AG80" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AH80" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI80" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ80" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AK80" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AL80" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AM80" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN80" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
       <c r="AO80" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81">
@@ -11335,7 +11335,7 @@
         <v>1.46</v>
       </c>
       <c r="G81" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="H81" t="n">
         <v>8.4</v>
@@ -11356,7 +11356,7 @@
         <v>1.05</v>
       </c>
       <c r="N81" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="O81" t="n">
         <v>1.26</v>
@@ -11365,19 +11365,19 @@
         <v>2.2</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R81" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S81" t="n">
         <v>3</v>
       </c>
       <c r="T81" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U81" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V81" t="n">
         <v>1.12</v>
@@ -11389,13 +11389,13 @@
         <v>19.5</v>
       </c>
       <c r="Y81" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z81" t="n">
         <v>75</v>
       </c>
       <c r="AA81" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AB81" t="n">
         <v>8.6</v>
@@ -11410,7 +11410,7 @@
         <v>130</v>
       </c>
       <c r="AF81" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AG81" t="n">
         <v>9.800000000000001</v>
@@ -11431,10 +11431,10 @@
         <v>40</v>
       </c>
       <c r="AM81" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN81" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO81" t="n">
         <v>160</v>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="G82" t="n">
         <v>2.08</v>
@@ -11500,7 +11500,7 @@
         <v>2.16</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R82" t="n">
         <v>1.38</v>
@@ -11605,19 +11605,19 @@
         <v>3.7</v>
       </c>
       <c r="G83" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H83" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="I83" t="n">
         <v>2.58</v>
       </c>
       <c r="J83" t="n">
-        <v>2.44</v>
+        <v>1.09</v>
       </c>
       <c r="K83" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L83" t="n">
         <v>1.01</v>
@@ -11629,7 +11629,7 @@
         <v>1.54</v>
       </c>
       <c r="O83" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="P83" t="n">
         <v>1.54</v>
@@ -11650,10 +11650,10 @@
         <v>1.01</v>
       </c>
       <c r="V83" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W83" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X83" t="n">
         <v>1000</v>
@@ -11881,7 +11881,7 @@
         <v>2.2</v>
       </c>
       <c r="I85" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="J85" t="n">
         <v>3</v>
@@ -12040,13 +12040,13 @@
         <v>1.52</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R86" t="n">
         <v>1.18</v>
       </c>
       <c r="S86" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T86" t="n">
         <v>1.01</v>
@@ -12064,7 +12064,7 @@
         <v>15</v>
       </c>
       <c r="Y86" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z86" t="n">
         <v>1000</v>
@@ -12076,10 +12076,10 @@
         <v>11</v>
       </c>
       <c r="AC86" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD86" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE86" t="n">
         <v>1000</v>
@@ -12142,22 +12142,22 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.2</v>
+        <v>1.04</v>
       </c>
       <c r="G87" t="n">
-        <v>2.94</v>
+        <v>110</v>
       </c>
       <c r="H87" t="n">
-        <v>2.88</v>
+        <v>1.04</v>
       </c>
       <c r="I87" t="n">
-        <v>4.1</v>
+        <v>160</v>
       </c>
       <c r="J87" t="n">
-        <v>2.68</v>
+        <v>1.02</v>
       </c>
       <c r="K87" t="n">
-        <v>5.2</v>
+        <v>950</v>
       </c>
       <c r="L87" t="n">
         <v>1.01</v>
@@ -12172,16 +12172,16 @@
         <v>1.44</v>
       </c>
       <c r="P87" t="n">
-        <v>1.53</v>
+        <v>1.24</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.16</v>
+        <v>1.45</v>
       </c>
       <c r="R87" t="n">
         <v>1.18</v>
       </c>
       <c r="S87" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="T87" t="n">
         <v>1.01</v>
@@ -12190,10 +12190,10 @@
         <v>1.01</v>
       </c>
       <c r="V87" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="W87" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="X87" t="n">
         <v>1000</v>
@@ -12412,100 +12412,100 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2.32</v>
+        <v>1.04</v>
       </c>
       <c r="G89" t="n">
-        <v>3.1</v>
+        <v>190</v>
       </c>
       <c r="H89" t="n">
-        <v>2.72</v>
+        <v>1.04</v>
       </c>
       <c r="I89" t="n">
-        <v>3.7</v>
+        <v>190</v>
       </c>
       <c r="J89" t="n">
-        <v>2.8</v>
+        <v>1.02</v>
       </c>
       <c r="K89" t="n">
-        <v>4.9</v>
+        <v>950</v>
       </c>
       <c r="L89" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="M89" t="n">
         <v>1.01</v>
       </c>
       <c r="N89" t="n">
-        <v>1.6</v>
+        <v>1.24</v>
       </c>
       <c r="O89" t="n">
         <v>1.01</v>
       </c>
       <c r="P89" t="n">
-        <v>1.6</v>
+        <v>1.24</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="R89" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="S89" t="n">
-        <v>3.35</v>
+        <v>1.01</v>
       </c>
       <c r="T89" t="n">
         <v>1.01</v>
       </c>
       <c r="U89" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="V89" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="W89" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="X89" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y89" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z89" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AA89" t="n">
         <v>1000</v>
       </c>
       <c r="AB89" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC89" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD89" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AE89" t="n">
         <v>1000</v>
       </c>
       <c r="AF89" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG89" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH89" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI89" t="n">
         <v>1000</v>
       </c>
       <c r="AJ89" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK89" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL89" t="n">
         <v>1000</v>
@@ -12550,7 +12550,7 @@
         <v>2.24</v>
       </c>
       <c r="G90" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H90" t="n">
         <v>3.25</v>
@@ -12607,7 +12607,7 @@
         <v>12.5</v>
       </c>
       <c r="Z90" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AA90" t="n">
         <v>80</v>
@@ -12631,7 +12631,7 @@
         <v>12</v>
       </c>
       <c r="AH90" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AI90" t="n">
         <v>65</v>
@@ -12718,7 +12718,7 @@
         <v>1.3</v>
       </c>
       <c r="R91" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="S91" t="n">
         <v>1.78</v>
@@ -12808,121 +12808,121 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>St Gallen</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>4</v>
+        <v>2.78</v>
       </c>
       <c r="G92" t="n">
-        <v>5.7</v>
+        <v>3.4</v>
       </c>
       <c r="H92" t="n">
-        <v>1.67</v>
+        <v>2.5</v>
       </c>
       <c r="I92" t="n">
-        <v>2</v>
+        <v>2.98</v>
       </c>
       <c r="J92" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="K92" t="n">
-        <v>6.6</v>
+        <v>3.75</v>
       </c>
       <c r="L92" t="n">
         <v>1.01</v>
       </c>
       <c r="M92" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N92" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="O92" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="P92" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.53</v>
+        <v>1.78</v>
       </c>
       <c r="R92" t="n">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="S92" t="n">
-        <v>2.18</v>
+        <v>2.92</v>
       </c>
       <c r="T92" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="U92" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="V92" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="W92" t="n">
-        <v>1.21</v>
+        <v>1.42</v>
       </c>
       <c r="X92" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y92" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z92" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA92" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB92" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC92" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD92" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE92" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF92" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG92" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH92" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI92" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ92" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK92" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL92" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM92" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN92" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO92" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93">
@@ -12943,127 +12943,127 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>St Gallen</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2.82</v>
+        <v>4</v>
       </c>
       <c r="G93" t="n">
-        <v>3.1</v>
+        <v>5.7</v>
       </c>
       <c r="H93" t="n">
-        <v>2.54</v>
+        <v>1.32</v>
       </c>
       <c r="I93" t="n">
-        <v>2.8</v>
+        <v>1.98</v>
       </c>
       <c r="J93" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="K93" t="n">
-        <v>3.7</v>
+        <v>980</v>
       </c>
       <c r="L93" t="n">
         <v>1.01</v>
       </c>
       <c r="M93" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N93" t="n">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O93" t="n">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="P93" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.78</v>
+        <v>1.53</v>
       </c>
       <c r="R93" t="n">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="S93" t="n">
-        <v>2.92</v>
+        <v>2.18</v>
       </c>
       <c r="T93" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="U93" t="n">
-        <v>2.32</v>
+        <v>1.01</v>
       </c>
       <c r="V93" t="n">
-        <v>1.55</v>
+        <v>2.02</v>
       </c>
       <c r="W93" t="n">
-        <v>1.47</v>
+        <v>1.21</v>
       </c>
       <c r="X93" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y93" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z93" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA93" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB93" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC93" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD93" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE93" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AF93" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG93" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH93" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI93" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ93" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AK93" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL93" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM93" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN93" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AO93" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -13078,127 +13078,127 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Olympiakos Nicosia FC</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1.49</v>
+        <v>3.25</v>
       </c>
       <c r="G94" t="n">
-        <v>1.51</v>
+        <v>140</v>
       </c>
       <c r="H94" t="n">
-        <v>8.6</v>
+        <v>1.35</v>
       </c>
       <c r="I94" t="n">
-        <v>9</v>
+        <v>1.63</v>
       </c>
       <c r="J94" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="K94" t="n">
-        <v>4.7</v>
+        <v>950</v>
       </c>
       <c r="L94" t="n">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="M94" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N94" t="n">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="O94" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="P94" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.08</v>
+        <v>1.8</v>
       </c>
       <c r="R94" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="S94" t="n">
-        <v>3.9</v>
+        <v>2.92</v>
       </c>
       <c r="T94" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="U94" t="n">
-        <v>1.73</v>
+        <v>1.01</v>
       </c>
       <c r="V94" t="n">
-        <v>1.12</v>
+        <v>2.58</v>
       </c>
       <c r="W94" t="n">
-        <v>2.98</v>
+        <v>1.01</v>
       </c>
       <c r="X94" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y94" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Z94" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AA94" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AB94" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AC94" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD94" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AE94" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AF94" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AG94" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH94" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI94" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ94" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AK94" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AL94" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM94" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN94" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AO94" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -13213,121 +13213,121 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Olympiakos Nicosia FC</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>3.25</v>
+        <v>1.48</v>
       </c>
       <c r="G95" t="n">
-        <v>140</v>
+        <v>1.5</v>
       </c>
       <c r="H95" t="n">
-        <v>1.35</v>
+        <v>8.6</v>
       </c>
       <c r="I95" t="n">
-        <v>1.63</v>
+        <v>9</v>
       </c>
       <c r="J95" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="K95" t="n">
-        <v>950</v>
+        <v>4.7</v>
       </c>
       <c r="L95" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="M95" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N95" t="n">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="O95" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="P95" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.8</v>
+        <v>2.08</v>
       </c>
       <c r="R95" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="S95" t="n">
-        <v>2.92</v>
+        <v>3.85</v>
       </c>
       <c r="T95" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="U95" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="V95" t="n">
-        <v>2.58</v>
+        <v>1.12</v>
       </c>
       <c r="W95" t="n">
-        <v>1.01</v>
+        <v>2.98</v>
       </c>
       <c r="X95" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y95" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z95" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA95" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AB95" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AC95" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD95" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE95" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AF95" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AG95" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AH95" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI95" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ95" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AK95" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AL95" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM95" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN95" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO95" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
     </row>
     <row r="96">
@@ -13495,7 +13495,7 @@
         <v>6.6</v>
       </c>
       <c r="G97" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="H97" t="n">
         <v>1.57</v>
@@ -13531,7 +13531,7 @@
         <v>1.38</v>
       </c>
       <c r="S97" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T97" t="n">
         <v>2.04</v>
@@ -13540,10 +13540,10 @@
         <v>1.92</v>
       </c>
       <c r="V97" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="W97" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="X97" t="n">
         <v>15</v>
@@ -13555,7 +13555,7 @@
         <v>8.6</v>
       </c>
       <c r="AA97" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB97" t="n">
         <v>21</v>
@@ -13582,7 +13582,7 @@
         <v>38</v>
       </c>
       <c r="AJ97" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AK97" t="n">
         <v>110</v>
@@ -13591,7 +13591,7 @@
         <v>110</v>
       </c>
       <c r="AM97" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN97" t="n">
         <v>130</v>
@@ -13897,7 +13897,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="G100" t="n">
         <v>1.32</v>
@@ -13906,7 +13906,7 @@
         <v>1.04</v>
       </c>
       <c r="I100" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="J100" t="n">
         <v>6.8</v>
@@ -13945,7 +13945,7 @@
         <v>2.08</v>
       </c>
       <c r="V100" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W100" t="n">
         <v>2.06</v>
@@ -14032,22 +14032,22 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="G101" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="H101" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I101" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J101" t="n">
         <v>3.45</v>
       </c>
       <c r="K101" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L101" t="n">
         <v>1.54</v>
@@ -14077,13 +14077,13 @@
         <v>2.26</v>
       </c>
       <c r="U101" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V101" t="n">
         <v>1.21</v>
       </c>
       <c r="W101" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="X101" t="n">
         <v>9.199999999999999</v>
@@ -14113,7 +14113,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AG101" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH101" t="n">
         <v>26</v>
@@ -14137,7 +14137,7 @@
         <v>18.5</v>
       </c>
       <c r="AO101" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102">
@@ -14308,7 +14308,7 @@
         <v>6.6</v>
       </c>
       <c r="H103" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="I103" t="n">
         <v>1.61</v>
@@ -14317,7 +14317,7 @@
         <v>4.5</v>
       </c>
       <c r="K103" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L103" t="n">
         <v>1.25</v>
@@ -14413,7 +14413,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -14428,121 +14428,121 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2.74</v>
+        <v>1.97</v>
       </c>
       <c r="G104" t="n">
-        <v>3.5</v>
+        <v>2.04</v>
       </c>
       <c r="H104" t="n">
-        <v>2.42</v>
+        <v>4.1</v>
       </c>
       <c r="I104" t="n">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="J104" t="n">
-        <v>2.88</v>
+        <v>3.7</v>
       </c>
       <c r="K104" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="L104" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="M104" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N104" t="n">
-        <v>1.67</v>
+        <v>3.85</v>
       </c>
       <c r="O104" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="P104" t="n">
-        <v>1.67</v>
+        <v>1.98</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="R104" t="n">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="S104" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T104" t="n">
-        <v>1.59</v>
+        <v>1.8</v>
       </c>
       <c r="U104" t="n">
-        <v>1.73</v>
+        <v>2.14</v>
       </c>
       <c r="V104" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="W104" t="n">
-        <v>1.4</v>
+        <v>1.96</v>
       </c>
       <c r="X104" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y104" t="n">
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
       <c r="Z104" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AA104" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE104" t="n">
         <v>65</v>
       </c>
-      <c r="AB104" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC104" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD104" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE104" t="n">
-        <v>48</v>
-      </c>
       <c r="AF104" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AG104" t="n">
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="AH104" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI104" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AJ104" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO104" t="n">
         <v>70</v>
-      </c>
-      <c r="AK104" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL104" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM104" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN104" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO104" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="105">
@@ -14563,55 +14563,55 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>AVS Futebol SAD</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2.92</v>
+        <v>2.78</v>
       </c>
       <c r="G105" t="n">
-        <v>3.7</v>
+        <v>3.15</v>
       </c>
       <c r="H105" t="n">
-        <v>2.36</v>
+        <v>2.82</v>
       </c>
       <c r="I105" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="J105" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K105" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="L105" t="n">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="M105" t="n">
         <v>1.01</v>
       </c>
       <c r="N105" t="n">
-        <v>1.69</v>
+        <v>1.25</v>
       </c>
       <c r="O105" t="n">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="P105" t="n">
-        <v>1.69</v>
+        <v>1.25</v>
       </c>
       <c r="Q105" t="n">
-        <v>2.24</v>
+        <v>1.55</v>
       </c>
       <c r="R105" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="S105" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="T105" t="n">
         <v>1.01</v>
@@ -14620,55 +14620,55 @@
         <v>1.01</v>
       </c>
       <c r="V105" t="n">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="W105" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="X105" t="n">
-        <v>15.5</v>
+        <v>10</v>
       </c>
       <c r="Y105" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z105" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA105" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB105" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC105" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD105" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE105" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF105" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AG105" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AH105" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI105" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ105" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AK105" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL105" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM105" t="n">
         <v>1000</v>
@@ -14683,7 +14683,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -14698,112 +14698,112 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>AVS Futebol SAD</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>FC Metaloglobus Bucuresti</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1.26</v>
+        <v>2.96</v>
       </c>
       <c r="G106" t="n">
-        <v>1.34</v>
+        <v>3.65</v>
       </c>
       <c r="H106" t="n">
-        <v>12.5</v>
+        <v>2.36</v>
       </c>
       <c r="I106" t="n">
-        <v>17.5</v>
+        <v>2.86</v>
       </c>
       <c r="J106" t="n">
-        <v>5.8</v>
+        <v>2.64</v>
       </c>
       <c r="K106" t="n">
-        <v>7</v>
+        <v>3.45</v>
       </c>
       <c r="L106" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M106" t="n">
         <v>1.01</v>
       </c>
       <c r="N106" t="n">
-        <v>2.12</v>
+        <v>1.69</v>
       </c>
       <c r="O106" t="n">
-        <v>1.2</v>
+        <v>1.41</v>
       </c>
       <c r="P106" t="n">
-        <v>2.12</v>
+        <v>1.69</v>
       </c>
       <c r="Q106" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R106" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S106" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T106" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U106" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V106" t="n">
         <v>1.54</v>
       </c>
-      <c r="R106" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S106" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="T106" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U106" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V106" t="n">
-        <v>1.06</v>
-      </c>
       <c r="W106" t="n">
-        <v>3.95</v>
+        <v>1.37</v>
       </c>
       <c r="X106" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y106" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z106" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA106" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB106" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC106" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD106" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE106" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF106" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AG106" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH106" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI106" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ106" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK106" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL106" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM106" t="n">
         <v>1000</v>
@@ -14818,7 +14818,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -14833,127 +14833,127 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1.99</v>
+        <v>2.74</v>
       </c>
       <c r="G107" t="n">
-        <v>2.04</v>
+        <v>3.5</v>
       </c>
       <c r="H107" t="n">
-        <v>4.1</v>
+        <v>2.42</v>
       </c>
       <c r="I107" t="n">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="J107" t="n">
-        <v>3.7</v>
+        <v>2.88</v>
       </c>
       <c r="K107" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="L107" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="M107" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N107" t="n">
-        <v>3.85</v>
+        <v>1.67</v>
       </c>
       <c r="O107" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="P107" t="n">
-        <v>1.98</v>
+        <v>1.67</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R107" t="n">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
       <c r="S107" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T107" t="n">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="U107" t="n">
-        <v>2.14</v>
+        <v>1.74</v>
       </c>
       <c r="V107" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="W107" t="n">
-        <v>1.96</v>
+        <v>1.4</v>
       </c>
       <c r="X107" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB107" t="n">
         <v>15</v>
       </c>
-      <c r="Y107" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z107" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA107" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB107" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AC107" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="AD107" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AE107" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AF107" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="AG107" t="n">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="AH107" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AI107" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ107" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="AK107" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="AL107" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AM107" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN107" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AO107" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -14968,55 +14968,55 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>FC Metaloglobus Bucuresti</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2.78</v>
+        <v>1.26</v>
       </c>
       <c r="G108" t="n">
-        <v>3.15</v>
+        <v>1.34</v>
       </c>
       <c r="H108" t="n">
-        <v>2.82</v>
+        <v>12.5</v>
       </c>
       <c r="I108" t="n">
-        <v>3.15</v>
+        <v>17.5</v>
       </c>
       <c r="J108" t="n">
-        <v>3</v>
+        <v>5.8</v>
       </c>
       <c r="K108" t="n">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="L108" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="M108" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N108" t="n">
-        <v>1.25</v>
+        <v>2.12</v>
       </c>
       <c r="O108" t="n">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="P108" t="n">
-        <v>1.25</v>
+        <v>2.12</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R108" t="n">
-        <v>1.18</v>
+        <v>1.44</v>
       </c>
       <c r="S108" t="n">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="T108" t="n">
         <v>1.01</v>
@@ -15025,13 +15025,13 @@
         <v>1.01</v>
       </c>
       <c r="V108" t="n">
-        <v>1.47</v>
+        <v>1.06</v>
       </c>
       <c r="W108" t="n">
-        <v>1.47</v>
+        <v>3.95</v>
       </c>
       <c r="X108" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Y108" t="n">
         <v>1000</v>
@@ -15112,19 +15112,19 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="G109" t="n">
-        <v>3.75</v>
+        <v>110</v>
       </c>
       <c r="H109" t="n">
-        <v>2.46</v>
+        <v>2.28</v>
       </c>
       <c r="I109" t="n">
         <v>3.2</v>
       </c>
       <c r="J109" t="n">
-        <v>2.38</v>
+        <v>1.09</v>
       </c>
       <c r="K109" t="n">
         <v>3.05</v>
@@ -15136,7 +15136,7 @@
         <v>1.08</v>
       </c>
       <c r="N109" t="n">
-        <v>2.58</v>
+        <v>1.56</v>
       </c>
       <c r="O109" t="n">
         <v>1.09</v>
@@ -15151,7 +15151,7 @@
         <v>1.18</v>
       </c>
       <c r="S109" t="n">
-        <v>4.4</v>
+        <v>2.5</v>
       </c>
       <c r="T109" t="n">
         <v>2.02</v>
@@ -15163,10 +15163,10 @@
         <v>1.48</v>
       </c>
       <c r="W109" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X109" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y109" t="n">
         <v>1000</v>
@@ -15238,121 +15238,121 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Fortuna Sittard</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>SC Telstar</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>7.8</v>
+        <v>2.3</v>
       </c>
       <c r="G110" t="n">
-        <v>8.4</v>
+        <v>2.42</v>
       </c>
       <c r="H110" t="n">
-        <v>1.41</v>
+        <v>3.1</v>
       </c>
       <c r="I110" t="n">
-        <v>1.44</v>
+        <v>3.35</v>
       </c>
       <c r="J110" t="n">
-        <v>5.4</v>
+        <v>3.8</v>
       </c>
       <c r="K110" t="n">
-        <v>6.2</v>
+        <v>3.95</v>
       </c>
       <c r="L110" t="n">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="M110" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N110" t="n">
-        <v>6.8</v>
+        <v>4.6</v>
       </c>
       <c r="O110" t="n">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="P110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.44</v>
+        <v>1.59</v>
       </c>
       <c r="R110" t="n">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="S110" t="n">
-        <v>2.06</v>
+        <v>2.78</v>
       </c>
       <c r="T110" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="U110" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="V110" t="n">
-        <v>3.25</v>
+        <v>1.43</v>
       </c>
       <c r="W110" t="n">
-        <v>1.13</v>
+        <v>1.7</v>
       </c>
       <c r="X110" t="n">
-        <v>42</v>
+        <v>18.5</v>
       </c>
       <c r="Y110" t="n">
         <v>16</v>
       </c>
       <c r="Z110" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AA110" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH110" t="n">
         <v>15.5</v>
       </c>
-      <c r="AB110" t="n">
-        <v>44</v>
-      </c>
-      <c r="AC110" t="n">
-        <v>16</v>
-      </c>
-      <c r="AD110" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE110" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF110" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG110" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH110" t="n">
-        <v>21</v>
-      </c>
       <c r="AI110" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AJ110" t="n">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c r="AK110" t="n">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="AL110" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AM110" t="n">
         <v>80</v>
       </c>
       <c r="AN110" t="n">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="AO110" t="n">
-        <v>4.4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111">
@@ -15373,121 +15373,121 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Fortuna Sittard</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>SC Telstar</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2.3</v>
+        <v>7.8</v>
       </c>
       <c r="G111" t="n">
-        <v>2.42</v>
+        <v>8.4</v>
       </c>
       <c r="H111" t="n">
-        <v>3.1</v>
+        <v>1.41</v>
       </c>
       <c r="I111" t="n">
-        <v>3.35</v>
+        <v>1.44</v>
       </c>
       <c r="J111" t="n">
-        <v>3.8</v>
+        <v>5.4</v>
       </c>
       <c r="K111" t="n">
-        <v>3.95</v>
+        <v>6.2</v>
       </c>
       <c r="L111" t="n">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="M111" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N111" t="n">
-        <v>4.6</v>
+        <v>6.8</v>
       </c>
       <c r="O111" t="n">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="P111" t="n">
-        <v>2.22</v>
+        <v>3</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="R111" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="S111" t="n">
-        <v>2.78</v>
+        <v>2.06</v>
       </c>
       <c r="T111" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="U111" t="n">
-        <v>2.42</v>
+        <v>2.28</v>
       </c>
       <c r="V111" t="n">
-        <v>1.43</v>
+        <v>3.25</v>
       </c>
       <c r="W111" t="n">
-        <v>1.7</v>
+        <v>1.13</v>
       </c>
       <c r="X111" t="n">
-        <v>18.5</v>
+        <v>42</v>
       </c>
       <c r="Y111" t="n">
         <v>16</v>
       </c>
       <c r="Z111" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AA111" t="n">
-        <v>55</v>
+        <v>15.5</v>
       </c>
       <c r="AB111" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="AC111" t="n">
-        <v>8.800000000000001</v>
+        <v>16</v>
       </c>
       <c r="AD111" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE111" t="n">
         <v>14</v>
       </c>
-      <c r="AE111" t="n">
+      <c r="AF111" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG111" t="n">
         <v>34</v>
       </c>
-      <c r="AF111" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG111" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AH111" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AI111" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AJ111" t="n">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="AK111" t="n">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="AL111" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AM111" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AN111" t="n">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="AO111" t="n">
-        <v>30</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="112">
@@ -15517,19 +15517,19 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2.62</v>
+        <v>1.43</v>
       </c>
       <c r="G112" t="n">
-        <v>3.1</v>
+        <v>1000</v>
       </c>
       <c r="H112" t="n">
-        <v>2.9</v>
+        <v>1.43</v>
       </c>
       <c r="I112" t="n">
-        <v>3.1</v>
+        <v>1000</v>
       </c>
       <c r="J112" t="n">
-        <v>2.86</v>
+        <v>1.09</v>
       </c>
       <c r="K112" t="n">
         <v>3.5</v>
@@ -15541,34 +15541,34 @@
         <v>1.08</v>
       </c>
       <c r="N112" t="n">
-        <v>3.35</v>
+        <v>1.25</v>
       </c>
       <c r="O112" t="n">
         <v>1.36</v>
       </c>
       <c r="P112" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="Q112" t="n">
         <v>1.36</v>
       </c>
       <c r="R112" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="S112" t="n">
-        <v>3.35</v>
+        <v>1.36</v>
       </c>
       <c r="T112" t="n">
         <v>1.01</v>
       </c>
       <c r="U112" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="V112" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="W112" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="X112" t="n">
         <v>1000</v>
@@ -15658,7 +15658,7 @@
         <v>2.12</v>
       </c>
       <c r="H113" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I113" t="n">
         <v>4.1</v>
@@ -15730,7 +15730,7 @@
         <v>40</v>
       </c>
       <c r="AF113" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG113" t="n">
         <v>12.5</v>
@@ -15790,10 +15790,10 @@
         <v>7.2</v>
       </c>
       <c r="G114" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="H114" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="I114" t="n">
         <v>1.57</v>
@@ -15817,7 +15817,7 @@
         <v>1.36</v>
       </c>
       <c r="P114" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="Q114" t="n">
         <v>2.08</v>
@@ -15826,7 +15826,7 @@
         <v>1.33</v>
       </c>
       <c r="S114" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T114" t="n">
         <v>2.16</v>
@@ -15838,7 +15838,7 @@
         <v>2.74</v>
       </c>
       <c r="W114" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="X114" t="n">
         <v>13</v>
@@ -15922,22 +15922,22 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="G115" t="n">
         <v>1.61</v>
       </c>
       <c r="H115" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="I115" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="J115" t="n">
         <v>4.6</v>
       </c>
       <c r="K115" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L115" t="n">
         <v>1.01</v>
@@ -15946,25 +15946,25 @@
         <v>1.03</v>
       </c>
       <c r="N115" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="O115" t="n">
         <v>1.2</v>
       </c>
       <c r="P115" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="Q115" t="n">
         <v>1.59</v>
       </c>
       <c r="R115" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="S115" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="T115" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U115" t="n">
         <v>2.12</v>
@@ -15973,19 +15973,19 @@
         <v>1.17</v>
       </c>
       <c r="W115" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="X115" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y115" t="n">
         <v>27</v>
       </c>
       <c r="Z115" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA115" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AB115" t="n">
         <v>11.5</v>
@@ -15997,7 +15997,7 @@
         <v>25</v>
       </c>
       <c r="AE115" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF115" t="n">
         <v>11.5</v>
@@ -16018,10 +16018,10 @@
         <v>16</v>
       </c>
       <c r="AL115" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM115" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN115" t="n">
         <v>6.6</v>
@@ -16063,7 +16063,7 @@
         <v>3.25</v>
       </c>
       <c r="H116" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="I116" t="n">
         <v>2.36</v>
@@ -16072,7 +16072,7 @@
         <v>3.8</v>
       </c>
       <c r="K116" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L116" t="n">
         <v>1.29</v>
@@ -16081,13 +16081,13 @@
         <v>1.04</v>
       </c>
       <c r="N116" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O116" t="n">
         <v>1.21</v>
       </c>
       <c r="P116" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q116" t="n">
         <v>1.63</v>
@@ -16111,58 +16111,58 @@
         <v>1.44</v>
       </c>
       <c r="X116" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y116" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="Z116" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AA116" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AB116" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC116" t="n">
         <v>11.5</v>
       </c>
       <c r="AD116" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AE116" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AF116" t="n">
         <v>30</v>
       </c>
       <c r="AG116" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AH116" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI116" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AJ116" t="n">
         <v>60</v>
       </c>
       <c r="AK116" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AL116" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AM116" t="n">
         <v>75</v>
       </c>
       <c r="AN116" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AO116" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="117">
@@ -16225,7 +16225,7 @@
         <v>2.32</v>
       </c>
       <c r="Q117" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R117" t="n">
         <v>1.53</v>
@@ -16327,22 +16327,22 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G118" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="H118" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I118" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J118" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K118" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L118" t="n">
         <v>1.35</v>
@@ -16357,10 +16357,10 @@
         <v>1.26</v>
       </c>
       <c r="P118" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q118" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R118" t="n">
         <v>1.42</v>
@@ -16375,13 +16375,13 @@
         <v>2.18</v>
       </c>
       <c r="V118" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W118" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="X118" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y118" t="n">
         <v>17.5</v>
@@ -16426,7 +16426,7 @@
         <v>36</v>
       </c>
       <c r="AM118" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN118" t="n">
         <v>13.5</v>
@@ -16468,10 +16468,10 @@
         <v>6.4</v>
       </c>
       <c r="H119" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="I119" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="J119" t="n">
         <v>4.1</v>
@@ -16498,19 +16498,19 @@
         <v>1.94</v>
       </c>
       <c r="R119" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S119" t="n">
         <v>3.4</v>
       </c>
       <c r="T119" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U119" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V119" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="W119" t="n">
         <v>1.18</v>
@@ -16543,7 +16543,7 @@
         <v>50</v>
       </c>
       <c r="AG119" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH119" t="n">
         <v>22</v>
@@ -16558,7 +16558,7 @@
         <v>90</v>
       </c>
       <c r="AL119" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AM119" t="n">
         <v>140</v>
@@ -16612,7 +16612,7 @@
         <v>5.4</v>
       </c>
       <c r="K120" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L120" t="n">
         <v>0</v>
@@ -16738,7 +16738,7 @@
         <v>1.46</v>
       </c>
       <c r="H121" t="n">
-        <v>2.3</v>
+        <v>2.78</v>
       </c>
       <c r="I121" t="n">
         <v>19</v>
@@ -16774,7 +16774,7 @@
         <v>2.8</v>
       </c>
       <c r="T121" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U121" t="n">
         <v>1.48</v>
@@ -17038,7 +17038,7 @@
         <v>1.93</v>
       </c>
       <c r="R123" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S123" t="n">
         <v>3</v>
@@ -17047,7 +17047,7 @@
         <v>2.24</v>
       </c>
       <c r="U123" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="V123" t="n">
         <v>1.08</v>
@@ -17068,16 +17068,16 @@
         <v>1000</v>
       </c>
       <c r="AB123" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC123" t="n">
         <v>12.5</v>
       </c>
       <c r="AD123" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AE123" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AF123" t="n">
         <v>7.8</v>
@@ -17086,10 +17086,10 @@
         <v>11.5</v>
       </c>
       <c r="AH123" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI123" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AJ123" t="n">
         <v>11.5</v>
@@ -17101,10 +17101,10 @@
         <v>50</v>
       </c>
       <c r="AM123" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AN123" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO123" t="n">
         <v>1000</v>
@@ -17137,22 +17137,22 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1.2</v>
+        <v>1.04</v>
       </c>
       <c r="G124" t="n">
-        <v>1.41</v>
+        <v>2.2</v>
       </c>
       <c r="H124" t="n">
-        <v>5</v>
+        <v>1.04</v>
       </c>
       <c r="I124" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="J124" t="n">
-        <v>3.95</v>
+        <v>1.02</v>
       </c>
       <c r="K124" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="L124" t="n">
         <v>1.01</v>
@@ -17167,16 +17167,16 @@
         <v>1.17</v>
       </c>
       <c r="P124" t="n">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q124" t="n">
-        <v>1.48</v>
+        <v>1.17</v>
       </c>
       <c r="R124" t="n">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="S124" t="n">
-        <v>2.1</v>
+        <v>1.17</v>
       </c>
       <c r="T124" t="n">
         <v>1.01</v>
@@ -17185,10 +17185,10 @@
         <v>1.01</v>
       </c>
       <c r="V124" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="W124" t="n">
-        <v>3.4</v>
+        <v>1.01</v>
       </c>
       <c r="X124" t="n">
         <v>1000</v>
@@ -17242,6 +17242,276 @@
         <v>1000</v>
       </c>
       <c r="AO124" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Tigres</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Toluca</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G125" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H125" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I125" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J125" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="K125" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L125" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M125" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N125" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O125" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P125" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R125" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S125" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T125" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U125" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V125" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W125" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X125" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO125" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Atletico Bucaramanga</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G126" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="H126" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I126" t="n">
+        <v>6</v>
+      </c>
+      <c r="J126" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="K126" t="n">
+        <v>980</v>
+      </c>
+      <c r="L126" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M126" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N126" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O126" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P126" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R126" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S126" t="n">
+        <v>4</v>
+      </c>
+      <c r="T126" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U126" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V126" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W126" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X126" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL126" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO126" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-17.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="G2" t="n">
         <v>5.4</v>
@@ -676,10 +676,10 @@
         <v>1.75</v>
       </c>
       <c r="I2" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K2" t="n">
         <v>4.3</v>
@@ -697,16 +697,16 @@
         <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="R2" t="n">
         <v>1.46</v>
       </c>
       <c r="S2" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T2" t="n">
         <v>1.77</v>
@@ -715,22 +715,22 @@
         <v>2.12</v>
       </c>
       <c r="V2" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="W2" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X2" t="n">
         <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
         <v>11.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AB2" t="n">
         <v>1000</v>
@@ -769,10 +769,10 @@
         <v>110</v>
       </c>
       <c r="AN2" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AO2" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -805,13 +805,13 @@
         <v>2.1</v>
       </c>
       <c r="G3" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J3" t="n">
         <v>4.3</v>
@@ -841,7 +841,7 @@
         <v>1.83</v>
       </c>
       <c r="S3" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="T3" t="n">
         <v>1.47</v>
@@ -850,7 +850,7 @@
         <v>2.98</v>
       </c>
       <c r="V3" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W3" t="n">
         <v>1.87</v>
@@ -892,7 +892,7 @@
         <v>32</v>
       </c>
       <c r="AJ3" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
         <v>19</v>
@@ -946,10 +946,10 @@
         <v>2.28</v>
       </c>
       <c r="I4" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K4" t="n">
         <v>3.75</v>
@@ -985,10 +985,10 @@
         <v>2.26</v>
       </c>
       <c r="V4" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="W4" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X4" t="n">
         <v>16.5</v>
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.02</v>
+        <v>1.26</v>
       </c>
       <c r="G5" t="n">
-        <v>500</v>
+        <v>2.04</v>
       </c>
       <c r="H5" t="n">
-        <v>1.02</v>
+        <v>3.85</v>
       </c>
       <c r="I5" t="n">
-        <v>500</v>
+        <v>6.8</v>
       </c>
       <c r="J5" t="n">
-        <v>1.02</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
         <v>950</v>
@@ -1096,22 +1096,22 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="P5" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.07</v>
+        <v>1.37</v>
       </c>
       <c r="R5" t="n">
         <v>1.7</v>
       </c>
       <c r="S5" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="T5" t="n">
         <v>1.01</v>
@@ -1120,10 +1120,10 @@
         <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1210,10 +1210,10 @@
         <v>2.96</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H6" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I6" t="n">
         <v>2.44</v>
@@ -1237,10 +1237,10 @@
         <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="R6" t="n">
         <v>1.58</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="G8" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H8" t="n">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="I8" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J8" t="n">
         <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>5.3</v>
+        <v>3.8</v>
       </c>
       <c r="L8" t="n">
         <v>1.4</v>
@@ -1504,7 +1504,7 @@
         <v>3.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
         <v>1.86</v>
@@ -1522,13 +1522,13 @@
         <v>1.73</v>
       </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V8" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="W8" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X8" t="n">
         <v>17</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.6</v>
+        <v>13</v>
       </c>
       <c r="G9" t="n">
         <v>1000</v>
@@ -1624,7 +1624,7 @@
         <v>1.17</v>
       </c>
       <c r="J9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K9" t="n">
         <v>15</v>
@@ -1747,94 +1747,94 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="G10" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="H10" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J10" t="n">
         <v>3.2</v>
       </c>
       <c r="K10" t="n">
-        <v>5.2</v>
+        <v>3.95</v>
       </c>
       <c r="L10" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>1.66</v>
+        <v>3.25</v>
       </c>
       <c r="O10" t="n">
-        <v>1.05</v>
+        <v>1.36</v>
       </c>
       <c r="P10" t="n">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="R10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.23</v>
       </c>
-      <c r="S10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.2</v>
-      </c>
       <c r="W10" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="X10" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
         <v>980</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB10" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD10" t="n">
         <v>980</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH10" t="n">
         <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ10" t="n">
         <v>980</v>
@@ -1843,16 +1843,16 @@
         <v>980</v>
       </c>
       <c r="AL10" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN10" t="n">
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
@@ -1885,7 +1885,7 @@
         <v>1.54</v>
       </c>
       <c r="G11" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="H11" t="n">
         <v>4.8</v>
@@ -1909,13 +1909,13 @@
         <v>1.71</v>
       </c>
       <c r="O11" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P11" t="n">
         <v>1.71</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="R11" t="n">
         <v>1.16</v>
@@ -1927,13 +1927,13 @@
         <v>1.86</v>
       </c>
       <c r="U11" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="V11" t="n">
         <v>1.16</v>
       </c>
       <c r="W11" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="G12" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="H12" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="I12" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="J12" t="n">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="K12" t="n">
         <v>3.45</v>
@@ -2065,10 +2065,10 @@
         <v>1.74</v>
       </c>
       <c r="V12" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="W12" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="X12" t="n">
         <v>11</v>
@@ -2080,10 +2080,10 @@
         <v>15.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AB12" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC12" t="n">
         <v>7.6</v>
@@ -2095,10 +2095,10 @@
         <v>980</v>
       </c>
       <c r="AF12" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AH12" t="n">
         <v>21</v>
@@ -2107,7 +2107,7 @@
         <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AK12" t="n">
         <v>980</v>
@@ -2119,10 +2119,10 @@
         <v>160</v>
       </c>
       <c r="AN12" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AO12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.04</v>
+        <v>2.08</v>
       </c>
       <c r="G13" t="n">
-        <v>1000</v>
+        <v>2.34</v>
       </c>
       <c r="H13" t="n">
-        <v>1.18</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.18</v>
+        <v>3.85</v>
       </c>
       <c r="K13" t="n">
-        <v>980</v>
+        <v>4.6</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>2.08</v>
       </c>
       <c r="G14" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="H14" t="n">
         <v>3.15</v>
       </c>
       <c r="I14" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J14" t="n">
         <v>3.2</v>
@@ -2305,22 +2305,22 @@
         <v>5.1</v>
       </c>
       <c r="L14" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>1.82</v>
+        <v>3.75</v>
       </c>
       <c r="O14" t="n">
         <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="R14" t="n">
         <v>1.33</v>
@@ -2329,19 +2329,19 @@
         <v>2.74</v>
       </c>
       <c r="T14" t="n">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="U14" t="n">
-        <v>1.8</v>
+        <v>1.99</v>
       </c>
       <c r="V14" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W14" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="X14" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
         <v>1000</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="G15" t="n">
         <v>1000</v>
@@ -2437,7 +2437,7 @@
         <v>2.64</v>
       </c>
       <c r="K15" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2482,7 +2482,7 @@
         <v>28</v>
       </c>
       <c r="Z15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA15" t="n">
         <v>36</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="G18" t="n">
         <v>2.02</v>
@@ -2851,7 +2851,7 @@
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O18" t="n">
         <v>1.21</v>
@@ -2863,76 +2863,76 @@
         <v>1.61</v>
       </c>
       <c r="R18" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S18" t="n">
         <v>2.56</v>
       </c>
       <c r="T18" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="U18" t="n">
-        <v>1.01</v>
+        <v>2.44</v>
       </c>
       <c r="V18" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W18" t="n">
         <v>1.98</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
@@ -2965,16 +2965,16 @@
         <v>2.08</v>
       </c>
       <c r="G19" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="H19" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J19" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K19" t="n">
         <v>3.8</v>
@@ -2995,79 +2995,79 @@
         <v>2.16</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R19" t="n">
         <v>1.47</v>
       </c>
       <c r="S19" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="T19" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="U19" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="V19" t="n">
         <v>1.33</v>
       </c>
       <c r="W19" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="Z19" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AA19" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AB19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD19" t="n">
         <v>16</v>
       </c>
-      <c r="AC19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>22</v>
-      </c>
       <c r="AE19" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI19" t="n">
         <v>980</v>
       </c>
       <c r="AJ19" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AK19" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AL19" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AM19" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
@@ -3103,7 +3103,7 @@
         <v>3.2</v>
       </c>
       <c r="H20" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="I20" t="n">
         <v>2.5</v>
@@ -3121,13 +3121,13 @@
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O20" t="n">
         <v>1.27</v>
       </c>
       <c r="P20" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q20" t="n">
         <v>1.78</v>
@@ -3142,7 +3142,7 @@
         <v>1.66</v>
       </c>
       <c r="U20" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V20" t="n">
         <v>1.67</v>
@@ -3151,7 +3151,7 @@
         <v>1.45</v>
       </c>
       <c r="X20" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Y20" t="n">
         <v>12.5</v>
@@ -3367,25 +3367,25 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="G22" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H22" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="J22" t="n">
         <v>3.2</v>
       </c>
       <c r="K22" t="n">
-        <v>6.8</v>
+        <v>5.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
         <v>1.01</v>
@@ -3415,22 +3415,22 @@
         <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="W22" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="X22" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB22" t="n">
         <v>970</v>
@@ -3439,10 +3439,10 @@
         <v>970</v>
       </c>
       <c r="AD22" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF22" t="n">
         <v>970</v>
@@ -3451,28 +3451,28 @@
         <v>970</v>
       </c>
       <c r="AH22" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ22" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AK22" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="G23" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="n">
         <v>2.02</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.04</v>
       </c>
       <c r="J23" t="n">
         <v>4</v>
@@ -3532,7 +3532,7 @@
         <v>1.18</v>
       </c>
       <c r="P23" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="Q23" t="n">
         <v>1.56</v>
@@ -3547,13 +3547,13 @@
         <v>1.53</v>
       </c>
       <c r="U23" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="V23" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="W23" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X23" t="n">
         <v>24</v>
@@ -3562,7 +3562,7 @@
         <v>15</v>
       </c>
       <c r="Z23" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA23" t="n">
         <v>24</v>
@@ -3571,16 +3571,16 @@
         <v>23</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD23" t="n">
         <v>10.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF23" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AG23" t="n">
         <v>15.5</v>
@@ -3637,31 +3637,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="G24" t="n">
-        <v>3.45</v>
+        <v>2.98</v>
       </c>
       <c r="H24" t="n">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="I24" t="n">
-        <v>3.3</v>
+        <v>2.86</v>
       </c>
       <c r="J24" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="K24" t="n">
-        <v>5.6</v>
+        <v>4.2</v>
       </c>
       <c r="L24" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="O24" t="n">
         <v>1.25</v>
@@ -3673,76 +3673,76 @@
         <v>1.7</v>
       </c>
       <c r="R24" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="S24" t="n">
-        <v>2.42</v>
+        <v>2.74</v>
       </c>
       <c r="T24" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="U24" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="V24" t="n">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="W24" t="n">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="X24" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Y24" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AA24" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AB24" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AC24" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AD24" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE24" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AF24" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AG24" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO24" t="n">
         <v>23</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3778,7 +3778,7 @@
         <v>2.6</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I25" t="n">
         <v>3.4</v>
@@ -3790,7 +3790,7 @@
         <v>3.55</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M25" t="n">
         <v>1.09</v>
@@ -3853,7 +3853,7 @@
         <v>970</v>
       </c>
       <c r="AG25" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AH25" t="n">
         <v>23</v>
@@ -3862,7 +3862,7 @@
         <v>65</v>
       </c>
       <c r="AJ25" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AK25" t="n">
         <v>34</v>
@@ -3910,37 +3910,37 @@
         <v>2.38</v>
       </c>
       <c r="G26" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="H26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J26" t="n">
         <v>3.15</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.1</v>
       </c>
       <c r="K26" t="n">
         <v>3.5</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M26" t="n">
         <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O26" t="n">
         <v>1.41</v>
       </c>
       <c r="P26" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R26" t="n">
         <v>1.27</v>
@@ -3952,19 +3952,19 @@
         <v>1.89</v>
       </c>
       <c r="U26" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V26" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="W26" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="X26" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y26" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z26" t="n">
         <v>27</v>
@@ -3982,25 +3982,25 @@
         <v>18</v>
       </c>
       <c r="AE26" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF26" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG26" t="n">
         <v>14.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI26" t="n">
         <v>70</v>
       </c>
       <c r="AJ26" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AK26" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL26" t="n">
         <v>60</v>
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G28" t="n">
         <v>1.2</v>
       </c>
-      <c r="G28" t="n">
-        <v>1.21</v>
-      </c>
       <c r="H28" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="I28" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="J28" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="K28" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="L28" t="n">
         <v>1.19</v>
@@ -4216,7 +4216,7 @@
         <v>2.2</v>
       </c>
       <c r="S28" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="T28" t="n">
         <v>1.91</v>
@@ -4228,7 +4228,7 @@
         <v>1.06</v>
       </c>
       <c r="W28" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="X28" t="n">
         <v>60</v>
@@ -4279,7 +4279,7 @@
         <v>150</v>
       </c>
       <c r="AN28" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="AO28" t="n">
         <v>250</v>
@@ -4312,13 +4312,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="G29" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H29" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="I29" t="n">
         <v>3.15</v>
@@ -4336,40 +4336,40 @@
         <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O29" t="n">
         <v>1.43</v>
       </c>
       <c r="P29" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="R29" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="S29" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="T29" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="U29" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="V29" t="n">
         <v>1.46</v>
       </c>
       <c r="W29" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="X29" t="n">
         <v>11.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z29" t="n">
         <v>21</v>
@@ -4381,10 +4381,10 @@
         <v>10</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE29" t="n">
         <v>42</v>
@@ -4417,7 +4417,7 @@
         <v>36</v>
       </c>
       <c r="AO29" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30">
@@ -4450,13 +4450,13 @@
         <v>1.99</v>
       </c>
       <c r="G30" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H30" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="J30" t="n">
         <v>3.2</v>
@@ -4465,10 +4465,10 @@
         <v>3.75</v>
       </c>
       <c r="L30" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N30" t="n">
         <v>3.15</v>
@@ -4483,76 +4483,76 @@
         <v>2.1</v>
       </c>
       <c r="R30" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="S30" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="T30" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="U30" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V30" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="W30" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X30" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Z30" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB30" t="n">
-        <v>11</v>
+        <v>8.6</v>
       </c>
       <c r="AC30" t="n">
-        <v>9.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD30" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AE30" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AF30" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AG30" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK30" t="n">
         <v>26</v>
       </c>
-      <c r="AI30" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>36</v>
-      </c>
       <c r="AL30" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
@@ -4582,103 +4582,103 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="G31" t="n">
-        <v>3.05</v>
+        <v>2.74</v>
       </c>
       <c r="H31" t="n">
-        <v>2.84</v>
+        <v>3.4</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="J31" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="K31" t="n">
-        <v>5.3</v>
+        <v>3.3</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N31" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="O31" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="P31" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="R31" t="n">
         <v>1.18</v>
       </c>
       <c r="S31" t="n">
-        <v>2.32</v>
+        <v>4.8</v>
       </c>
       <c r="T31" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="U31" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V31" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W31" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="X31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y31" t="n">
         <v>12</v>
       </c>
       <c r="Z31" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA31" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AB31" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC31" t="n">
         <v>8.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AF31" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AG31" t="n">
         <v>15.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AI31" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AJ31" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AK31" t="n">
         <v>46</v>
       </c>
       <c r="AL31" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM31" t="n">
         <v>1000</v>
@@ -4687,7 +4687,7 @@
         <v>50</v>
       </c>
       <c r="AO31" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32">
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.04</v>
+        <v>3.55</v>
       </c>
       <c r="G32" t="n">
-        <v>500</v>
+        <v>4.8</v>
       </c>
       <c r="H32" t="n">
-        <v>1.04</v>
+        <v>1.98</v>
       </c>
       <c r="I32" t="n">
-        <v>190</v>
+        <v>2.32</v>
       </c>
       <c r="J32" t="n">
-        <v>1.02</v>
+        <v>2.9</v>
       </c>
       <c r="K32" t="n">
-        <v>950</v>
+        <v>4.3</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
@@ -4741,88 +4741,88 @@
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>1.24</v>
+        <v>1.53</v>
       </c>
       <c r="O32" t="n">
         <v>1.01</v>
       </c>
       <c r="P32" t="n">
-        <v>1.24</v>
+        <v>1.53</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="R32" t="n">
         <v>1.18</v>
       </c>
       <c r="S32" t="n">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="T32" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="U32" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="V32" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="W32" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="X32" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y32" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="Z32" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AA32" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AB32" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC32" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD32" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AF32" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG32" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI32" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK32" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL32" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM32" t="n">
         <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33">
@@ -4852,64 +4852,64 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="G33" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H33" t="n">
+        <v>14</v>
+      </c>
+      <c r="I33" t="n">
+        <v>22</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K33" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="L33" t="n">
         <v>1.3</v>
       </c>
-      <c r="H33" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>210</v>
-      </c>
-      <c r="J33" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K33" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L33" t="n">
+      <c r="M33" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O33" t="n">
         <v>1.28</v>
       </c>
-      <c r="M33" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N33" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.24</v>
-      </c>
       <c r="P33" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.24</v>
+        <v>1.83</v>
       </c>
       <c r="R33" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S33" t="n">
-        <v>2.64</v>
+        <v>2.94</v>
       </c>
       <c r="T33" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="U33" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="V33" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W33" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="X33" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y33" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="Z33" t="n">
         <v>1000</v>
@@ -4918,43 +4918,43 @@
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD33" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AE33" t="n">
         <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AG33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH33" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AI33" t="n">
         <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM33" t="n">
         <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="G34" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="H34" t="n">
         <v>2.18</v>
@@ -4999,46 +4999,46 @@
         <v>2.42</v>
       </c>
       <c r="J34" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K34" t="n">
         <v>3.7</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M34" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N34" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="O34" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="P34" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="R34" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S34" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="T34" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U34" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="V34" t="n">
         <v>1.7</v>
       </c>
       <c r="W34" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X34" t="n">
         <v>13</v>
@@ -5086,10 +5086,10 @@
         <v>70</v>
       </c>
       <c r="AM34" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN34" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AO34" t="n">
         <v>24</v>
@@ -5122,19 +5122,19 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="H35" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="I35" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="J35" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K35" t="n">
         <v>3.7</v>
@@ -5149,7 +5149,7 @@
         <v>2.66</v>
       </c>
       <c r="O35" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P35" t="n">
         <v>1.57</v>
@@ -5170,22 +5170,22 @@
         <v>1.7</v>
       </c>
       <c r="V35" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W35" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="X35" t="n">
         <v>10.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z35" t="n">
         <v>42</v>
       </c>
       <c r="AA35" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AB35" t="n">
         <v>7.8</v>
@@ -5197,10 +5197,10 @@
         <v>25</v>
       </c>
       <c r="AE35" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AF35" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AG35" t="n">
         <v>13</v>
@@ -5209,25 +5209,25 @@
         <v>32</v>
       </c>
       <c r="AI35" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ35" t="n">
         <v>24</v>
       </c>
       <c r="AK35" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AL35" t="n">
         <v>60</v>
       </c>
       <c r="AM35" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AN35" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO35" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36">
@@ -5257,46 +5257,46 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="G36" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H36" t="n">
         <v>2.04</v>
       </c>
       <c r="I36" t="n">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="J36" t="n">
-        <v>2.9</v>
+        <v>3.35</v>
       </c>
       <c r="K36" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L36" t="n">
         <v>1.43</v>
       </c>
       <c r="M36" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N36" t="n">
-        <v>1.01</v>
+        <v>3.15</v>
       </c>
       <c r="O36" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P36" t="n">
-        <v>1.25</v>
+        <v>1.74</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R36" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S36" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="T36" t="n">
         <v>1.9</v>
@@ -5305,7 +5305,7 @@
         <v>1.83</v>
       </c>
       <c r="V36" t="n">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="W36" t="n">
         <v>1.29</v>
@@ -5335,7 +5335,7 @@
         <v>26</v>
       </c>
       <c r="AF36" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG36" t="n">
         <v>970</v>
@@ -5422,7 +5422,7 @@
         <v>1.44</v>
       </c>
       <c r="P37" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="Q37" t="n">
         <v>2.3</v>
@@ -5449,7 +5449,7 @@
         <v>12</v>
       </c>
       <c r="Y37" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z37" t="n">
         <v>32</v>
@@ -5476,7 +5476,7 @@
         <v>11.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI37" t="n">
         <v>85</v>
@@ -5662,58 +5662,58 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.04</v>
+        <v>2.26</v>
       </c>
       <c r="G39" t="n">
-        <v>980</v>
+        <v>2.68</v>
       </c>
       <c r="H39" t="n">
-        <v>1.04</v>
+        <v>3.2</v>
       </c>
       <c r="I39" t="n">
-        <v>980</v>
+        <v>3.7</v>
       </c>
       <c r="J39" t="n">
-        <v>1.02</v>
+        <v>3.15</v>
       </c>
       <c r="K39" t="n">
-        <v>980</v>
+        <v>3.7</v>
       </c>
       <c r="L39" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M39" t="n">
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>1.25</v>
+        <v>3.35</v>
       </c>
       <c r="O39" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="P39" t="n">
-        <v>1.24</v>
+        <v>1.8</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.02</v>
+        <v>2.06</v>
       </c>
       <c r="R39" t="n">
-        <v>1.16</v>
+        <v>1.26</v>
       </c>
       <c r="S39" t="n">
-        <v>1.02</v>
+        <v>3.25</v>
       </c>
       <c r="T39" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="U39" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="V39" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="W39" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5800,55 +5800,55 @@
         <v>1.84</v>
       </c>
       <c r="G40" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H40" t="n">
         <v>4.6</v>
       </c>
       <c r="I40" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J40" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K40" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
       </c>
       <c r="M40" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O40" t="n">
         <v>1.3</v>
       </c>
       <c r="P40" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R40" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S40" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="T40" t="n">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="U40" t="n">
         <v>2.1</v>
       </c>
       <c r="V40" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W40" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X40" t="n">
         <v>16.5</v>
@@ -5857,7 +5857,7 @@
         <v>18.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA40" t="n">
         <v>140</v>
@@ -5869,7 +5869,7 @@
         <v>8.6</v>
       </c>
       <c r="AD40" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AE40" t="n">
         <v>75</v>
@@ -5899,7 +5899,7 @@
         <v>120</v>
       </c>
       <c r="AN40" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AO40" t="n">
         <v>85</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="G41" t="n">
-        <v>2.66</v>
+        <v>2.58</v>
       </c>
       <c r="H41" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I41" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J41" t="n">
         <v>3.2</v>
       </c>
       <c r="K41" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
@@ -5965,7 +5965,7 @@
         <v>1.55</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R41" t="n">
         <v>1.18</v>
@@ -5977,67 +5977,67 @@
         <v>1.83</v>
       </c>
       <c r="U41" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="V41" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W41" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="X41" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG41" t="n">
         <v>12</v>
       </c>
-      <c r="Y41" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z41" t="n">
+      <c r="AH41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN41" t="n">
         <v>32</v>
       </c>
-      <c r="AA41" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL41" t="n">
+      <c r="AO41" t="n">
         <v>75</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="42">
@@ -6073,10 +6073,10 @@
         <v>1.55</v>
       </c>
       <c r="H42" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="I42" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="J42" t="n">
         <v>4.4</v>
@@ -6091,31 +6091,31 @@
         <v>1.05</v>
       </c>
       <c r="N42" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O42" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P42" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R42" t="n">
         <v>1.46</v>
       </c>
       <c r="S42" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="T42" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U42" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V42" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W42" t="n">
         <v>2.8</v>
@@ -6130,7 +6130,7 @@
         <v>65</v>
       </c>
       <c r="AA42" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AB42" t="n">
         <v>9</v>
@@ -6142,7 +6142,7 @@
         <v>28</v>
       </c>
       <c r="AE42" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF42" t="n">
         <v>9.6</v>
@@ -6166,7 +6166,7 @@
         <v>36</v>
       </c>
       <c r="AM42" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN42" t="n">
         <v>8.4</v>
@@ -6205,109 +6205,109 @@
         <v>1.53</v>
       </c>
       <c r="G43" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="H43" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="I43" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J43" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K43" t="n">
         <v>4.7</v>
       </c>
       <c r="L43" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M43" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>1.87</v>
+        <v>3.9</v>
       </c>
       <c r="O43" t="n">
         <v>1.3</v>
       </c>
       <c r="P43" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q43" t="n">
         <v>1.87</v>
       </c>
-      <c r="Q43" t="n">
-        <v>1.78</v>
-      </c>
       <c r="R43" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="S43" t="n">
-        <v>2.82</v>
+        <v>3.2</v>
       </c>
       <c r="T43" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="U43" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="V43" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="W43" t="n">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="X43" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z43" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA43" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AB43" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC43" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD43" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE43" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF43" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG43" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH43" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI43" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ43" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AK43" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL43" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM43" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN43" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AO43" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44">
@@ -6352,7 +6352,7 @@
         <v>3.2</v>
       </c>
       <c r="K44" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L44" t="n">
         <v>1.43</v>
@@ -6367,7 +6367,7 @@
         <v>1.36</v>
       </c>
       <c r="P44" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="Q44" t="n">
         <v>2.06</v>
@@ -6379,10 +6379,10 @@
         <v>3.65</v>
       </c>
       <c r="T44" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="U44" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="V44" t="n">
         <v>1.48</v>
@@ -6391,7 +6391,7 @@
         <v>1.53</v>
       </c>
       <c r="X44" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y44" t="n">
         <v>11.5</v>
@@ -6748,7 +6748,7 @@
         <v>2.6</v>
       </c>
       <c r="H47" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I47" t="n">
         <v>3.55</v>
@@ -6763,91 +6763,91 @@
         <v>1.01</v>
       </c>
       <c r="M47" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N47" t="n">
-        <v>1.79</v>
+        <v>3.35</v>
       </c>
       <c r="O47" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P47" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="R47" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="S47" t="n">
-        <v>2.14</v>
+        <v>3.8</v>
       </c>
       <c r="T47" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="U47" t="n">
         <v>2.12</v>
       </c>
       <c r="V47" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W47" t="n">
         <v>1.62</v>
       </c>
       <c r="X47" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA47" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB47" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD47" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF47" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG47" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH47" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI47" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ47" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK47" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL47" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM47" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN47" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO47" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48">
@@ -6877,13 +6877,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="G48" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="H48" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I48" t="n">
         <v>2.86</v>
@@ -6895,46 +6895,46 @@
         <v>4.1</v>
       </c>
       <c r="L48" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M48" t="n">
         <v>1.03</v>
       </c>
       <c r="N48" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O48" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P48" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R48" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="S48" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="T48" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="U48" t="n">
         <v>2.94</v>
       </c>
       <c r="V48" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W48" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="X48" t="n">
         <v>28</v>
       </c>
       <c r="Y48" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z48" t="n">
         <v>24</v>
@@ -6943,7 +6943,7 @@
         <v>46</v>
       </c>
       <c r="AB48" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC48" t="n">
         <v>9.800000000000001</v>
@@ -6961,7 +6961,7 @@
         <v>12.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AI48" t="n">
         <v>28</v>
@@ -6973,16 +6973,16 @@
         <v>22</v>
       </c>
       <c r="AL48" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM48" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AN48" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO48" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
@@ -7012,13 +7012,13 @@
         </is>
       </c>
       <c r="F49" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G49" t="n">
         <v>2.28</v>
       </c>
-      <c r="G49" t="n">
-        <v>2.3</v>
-      </c>
       <c r="H49" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I49" t="n">
         <v>3.45</v>
@@ -7036,7 +7036,7 @@
         <v>1.06</v>
       </c>
       <c r="N49" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O49" t="n">
         <v>1.26</v>
@@ -7060,10 +7060,10 @@
         <v>2.42</v>
       </c>
       <c r="V49" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W49" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X49" t="n">
         <v>17.5</v>
@@ -7078,10 +7078,10 @@
         <v>60</v>
       </c>
       <c r="AB49" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC49" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD49" t="n">
         <v>14</v>
@@ -7150,7 +7150,7 @@
         <v>1.36</v>
       </c>
       <c r="G50" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="H50" t="n">
         <v>10.5</v>
@@ -7198,7 +7198,7 @@
         <v>1.09</v>
       </c>
       <c r="W50" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="X50" t="n">
         <v>19.5</v>
@@ -7249,7 +7249,7 @@
         <v>190</v>
       </c>
       <c r="AN50" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AO50" t="n">
         <v>270</v>
@@ -7282,22 +7282,22 @@
         </is>
       </c>
       <c r="F51" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G51" t="n">
         <v>1.7</v>
       </c>
-      <c r="G51" t="n">
-        <v>1.72</v>
-      </c>
       <c r="H51" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I51" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J51" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K51" t="n">
         <v>4.4</v>
-      </c>
-      <c r="K51" t="n">
-        <v>4.5</v>
       </c>
       <c r="L51" t="n">
         <v>1.31</v>
@@ -7306,22 +7306,22 @@
         <v>1.04</v>
       </c>
       <c r="N51" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O51" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P51" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="Q51" t="n">
         <v>1.63</v>
       </c>
       <c r="R51" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S51" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T51" t="n">
         <v>1.68</v>
@@ -7330,25 +7330,25 @@
         <v>2.38</v>
       </c>
       <c r="V51" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="W51" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="X51" t="n">
         <v>21</v>
       </c>
       <c r="Y51" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z51" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AA51" t="n">
         <v>120</v>
       </c>
       <c r="AB51" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC51" t="n">
         <v>10</v>
@@ -7366,13 +7366,13 @@
         <v>10</v>
       </c>
       <c r="AH51" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI51" t="n">
         <v>55</v>
       </c>
       <c r="AJ51" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AK51" t="n">
         <v>15.5</v>
@@ -7384,7 +7384,7 @@
         <v>75</v>
       </c>
       <c r="AN51" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AO51" t="n">
         <v>48</v>
@@ -7450,7 +7450,7 @@
         <v>2.16</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="R52" t="n">
         <v>1.46</v>
@@ -7486,7 +7486,7 @@
         <v>12.5</v>
       </c>
       <c r="AC52" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD52" t="n">
         <v>13</v>
@@ -7513,16 +7513,16 @@
         <v>26</v>
       </c>
       <c r="AL52" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM52" t="n">
         <v>90</v>
       </c>
       <c r="AN52" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AO52" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53">
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G53" t="n">
         <v>1.79</v>
@@ -7585,10 +7585,10 @@
         <v>2.42</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R53" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S53" t="n">
         <v>2.74</v>
@@ -7600,7 +7600,7 @@
         <v>2.4</v>
       </c>
       <c r="V53" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W53" t="n">
         <v>2.26</v>
@@ -7618,7 +7618,7 @@
         <v>110</v>
       </c>
       <c r="AB53" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC53" t="n">
         <v>9.199999999999999</v>
@@ -7627,7 +7627,7 @@
         <v>18.5</v>
       </c>
       <c r="AE53" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF53" t="n">
         <v>12</v>
@@ -7822,10 +7822,10 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="G55" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H55" t="n">
         <v>1.8</v>
@@ -7834,7 +7834,7 @@
         <v>2.02</v>
       </c>
       <c r="J55" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="K55" t="n">
         <v>4.6</v>
@@ -7873,61 +7873,61 @@
         <v>1.98</v>
       </c>
       <c r="W55" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="X55" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y55" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z55" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA55" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AB55" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AC55" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD55" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE55" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF55" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG55" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AH55" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI55" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ55" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AK55" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL55" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM55" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN55" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AO55" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="56">
@@ -8233,10 +8233,10 @@
         <v>2.28</v>
       </c>
       <c r="H58" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I58" t="n">
         <v>3.65</v>
-      </c>
-      <c r="I58" t="n">
-        <v>3.7</v>
       </c>
       <c r="J58" t="n">
         <v>3.45</v>
@@ -8305,7 +8305,7 @@
         <v>44</v>
       </c>
       <c r="AF58" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG58" t="n">
         <v>11</v>
@@ -8407,7 +8407,7 @@
         <v>1.79</v>
       </c>
       <c r="U59" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V59" t="n">
         <v>1.25</v>
@@ -8443,7 +8443,7 @@
         <v>11</v>
       </c>
       <c r="AG59" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH59" t="n">
         <v>18</v>
@@ -8500,10 +8500,10 @@
         <v>2.8</v>
       </c>
       <c r="G60" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="H60" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I60" t="n">
         <v>2.94</v>
@@ -8527,7 +8527,7 @@
         <v>1.44</v>
       </c>
       <c r="P60" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q60" t="n">
         <v>2.36</v>
@@ -8539,7 +8539,7 @@
         <v>4.5</v>
       </c>
       <c r="T60" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="U60" t="n">
         <v>1.97</v>
@@ -8551,7 +8551,7 @@
         <v>1.54</v>
       </c>
       <c r="X60" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y60" t="n">
         <v>9.6</v>
@@ -8569,7 +8569,7 @@
         <v>7</v>
       </c>
       <c r="AD60" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE60" t="n">
         <v>36</v>
@@ -8590,7 +8590,7 @@
         <v>44</v>
       </c>
       <c r="AK60" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL60" t="n">
         <v>55</v>
@@ -8599,7 +8599,7 @@
         <v>130</v>
       </c>
       <c r="AN60" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO60" t="n">
         <v>38</v>
@@ -8632,25 +8632,25 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="G61" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="H61" t="n">
         <v>2.84</v>
       </c>
       <c r="I61" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="J61" t="n">
         <v>3.2</v>
       </c>
       <c r="K61" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L61" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="M61" t="n">
         <v>1.05</v>
@@ -8662,7 +8662,7 @@
         <v>1.26</v>
       </c>
       <c r="P61" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q61" t="n">
         <v>1.77</v>
@@ -8680,10 +8680,10 @@
         <v>2.08</v>
       </c>
       <c r="V61" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="W61" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X61" t="n">
         <v>21</v>
@@ -8707,7 +8707,7 @@
         <v>970</v>
       </c>
       <c r="AE61" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF61" t="n">
         <v>21</v>
@@ -8719,7 +8719,7 @@
         <v>20</v>
       </c>
       <c r="AI61" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AJ61" t="n">
         <v>42</v>
@@ -8728,7 +8728,7 @@
         <v>32</v>
       </c>
       <c r="AL61" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AM61" t="n">
         <v>95</v>
@@ -8767,7 +8767,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="G62" t="n">
         <v>1.27</v>
@@ -8782,7 +8782,7 @@
         <v>7</v>
       </c>
       <c r="K62" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="L62" t="n">
         <v>1.29</v>
@@ -8830,7 +8830,7 @@
         <v>150</v>
       </c>
       <c r="AA62" t="n">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="AB62" t="n">
         <v>9.4</v>
@@ -8842,7 +8842,7 @@
         <v>55</v>
       </c>
       <c r="AE62" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AF62" t="n">
         <v>7.6</v>
@@ -8866,7 +8866,7 @@
         <v>40</v>
       </c>
       <c r="AM62" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AN62" t="n">
         <v>4.4</v>
@@ -8902,7 +8902,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="G63" t="n">
         <v>3.9</v>
@@ -8911,7 +8911,7 @@
         <v>2.04</v>
       </c>
       <c r="I63" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="J63" t="n">
         <v>3.65</v>
@@ -8926,7 +8926,7 @@
         <v>1.05</v>
       </c>
       <c r="N63" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O63" t="n">
         <v>1.23</v>
@@ -8950,10 +8950,10 @@
         <v>2.32</v>
       </c>
       <c r="V63" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="W63" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X63" t="n">
         <v>23</v>
@@ -9190,10 +9190,10 @@
         <v>4.9</v>
       </c>
       <c r="L65" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="M65" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N65" t="n">
         <v>4.7</v>
@@ -9202,7 +9202,7 @@
         <v>1.21</v>
       </c>
       <c r="P65" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q65" t="n">
         <v>1.63</v>
@@ -9307,19 +9307,19 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="G66" t="n">
-        <v>9.6</v>
+        <v>7</v>
       </c>
       <c r="H66" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="I66" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="J66" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="K66" t="n">
         <v>4.9</v>
@@ -9331,16 +9331,16 @@
         <v>1.01</v>
       </c>
       <c r="N66" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="O66" t="n">
         <v>1.23</v>
       </c>
       <c r="P66" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R66" t="n">
         <v>1.43</v>
@@ -9349,70 +9349,70 @@
         <v>2.32</v>
       </c>
       <c r="T66" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U66" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="V66" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="W66" t="n">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="X66" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Y66" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="Z66" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AA66" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AB66" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AC66" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AD66" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AE66" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AF66" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>190</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>95</v>
+      </c>
+      <c r="AL66" t="n">
         <v>85</v>
       </c>
-      <c r="AG66" t="n">
-        <v>36</v>
-      </c>
-      <c r="AH66" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK66" t="n">
+      <c r="AM66" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN66" t="n">
         <v>100</v>
       </c>
-      <c r="AL66" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM66" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN66" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO66" t="n">
-        <v>9.800000000000001</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="67">
@@ -9442,37 +9442,37 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="G67" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="H67" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="I67" t="n">
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
       <c r="J67" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="K67" t="n">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="L67" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="M67" t="n">
         <v>1.01</v>
       </c>
       <c r="N67" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="O67" t="n">
         <v>1.01</v>
       </c>
       <c r="P67" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="Q67" t="n">
         <v>1.98</v>
@@ -9490,55 +9490,55 @@
         <v>1.66</v>
       </c>
       <c r="V67" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="W67" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X67" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y67" t="n">
         <v>970</v>
       </c>
       <c r="Z67" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AA67" t="n">
         <v>1000</v>
       </c>
       <c r="AB67" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC67" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD67" t="n">
         <v>23</v>
       </c>
       <c r="AE67" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF67" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AG67" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AH67" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI67" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ67" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AK67" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL67" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM67" t="n">
         <v>1000</v>
@@ -9589,7 +9589,7 @@
         <v>2.42</v>
       </c>
       <c r="J68" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K68" t="n">
         <v>4.2</v>
@@ -9598,10 +9598,10 @@
         <v>1.01</v>
       </c>
       <c r="M68" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N68" t="n">
-        <v>2.16</v>
+        <v>4.4</v>
       </c>
       <c r="O68" t="n">
         <v>1.23</v>
@@ -9613,16 +9613,16 @@
         <v>1.69</v>
       </c>
       <c r="R68" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="S68" t="n">
-        <v>2.42</v>
+        <v>2.72</v>
       </c>
       <c r="T68" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="U68" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="V68" t="n">
         <v>1.71</v>
@@ -9631,52 +9631,52 @@
         <v>1.41</v>
       </c>
       <c r="X68" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Y68" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z68" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA68" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI68" t="n">
         <v>44</v>
       </c>
-      <c r="AB68" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC68" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD68" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE68" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF68" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH68" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI68" t="n">
+      <c r="AJ68" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK68" t="n">
         <v>48</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK68" t="n">
-        <v>50</v>
       </c>
       <c r="AL68" t="n">
         <v>55</v>
       </c>
       <c r="AM68" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN68" t="n">
         <v>1000</v>
@@ -9712,22 +9712,22 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="G69" t="n">
         <v>8.6</v>
       </c>
       <c r="H69" t="n">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="I69" t="n">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="J69" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="K69" t="n">
-        <v>980</v>
+        <v>7.6</v>
       </c>
       <c r="L69" t="n">
         <v>1.01</v>
@@ -9748,25 +9748,25 @@
         <v>1.37</v>
       </c>
       <c r="R69" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="S69" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T69" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="U69" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="V69" t="n">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="W69" t="n">
         <v>1.13</v>
       </c>
       <c r="X69" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="Y69" t="n">
         <v>970</v>
@@ -9778,7 +9778,7 @@
         <v>970</v>
       </c>
       <c r="AB69" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AC69" t="n">
         <v>970</v>
@@ -9787,37 +9787,37 @@
         <v>970</v>
       </c>
       <c r="AE69" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AF69" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AG69" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AH69" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AI69" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ69" t="n">
         <v>1000</v>
       </c>
       <c r="AK69" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AL69" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM69" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN69" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AO69" t="n">
-        <v>6</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="70">
@@ -9847,100 +9847,100 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2.34</v>
+        <v>2.58</v>
       </c>
       <c r="G70" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="I70" t="n">
         <v>3.1</v>
       </c>
-      <c r="H70" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3.45</v>
-      </c>
       <c r="J70" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K70" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="L70" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M70" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N70" t="n">
-        <v>1.78</v>
+        <v>3.4</v>
       </c>
       <c r="O70" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P70" t="n">
         <v>1.77</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="R70" t="n">
         <v>1.27</v>
       </c>
       <c r="S70" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="T70" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="U70" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="V70" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="W70" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="X70" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y70" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z70" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA70" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB70" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG70" t="n">
         <v>17</v>
       </c>
-      <c r="AC70" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>18</v>
-      </c>
       <c r="AH70" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI70" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ70" t="n">
         <v>60</v>
       </c>
       <c r="AK70" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL70" t="n">
         <v>60</v>
@@ -9982,22 +9982,22 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="G71" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="H71" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="I71" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="J71" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K71" t="n">
-        <v>5.9</v>
+        <v>4</v>
       </c>
       <c r="L71" t="n">
         <v>1.01</v>
@@ -10006,16 +10006,16 @@
         <v>1.01</v>
       </c>
       <c r="N71" t="n">
-        <v>1.26</v>
+        <v>1.8</v>
       </c>
       <c r="O71" t="n">
         <v>1.01</v>
       </c>
       <c r="P71" t="n">
-        <v>1.26</v>
+        <v>1.8</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
       <c r="R71" t="n">
         <v>1.26</v>
@@ -10030,10 +10030,10 @@
         <v>1.01</v>
       </c>
       <c r="V71" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="W71" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X71" t="n">
         <v>1000</v>
@@ -10117,112 +10117,112 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="G72" t="n">
-        <v>2.38</v>
+        <v>2.18</v>
       </c>
       <c r="H72" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="I72" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="J72" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K72" t="n">
-        <v>6.8</v>
+        <v>3.95</v>
       </c>
       <c r="L72" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M72" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N72" t="n">
-        <v>1.89</v>
+        <v>3.6</v>
       </c>
       <c r="O72" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P72" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="Q72" t="n">
         <v>1.91</v>
       </c>
       <c r="R72" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T72" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U72" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V72" t="n">
         <v>1.29</v>
       </c>
-      <c r="S72" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="T72" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U72" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V72" t="n">
-        <v>1.25</v>
-      </c>
       <c r="W72" t="n">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="X72" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Y72" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="Z72" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AA72" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB72" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF72" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC72" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF72" t="n">
+      <c r="AG72" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH72" t="n">
         <v>19</v>
       </c>
-      <c r="AG72" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH72" t="n">
+      <c r="AI72" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ72" t="n">
         <v>26</v>
       </c>
-      <c r="AI72" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ72" t="n">
+      <c r="AK72" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL72" t="n">
         <v>38</v>
       </c>
-      <c r="AK72" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL72" t="n">
+      <c r="AM72" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AO72" t="n">
         <v>55</v>
-      </c>
-      <c r="AM72" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN72" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO72" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="73">
@@ -10273,19 +10273,19 @@
         <v>1.01</v>
       </c>
       <c r="M73" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N73" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="O73" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P73" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="R73" t="n">
         <v>1.22</v>
@@ -10387,22 +10387,22 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="G74" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H74" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I74" t="n">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="J74" t="n">
-        <v>2.54</v>
+        <v>3.35</v>
       </c>
       <c r="K74" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="L74" t="n">
         <v>1.01</v>
@@ -10411,13 +10411,13 @@
         <v>1.01</v>
       </c>
       <c r="N74" t="n">
-        <v>1.72</v>
+        <v>3.35</v>
       </c>
       <c r="O74" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P74" t="n">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="Q74" t="n">
         <v>2</v>
@@ -10432,13 +10432,13 @@
         <v>1.56</v>
       </c>
       <c r="U74" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="V74" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="W74" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="X74" t="n">
         <v>19</v>
@@ -10540,13 +10540,13 @@
         <v>3.2</v>
       </c>
       <c r="L75" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M75" t="n">
         <v>1.12</v>
       </c>
       <c r="N75" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="O75" t="n">
         <v>1.52</v>
@@ -10570,7 +10570,7 @@
         <v>1.84</v>
       </c>
       <c r="V75" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="W75" t="n">
         <v>1.32</v>
@@ -10618,7 +10618,7 @@
         <v>65</v>
       </c>
       <c r="AL75" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AM75" t="n">
         <v>180</v>
@@ -10660,19 +10660,19 @@
         <v>3.35</v>
       </c>
       <c r="G76" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H76" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="I76" t="n">
-        <v>2.74</v>
+        <v>2.54</v>
       </c>
       <c r="J76" t="n">
-        <v>2.7</v>
+        <v>3.05</v>
       </c>
       <c r="K76" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L76" t="n">
         <v>1.48</v>
@@ -10690,25 +10690,25 @@
         <v>1.25</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.43</v>
+        <v>2.26</v>
       </c>
       <c r="R76" t="n">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="S76" t="n">
-        <v>1.02</v>
+        <v>3.9</v>
       </c>
       <c r="T76" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="U76" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="V76" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="W76" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X76" t="n">
         <v>1000</v>
@@ -10816,19 +10816,19 @@
         <v>1.07</v>
       </c>
       <c r="N77" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O77" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P77" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q77" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="R77" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S77" t="n">
         <v>3.7</v>
@@ -10837,7 +10837,7 @@
         <v>2</v>
       </c>
       <c r="U77" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V77" t="n">
         <v>1.17</v>
@@ -10867,7 +10867,7 @@
         <v>26</v>
       </c>
       <c r="AE77" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF77" t="n">
         <v>10</v>
@@ -10891,13 +10891,13 @@
         <v>44</v>
       </c>
       <c r="AM77" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN77" t="n">
         <v>13</v>
       </c>
       <c r="AO77" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="78">
@@ -10927,7 +10927,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G78" t="n">
         <v>2.34</v>
@@ -10942,7 +10942,7 @@
         <v>3.4</v>
       </c>
       <c r="K78" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L78" t="n">
         <v>1.01</v>
@@ -10951,28 +10951,28 @@
         <v>1.06</v>
       </c>
       <c r="N78" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="O78" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P78" t="n">
         <v>2</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="R78" t="n">
         <v>1.38</v>
       </c>
       <c r="S78" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="T78" t="n">
         <v>1.71</v>
       </c>
       <c r="U78" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V78" t="n">
         <v>1.34</v>
@@ -10981,7 +10981,7 @@
         <v>1.74</v>
       </c>
       <c r="X78" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y78" t="n">
         <v>15.5</v>
@@ -10993,10 +10993,10 @@
         <v>70</v>
       </c>
       <c r="AB78" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AC78" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD78" t="n">
         <v>16</v>
@@ -11008,7 +11008,7 @@
         <v>15</v>
       </c>
       <c r="AG78" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH78" t="n">
         <v>18</v>
@@ -11017,7 +11017,7 @@
         <v>50</v>
       </c>
       <c r="AJ78" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK78" t="n">
         <v>24</v>
@@ -11032,7 +11032,7 @@
         <v>18</v>
       </c>
       <c r="AO78" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79">
@@ -11068,7 +11068,7 @@
         <v>3.3</v>
       </c>
       <c r="H79" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="I79" t="n">
         <v>2.48</v>
@@ -11080,13 +11080,13 @@
         <v>4.1</v>
       </c>
       <c r="L79" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M79" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N79" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="O79" t="n">
         <v>1.2</v>
@@ -11098,16 +11098,16 @@
         <v>1.61</v>
       </c>
       <c r="R79" t="n">
-        <v>1.25</v>
+        <v>1.54</v>
       </c>
       <c r="S79" t="n">
-        <v>1.61</v>
+        <v>2.52</v>
       </c>
       <c r="T79" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="U79" t="n">
-        <v>1.01</v>
+        <v>2.48</v>
       </c>
       <c r="V79" t="n">
         <v>1.67</v>
@@ -11197,16 +11197,16 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="G80" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="H80" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="I80" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="J80" t="n">
         <v>4.8</v>
@@ -11221,49 +11221,49 @@
         <v>1.02</v>
       </c>
       <c r="N80" t="n">
-        <v>3.9</v>
+        <v>7</v>
       </c>
       <c r="O80" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="P80" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="R80" t="n">
-        <v>1.74</v>
+        <v>1.86</v>
       </c>
       <c r="S80" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="T80" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="U80" t="n">
-        <v>2.24</v>
+        <v>2.52</v>
       </c>
       <c r="V80" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W80" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="X80" t="n">
         <v>40</v>
       </c>
       <c r="Y80" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z80" t="n">
         <v>65</v>
       </c>
       <c r="AA80" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AB80" t="n">
-        <v>250</v>
+        <v>18.5</v>
       </c>
       <c r="AC80" t="n">
         <v>13</v>
@@ -11275,10 +11275,10 @@
         <v>70</v>
       </c>
       <c r="AF80" t="n">
-        <v>170</v>
+        <v>16.5</v>
       </c>
       <c r="AG80" t="n">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AH80" t="n">
         <v>18</v>
@@ -11287,10 +11287,10 @@
         <v>60</v>
       </c>
       <c r="AJ80" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="AK80" t="n">
-        <v>250</v>
+        <v>14.5</v>
       </c>
       <c r="AL80" t="n">
         <v>25</v>
@@ -11371,13 +11371,13 @@
         <v>1.47</v>
       </c>
       <c r="S81" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="T81" t="n">
         <v>2</v>
       </c>
       <c r="U81" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V81" t="n">
         <v>1.12</v>
@@ -11395,7 +11395,7 @@
         <v>75</v>
       </c>
       <c r="AA81" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AB81" t="n">
         <v>8.6</v>
@@ -11422,7 +11422,7 @@
         <v>120</v>
       </c>
       <c r="AJ81" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK81" t="n">
         <v>15</v>
@@ -11467,31 +11467,31 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="G82" t="n">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="H82" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="I82" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="J82" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="K82" t="n">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="L82" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="M82" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N82" t="n">
-        <v>2.16</v>
+        <v>4.4</v>
       </c>
       <c r="O82" t="n">
         <v>1.24</v>
@@ -11503,76 +11503,76 @@
         <v>1.69</v>
       </c>
       <c r="R82" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="S82" t="n">
-        <v>2.42</v>
+        <v>2.72</v>
       </c>
       <c r="T82" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="U82" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="V82" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="W82" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="X82" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Y82" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Z82" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AA82" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB82" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AC82" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD82" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AE82" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AF82" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AG82" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AH82" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AI82" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AJ82" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AK82" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AL82" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AM82" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN82" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO82" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83">
@@ -11602,58 +11602,58 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="G83" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="H83" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="I83" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="J83" t="n">
-        <v>1.09</v>
+        <v>3.1</v>
       </c>
       <c r="K83" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L83" t="n">
         <v>1.01</v>
       </c>
       <c r="M83" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N83" t="n">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="O83" t="n">
-        <v>1.07</v>
+        <v>1.44</v>
       </c>
       <c r="P83" t="n">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="R83" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="S83" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T83" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="U83" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="V83" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="W83" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X83" t="n">
         <v>1000</v>
@@ -11671,7 +11671,7 @@
         <v>1000</v>
       </c>
       <c r="AC83" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD83" t="n">
         <v>1000</v>
@@ -11872,22 +11872,22 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2.68</v>
+        <v>2.86</v>
       </c>
       <c r="G85" t="n">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="H85" t="n">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="I85" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="J85" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K85" t="n">
-        <v>6.2</v>
+        <v>3.85</v>
       </c>
       <c r="L85" t="n">
         <v>1.01</v>
@@ -11896,16 +11896,16 @@
         <v>1.01</v>
       </c>
       <c r="N85" t="n">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="O85" t="n">
         <v>1.31</v>
       </c>
       <c r="P85" t="n">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="R85" t="n">
         <v>1.31</v>
@@ -11920,10 +11920,10 @@
         <v>1.01</v>
       </c>
       <c r="V85" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="W85" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="X85" t="n">
         <v>1000</v>
@@ -12007,22 +12007,22 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.04</v>
+        <v>2.14</v>
       </c>
       <c r="G86" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="H86" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I86" t="n">
-        <v>160</v>
+        <v>4.6</v>
       </c>
       <c r="J86" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="K86" t="n">
-        <v>950</v>
+        <v>4</v>
       </c>
       <c r="L86" t="n">
         <v>1.01</v>
@@ -12040,13 +12040,13 @@
         <v>1.52</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="R86" t="n">
         <v>1.18</v>
       </c>
       <c r="S86" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="T86" t="n">
         <v>1.01</v>
@@ -12055,16 +12055,16 @@
         <v>1.01</v>
       </c>
       <c r="V86" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="W86" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="X86" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y86" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z86" t="n">
         <v>1000</v>
@@ -12076,10 +12076,10 @@
         <v>11</v>
       </c>
       <c r="AC86" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD86" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE86" t="n">
         <v>1000</v>
@@ -12142,112 +12142,112 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1.04</v>
+        <v>2.3</v>
       </c>
       <c r="G87" t="n">
-        <v>110</v>
+        <v>2.9</v>
       </c>
       <c r="H87" t="n">
-        <v>1.04</v>
+        <v>3.25</v>
       </c>
       <c r="I87" t="n">
-        <v>160</v>
+        <v>4.1</v>
       </c>
       <c r="J87" t="n">
-        <v>1.02</v>
+        <v>2.7</v>
       </c>
       <c r="K87" t="n">
-        <v>950</v>
+        <v>3.5</v>
       </c>
       <c r="L87" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M87" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N87" t="n">
         <v>2.8</v>
       </c>
       <c r="O87" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P87" t="n">
-        <v>1.24</v>
+        <v>1.61</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="R87" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S87" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="T87" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="U87" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="V87" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="W87" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="X87" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y87" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z87" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA87" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB87" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC87" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD87" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE87" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF87" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG87" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH87" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI87" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ87" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK87" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL87" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM87" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN87" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO87" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88">
@@ -12286,7 +12286,7 @@
         <v>2.1</v>
       </c>
       <c r="I88" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="J88" t="n">
         <v>2.66</v>
@@ -12325,7 +12325,7 @@
         <v>1.01</v>
       </c>
       <c r="V88" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W88" t="n">
         <v>1.26</v>
@@ -12412,112 +12412,112 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1.04</v>
+        <v>2.38</v>
       </c>
       <c r="G89" t="n">
-        <v>190</v>
+        <v>2.64</v>
       </c>
       <c r="H89" t="n">
-        <v>1.04</v>
+        <v>2.98</v>
       </c>
       <c r="I89" t="n">
-        <v>190</v>
+        <v>3.6</v>
       </c>
       <c r="J89" t="n">
-        <v>1.02</v>
+        <v>3.15</v>
       </c>
       <c r="K89" t="n">
-        <v>950</v>
+        <v>3.75</v>
       </c>
       <c r="L89" t="n">
         <v>1.01</v>
       </c>
       <c r="M89" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N89" t="n">
-        <v>1.24</v>
+        <v>3.4</v>
       </c>
       <c r="O89" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="P89" t="n">
-        <v>1.24</v>
+        <v>1.74</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="R89" t="n">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="S89" t="n">
-        <v>1.01</v>
+        <v>3.2</v>
       </c>
       <c r="T89" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="U89" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V89" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="W89" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="X89" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y89" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z89" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA89" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB89" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC89" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD89" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE89" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF89" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG89" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH89" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI89" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ89" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK89" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL89" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM89" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN89" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO89" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90">
@@ -12547,34 +12547,34 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="G90" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="H90" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I90" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J90" t="n">
         <v>2.92</v>
       </c>
       <c r="K90" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L90" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M90" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N90" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O90" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P90" t="n">
         <v>1.72</v>
@@ -12595,13 +12595,13 @@
         <v>1.96</v>
       </c>
       <c r="V90" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W90" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="X90" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y90" t="n">
         <v>12.5</v>
@@ -12610,7 +12610,7 @@
         <v>26</v>
       </c>
       <c r="AA90" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB90" t="n">
         <v>9.4</v>
@@ -12637,19 +12637,19 @@
         <v>65</v>
       </c>
       <c r="AJ90" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AK90" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AL90" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AM90" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN90" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AO90" t="n">
         <v>55</v>
@@ -12691,13 +12691,13 @@
         <v>14</v>
       </c>
       <c r="I91" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J91" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K91" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="L91" t="n">
         <v>1.19</v>
@@ -12706,10 +12706,10 @@
         <v>1.01</v>
       </c>
       <c r="N91" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="O91" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P91" t="n">
         <v>3.45</v>
@@ -12718,16 +12718,16 @@
         <v>1.3</v>
       </c>
       <c r="R91" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="S91" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="T91" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U91" t="n">
         <v>1.94</v>
-      </c>
-      <c r="S91" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="T91" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U91" t="n">
-        <v>1.01</v>
       </c>
       <c r="V91" t="n">
         <v>1.06</v>
@@ -12736,58 +12736,58 @@
         <v>5.3</v>
       </c>
       <c r="X91" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>190</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD91" t="n">
         <v>60</v>
       </c>
-      <c r="Y91" t="n">
-        <v>85</v>
-      </c>
-      <c r="Z91" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA91" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB91" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC91" t="n">
-        <v>28</v>
-      </c>
-      <c r="AD91" t="n">
-        <v>75</v>
-      </c>
       <c r="AE91" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AF91" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG91" t="n">
         <v>13.5</v>
       </c>
-      <c r="AG91" t="n">
-        <v>17</v>
-      </c>
       <c r="AH91" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI91" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ91" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AK91" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="AL91" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AM91" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN91" t="n">
-        <v>1000</v>
+        <v>3.1</v>
       </c>
       <c r="AO91" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
     </row>
     <row r="92">
@@ -12817,16 +12817,16 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="G92" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="H92" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="I92" t="n">
-        <v>2.98</v>
+        <v>2.76</v>
       </c>
       <c r="J92" t="n">
         <v>3.3</v>
@@ -12835,13 +12835,13 @@
         <v>3.75</v>
       </c>
       <c r="L92" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M92" t="n">
         <v>1.06</v>
       </c>
       <c r="N92" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O92" t="n">
         <v>1.25</v>
@@ -12853,7 +12853,7 @@
         <v>1.78</v>
       </c>
       <c r="R92" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S92" t="n">
         <v>2.92</v>
@@ -12865,25 +12865,25 @@
         <v>2.3</v>
       </c>
       <c r="V92" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="W92" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="X92" t="n">
         <v>21</v>
       </c>
       <c r="Y92" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Z92" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA92" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB92" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC92" t="n">
         <v>9.800000000000001</v>
@@ -12892,34 +12892,34 @@
         <v>15</v>
       </c>
       <c r="AE92" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AF92" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG92" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH92" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI92" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ92" t="n">
         <v>55</v>
       </c>
       <c r="AK92" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL92" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AM92" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AN92" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AO92" t="n">
         <v>23</v>
@@ -12952,22 +12952,22 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G93" t="n">
-        <v>5.7</v>
+        <v>4.6</v>
       </c>
       <c r="H93" t="n">
-        <v>1.32</v>
+        <v>1.78</v>
       </c>
       <c r="I93" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="J93" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="K93" t="n">
-        <v>980</v>
+        <v>4.7</v>
       </c>
       <c r="L93" t="n">
         <v>1.01</v>
@@ -12976,10 +12976,10 @@
         <v>1.01</v>
       </c>
       <c r="N93" t="n">
-        <v>2.6</v>
+        <v>5.6</v>
       </c>
       <c r="O93" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P93" t="n">
         <v>2.6</v>
@@ -12991,7 +12991,7 @@
         <v>1.55</v>
       </c>
       <c r="S93" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="T93" t="n">
         <v>1.01</v>
@@ -13000,10 +13000,10 @@
         <v>1.01</v>
       </c>
       <c r="V93" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="W93" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="X93" t="n">
         <v>1000</v>
@@ -13111,7 +13111,7 @@
         <v>1.01</v>
       </c>
       <c r="N94" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="O94" t="n">
         <v>1.01</v>
@@ -13228,7 +13228,7 @@
         <v>1.5</v>
       </c>
       <c r="H95" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="I95" t="n">
         <v>9</v>
@@ -13261,7 +13261,7 @@
         <v>1.33</v>
       </c>
       <c r="S95" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T95" t="n">
         <v>2.28</v>
@@ -13357,22 +13357,22 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="G96" t="n">
-        <v>2.08</v>
+        <v>1.94</v>
       </c>
       <c r="H96" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="I96" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="J96" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K96" t="n">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="L96" t="n">
         <v>1.01</v>
@@ -13390,37 +13390,37 @@
         <v>2.12</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="R96" t="n">
         <v>1.47</v>
       </c>
       <c r="S96" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="T96" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="U96" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="V96" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="W96" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="X96" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="Y96" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Z96" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA96" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB96" t="n">
         <v>970</v>
@@ -13429,10 +13429,10 @@
         <v>970</v>
       </c>
       <c r="AD96" t="n">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="AE96" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF96" t="n">
         <v>970</v>
@@ -13441,28 +13441,28 @@
         <v>970</v>
       </c>
       <c r="AH96" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AI96" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ96" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AK96" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AL96" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AM96" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN96" t="n">
         <v>970</v>
       </c>
       <c r="AO96" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97">
@@ -13492,7 +13492,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="G97" t="n">
         <v>7</v>
@@ -13513,13 +13513,13 @@
         <v>1.4</v>
       </c>
       <c r="M97" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N97" t="n">
         <v>4</v>
       </c>
       <c r="O97" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P97" t="n">
         <v>2</v>
@@ -13588,7 +13588,7 @@
         <v>110</v>
       </c>
       <c r="AL97" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM97" t="n">
         <v>150</v>
@@ -13639,10 +13639,10 @@
         <v>1.62</v>
       </c>
       <c r="J98" t="n">
+        <v>5</v>
+      </c>
+      <c r="K98" t="n">
         <v>5.1</v>
-      </c>
-      <c r="K98" t="n">
-        <v>5.2</v>
       </c>
       <c r="L98" t="n">
         <v>1.2</v>
@@ -13675,7 +13675,7 @@
         <v>3</v>
       </c>
       <c r="V98" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="W98" t="n">
         <v>1.22</v>
@@ -13762,22 +13762,22 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="G99" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H99" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="I99" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="J99" t="n">
         <v>3.25</v>
       </c>
       <c r="K99" t="n">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="L99" t="n">
         <v>1.01</v>
@@ -13795,25 +13795,25 @@
         <v>2.04</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="R99" t="n">
         <v>1.18</v>
       </c>
       <c r="S99" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="T99" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U99" t="n">
         <v>2.08</v>
       </c>
       <c r="V99" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="W99" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X99" t="n">
         <v>25</v>
@@ -13897,22 +13897,22 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="G100" t="n">
         <v>1.32</v>
       </c>
       <c r="H100" t="n">
-        <v>1.04</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I100" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="J100" t="n">
         <v>6.8</v>
       </c>
       <c r="K100" t="n">
-        <v>950</v>
+        <v>8</v>
       </c>
       <c r="L100" t="n">
         <v>1.01</v>
@@ -13927,7 +13927,7 @@
         <v>1.08</v>
       </c>
       <c r="P100" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="Q100" t="n">
         <v>1.33</v>
@@ -13936,73 +13936,73 @@
         <v>2.02</v>
       </c>
       <c r="S100" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="T100" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U100" t="n">
         <v>2.08</v>
       </c>
       <c r="V100" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="W100" t="n">
-        <v>2.06</v>
+        <v>4</v>
       </c>
       <c r="X100" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Y100" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="Z100" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AA100" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AB100" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AC100" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AD100" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AE100" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF100" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG100" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH100" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI100" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ100" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AK100" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AL100" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AM100" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN100" t="n">
-        <v>1000</v>
+        <v>3.65</v>
       </c>
       <c r="AO100" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="101">
@@ -14035,16 +14035,16 @@
         <v>1.88</v>
       </c>
       <c r="G101" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="H101" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I101" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J101" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K101" t="n">
         <v>3.55</v>
@@ -14068,7 +14068,7 @@
         <v>2.52</v>
       </c>
       <c r="R101" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S101" t="n">
         <v>5.1</v>
@@ -14080,10 +14080,10 @@
         <v>1.76</v>
       </c>
       <c r="V101" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W101" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X101" t="n">
         <v>9.199999999999999</v>
@@ -14173,13 +14173,13 @@
         <v>1.83</v>
       </c>
       <c r="H102" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="I102" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J102" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K102" t="n">
         <v>3.9</v>
@@ -14191,31 +14191,31 @@
         <v>1.08</v>
       </c>
       <c r="N102" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O102" t="n">
         <v>1.39</v>
       </c>
       <c r="P102" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Q102" t="n">
         <v>2.08</v>
       </c>
       <c r="R102" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S102" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="T102" t="n">
-        <v>1.81</v>
+        <v>1.98</v>
       </c>
       <c r="U102" t="n">
-        <v>1.72</v>
+        <v>1.89</v>
       </c>
       <c r="V102" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W102" t="n">
         <v>2.2</v>
@@ -14227,7 +14227,7 @@
         <v>16.5</v>
       </c>
       <c r="Z102" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA102" t="n">
         <v>180</v>
@@ -14317,7 +14317,7 @@
         <v>4.5</v>
       </c>
       <c r="K103" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L103" t="n">
         <v>1.25</v>
@@ -14326,88 +14326,88 @@
         <v>1.03</v>
       </c>
       <c r="N103" t="n">
-        <v>1.56</v>
+        <v>1.04</v>
       </c>
       <c r="O103" t="n">
         <v>1.16</v>
       </c>
       <c r="P103" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R103" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="S103" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="T103" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="U103" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V103" t="n">
         <v>2.62</v>
       </c>
       <c r="W103" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="X103" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y103" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z103" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA103" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AB103" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AC103" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD103" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE103" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AF103" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AG103" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AH103" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI103" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ103" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AK103" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL103" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM103" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN103" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO103" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="104">
@@ -14437,16 +14437,16 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="G104" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="H104" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I104" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J104" t="n">
         <v>3.7</v>
@@ -14455,13 +14455,13 @@
         <v>3.8</v>
       </c>
       <c r="L104" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="M104" t="n">
         <v>1.07</v>
       </c>
       <c r="N104" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O104" t="n">
         <v>1.32</v>
@@ -14470,10 +14470,10 @@
         <v>1.98</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R104" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S104" t="n">
         <v>3.35</v>
@@ -14485,19 +14485,19 @@
         <v>2.14</v>
       </c>
       <c r="V104" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W104" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="X104" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y104" t="n">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z104" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AA104" t="n">
         <v>110</v>
@@ -14509,40 +14509,40 @@
         <v>8.4</v>
       </c>
       <c r="AD104" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE104" t="n">
         <v>65</v>
       </c>
       <c r="AF104" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG104" t="n">
         <v>10.5</v>
       </c>
       <c r="AH104" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI104" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AJ104" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK104" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL104" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM104" t="n">
         <v>120</v>
       </c>
       <c r="AN104" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AO104" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="105">
@@ -14572,112 +14572,112 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2.78</v>
+        <v>2.9</v>
       </c>
       <c r="G105" t="n">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="H105" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="I105" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="J105" t="n">
         <v>3</v>
       </c>
       <c r="K105" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="L105" t="n">
         <v>1.59</v>
       </c>
       <c r="M105" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N105" t="n">
-        <v>1.25</v>
+        <v>2.56</v>
       </c>
       <c r="O105" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="P105" t="n">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.55</v>
+        <v>2.66</v>
       </c>
       <c r="R105" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S105" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T105" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="U105" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="V105" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W105" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X105" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y105" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Z105" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA105" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB105" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC105" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AD105" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE105" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF105" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AG105" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH105" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI105" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ105" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK105" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL105" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM105" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN105" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO105" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106">
@@ -14707,112 +14707,112 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="G106" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="H106" t="n">
-        <v>2.36</v>
+        <v>2.52</v>
       </c>
       <c r="I106" t="n">
-        <v>2.86</v>
+        <v>2.7</v>
       </c>
       <c r="J106" t="n">
-        <v>2.64</v>
+        <v>3.2</v>
       </c>
       <c r="K106" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L106" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M106" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N106" t="n">
-        <v>1.69</v>
+        <v>3</v>
       </c>
       <c r="O106" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P106" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q106" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R106" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="S106" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="T106" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="U106" t="n">
-        <v>1.01</v>
+        <v>1.95</v>
       </c>
       <c r="V106" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="W106" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="X106" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="Y106" t="n">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="Z106" t="n">
-        <v>24</v>
+        <v>16.5</v>
       </c>
       <c r="AA106" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ106" t="n">
         <v>60</v>
       </c>
-      <c r="AB106" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC106" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD106" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE106" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF106" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG106" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH106" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI106" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ106" t="n">
-        <v>85</v>
-      </c>
       <c r="AK106" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AL106" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AM106" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN106" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AO106" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107">
@@ -14842,112 +14842,112 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G107" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="H107" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="I107" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="J107" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="K107" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="L107" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="M107" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N107" t="n">
-        <v>1.67</v>
+        <v>3.2</v>
       </c>
       <c r="O107" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="P107" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="R107" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S107" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="T107" t="n">
-        <v>1.61</v>
+        <v>1.81</v>
       </c>
       <c r="U107" t="n">
-        <v>1.74</v>
+        <v>2.02</v>
       </c>
       <c r="V107" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W107" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="X107" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Y107" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD107" t="n">
         <v>14.5</v>
       </c>
-      <c r="Z107" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA107" t="n">
+      <c r="AE107" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ107" t="n">
         <v>60</v>
       </c>
-      <c r="AB107" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC107" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD107" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE107" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF107" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG107" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH107" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI107" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ107" t="n">
-        <v>65</v>
-      </c>
       <c r="AK107" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AL107" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM107" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN107" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO107" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108">
@@ -14980,10 +14980,10 @@
         <v>1.26</v>
       </c>
       <c r="G108" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="H108" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="I108" t="n">
         <v>17.5</v>
@@ -15001,88 +15001,88 @@
         <v>1.03</v>
       </c>
       <c r="N108" t="n">
-        <v>2.12</v>
+        <v>4.8</v>
       </c>
       <c r="O108" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P108" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="R108" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="S108" t="n">
-        <v>2.3</v>
+        <v>2.54</v>
       </c>
       <c r="T108" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="U108" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="V108" t="n">
         <v>1.06</v>
       </c>
       <c r="W108" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="X108" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y108" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="Z108" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AA108" t="n">
         <v>1000</v>
       </c>
       <c r="AB108" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC108" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AD108" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AE108" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AF108" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AG108" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH108" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AI108" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AJ108" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AK108" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AL108" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM108" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN108" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="AO108" t="n">
-        <v>1000</v>
+        <v>430</v>
       </c>
     </row>
     <row r="109">
@@ -15112,19 +15112,19 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="G109" t="n">
-        <v>110</v>
+        <v>3.45</v>
       </c>
       <c r="H109" t="n">
-        <v>2.28</v>
+        <v>2.6</v>
       </c>
       <c r="I109" t="n">
-        <v>3.2</v>
+        <v>2.76</v>
       </c>
       <c r="J109" t="n">
-        <v>1.09</v>
+        <v>2.86</v>
       </c>
       <c r="K109" t="n">
         <v>3.05</v>
@@ -15136,13 +15136,13 @@
         <v>1.08</v>
       </c>
       <c r="N109" t="n">
-        <v>1.56</v>
+        <v>2.72</v>
       </c>
       <c r="O109" t="n">
-        <v>1.09</v>
+        <v>1.52</v>
       </c>
       <c r="P109" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q109" t="n">
         <v>2.5</v>
@@ -15151,73 +15151,73 @@
         <v>1.18</v>
       </c>
       <c r="S109" t="n">
-        <v>2.5</v>
+        <v>4.7</v>
       </c>
       <c r="T109" t="n">
         <v>2.02</v>
       </c>
       <c r="U109" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V109" t="n">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="W109" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="X109" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y109" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="Z109" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA109" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB109" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC109" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD109" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE109" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF109" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG109" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH109" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI109" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ109" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK109" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL109" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM109" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN109" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO109" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="110">
@@ -15250,43 +15250,43 @@
         <v>2.3</v>
       </c>
       <c r="G110" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="H110" t="n">
         <v>3.1</v>
       </c>
       <c r="I110" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J110" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K110" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L110" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M110" t="n">
         <v>1.05</v>
       </c>
       <c r="N110" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="O110" t="n">
         <v>1.24</v>
       </c>
       <c r="P110" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.59</v>
+        <v>1.73</v>
       </c>
       <c r="R110" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S110" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T110" t="n">
         <v>1.62</v>
@@ -15298,7 +15298,7 @@
         <v>1.43</v>
       </c>
       <c r="W110" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="X110" t="n">
         <v>18.5</v>
@@ -15316,7 +15316,7 @@
         <v>13</v>
       </c>
       <c r="AC110" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD110" t="n">
         <v>14</v>
@@ -15325,7 +15325,7 @@
         <v>34</v>
       </c>
       <c r="AF110" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG110" t="n">
         <v>11.5</v>
@@ -15385,10 +15385,10 @@
         <v>7.8</v>
       </c>
       <c r="G111" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H111" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="I111" t="n">
         <v>1.44</v>
@@ -15412,13 +15412,13 @@
         <v>1.14</v>
       </c>
       <c r="P111" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="Q111" t="n">
         <v>1.44</v>
       </c>
       <c r="R111" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="S111" t="n">
         <v>2.06</v>
@@ -15427,7 +15427,7 @@
         <v>1.68</v>
       </c>
       <c r="U111" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="V111" t="n">
         <v>3.25</v>
@@ -15448,7 +15448,7 @@
         <v>15.5</v>
       </c>
       <c r="AB111" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AC111" t="n">
         <v>16</v>
@@ -15463,10 +15463,10 @@
         <v>75</v>
       </c>
       <c r="AG111" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH111" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI111" t="n">
         <v>30</v>
@@ -15478,13 +15478,13 @@
         <v>110</v>
       </c>
       <c r="AL111" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AM111" t="n">
         <v>80</v>
       </c>
       <c r="AN111" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AO111" t="n">
         <v>4.4</v>
@@ -15517,19 +15517,19 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1.43</v>
+        <v>2.72</v>
       </c>
       <c r="G112" t="n">
-        <v>1000</v>
+        <v>2.94</v>
       </c>
       <c r="H112" t="n">
-        <v>1.43</v>
+        <v>2.74</v>
       </c>
       <c r="I112" t="n">
-        <v>1000</v>
+        <v>3.05</v>
       </c>
       <c r="J112" t="n">
-        <v>1.09</v>
+        <v>3.25</v>
       </c>
       <c r="K112" t="n">
         <v>3.5</v>
@@ -15541,7 +15541,7 @@
         <v>1.08</v>
       </c>
       <c r="N112" t="n">
-        <v>1.25</v>
+        <v>3.35</v>
       </c>
       <c r="O112" t="n">
         <v>1.36</v>
@@ -15553,22 +15553,22 @@
         <v>1.36</v>
       </c>
       <c r="R112" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S112" t="n">
-        <v>1.36</v>
+        <v>3.35</v>
       </c>
       <c r="T112" t="n">
         <v>1.01</v>
       </c>
       <c r="U112" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="V112" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="W112" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="X112" t="n">
         <v>1000</v>
@@ -15652,10 +15652,10 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G113" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="H113" t="n">
         <v>3.75</v>
@@ -15664,13 +15664,13 @@
         <v>4.1</v>
       </c>
       <c r="J113" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K113" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L113" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M113" t="n">
         <v>1.02</v>
@@ -15679,16 +15679,16 @@
         <v>6.2</v>
       </c>
       <c r="O113" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P113" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="Q113" t="n">
         <v>1.51</v>
       </c>
       <c r="R113" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="S113" t="n">
         <v>2.18</v>
@@ -15703,7 +15703,7 @@
         <v>1.32</v>
       </c>
       <c r="W113" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="X113" t="n">
         <v>28</v>
@@ -15787,22 +15787,22 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="G114" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="H114" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="I114" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="J114" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K114" t="n">
         <v>4.4</v>
-      </c>
-      <c r="K114" t="n">
-        <v>4.5</v>
       </c>
       <c r="L114" t="n">
         <v>1.44</v>
@@ -15817,7 +15817,7 @@
         <v>1.36</v>
       </c>
       <c r="P114" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q114" t="n">
         <v>2.08</v>
@@ -15829,7 +15829,7 @@
         <v>3.85</v>
       </c>
       <c r="T114" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="U114" t="n">
         <v>1.77</v>
@@ -15922,7 +15922,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="G115" t="n">
         <v>1.61</v>
@@ -15937,10 +15937,10 @@
         <v>4.6</v>
       </c>
       <c r="K115" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L115" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M115" t="n">
         <v>1.03</v>
@@ -15952,22 +15952,22 @@
         <v>1.2</v>
       </c>
       <c r="P115" t="n">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="R115" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="S115" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T115" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="U115" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="V115" t="n">
         <v>1.17</v>
@@ -15988,13 +15988,13 @@
         <v>170</v>
       </c>
       <c r="AB115" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC115" t="n">
         <v>12</v>
       </c>
       <c r="AD115" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE115" t="n">
         <v>75</v>
@@ -16015,19 +16015,19 @@
         <v>15.5</v>
       </c>
       <c r="AK115" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL115" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM115" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN115" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AO115" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="116">
@@ -16060,10 +16060,10 @@
         <v>3.2</v>
       </c>
       <c r="G116" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H116" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="I116" t="n">
         <v>2.36</v>
@@ -16072,7 +16072,7 @@
         <v>3.8</v>
       </c>
       <c r="K116" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L116" t="n">
         <v>1.29</v>
@@ -16081,25 +16081,25 @@
         <v>1.04</v>
       </c>
       <c r="N116" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O116" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P116" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="R116" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S116" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="T116" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="U116" t="n">
         <v>2.5</v>
@@ -16108,16 +16108,16 @@
         <v>1.73</v>
       </c>
       <c r="W116" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="X116" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y116" t="n">
         <v>17</v>
       </c>
       <c r="Z116" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA116" t="n">
         <v>38</v>
@@ -16132,7 +16132,7 @@
         <v>14.5</v>
       </c>
       <c r="AE116" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF116" t="n">
         <v>30</v>
@@ -16141,7 +16141,7 @@
         <v>17</v>
       </c>
       <c r="AH116" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI116" t="n">
         <v>36</v>
@@ -16153,16 +16153,16 @@
         <v>38</v>
       </c>
       <c r="AL116" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM116" t="n">
         <v>75</v>
       </c>
       <c r="AN116" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO116" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="117">
@@ -16327,13 +16327,13 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G118" t="n">
         <v>2.12</v>
       </c>
       <c r="H118" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I118" t="n">
         <v>4.4</v>
@@ -16432,7 +16432,7 @@
         <v>13.5</v>
       </c>
       <c r="AO118" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="119">
@@ -16462,16 +16462,16 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="G119" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="H119" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I119" t="n">
         <v>1.67</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1.69</v>
       </c>
       <c r="J119" t="n">
         <v>4.1</v>
@@ -16504,13 +16504,13 @@
         <v>3.4</v>
       </c>
       <c r="T119" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U119" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="V119" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="W119" t="n">
         <v>1.18</v>
@@ -16543,22 +16543,22 @@
         <v>50</v>
       </c>
       <c r="AG119" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH119" t="n">
         <v>23</v>
-      </c>
-      <c r="AH119" t="n">
-        <v>22</v>
       </c>
       <c r="AI119" t="n">
         <v>38</v>
       </c>
       <c r="AJ119" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AK119" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AL119" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AM119" t="n">
         <v>140</v>
@@ -16567,7 +16567,7 @@
         <v>110</v>
       </c>
       <c r="AO119" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="120">
@@ -16597,7 +16597,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="G120" t="n">
         <v>12</v>
@@ -16612,7 +16612,7 @@
         <v>5.4</v>
       </c>
       <c r="K120" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L120" t="n">
         <v>0</v>
@@ -16732,109 +16732,109 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="G121" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="H121" t="n">
-        <v>2.78</v>
+        <v>10</v>
       </c>
       <c r="I121" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J121" t="n">
         <v>4.8</v>
       </c>
       <c r="K121" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="L121" t="n">
         <v>1.01</v>
       </c>
       <c r="M121" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N121" t="n">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="O121" t="n">
         <v>1.28</v>
       </c>
       <c r="P121" t="n">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="Q121" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="R121" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="S121" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="T121" t="n">
-        <v>1.83</v>
+        <v>2.18</v>
       </c>
       <c r="U121" t="n">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="V121" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="W121" t="n">
-        <v>2.78</v>
+        <v>3.25</v>
       </c>
       <c r="X121" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="Y121" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z121" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AA121" t="n">
         <v>1000</v>
       </c>
       <c r="AB121" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC121" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD121" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AE121" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AF121" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG121" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH121" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AI121" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AJ121" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AK121" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL121" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM121" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AN121" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AO121" t="n">
         <v>1000</v>
@@ -16870,13 +16870,13 @@
         <v>1.64</v>
       </c>
       <c r="G122" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H122" t="n">
         <v>5.3</v>
       </c>
       <c r="I122" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J122" t="n">
         <v>4</v>
@@ -16891,13 +16891,13 @@
         <v>1.04</v>
       </c>
       <c r="N122" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O122" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P122" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q122" t="n">
         <v>1.76</v>
@@ -16918,7 +16918,7 @@
         <v>1.19</v>
       </c>
       <c r="W122" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="X122" t="n">
         <v>22</v>
@@ -17137,22 +17137,22 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1.04</v>
+        <v>1.23</v>
       </c>
       <c r="G124" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H124" t="n">
-        <v>1.04</v>
+        <v>12</v>
       </c>
       <c r="I124" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="J124" t="n">
-        <v>1.02</v>
+        <v>5.5</v>
       </c>
       <c r="K124" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="L124" t="n">
         <v>1.01</v>
@@ -17161,85 +17161,85 @@
         <v>1.01</v>
       </c>
       <c r="N124" t="n">
-        <v>1.01</v>
+        <v>5.4</v>
       </c>
       <c r="O124" t="n">
         <v>1.17</v>
       </c>
       <c r="P124" t="n">
-        <v>1.25</v>
+        <v>2.52</v>
       </c>
       <c r="Q124" t="n">
-        <v>1.17</v>
+        <v>1.46</v>
       </c>
       <c r="R124" t="n">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="S124" t="n">
-        <v>1.17</v>
+        <v>2.14</v>
       </c>
       <c r="T124" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="U124" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="V124" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="W124" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="X124" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y124" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="Z124" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AA124" t="n">
         <v>1000</v>
       </c>
       <c r="AB124" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC124" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AD124" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AE124" t="n">
         <v>1000</v>
       </c>
       <c r="AF124" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AG124" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH124" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AI124" t="n">
         <v>1000</v>
       </c>
       <c r="AJ124" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AK124" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL124" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM124" t="n">
         <v>1000</v>
       </c>
       <c r="AN124" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="AO124" t="n">
         <v>1000</v>
@@ -17272,31 +17272,31 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="G125" t="n">
-        <v>2.62</v>
+        <v>2.38</v>
       </c>
       <c r="H125" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I125" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="J125" t="n">
-        <v>2.58</v>
+        <v>3.4</v>
       </c>
       <c r="K125" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="L125" t="n">
         <v>1.01</v>
       </c>
       <c r="M125" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N125" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="O125" t="n">
         <v>1.28</v>
@@ -17311,73 +17311,73 @@
         <v>1.33</v>
       </c>
       <c r="S125" t="n">
-        <v>2.78</v>
+        <v>2.9</v>
       </c>
       <c r="T125" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="U125" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V125" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="W125" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="X125" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y125" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z125" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AA125" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB125" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC125" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD125" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE125" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF125" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG125" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH125" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI125" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ125" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK125" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL125" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM125" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN125" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AO125" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="126">
@@ -17407,22 +17407,22 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1.62</v>
+        <v>2.06</v>
       </c>
       <c r="G126" t="n">
-        <v>2.46</v>
+        <v>2.32</v>
       </c>
       <c r="H126" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="I126" t="n">
-        <v>6</v>
+        <v>5.1</v>
       </c>
       <c r="J126" t="n">
-        <v>2.34</v>
+        <v>3.05</v>
       </c>
       <c r="K126" t="n">
-        <v>980</v>
+        <v>3.55</v>
       </c>
       <c r="L126" t="n">
         <v>1.01</v>
@@ -17431,16 +17431,16 @@
         <v>1.06</v>
       </c>
       <c r="N126" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="O126" t="n">
         <v>1.06</v>
       </c>
       <c r="P126" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="Q126" t="n">
-        <v>2.22</v>
+        <v>2.38</v>
       </c>
       <c r="R126" t="n">
         <v>1.17</v>
@@ -17449,16 +17449,16 @@
         <v>4</v>
       </c>
       <c r="T126" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="U126" t="n">
         <v>1.58</v>
       </c>
       <c r="V126" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="W126" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="X126" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-17.xlsx
@@ -670,91 +670,91 @@
         <v>5.1</v>
       </c>
       <c r="G2" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H2" t="n">
         <v>1.73</v>
       </c>
       <c r="I2" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="J2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L2" t="n">
         <v>1.37</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="S2" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="T2" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="U2" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="W2" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="Z2" t="n">
         <v>11.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC2" t="n">
         <v>9.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AG2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH2" t="n">
         <v>21</v>
       </c>
-      <c r="AH2" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AI2" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AJ2" t="n">
         <v>150</v>
@@ -811,10 +811,10 @@
         <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K3" t="n">
         <v>4.3</v>
@@ -832,7 +832,7 @@
         <v>1.15</v>
       </c>
       <c r="P3" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
         <v>1.45</v>
@@ -859,16 +859,16 @@
         <v>32</v>
       </c>
       <c r="Y3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z3" t="n">
         <v>32</v>
       </c>
       <c r="AA3" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AB3" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC3" t="n">
         <v>11</v>
@@ -886,13 +886,13 @@
         <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI3" t="n">
         <v>32</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK3" t="n">
         <v>19</v>
@@ -943,7 +943,7 @@
         <v>3.45</v>
       </c>
       <c r="H4" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="I4" t="n">
         <v>2.3</v>
@@ -970,7 +970,7 @@
         <v>2.04</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R4" t="n">
         <v>1.41</v>
@@ -988,19 +988,19 @@
         <v>1.77</v>
       </c>
       <c r="W4" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X4" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB4" t="n">
         <v>14.5</v>
@@ -1009,7 +1009,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
         <v>24</v>
@@ -1024,10 +1024,10 @@
         <v>17</v>
       </c>
       <c r="AI4" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK4" t="n">
         <v>38</v>
@@ -1042,7 +1042,7 @@
         <v>34</v>
       </c>
       <c r="AO4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="G5" t="n">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.46</v>
+        <v>2.32</v>
       </c>
       <c r="I5" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,22 +1096,22 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="O5" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P5" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="R5" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="T5" t="n">
         <v>1.01</v>
@@ -1120,10 +1120,10 @@
         <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="W5" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="G6" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="H6" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
         <v>7.4</v>
       </c>
       <c r="J6" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K6" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1234,34 +1234,34 @@
         <v>1.02</v>
       </c>
       <c r="O6" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="P6" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="R6" t="n">
-        <v>2.16</v>
+        <v>1.97</v>
       </c>
       <c r="S6" t="n">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="T6" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="U6" t="n">
-        <v>2.54</v>
+        <v>2.66</v>
       </c>
       <c r="V6" t="n">
         <v>1.15</v>
       </c>
       <c r="W6" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="X6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Y6" t="n">
         <v>980</v>
@@ -1297,13 +1297,13 @@
         <v>980</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK6" t="n">
         <v>15</v>
       </c>
       <c r="AL6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AM6" t="n">
         <v>55</v>
@@ -1351,7 +1351,7 @@
         <v>2.36</v>
       </c>
       <c r="I7" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J7" t="n">
         <v>3.95</v>
@@ -1360,7 +1360,7 @@
         <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1372,28 +1372,28 @@
         <v>1.21</v>
       </c>
       <c r="P7" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q7" t="n">
         <v>1.64</v>
       </c>
       <c r="R7" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T7" t="n">
         <v>1.57</v>
       </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
         <v>2.62</v>
       </c>
-      <c r="T7" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.64</v>
-      </c>
       <c r="V7" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="W7" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X7" t="n">
         <v>22</v>
@@ -1402,7 +1402,7 @@
         <v>15</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA7" t="n">
         <v>32</v>
@@ -1444,10 +1444,10 @@
         <v>60</v>
       </c>
       <c r="AN7" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="G8" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="H8" t="n">
         <v>1.33</v>
       </c>
       <c r="I8" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="J8" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K8" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1501,22 +1501,22 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>2.52</v>
+        <v>1.8</v>
       </c>
       <c r="O8" t="n">
         <v>1.12</v>
       </c>
       <c r="P8" t="n">
-        <v>2.52</v>
+        <v>1.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.34</v>
+        <v>1.12</v>
       </c>
       <c r="R8" t="n">
-        <v>1.64</v>
+        <v>1.8</v>
       </c>
       <c r="S8" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="T8" t="n">
         <v>1.01</v>
@@ -1525,10 +1525,10 @@
         <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
       <c r="W8" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="G10" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="H10" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="I10" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="J10" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1885,7 +1885,7 @@
         <v>2.72</v>
       </c>
       <c r="G11" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H11" t="n">
         <v>2.68</v>
@@ -1894,46 +1894,46 @@
         <v>3.05</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K11" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P11" t="n">
         <v>1.71</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R11" t="n">
         <v>1.27</v>
       </c>
       <c r="S11" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="U11" t="n">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="V11" t="n">
         <v>1.5</v>
       </c>
       <c r="W11" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="X11" t="n">
         <v>14</v>
@@ -2017,112 +2017,112 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.86</v>
+        <v>1.72</v>
       </c>
       <c r="G12" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="H12" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="I12" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="K12" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O12" t="n">
         <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S12" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="T12" t="n">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="U12" t="n">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="V12" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W12" t="n">
-        <v>1.92</v>
+        <v>2.16</v>
       </c>
       <c r="X12" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Z12" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AA12" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD12" t="n">
         <v>980</v>
       </c>
       <c r="AE12" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="AF12" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AG12" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH12" t="n">
         <v>980</v>
       </c>
       <c r="AI12" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AJ12" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AK12" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AL12" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AM12" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN12" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13">
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="G13" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="H13" t="n">
         <v>4.8</v>
@@ -2167,7 +2167,7 @@
         <v>3.5</v>
       </c>
       <c r="K13" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="L13" t="n">
         <v>1.33</v>
@@ -2176,7 +2176,7 @@
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="O13" t="n">
         <v>1.01</v>
@@ -2185,7 +2185,7 @@
         <v>1.79</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="R13" t="n">
         <v>1.27</v>
@@ -2194,16 +2194,16 @@
         <v>3.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="U13" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="V13" t="n">
         <v>1.14</v>
       </c>
       <c r="W13" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="G14" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H14" t="n">
         <v>2.18</v>
@@ -2299,7 +2299,7 @@
         <v>2.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K14" t="n">
         <v>3.5</v>
@@ -2308,37 +2308,37 @@
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="O14" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="P14" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q14" t="n">
         <v>2.12</v>
       </c>
       <c r="R14" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="S14" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T14" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U14" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="V14" t="n">
         <v>1.72</v>
       </c>
       <c r="W14" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X14" t="n">
         <v>11</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G15" t="n">
         <v>2.34</v>
@@ -2557,28 +2557,28 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="G16" t="n">
         <v>2.52</v>
       </c>
       <c r="H16" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="I16" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>5.7</v>
+        <v>4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
         <v>3.8</v>
@@ -2587,16 +2587,16 @@
         <v>1.29</v>
       </c>
       <c r="P16" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R16" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="S16" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="T16" t="n">
         <v>1.59</v>
@@ -2605,13 +2605,13 @@
         <v>1.99</v>
       </c>
       <c r="V16" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="W16" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y16" t="n">
         <v>1000</v>
@@ -2620,31 +2620,31 @@
         <v>980</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD16" t="n">
         <v>980</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF16" t="n">
         <v>980</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH16" t="n">
         <v>980</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ16" t="n">
         <v>980</v>
@@ -2653,16 +2653,16 @@
         <v>980</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
@@ -2725,13 +2725,13 @@
         <v>1.24</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="R17" t="n">
         <v>1.18</v>
       </c>
       <c r="S17" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="T17" t="n">
         <v>1.01</v>
@@ -2866,7 +2866,7 @@
         <v>1.18</v>
       </c>
       <c r="S18" t="n">
-        <v>1.02</v>
+        <v>1.36</v>
       </c>
       <c r="T18" t="n">
         <v>1.01</v>
@@ -2968,13 +2968,13 @@
         <v>1000</v>
       </c>
       <c r="H19" t="n">
-        <v>1.02</v>
+        <v>1.26</v>
       </c>
       <c r="I19" t="n">
         <v>1000</v>
       </c>
       <c r="J19" t="n">
-        <v>1.02</v>
+        <v>1.26</v>
       </c>
       <c r="K19" t="n">
         <v>1000</v>
@@ -2992,7 +2992,7 @@
         <v>1.01</v>
       </c>
       <c r="P19" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q19" t="n">
         <v>1.01</v>
@@ -3130,16 +3130,16 @@
         <v>2.16</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R20" t="n">
         <v>1.47</v>
       </c>
       <c r="S20" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="T20" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U20" t="n">
         <v>2.34</v>
@@ -3151,43 +3151,43 @@
         <v>1.88</v>
       </c>
       <c r="X20" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y20" t="n">
         <v>17.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA20" t="n">
         <v>75</v>
       </c>
       <c r="AB20" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD20" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE20" t="n">
         <v>44</v>
       </c>
       <c r="AF20" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH20" t="n">
         <v>16</v>
       </c>
       <c r="AI20" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AJ20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK20" t="n">
         <v>21</v>
@@ -3196,7 +3196,7 @@
         <v>32</v>
       </c>
       <c r="AM20" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AN20" t="n">
         <v>12.5</v>
@@ -3232,28 +3232,28 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="G21" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="H21" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="I21" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="J21" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K21" t="n">
         <v>4</v>
-      </c>
-      <c r="K21" t="n">
-        <v>4.1</v>
       </c>
       <c r="L21" t="n">
         <v>1.31</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
         <v>5.1</v>
@@ -3262,70 +3262,70 @@
         <v>1.21</v>
       </c>
       <c r="P21" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="Q21" t="n">
         <v>1.65</v>
       </c>
       <c r="R21" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S21" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T21" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U21" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="V21" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="W21" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="X21" t="n">
         <v>21</v>
       </c>
       <c r="Y21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z21" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA21" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AB21" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE21" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AF21" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG21" t="n">
         <v>11</v>
       </c>
       <c r="AH21" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI21" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AJ21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK21" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AL21" t="n">
         <v>28</v>
@@ -3334,10 +3334,10 @@
         <v>70</v>
       </c>
       <c r="AN21" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
@@ -3367,25 +3367,25 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="G22" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="H22" t="n">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="I22" t="n">
-        <v>2.46</v>
+        <v>2.28</v>
       </c>
       <c r="J22" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K22" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="L22" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M22" t="n">
         <v>1.06</v>
@@ -3400,7 +3400,7 @@
         <v>2.14</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R22" t="n">
         <v>1.45</v>
@@ -3409,70 +3409,70 @@
         <v>3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U22" t="n">
         <v>2.34</v>
       </c>
       <c r="V22" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="W22" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="X22" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y22" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA22" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AB22" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AF22" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AG22" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AH22" t="n">
         <v>16.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ22" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK22" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN22" t="n">
         <v>34</v>
       </c>
-      <c r="AL22" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>28</v>
-      </c>
       <c r="AO22" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="23">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="G23" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H23" t="n">
         <v>2.4</v>
       </c>
       <c r="I23" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="K23" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
@@ -3526,22 +3526,22 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="O23" t="n">
         <v>1.28</v>
       </c>
       <c r="P23" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="R23" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S23" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="T23" t="n">
         <v>1.01</v>
@@ -3550,10 +3550,10 @@
         <v>1.01</v>
       </c>
       <c r="V23" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W23" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="G24" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H24" t="n">
         <v>3.5</v>
       </c>
       <c r="I24" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J24" t="n">
         <v>3.25</v>
@@ -3670,13 +3670,13 @@
         <v>1.87</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="R24" t="n">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="S24" t="n">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
       <c r="T24" t="n">
         <v>1.01</v>
@@ -3685,7 +3685,7 @@
         <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W24" t="n">
         <v>1.87</v>
@@ -3703,22 +3703,22 @@
         <v>100</v>
       </c>
       <c r="AB24" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
         <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF24" t="n">
         <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
         <v>1000</v>
@@ -3742,7 +3742,7 @@
         <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="G25" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="n">
         <v>2.02</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2.04</v>
       </c>
       <c r="J25" t="n">
         <v>4</v>
@@ -3802,28 +3802,28 @@
         <v>1.18</v>
       </c>
       <c r="P25" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R25" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S25" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="T25" t="n">
         <v>1.52</v>
       </c>
       <c r="U25" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="V25" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="W25" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X25" t="n">
         <v>25</v>
@@ -3847,10 +3847,10 @@
         <v>10.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AG25" t="n">
         <v>16</v>
@@ -3862,7 +3862,7 @@
         <v>24</v>
       </c>
       <c r="AJ25" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK25" t="n">
         <v>36</v>
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="G26" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="H26" t="n">
-        <v>2.64</v>
+        <v>2.76</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J26" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="K26" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L26" t="n">
         <v>1.28</v>
@@ -3931,88 +3931,88 @@
         <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="O26" t="n">
         <v>1.25</v>
       </c>
       <c r="P26" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q26" t="n">
         <v>1.7</v>
       </c>
       <c r="R26" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S26" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T26" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U26" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V26" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="W26" t="n">
         <v>1.51</v>
       </c>
       <c r="X26" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Z26" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AA26" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AB26" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AC26" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD26" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AE26" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AF26" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH26" t="n">
         <v>23</v>
       </c>
-      <c r="AG26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>19</v>
-      </c>
       <c r="AI26" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AJ26" t="n">
         <v>50</v>
       </c>
       <c r="AK26" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AL26" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AM26" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AN26" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4042,73 +4042,73 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.58</v>
+        <v>2.74</v>
       </c>
       <c r="G27" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="H27" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="I27" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K27" t="n">
         <v>3.25</v>
       </c>
-      <c r="J27" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3.55</v>
-      </c>
       <c r="L27" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="M27" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="O27" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="P27" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R27" t="n">
         <v>1.25</v>
       </c>
       <c r="S27" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T27" t="n">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="U27" t="n">
         <v>1.84</v>
       </c>
       <c r="V27" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="W27" t="n">
         <v>1.55</v>
       </c>
       <c r="X27" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="Z27" t="n">
         <v>980</v>
       </c>
       <c r="AA27" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AB27" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC27" t="n">
         <v>8.6</v>
@@ -4120,7 +4120,7 @@
         <v>980</v>
       </c>
       <c r="AF27" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG27" t="n">
         <v>1000</v>
@@ -4135,7 +4135,7 @@
         <v>980</v>
       </c>
       <c r="AK27" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AL27" t="n">
         <v>55</v>
@@ -4144,7 +4144,7 @@
         <v>150</v>
       </c>
       <c r="AN27" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AO27" t="n">
         <v>980</v>
@@ -4177,49 +4177,49 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="G28" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H28" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I28" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J28" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K28" t="n">
         <v>3.2</v>
       </c>
-      <c r="K28" t="n">
-        <v>3.5</v>
-      </c>
       <c r="L28" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M28" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N28" t="n">
         <v>3.05</v>
       </c>
       <c r="O28" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P28" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R28" t="n">
         <v>1.26</v>
       </c>
       <c r="S28" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T28" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="U28" t="n">
         <v>1.94</v>
@@ -4228,16 +4228,16 @@
         <v>1.37</v>
       </c>
       <c r="W28" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="X28" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y28" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y28" t="n">
-        <v>13</v>
-      </c>
       <c r="Z28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA28" t="n">
         <v>85</v>
@@ -4246,7 +4246,7 @@
         <v>10.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AD28" t="n">
         <v>18.5</v>
@@ -4255,7 +4255,7 @@
         <v>60</v>
       </c>
       <c r="AF28" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG28" t="n">
         <v>14.5</v>
@@ -4264,25 +4264,25 @@
         <v>24</v>
       </c>
       <c r="AI28" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ28" t="n">
         <v>44</v>
       </c>
       <c r="AK28" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AL28" t="n">
         <v>60</v>
       </c>
       <c r="AM28" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN28" t="n">
         <v>34</v>
       </c>
       <c r="AO28" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29">
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="G29" t="n">
         <v>5.6</v>
       </c>
       <c r="H29" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="I29" t="n">
         <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K29" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
@@ -4339,16 +4339,16 @@
         <v>1.96</v>
       </c>
       <c r="O29" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P29" t="n">
         <v>1.96</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="R29" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="S29" t="n">
         <v>2.5</v>
@@ -4447,46 +4447,46 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="G30" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="H30" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="I30" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J30" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K30" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M30" t="n">
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="O30" t="n">
         <v>1.01</v>
       </c>
       <c r="P30" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="R30" t="n">
         <v>1.18</v>
       </c>
       <c r="S30" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="T30" t="n">
         <v>1.01</v>
@@ -4495,10 +4495,10 @@
         <v>1.01</v>
       </c>
       <c r="V30" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W30" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -4588,10 +4588,10 @@
         <v>1.18</v>
       </c>
       <c r="H31" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="I31" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="J31" t="n">
         <v>10</v>
@@ -4615,7 +4615,7 @@
         <v>4</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="R31" t="n">
         <v>2.2</v>
@@ -4624,10 +4624,10 @@
         <v>1.81</v>
       </c>
       <c r="T31" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V31" t="n">
         <v>1.05</v>
@@ -4639,7 +4639,7 @@
         <v>65</v>
       </c>
       <c r="Y31" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Z31" t="n">
         <v>210</v>
@@ -4651,10 +4651,10 @@
         <v>17</v>
       </c>
       <c r="AC31" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AD31" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AE31" t="n">
         <v>260</v>
@@ -4666,22 +4666,22 @@
         <v>13</v>
       </c>
       <c r="AH31" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AI31" t="n">
         <v>160</v>
       </c>
       <c r="AJ31" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AK31" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AL31" t="n">
         <v>34</v>
       </c>
       <c r="AM31" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN31" t="n">
         <v>2.66</v>
@@ -4717,13 +4717,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="G32" t="n">
         <v>2.8</v>
       </c>
       <c r="H32" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I32" t="n">
         <v>3.15</v>
@@ -4732,7 +4732,7 @@
         <v>3.1</v>
       </c>
       <c r="K32" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L32" t="n">
         <v>1.48</v>
@@ -4750,7 +4750,7 @@
         <v>1.69</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="R32" t="n">
         <v>1.25</v>
@@ -4759,7 +4759,7 @@
         <v>4.2</v>
       </c>
       <c r="T32" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U32" t="n">
         <v>1.97</v>
@@ -4783,13 +4783,13 @@
         <v>70</v>
       </c>
       <c r="AB32" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC32" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD32" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE32" t="n">
         <v>50</v>
@@ -4804,7 +4804,7 @@
         <v>24</v>
       </c>
       <c r="AI32" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ32" t="n">
         <v>55</v>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="G33" t="n">
         <v>2.18</v>
@@ -4864,13 +4864,13 @@
         <v>4.6</v>
       </c>
       <c r="J33" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K33" t="n">
         <v>3.75</v>
       </c>
       <c r="L33" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M33" t="n">
         <v>1.08</v>
@@ -4888,7 +4888,7 @@
         <v>2.1</v>
       </c>
       <c r="R33" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S33" t="n">
         <v>3.9</v>
@@ -4897,7 +4897,7 @@
         <v>1.87</v>
       </c>
       <c r="U33" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V33" t="n">
         <v>1.27</v>
@@ -4954,7 +4954,7 @@
         <v>150</v>
       </c>
       <c r="AN33" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO33" t="n">
         <v>90</v>
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="G34" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="H34" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="I34" t="n">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="J34" t="n">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="K34" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
@@ -5035,10 +5035,10 @@
         <v>1.7</v>
       </c>
       <c r="V34" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="W34" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X34" t="n">
         <v>10</v>
@@ -5047,7 +5047,7 @@
         <v>10.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AA34" t="n">
         <v>80</v>
@@ -5059,19 +5059,19 @@
         <v>8.4</v>
       </c>
       <c r="AD34" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AE34" t="n">
         <v>60</v>
       </c>
       <c r="AF34" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AG34" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH34" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AI34" t="n">
         <v>90</v>
@@ -5080,7 +5080,7 @@
         <v>60</v>
       </c>
       <c r="AK34" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AL34" t="n">
         <v>85</v>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="G35" t="n">
         <v>4.8</v>
@@ -5131,34 +5131,34 @@
         <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="J35" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="K35" t="n">
         <v>4.3</v>
       </c>
       <c r="L35" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M35" t="n">
         <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="O35" t="n">
         <v>1.01</v>
       </c>
       <c r="P35" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R35" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S35" t="n">
         <v>3.35</v>
@@ -5167,46 +5167,46 @@
         <v>1.66</v>
       </c>
       <c r="U35" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="V35" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="W35" t="n">
         <v>1.27</v>
       </c>
       <c r="X35" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y35" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="Z35" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA35" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AB35" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC35" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD35" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE35" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AF35" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AG35" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AH35" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AI35" t="n">
         <v>60</v>
@@ -5215,19 +5215,19 @@
         <v>120</v>
       </c>
       <c r="AK35" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL35" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN35" t="n">
         <v>95</v>
       </c>
-      <c r="AM35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>110</v>
-      </c>
       <c r="AO35" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
     </row>
     <row r="36">
@@ -5260,22 +5260,22 @@
         <v>1.25</v>
       </c>
       <c r="G36" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="H36" t="n">
         <v>13.5</v>
       </c>
       <c r="I36" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J36" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="K36" t="n">
         <v>7.4</v>
       </c>
       <c r="L36" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M36" t="n">
         <v>1.05</v>
@@ -5299,22 +5299,22 @@
         <v>3</v>
       </c>
       <c r="T36" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="U36" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="V36" t="n">
         <v>1.05</v>
       </c>
       <c r="W36" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="X36" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="Y36" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="Z36" t="n">
         <v>1000</v>
@@ -5326,7 +5326,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC36" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD36" t="n">
         <v>80</v>
@@ -5338,7 +5338,7 @@
         <v>7.8</v>
       </c>
       <c r="AG36" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH36" t="n">
         <v>60</v>
@@ -5347,7 +5347,7 @@
         <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK36" t="n">
         <v>21</v>
@@ -5359,7 +5359,7 @@
         <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AO36" t="n">
         <v>1000</v>
@@ -5392,19 +5392,19 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="G37" t="n">
         <v>4.3</v>
       </c>
       <c r="H37" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I37" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="J37" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="K37" t="n">
         <v>3.6</v>
@@ -5425,7 +5425,7 @@
         <v>1.61</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="R37" t="n">
         <v>1.22</v>
@@ -5434,16 +5434,16 @@
         <v>3.95</v>
       </c>
       <c r="T37" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U37" t="n">
         <v>1.83</v>
       </c>
       <c r="V37" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="W37" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X37" t="n">
         <v>12.5</v>
@@ -5452,49 +5452,49 @@
         <v>8.6</v>
       </c>
       <c r="Z37" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AA37" t="n">
         <v>36</v>
       </c>
       <c r="AB37" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AD37" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AF37" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AG37" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI37" t="n">
         <v>55</v>
       </c>
       <c r="AJ37" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AK37" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AL37" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AM37" t="n">
         <v>180</v>
       </c>
       <c r="AN37" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AO37" t="n">
         <v>34</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="G38" t="n">
         <v>1.87</v>
@@ -5557,7 +5557,7 @@
         <v>1.46</v>
       </c>
       <c r="P38" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q38" t="n">
         <v>2.32</v>
@@ -5575,7 +5575,7 @@
         <v>1.65</v>
       </c>
       <c r="V38" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W38" t="n">
         <v>2.14</v>
@@ -5611,7 +5611,7 @@
         <v>11.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AI38" t="n">
         <v>160</v>
@@ -5665,10 +5665,10 @@
         <v>3.65</v>
       </c>
       <c r="G39" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H39" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I39" t="n">
         <v>2.22</v>
@@ -5677,7 +5677,7 @@
         <v>3.4</v>
       </c>
       <c r="K39" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L39" t="n">
         <v>1.43</v>
@@ -5686,7 +5686,7 @@
         <v>1.08</v>
       </c>
       <c r="N39" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O39" t="n">
         <v>1.38</v>
@@ -5695,28 +5695,28 @@
         <v>1.74</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R39" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S39" t="n">
         <v>3.85</v>
       </c>
       <c r="T39" t="n">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="U39" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="V39" t="n">
         <v>1.81</v>
       </c>
       <c r="W39" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X39" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y39" t="n">
         <v>9.6</v>
@@ -5725,7 +5725,7 @@
         <v>15</v>
       </c>
       <c r="AA39" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AB39" t="n">
         <v>14.5</v>
@@ -5737,19 +5737,19 @@
         <v>13</v>
       </c>
       <c r="AE39" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AF39" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AG39" t="n">
         <v>18.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI39" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AJ39" t="n">
         <v>100</v>
@@ -5767,7 +5767,7 @@
         <v>75</v>
       </c>
       <c r="AO39" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
     </row>
     <row r="40">
@@ -5797,22 +5797,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="G40" t="n">
-        <v>2.24</v>
+        <v>1.98</v>
       </c>
       <c r="H40" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="I40" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="K40" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
@@ -5821,37 +5821,37 @@
         <v>1.1</v>
       </c>
       <c r="N40" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="O40" t="n">
         <v>1.45</v>
       </c>
       <c r="P40" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R40" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S40" t="n">
         <v>4.5</v>
       </c>
       <c r="T40" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="U40" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V40" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="W40" t="n">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="X40" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y40" t="n">
         <v>14</v>
@@ -5860,49 +5860,49 @@
         <v>34</v>
       </c>
       <c r="AA40" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB40" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC40" t="n">
         <v>8.199999999999999</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>7.8</v>
       </c>
       <c r="AD40" t="n">
         <v>20</v>
       </c>
       <c r="AE40" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AF40" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AH40" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AI40" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ40" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AK40" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AL40" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM40" t="n">
         <v>180</v>
       </c>
       <c r="AN40" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO40" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41">
@@ -5935,16 +5935,16 @@
         <v>6.4</v>
       </c>
       <c r="G41" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H41" t="n">
         <v>1.33</v>
       </c>
       <c r="I41" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="J41" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K41" t="n">
         <v>10.5</v>
@@ -5968,10 +5968,10 @@
         <v>1.54</v>
       </c>
       <c r="R41" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="S41" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="T41" t="n">
         <v>1.01</v>
@@ -5980,7 +5980,7 @@
         <v>1.01</v>
       </c>
       <c r="V41" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="W41" t="n">
         <v>1.04</v>
@@ -6070,7 +6070,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="G42" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="H42" t="n">
         <v>1.46</v>
@@ -6118,7 +6118,7 @@
         <v>3.05</v>
       </c>
       <c r="W42" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="X42" t="n">
         <v>18.5</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="G43" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="H43" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="J43" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K43" t="n">
         <v>3.3</v>
       </c>
       <c r="L43" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M43" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N43" t="n">
         <v>3.4</v>
@@ -6235,7 +6235,7 @@
         <v>1.82</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R43" t="n">
         <v>1.32</v>
@@ -6247,40 +6247,40 @@
         <v>1.79</v>
       </c>
       <c r="U43" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V43" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="W43" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X43" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y43" t="n">
         <v>11.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AA43" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AB43" t="n">
         <v>11</v>
       </c>
       <c r="AC43" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD43" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF43" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG43" t="n">
         <v>12.5</v>
@@ -6289,7 +6289,7 @@
         <v>18</v>
       </c>
       <c r="AI43" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AJ43" t="n">
         <v>50</v>
@@ -6301,13 +6301,13 @@
         <v>46</v>
       </c>
       <c r="AM43" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN43" t="n">
         <v>34</v>
       </c>
       <c r="AO43" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
@@ -6349,10 +6349,10 @@
         <v>7.8</v>
       </c>
       <c r="J44" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K44" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L44" t="n">
         <v>1.01</v>
@@ -6361,25 +6361,25 @@
         <v>1.05</v>
       </c>
       <c r="N44" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O44" t="n">
         <v>1.3</v>
       </c>
       <c r="P44" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="Q44" t="n">
         <v>1.89</v>
       </c>
       <c r="R44" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S44" t="n">
         <v>3.25</v>
       </c>
       <c r="T44" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U44" t="n">
         <v>1.89</v>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G45" t="n">
         <v>2.46</v>
@@ -6481,7 +6481,7 @@
         <v>3.5</v>
       </c>
       <c r="I45" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J45" t="n">
         <v>3.2</v>
@@ -6490,22 +6490,22 @@
         <v>3.25</v>
       </c>
       <c r="L45" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M45" t="n">
         <v>1.09</v>
       </c>
       <c r="N45" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O45" t="n">
         <v>1.37</v>
       </c>
       <c r="P45" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R45" t="n">
         <v>1.31</v>
@@ -6520,7 +6520,7 @@
         <v>2.08</v>
       </c>
       <c r="V45" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W45" t="n">
         <v>1.68</v>
@@ -6607,112 +6607,112 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G46" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="H46" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I46" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J46" t="n">
         <v>3.05</v>
       </c>
       <c r="K46" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="L46" t="n">
         <v>1.01</v>
       </c>
       <c r="M46" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N46" t="n">
-        <v>1.65</v>
+        <v>2.74</v>
       </c>
       <c r="O46" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P46" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="R46" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S46" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T46" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="U46" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="V46" t="n">
         <v>1.35</v>
       </c>
       <c r="W46" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="X46" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y46" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z46" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AA46" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AB46" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC46" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AD46" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE46" t="n">
         <v>55</v>
       </c>
       <c r="AF46" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG46" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH46" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI46" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ46" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AK46" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AL46" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM46" t="n">
         <v>170</v>
       </c>
       <c r="AN46" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AO46" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47">
@@ -6745,13 +6745,13 @@
         <v>1.93</v>
       </c>
       <c r="G47" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="H47" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I47" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J47" t="n">
         <v>3.5</v>
@@ -6772,67 +6772,67 @@
         <v>1.31</v>
       </c>
       <c r="P47" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="R47" t="n">
         <v>1.34</v>
       </c>
       <c r="S47" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T47" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U47" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V47" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W47" t="n">
         <v>2.04</v>
       </c>
       <c r="X47" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y47" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Z47" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AA47" t="n">
         <v>130</v>
       </c>
       <c r="AB47" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC47" t="n">
         <v>8.6</v>
       </c>
       <c r="AD47" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ47" t="n">
         <v>23</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>27</v>
       </c>
       <c r="AK47" t="n">
         <v>22</v>
@@ -6880,28 +6880,28 @@
         <v>2.26</v>
       </c>
       <c r="G48" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H48" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I48" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J48" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K48" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L48" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M48" t="n">
         <v>1.08</v>
       </c>
       <c r="N48" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O48" t="n">
         <v>1.35</v>
@@ -6919,7 +6919,7 @@
         <v>3.6</v>
       </c>
       <c r="T48" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U48" t="n">
         <v>2.04</v>
@@ -7036,13 +7036,13 @@
         <v>1.01</v>
       </c>
       <c r="N49" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O49" t="n">
         <v>1.01</v>
       </c>
       <c r="P49" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q49" t="n">
         <v>1.01</v>
@@ -7051,7 +7051,7 @@
         <v>1.18</v>
       </c>
       <c r="S49" t="n">
-        <v>1.02</v>
+        <v>1.34</v>
       </c>
       <c r="T49" t="n">
         <v>1.01</v>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="G50" t="n">
         <v>1.51</v>
@@ -7201,7 +7201,7 @@
         <v>2.88</v>
       </c>
       <c r="X50" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y50" t="n">
         <v>30</v>
@@ -7228,10 +7228,10 @@
         <v>10.5</v>
       </c>
       <c r="AG50" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH50" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI50" t="n">
         <v>110</v>
@@ -7282,22 +7282,22 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>3.3</v>
+        <v>2.96</v>
       </c>
       <c r="G51" t="n">
-        <v>5.7</v>
+        <v>4.6</v>
       </c>
       <c r="H51" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="I51" t="n">
-        <v>2.46</v>
+        <v>2.74</v>
       </c>
       <c r="J51" t="n">
         <v>2.92</v>
       </c>
       <c r="K51" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="L51" t="n">
         <v>1.01</v>
@@ -7306,22 +7306,22 @@
         <v>1.01</v>
       </c>
       <c r="N51" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="O51" t="n">
         <v>1.01</v>
       </c>
       <c r="P51" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="R51" t="n">
         <v>1.18</v>
       </c>
       <c r="S51" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="T51" t="n">
         <v>1.01</v>
@@ -7330,10 +7330,10 @@
         <v>1.01</v>
       </c>
       <c r="V51" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="W51" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="X51" t="n">
         <v>1000</v>
@@ -7417,22 +7417,22 @@
         </is>
       </c>
       <c r="F52" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G52" t="n">
         <v>1.68</v>
       </c>
-      <c r="G52" t="n">
-        <v>1.7</v>
-      </c>
       <c r="H52" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I52" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J52" t="n">
         <v>4.3</v>
       </c>
       <c r="K52" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L52" t="n">
         <v>1.3</v>
@@ -7441,7 +7441,7 @@
         <v>1.04</v>
       </c>
       <c r="N52" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="O52" t="n">
         <v>1.2</v>
@@ -7456,7 +7456,7 @@
         <v>1.63</v>
       </c>
       <c r="S52" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T52" t="n">
         <v>1.67</v>
@@ -7468,10 +7468,10 @@
         <v>1.2</v>
       </c>
       <c r="W52" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="X52" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y52" t="n">
         <v>26</v>
@@ -7552,16 +7552,16 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="G53" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="H53" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="I53" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="J53" t="n">
         <v>3.55</v>
@@ -7603,7 +7603,7 @@
         <v>1.5</v>
       </c>
       <c r="W53" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X53" t="n">
         <v>17</v>
@@ -7615,13 +7615,13 @@
         <v>21</v>
       </c>
       <c r="AA53" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB53" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC53" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD53" t="n">
         <v>12.5</v>
@@ -7639,7 +7639,7 @@
         <v>15.5</v>
       </c>
       <c r="AI53" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AJ53" t="n">
         <v>36</v>
@@ -7648,10 +7648,10 @@
         <v>25</v>
       </c>
       <c r="AL53" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM53" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN53" t="n">
         <v>18</v>
@@ -7696,7 +7696,7 @@
         <v>3.35</v>
       </c>
       <c r="I54" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J54" t="n">
         <v>3.7</v>
@@ -7720,7 +7720,7 @@
         <v>2.22</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R54" t="n">
         <v>1.48</v>
@@ -7729,7 +7729,7 @@
         <v>3</v>
       </c>
       <c r="T54" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U54" t="n">
         <v>2.42</v>
@@ -7738,7 +7738,7 @@
         <v>1.41</v>
       </c>
       <c r="W54" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="X54" t="n">
         <v>17.5</v>
@@ -7753,7 +7753,7 @@
         <v>60</v>
       </c>
       <c r="AB54" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC54" t="n">
         <v>8.199999999999999</v>
@@ -7792,7 +7792,7 @@
         <v>14.5</v>
       </c>
       <c r="AO54" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55">
@@ -7822,16 +7822,16 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="G55" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="H55" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="I55" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="J55" t="n">
         <v>4</v>
@@ -7870,16 +7870,16 @@
         <v>2.98</v>
       </c>
       <c r="V55" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="W55" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X55" t="n">
         <v>28</v>
       </c>
       <c r="Y55" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z55" t="n">
         <v>25</v>
@@ -7897,7 +7897,7 @@
         <v>13</v>
       </c>
       <c r="AE55" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF55" t="n">
         <v>21</v>
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G56" t="n">
         <v>1.35</v>
       </c>
-      <c r="G56" t="n">
-        <v>1.36</v>
-      </c>
       <c r="H56" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="I56" t="n">
         <v>12</v>
       </c>
       <c r="J56" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="K56" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="L56" t="n">
         <v>1.33</v>
@@ -7987,7 +7987,7 @@
         <v>1.24</v>
       </c>
       <c r="P56" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="Q56" t="n">
         <v>1.74</v>
@@ -7996,10 +7996,10 @@
         <v>1.51</v>
       </c>
       <c r="S56" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="T56" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U56" t="n">
         <v>1.79</v>
@@ -8008,7 +8008,7 @@
         <v>1.09</v>
       </c>
       <c r="W56" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="X56" t="n">
         <v>19.5</v>
@@ -8029,7 +8029,7 @@
         <v>12.5</v>
       </c>
       <c r="AD56" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AE56" t="n">
         <v>210</v>
@@ -8047,7 +8047,7 @@
         <v>160</v>
       </c>
       <c r="AJ56" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AK56" t="n">
         <v>14.5</v>
@@ -8239,7 +8239,7 @@
         <v>2.02</v>
       </c>
       <c r="J58" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K58" t="n">
         <v>4.6</v>
@@ -8248,7 +8248,7 @@
         <v>1.01</v>
       </c>
       <c r="M58" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N58" t="n">
         <v>4.5</v>
@@ -8260,7 +8260,7 @@
         <v>2.42</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="R58" t="n">
         <v>1.48</v>
@@ -8278,7 +8278,7 @@
         <v>1.98</v>
       </c>
       <c r="W58" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X58" t="n">
         <v>24</v>
@@ -8497,19 +8497,19 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.36</v>
+        <v>2.22</v>
       </c>
       <c r="G60" t="n">
-        <v>3.1</v>
+        <v>2.58</v>
       </c>
       <c r="H60" t="n">
-        <v>2.36</v>
+        <v>2.64</v>
       </c>
       <c r="I60" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J60" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K60" t="n">
         <v>4.3</v>
@@ -8524,85 +8524,85 @@
         <v>1.01</v>
       </c>
       <c r="O60" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P60" t="n">
-        <v>1.5</v>
+        <v>1.98</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="R60" t="n">
-        <v>1.5</v>
+        <v>1.08</v>
       </c>
       <c r="S60" t="n">
-        <v>1.22</v>
+        <v>2.44</v>
       </c>
       <c r="T60" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="U60" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="V60" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W60" t="n">
-        <v>1.48</v>
+        <v>1.63</v>
       </c>
       <c r="X60" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ60" t="n">
         <v>34</v>
       </c>
-      <c r="Y60" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z60" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB60" t="n">
+      <c r="AK60" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AO60" t="n">
         <v>20</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM60" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO60" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="61">
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="F61" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="G61" t="n">
         <v>2.26</v>
       </c>
-      <c r="G61" t="n">
-        <v>2.28</v>
-      </c>
       <c r="H61" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I61" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J61" t="n">
         <v>3.5</v>
@@ -8656,16 +8656,16 @@
         <v>1.08</v>
       </c>
       <c r="N61" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O61" t="n">
         <v>1.37</v>
       </c>
       <c r="P61" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R61" t="n">
         <v>1.32</v>
@@ -8677,16 +8677,16 @@
         <v>1.86</v>
       </c>
       <c r="U61" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V61" t="n">
         <v>1.37</v>
       </c>
       <c r="W61" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X61" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y61" t="n">
         <v>13</v>
@@ -8704,7 +8704,7 @@
         <v>7.4</v>
       </c>
       <c r="AD61" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE61" t="n">
         <v>44</v>
@@ -8713,7 +8713,7 @@
         <v>13.5</v>
       </c>
       <c r="AG61" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH61" t="n">
         <v>18.5</v>
@@ -8734,7 +8734,7 @@
         <v>110</v>
       </c>
       <c r="AN61" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO61" t="n">
         <v>48</v>
@@ -8794,22 +8794,22 @@
         <v>4.5</v>
       </c>
       <c r="O62" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P62" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="Q62" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T62" t="n">
         <v>1.8</v>
-      </c>
-      <c r="R62" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S62" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T62" t="n">
-        <v>1.79</v>
       </c>
       <c r="U62" t="n">
         <v>2.2</v>
@@ -8830,10 +8830,10 @@
         <v>40</v>
       </c>
       <c r="AA62" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB62" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC62" t="n">
         <v>8.800000000000001</v>
@@ -8851,13 +8851,13 @@
         <v>9.6</v>
       </c>
       <c r="AH62" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI62" t="n">
         <v>60</v>
       </c>
       <c r="AJ62" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AK62" t="n">
         <v>17</v>
@@ -8869,7 +8869,7 @@
         <v>85</v>
       </c>
       <c r="AN62" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO62" t="n">
         <v>60</v>
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.78</v>
+        <v>2.64</v>
       </c>
       <c r="G63" t="n">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
       <c r="H63" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J63" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K63" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L63" t="n">
         <v>1.51</v>
@@ -8932,13 +8932,13 @@
         <v>1.44</v>
       </c>
       <c r="P63" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R63" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S63" t="n">
         <v>4.5</v>
@@ -8950,28 +8950,28 @@
         <v>1.98</v>
       </c>
       <c r="V63" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W63" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="X63" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y63" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z63" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA63" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AB63" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC63" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD63" t="n">
         <v>13.5</v>
@@ -8980,22 +8980,22 @@
         <v>38</v>
       </c>
       <c r="AF63" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG63" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH63" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI63" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ63" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AK63" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL63" t="n">
         <v>55</v>
@@ -9004,10 +9004,10 @@
         <v>130</v>
       </c>
       <c r="AN63" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AO63" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64">
@@ -9037,85 +9037,85 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="G64" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="H64" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="I64" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="J64" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K64" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L64" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M64" t="n">
         <v>1.05</v>
       </c>
       <c r="N64" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O64" t="n">
         <v>1.22</v>
       </c>
       <c r="P64" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q64" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S64" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="T64" t="n">
         <v>1.69</v>
-      </c>
-      <c r="R64" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S64" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T64" t="n">
-        <v>1.68</v>
       </c>
       <c r="U64" t="n">
         <v>2.4</v>
       </c>
       <c r="V64" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="W64" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="X64" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y64" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Z64" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AA64" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB64" t="n">
         <v>11.5</v>
       </c>
       <c r="AC64" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD64" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE64" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AF64" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG64" t="n">
         <v>9.6</v>
@@ -9124,13 +9124,13 @@
         <v>17</v>
       </c>
       <c r="AI64" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ64" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK64" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL64" t="n">
         <v>28</v>
@@ -9139,10 +9139,10 @@
         <v>75</v>
       </c>
       <c r="AN64" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AO64" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65">
@@ -9175,7 +9175,7 @@
         <v>1.25</v>
       </c>
       <c r="G65" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="H65" t="n">
         <v>15</v>
@@ -9184,10 +9184,10 @@
         <v>15.5</v>
       </c>
       <c r="J65" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="K65" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="L65" t="n">
         <v>1.29</v>
@@ -9214,7 +9214,7 @@
         <v>2.6</v>
       </c>
       <c r="T65" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="U65" t="n">
         <v>1.77</v>
@@ -9223,7 +9223,7 @@
         <v>1.06</v>
       </c>
       <c r="W65" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="X65" t="n">
         <v>26</v>
@@ -9274,7 +9274,7 @@
         <v>220</v>
       </c>
       <c r="AN65" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AO65" t="n">
         <v>360</v>
@@ -9313,10 +9313,10 @@
         <v>2.58</v>
       </c>
       <c r="H66" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="I66" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J66" t="n">
         <v>3.4</v>
@@ -9352,7 +9352,7 @@
         <v>1.56</v>
       </c>
       <c r="U66" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V66" t="n">
         <v>1.42</v>
@@ -9361,31 +9361,31 @@
         <v>1.63</v>
       </c>
       <c r="X66" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="Y66" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="Z66" t="n">
         <v>28</v>
       </c>
       <c r="AA66" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AB66" t="n">
         <v>970</v>
       </c>
       <c r="AC66" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="AD66" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AE66" t="n">
         <v>42</v>
       </c>
       <c r="AF66" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AG66" t="n">
         <v>970</v>
@@ -9409,7 +9409,7 @@
         <v>95</v>
       </c>
       <c r="AN66" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AO66" t="n">
         <v>34</v>
@@ -9454,13 +9454,13 @@
         <v>2.04</v>
       </c>
       <c r="J67" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K67" t="n">
         <v>4.2</v>
       </c>
       <c r="L67" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="M67" t="n">
         <v>1.04</v>
@@ -9484,10 +9484,10 @@
         <v>2.66</v>
       </c>
       <c r="T67" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="U67" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V67" t="n">
         <v>1.96</v>
@@ -9577,22 +9577,22 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="G68" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="H68" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="I68" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J68" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K68" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="L68" t="n">
         <v>1.01</v>
@@ -9613,10 +9613,10 @@
         <v>1.7</v>
       </c>
       <c r="R68" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="S68" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T68" t="n">
         <v>1.01</v>
@@ -9628,7 +9628,7 @@
         <v>1.37</v>
       </c>
       <c r="W68" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="X68" t="n">
         <v>1000</v>
@@ -9718,7 +9718,7 @@
         <v>6.2</v>
       </c>
       <c r="H69" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="I69" t="n">
         <v>1.75</v>
@@ -9733,7 +9733,7 @@
         <v>1.26</v>
       </c>
       <c r="M69" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N69" t="n">
         <v>4.7</v>
@@ -9754,10 +9754,10 @@
         <v>2.56</v>
       </c>
       <c r="T69" t="n">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="U69" t="n">
-        <v>1.99</v>
+        <v>2.16</v>
       </c>
       <c r="V69" t="n">
         <v>2.32</v>
@@ -9781,7 +9781,7 @@
         <v>28</v>
       </c>
       <c r="AC69" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD69" t="n">
         <v>12.5</v>
@@ -9799,7 +9799,7 @@
         <v>23</v>
       </c>
       <c r="AI69" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ69" t="n">
         <v>160</v>
@@ -9868,31 +9868,31 @@
         <v>1.01</v>
       </c>
       <c r="M70" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N70" t="n">
-        <v>2.16</v>
+        <v>4.5</v>
       </c>
       <c r="O70" t="n">
         <v>1.23</v>
       </c>
       <c r="P70" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="R70" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S70" t="n">
-        <v>2.38</v>
+        <v>2.54</v>
       </c>
       <c r="T70" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="U70" t="n">
-        <v>1.86</v>
+        <v>1.01</v>
       </c>
       <c r="V70" t="n">
         <v>2.56</v>
@@ -9994,7 +9994,7 @@
         <v>4.6</v>
       </c>
       <c r="J71" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K71" t="n">
         <v>3.75</v>
@@ -10006,28 +10006,28 @@
         <v>1.01</v>
       </c>
       <c r="N71" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O71" t="n">
         <v>1.01</v>
       </c>
       <c r="P71" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R71" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="S71" t="n">
         <v>3.45</v>
       </c>
       <c r="T71" t="n">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="U71" t="n">
-        <v>1.66</v>
+        <v>1.82</v>
       </c>
       <c r="V71" t="n">
         <v>1.27</v>
@@ -10171,58 +10171,58 @@
         <v>1.41</v>
       </c>
       <c r="X72" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y72" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO72" t="n">
         <v>17</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF72" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG72" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH72" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI72" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK72" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL72" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM72" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN72" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO72" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="73">
@@ -10252,22 +10252,22 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="G73" t="n">
         <v>8.6</v>
       </c>
       <c r="H73" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="I73" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="J73" t="n">
         <v>4.7</v>
       </c>
       <c r="K73" t="n">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="L73" t="n">
         <v>1.01</v>
@@ -10282,25 +10282,25 @@
         <v>1.15</v>
       </c>
       <c r="P73" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q73" t="n">
         <v>1.38</v>
       </c>
       <c r="R73" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="S73" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="T73" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U73" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V73" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="W73" t="n">
         <v>1.13</v>
@@ -10315,7 +10315,7 @@
         <v>970</v>
       </c>
       <c r="AA73" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AB73" t="n">
         <v>42</v>
@@ -10357,7 +10357,7 @@
         <v>120</v>
       </c>
       <c r="AO73" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="74">
@@ -10387,19 +10387,19 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G74" t="n">
         <v>2.94</v>
       </c>
       <c r="H74" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="I74" t="n">
         <v>3.05</v>
       </c>
       <c r="J74" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K74" t="n">
         <v>3.75</v>
@@ -10417,22 +10417,22 @@
         <v>1.33</v>
       </c>
       <c r="P74" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.88</v>
+        <v>1.97</v>
       </c>
       <c r="R74" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="S74" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T74" t="n">
         <v>1.64</v>
       </c>
       <c r="U74" t="n">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="V74" t="n">
         <v>1.48</v>
@@ -10441,58 +10441,58 @@
         <v>1.51</v>
       </c>
       <c r="X74" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y74" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD74" t="n">
         <v>15.5</v>
       </c>
-      <c r="Z74" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA74" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>18</v>
-      </c>
       <c r="AE74" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AF74" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG74" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH74" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI74" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ74" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK74" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AL74" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM74" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN74" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO74" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75">
@@ -10525,13 +10525,13 @@
         <v>4.4</v>
       </c>
       <c r="G75" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="H75" t="n">
         <v>1.88</v>
       </c>
       <c r="I75" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="J75" t="n">
         <v>3.2</v>
@@ -10669,7 +10669,7 @@
         <v>4.4</v>
       </c>
       <c r="J76" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K76" t="n">
         <v>3.9</v>
@@ -10684,10 +10684,10 @@
         <v>3.55</v>
       </c>
       <c r="O76" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P76" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q76" t="n">
         <v>1.92</v>
@@ -10696,13 +10696,13 @@
         <v>1.34</v>
       </c>
       <c r="S76" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T76" t="n">
-        <v>1.65</v>
+        <v>1.77</v>
       </c>
       <c r="U76" t="n">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="V76" t="n">
         <v>1.3</v>
@@ -10798,7 +10798,7 @@
         <v>8.6</v>
       </c>
       <c r="H77" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="I77" t="n">
         <v>1.58</v>
@@ -10807,10 +10807,10 @@
         <v>4.3</v>
       </c>
       <c r="K77" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L77" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M77" t="n">
         <v>1.05</v>
@@ -10822,22 +10822,22 @@
         <v>1.25</v>
       </c>
       <c r="P77" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="R77" t="n">
         <v>1.37</v>
       </c>
       <c r="S77" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T77" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U77" t="n">
         <v>1.01</v>
-      </c>
-      <c r="U77" t="n">
-        <v>1.83</v>
       </c>
       <c r="V77" t="n">
         <v>2.72</v>
@@ -10933,16 +10933,16 @@
         <v>3.55</v>
       </c>
       <c r="H78" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="I78" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="J78" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K78" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="L78" t="n">
         <v>1.48</v>
@@ -10951,28 +10951,28 @@
         <v>1.05</v>
       </c>
       <c r="N78" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="O78" t="n">
         <v>1.42</v>
       </c>
       <c r="P78" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.26</v>
+        <v>1.46</v>
       </c>
       <c r="R78" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S78" t="n">
         <v>3.9</v>
       </c>
       <c r="T78" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="U78" t="n">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="V78" t="n">
         <v>1.63</v>
@@ -10981,58 +10981,58 @@
         <v>1.39</v>
       </c>
       <c r="X78" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y78" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z78" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA78" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AB78" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC78" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD78" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE78" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF78" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AG78" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH78" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI78" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ78" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AK78" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL78" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM78" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN78" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO78" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79">
@@ -11065,7 +11065,7 @@
         <v>2.02</v>
       </c>
       <c r="G79" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H79" t="n">
         <v>3.9</v>
@@ -11095,25 +11095,25 @@
         <v>1.83</v>
       </c>
       <c r="Q79" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R79" t="n">
         <v>1.26</v>
       </c>
       <c r="S79" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="T79" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="U79" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="V79" t="n">
         <v>1.28</v>
       </c>
       <c r="W79" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="X79" t="n">
         <v>19</v>
@@ -11203,13 +11203,13 @@
         <v>3.95</v>
       </c>
       <c r="H80" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="I80" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="J80" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K80" t="n">
         <v>3.2</v>
@@ -11227,7 +11227,7 @@
         <v>1.52</v>
       </c>
       <c r="P80" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q80" t="n">
         <v>2.6</v>
@@ -11245,10 +11245,10 @@
         <v>1.84</v>
       </c>
       <c r="V80" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W80" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X80" t="n">
         <v>8.800000000000001</v>
@@ -11296,7 +11296,7 @@
         <v>85</v>
       </c>
       <c r="AM80" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN80" t="n">
         <v>85</v>
@@ -11335,10 +11335,10 @@
         <v>1.67</v>
       </c>
       <c r="G81" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="H81" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I81" t="n">
         <v>6.6</v>
@@ -11347,7 +11347,7 @@
         <v>4</v>
       </c>
       <c r="K81" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L81" t="n">
         <v>1.44</v>
@@ -11365,7 +11365,7 @@
         <v>1.83</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="R81" t="n">
         <v>1.32</v>
@@ -11383,10 +11383,10 @@
         <v>1.17</v>
       </c>
       <c r="W81" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="X81" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Y81" t="n">
         <v>19.5</v>
@@ -11407,7 +11407,7 @@
         <v>26</v>
       </c>
       <c r="AE81" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AF81" t="n">
         <v>10</v>
@@ -11431,13 +11431,13 @@
         <v>44</v>
       </c>
       <c r="AM81" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AO81" t="n">
         <v>180</v>
-      </c>
-      <c r="AN81" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AO81" t="n">
-        <v>170</v>
       </c>
     </row>
     <row r="82">
@@ -11470,7 +11470,7 @@
         <v>2.16</v>
       </c>
       <c r="G82" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H82" t="n">
         <v>3.35</v>
@@ -11479,13 +11479,13 @@
         <v>4</v>
       </c>
       <c r="J82" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="K82" t="n">
         <v>3.85</v>
       </c>
       <c r="L82" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M82" t="n">
         <v>1.07</v>
@@ -11497,7 +11497,7 @@
         <v>1.33</v>
       </c>
       <c r="P82" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Q82" t="n">
         <v>1.98</v>
@@ -11509,19 +11509,19 @@
         <v>3.5</v>
       </c>
       <c r="T82" t="n">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="U82" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="V82" t="n">
         <v>1.34</v>
       </c>
       <c r="W82" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="X82" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y82" t="n">
         <v>15</v>
@@ -11530,7 +11530,7 @@
         <v>29</v>
       </c>
       <c r="AA82" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB82" t="n">
         <v>11</v>
@@ -11560,10 +11560,10 @@
         <v>32</v>
       </c>
       <c r="AK82" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AL82" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM82" t="n">
         <v>120</v>
@@ -11644,7 +11644,7 @@
         <v>2.52</v>
       </c>
       <c r="T83" t="n">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="U83" t="n">
         <v>2.3</v>
@@ -11737,10 +11737,10 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="G84" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="H84" t="n">
         <v>6.2</v>
@@ -11755,7 +11755,7 @@
         <v>5.1</v>
       </c>
       <c r="L84" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M84" t="n">
         <v>1.02</v>
@@ -11764,7 +11764,7 @@
         <v>7</v>
       </c>
       <c r="O84" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P84" t="n">
         <v>3.05</v>
@@ -11773,7 +11773,7 @@
         <v>1.45</v>
       </c>
       <c r="R84" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="S84" t="n">
         <v>2.08</v>
@@ -11782,7 +11782,7 @@
         <v>1.59</v>
       </c>
       <c r="U84" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="V84" t="n">
         <v>1.17</v>
@@ -11791,10 +11791,10 @@
         <v>2.8</v>
       </c>
       <c r="X84" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y84" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="Z84" t="n">
         <v>65</v>
@@ -11806,43 +11806,43 @@
         <v>17</v>
       </c>
       <c r="AC84" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD84" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AE84" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AF84" t="n">
         <v>16</v>
       </c>
       <c r="AG84" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH84" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AI84" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ84" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AK84" t="n">
         <v>18</v>
       </c>
       <c r="AL84" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AM84" t="n">
         <v>75</v>
       </c>
       <c r="AN84" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO84" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85">
@@ -11872,22 +11872,22 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="G85" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="H85" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="I85" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J85" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K85" t="n">
         <v>5</v>
-      </c>
-      <c r="K85" t="n">
-        <v>5.1</v>
       </c>
       <c r="L85" t="n">
         <v>1.34</v>
@@ -11896,88 +11896,88 @@
         <v>1.05</v>
       </c>
       <c r="N85" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O85" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P85" t="n">
         <v>2.2</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="R85" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S85" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="T85" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U85" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V85" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W85" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="X85" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y85" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z85" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AA85" t="n">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="AB85" t="n">
         <v>8.6</v>
       </c>
       <c r="AC85" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD85" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AE85" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF85" t="n">
         <v>8.6</v>
       </c>
       <c r="AG85" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH85" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI85" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ85" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK85" t="n">
         <v>15</v>
       </c>
       <c r="AL85" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AM85" t="n">
         <v>140</v>
       </c>
       <c r="AN85" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AO85" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86">
@@ -12007,19 +12007,19 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="G86" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H86" t="n">
         <v>4.3</v>
       </c>
       <c r="I86" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J86" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K86" t="n">
         <v>4.5</v>
@@ -12055,19 +12055,19 @@
         <v>2.18</v>
       </c>
       <c r="V86" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="W86" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X86" t="n">
         <v>24</v>
       </c>
       <c r="Y86" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z86" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AA86" t="n">
         <v>120</v>
@@ -12079,13 +12079,13 @@
         <v>11.5</v>
       </c>
       <c r="AD86" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE86" t="n">
         <v>70</v>
       </c>
       <c r="AF86" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG86" t="n">
         <v>12.5</v>
@@ -12097,7 +12097,7 @@
         <v>70</v>
       </c>
       <c r="AJ86" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK86" t="n">
         <v>22</v>
@@ -12142,31 +12142,31 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="G87" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="H87" t="n">
         <v>2.2</v>
       </c>
       <c r="I87" t="n">
-        <v>2.46</v>
+        <v>2.34</v>
       </c>
       <c r="J87" t="n">
         <v>3.1</v>
       </c>
       <c r="K87" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L87" t="n">
         <v>1.01</v>
       </c>
       <c r="M87" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N87" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="O87" t="n">
         <v>1.44</v>
@@ -12175,79 +12175,79 @@
         <v>1.65</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R87" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S87" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T87" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U87" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="V87" t="n">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="W87" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="X87" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y87" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z87" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA87" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB87" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC87" t="n">
-        <v>970</v>
+        <v>8.6</v>
       </c>
       <c r="AD87" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE87" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF87" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG87" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AH87" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI87" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ87" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AK87" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL87" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM87" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN87" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO87" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88">
@@ -12277,76 +12277,76 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="G88" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="H88" t="n">
-        <v>2.76</v>
+        <v>3.05</v>
       </c>
       <c r="I88" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="J88" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="K88" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="L88" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M88" t="n">
         <v>1.07</v>
       </c>
       <c r="N88" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O88" t="n">
         <v>1.34</v>
       </c>
       <c r="P88" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="R88" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="S88" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="T88" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U88" t="n">
         <v>1.94</v>
       </c>
       <c r="V88" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="W88" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="X88" t="n">
         <v>16</v>
       </c>
       <c r="Y88" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z88" t="n">
         <v>28</v>
       </c>
       <c r="AA88" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB88" t="n">
         <v>12</v>
       </c>
       <c r="AC88" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD88" t="n">
         <v>970</v>
@@ -12418,25 +12418,25 @@
         <v>3.35</v>
       </c>
       <c r="H89" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="I89" t="n">
         <v>2.64</v>
       </c>
       <c r="J89" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K89" t="n">
         <v>3.85</v>
       </c>
       <c r="L89" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M89" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N89" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="O89" t="n">
         <v>1.31</v>
@@ -12448,16 +12448,16 @@
         <v>1.89</v>
       </c>
       <c r="R89" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="S89" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="T89" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="U89" t="n">
-        <v>1.01</v>
+        <v>2.14</v>
       </c>
       <c r="V89" t="n">
         <v>1.6</v>
@@ -12469,46 +12469,46 @@
         <v>1000</v>
       </c>
       <c r="Y89" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z89" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA89" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB89" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AC89" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD89" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE89" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF89" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AG89" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AH89" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI89" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ89" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK89" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL89" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM89" t="n">
         <v>1000</v>
@@ -12550,7 +12550,7 @@
         <v>1.98</v>
       </c>
       <c r="G90" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="H90" t="n">
         <v>3.15</v>
@@ -12580,13 +12580,13 @@
         <v>1.52</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.24</v>
+        <v>2.06</v>
       </c>
       <c r="R90" t="n">
         <v>1.18</v>
       </c>
       <c r="S90" t="n">
-        <v>2.24</v>
+        <v>2.06</v>
       </c>
       <c r="T90" t="n">
         <v>1.01</v>
@@ -12595,13 +12595,13 @@
         <v>1.01</v>
       </c>
       <c r="V90" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W90" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X90" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y90" t="n">
         <v>16</v>
@@ -12685,13 +12685,13 @@
         <v>2.32</v>
       </c>
       <c r="G91" t="n">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
       <c r="H91" t="n">
         <v>3.25</v>
       </c>
       <c r="I91" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J91" t="n">
         <v>2.98</v>
@@ -12700,7 +12700,7 @@
         <v>3.5</v>
       </c>
       <c r="L91" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M91" t="n">
         <v>1.1</v>
@@ -12721,7 +12721,7 @@
         <v>1.22</v>
       </c>
       <c r="S91" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="T91" t="n">
         <v>1.94</v>
@@ -12730,7 +12730,7 @@
         <v>1.86</v>
       </c>
       <c r="V91" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W91" t="n">
         <v>1.6</v>
@@ -12817,112 +12817,112 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="G92" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="H92" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="I92" t="n">
-        <v>2.82</v>
+        <v>2.6</v>
       </c>
       <c r="J92" t="n">
-        <v>2.66</v>
+        <v>2.88</v>
       </c>
       <c r="K92" t="n">
-        <v>5.1</v>
+        <v>3.6</v>
       </c>
       <c r="L92" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="M92" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N92" t="n">
-        <v>1.41</v>
+        <v>2.5</v>
       </c>
       <c r="O92" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="P92" t="n">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="R92" t="n">
         <v>1.18</v>
       </c>
       <c r="S92" t="n">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="T92" t="n">
-        <v>1.01</v>
+        <v>1.93</v>
       </c>
       <c r="U92" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="V92" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="W92" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="X92" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Y92" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z92" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AA92" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB92" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC92" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD92" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE92" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF92" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG92" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH92" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI92" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ92" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK92" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL92" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM92" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN92" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AO92" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93">
@@ -12952,10 +12952,10 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G93" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H93" t="n">
         <v>3.55</v>
@@ -12970,7 +12970,7 @@
         <v>3.8</v>
       </c>
       <c r="L93" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="M93" t="n">
         <v>1.08</v>
@@ -13003,10 +13003,10 @@
         <v>1.29</v>
       </c>
       <c r="W93" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X93" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y93" t="n">
         <v>15</v>
@@ -13018,7 +13018,7 @@
         <v>95</v>
       </c>
       <c r="AB93" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC93" t="n">
         <v>8.199999999999999</v>
@@ -13096,7 +13096,7 @@
         <v>15.5</v>
       </c>
       <c r="I94" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="J94" t="n">
         <v>8.6</v>
@@ -13126,7 +13126,7 @@
         <v>2</v>
       </c>
       <c r="S94" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="T94" t="n">
         <v>1.89</v>
@@ -13141,7 +13141,7 @@
         <v>5.5</v>
       </c>
       <c r="X94" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Y94" t="n">
         <v>70</v>
@@ -13222,7 +13222,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="G95" t="n">
         <v>3.15</v>
@@ -13234,7 +13234,7 @@
         <v>2.74</v>
       </c>
       <c r="J95" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K95" t="n">
         <v>3.75</v>
@@ -13267,7 +13267,7 @@
         <v>1.62</v>
       </c>
       <c r="U95" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="V95" t="n">
         <v>1.57</v>
@@ -13285,13 +13285,13 @@
         <v>23</v>
       </c>
       <c r="AA95" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AB95" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC95" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD95" t="n">
         <v>15</v>
@@ -13300,16 +13300,16 @@
         <v>34</v>
       </c>
       <c r="AF95" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG95" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH95" t="n">
         <v>18.5</v>
       </c>
       <c r="AI95" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ95" t="n">
         <v>55</v>
@@ -13318,10 +13318,10 @@
         <v>38</v>
       </c>
       <c r="AL95" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AM95" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN95" t="n">
         <v>29</v>
@@ -13357,7 +13357,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G96" t="n">
         <v>5.2</v>
@@ -13381,22 +13381,22 @@
         <v>1.01</v>
       </c>
       <c r="N96" t="n">
-        <v>5.7</v>
+        <v>2.36</v>
       </c>
       <c r="O96" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="P96" t="n">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="R96" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="S96" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="T96" t="n">
         <v>1.01</v>
@@ -13492,46 +13492,46 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>6.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G97" t="n">
-        <v>26</v>
+        <v>12.5</v>
       </c>
       <c r="H97" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="I97" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="J97" t="n">
         <v>4</v>
       </c>
       <c r="K97" t="n">
-        <v>8.800000000000001</v>
+        <v>5.2</v>
       </c>
       <c r="L97" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="M97" t="n">
         <v>1.01</v>
       </c>
       <c r="N97" t="n">
-        <v>1.76</v>
+        <v>3.55</v>
       </c>
       <c r="O97" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="P97" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="R97" t="n">
         <v>1.27</v>
       </c>
       <c r="S97" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="T97" t="n">
         <v>1.01</v>
@@ -13540,64 +13540,64 @@
         <v>1.01</v>
       </c>
       <c r="V97" t="n">
-        <v>2.62</v>
+        <v>2.76</v>
       </c>
       <c r="W97" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="X97" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y97" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="Z97" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AA97" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AB97" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AC97" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD97" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE97" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF97" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AG97" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AH97" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI97" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ97" t="n">
         <v>1000</v>
       </c>
       <c r="AK97" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AL97" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AM97" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN97" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AO97" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="98">
@@ -13630,13 +13630,13 @@
         <v>1.49</v>
       </c>
       <c r="G98" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="H98" t="n">
         <v>8.4</v>
       </c>
       <c r="I98" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J98" t="n">
         <v>4.6</v>
@@ -13657,7 +13657,7 @@
         <v>1.36</v>
       </c>
       <c r="P98" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q98" t="n">
         <v>2.08</v>
@@ -13666,7 +13666,7 @@
         <v>1.33</v>
       </c>
       <c r="S98" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T98" t="n">
         <v>2.28</v>
@@ -13729,7 +13729,7 @@
         <v>210</v>
       </c>
       <c r="AN98" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AO98" t="n">
         <v>270</v>
@@ -13762,22 +13762,22 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="G99" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="H99" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I99" t="n">
         <v>5.5</v>
       </c>
       <c r="J99" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K99" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="L99" t="n">
         <v>1.01</v>
@@ -13786,34 +13786,34 @@
         <v>1.01</v>
       </c>
       <c r="N99" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="O99" t="n">
         <v>1.21</v>
       </c>
       <c r="P99" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="R99" t="n">
         <v>1.47</v>
       </c>
       <c r="S99" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="T99" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="U99" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V99" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W99" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="X99" t="n">
         <v>24</v>
@@ -13921,28 +13921,28 @@
         <v>1.07</v>
       </c>
       <c r="N100" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O100" t="n">
         <v>1.32</v>
       </c>
       <c r="P100" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="R100" t="n">
         <v>1.38</v>
       </c>
       <c r="S100" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T100" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U100" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V100" t="n">
         <v>2.72</v>
@@ -13954,7 +13954,7 @@
         <v>15.5</v>
       </c>
       <c r="Y100" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Z100" t="n">
         <v>8.6</v>
@@ -13966,10 +13966,10 @@
         <v>21</v>
       </c>
       <c r="AC100" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD100" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE100" t="n">
         <v>16.5</v>
@@ -13993,16 +13993,16 @@
         <v>110</v>
       </c>
       <c r="AL100" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AM100" t="n">
         <v>150</v>
       </c>
       <c r="AN100" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AO100" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101">
@@ -14032,46 +14032,46 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="G101" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="H101" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="I101" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="J101" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="K101" t="n">
         <v>5.2</v>
       </c>
       <c r="L101" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M101" t="n">
         <v>1.02</v>
       </c>
       <c r="N101" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O101" t="n">
         <v>1.11</v>
       </c>
       <c r="P101" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="R101" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="S101" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="T101" t="n">
         <v>1.46</v>
@@ -14080,10 +14080,10 @@
         <v>3.05</v>
       </c>
       <c r="V101" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="W101" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X101" t="n">
         <v>44</v>
@@ -14116,7 +14116,7 @@
         <v>23</v>
       </c>
       <c r="AH101" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI101" t="n">
         <v>19.5</v>
@@ -14137,7 +14137,7 @@
         <v>30</v>
       </c>
       <c r="AO101" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="102">
@@ -14173,13 +14173,13 @@
         <v>4.2</v>
       </c>
       <c r="H102" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I102" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="J102" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K102" t="n">
         <v>4.1</v>
@@ -14200,28 +14200,28 @@
         <v>2.02</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="R102" t="n">
         <v>1.18</v>
       </c>
       <c r="S102" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="T102" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="U102" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V102" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="W102" t="n">
         <v>1.31</v>
       </c>
       <c r="X102" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y102" t="n">
         <v>1000</v>
@@ -14302,22 +14302,22 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="G103" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="H103" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="I103" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="J103" t="n">
         <v>7</v>
       </c>
       <c r="K103" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L103" t="n">
         <v>1.01</v>
@@ -14326,40 +14326,40 @@
         <v>1.01</v>
       </c>
       <c r="N103" t="n">
-        <v>1.01</v>
+        <v>7.6</v>
       </c>
       <c r="O103" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P103" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R103" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S103" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T103" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U103" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V103" t="n">
         <v>1.08</v>
       </c>
-      <c r="P103" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q103" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="R103" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S103" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T103" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="U103" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V103" t="n">
-        <v>1.09</v>
-      </c>
       <c r="W103" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="X103" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y103" t="n">
         <v>60</v>
-      </c>
-      <c r="Y103" t="n">
-        <v>70</v>
       </c>
       <c r="Z103" t="n">
         <v>140</v>
@@ -14368,7 +14368,7 @@
         <v>370</v>
       </c>
       <c r="AB103" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AC103" t="n">
         <v>22</v>
@@ -14380,10 +14380,10 @@
         <v>150</v>
       </c>
       <c r="AF103" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG103" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH103" t="n">
         <v>30</v>
@@ -14392,22 +14392,22 @@
         <v>110</v>
       </c>
       <c r="AJ103" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK103" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL103" t="n">
         <v>32</v>
       </c>
       <c r="AM103" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AN103" t="n">
-        <v>3.3</v>
+        <v>3.85</v>
       </c>
       <c r="AO103" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104">
@@ -14437,22 +14437,22 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="G104" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="H104" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I104" t="n">
         <v>5.4</v>
-      </c>
-      <c r="I104" t="n">
-        <v>5.6</v>
       </c>
       <c r="J104" t="n">
         <v>3.5</v>
       </c>
       <c r="K104" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L104" t="n">
         <v>1.55</v>
@@ -14473,7 +14473,7 @@
         <v>2.52</v>
       </c>
       <c r="R104" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S104" t="n">
         <v>5.2</v>
@@ -14485,10 +14485,10 @@
         <v>1.76</v>
       </c>
       <c r="V104" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W104" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="X104" t="n">
         <v>9.199999999999999</v>
@@ -14497,10 +14497,10 @@
         <v>14</v>
       </c>
       <c r="Z104" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA104" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AB104" t="n">
         <v>6.6</v>
@@ -14509,13 +14509,13 @@
         <v>7.8</v>
       </c>
       <c r="AD104" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE104" t="n">
         <v>100</v>
       </c>
       <c r="AF104" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AG104" t="n">
         <v>11</v>
@@ -14539,7 +14539,7 @@
         <v>200</v>
       </c>
       <c r="AN104" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AO104" t="n">
         <v>160</v>
@@ -14572,13 +14572,13 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G105" t="n">
         <v>1.81</v>
       </c>
       <c r="H105" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I105" t="n">
         <v>5.8</v>
@@ -14587,7 +14587,7 @@
         <v>3.65</v>
       </c>
       <c r="K105" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L105" t="n">
         <v>1.46</v>
@@ -14596,7 +14596,7 @@
         <v>1.09</v>
       </c>
       <c r="N105" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O105" t="n">
         <v>1.39</v>
@@ -14605,7 +14605,7 @@
         <v>1.77</v>
       </c>
       <c r="Q105" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R105" t="n">
         <v>1.29</v>
@@ -14617,7 +14617,7 @@
         <v>1.99</v>
       </c>
       <c r="U105" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V105" t="n">
         <v>1.21</v>
@@ -14632,16 +14632,16 @@
         <v>19.5</v>
       </c>
       <c r="Z105" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA105" t="n">
         <v>180</v>
       </c>
       <c r="AB105" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AC105" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD105" t="n">
         <v>26</v>
@@ -14650,10 +14650,10 @@
         <v>110</v>
       </c>
       <c r="AF105" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG105" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH105" t="n">
         <v>27</v>
@@ -14674,7 +14674,7 @@
         <v>180</v>
       </c>
       <c r="AN105" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AO105" t="n">
         <v>140</v>
@@ -14710,58 +14710,58 @@
         <v>6.2</v>
       </c>
       <c r="G106" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="H106" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="I106" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="J106" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K106" t="n">
         <v>4.8</v>
       </c>
       <c r="L106" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M106" t="n">
         <v>1.03</v>
       </c>
       <c r="N106" t="n">
-        <v>1.04</v>
+        <v>5.4</v>
       </c>
       <c r="O106" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P106" t="n">
-        <v>1.58</v>
+        <v>2.54</v>
       </c>
       <c r="Q106" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R106" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="S106" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="T106" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="U106" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="V106" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="W106" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="X106" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y106" t="n">
         <v>13.5</v>
@@ -14776,16 +14776,16 @@
         <v>32</v>
       </c>
       <c r="AC106" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD106" t="n">
         <v>12</v>
       </c>
       <c r="AE106" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF106" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG106" t="n">
         <v>27</v>
@@ -14797,22 +14797,22 @@
         <v>32</v>
       </c>
       <c r="AJ106" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AK106" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL106" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM106" t="n">
         <v>90</v>
       </c>
       <c r="AN106" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AO106" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="107">
@@ -14881,7 +14881,7 @@
         <v>1.53</v>
       </c>
       <c r="S107" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="T107" t="n">
         <v>2.14</v>
@@ -14977,16 +14977,16 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="G108" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="H108" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I108" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="J108" t="n">
         <v>3.65</v>
@@ -15010,52 +15010,52 @@
         <v>1.99</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R108" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S108" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T108" t="n">
         <v>1.81</v>
       </c>
       <c r="U108" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V108" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="W108" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="X108" t="n">
         <v>14.5</v>
       </c>
       <c r="Y108" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z108" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA108" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AB108" t="n">
         <v>9.4</v>
       </c>
       <c r="AC108" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD108" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE108" t="n">
         <v>55</v>
       </c>
       <c r="AF108" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG108" t="n">
         <v>10.5</v>
@@ -15067,19 +15067,19 @@
         <v>60</v>
       </c>
       <c r="AJ108" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK108" t="n">
         <v>21</v>
       </c>
       <c r="AL108" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AM108" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN108" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO108" t="n">
         <v>55</v>
@@ -15112,22 +15112,22 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="G109" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H109" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I109" t="n">
         <v>2.96</v>
-      </c>
-      <c r="I109" t="n">
-        <v>3.05</v>
       </c>
       <c r="J109" t="n">
         <v>3</v>
       </c>
       <c r="K109" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L109" t="n">
         <v>1.59</v>
@@ -15136,64 +15136,64 @@
         <v>1.13</v>
       </c>
       <c r="N109" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="O109" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P109" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q109" t="n">
         <v>2.68</v>
-      </c>
-      <c r="O109" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="P109" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q109" t="n">
-        <v>2.7</v>
       </c>
       <c r="R109" t="n">
         <v>1.19</v>
       </c>
       <c r="S109" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="T109" t="n">
         <v>2.12</v>
       </c>
       <c r="U109" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V109" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="W109" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="X109" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB109" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="Y109" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Z109" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA109" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB109" t="n">
-        <v>9</v>
-      </c>
       <c r="AC109" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD109" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG109" t="n">
         <v>14.5</v>
-      </c>
-      <c r="AE109" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF109" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG109" t="n">
-        <v>15</v>
       </c>
       <c r="AH109" t="n">
         <v>24</v>
@@ -15205,19 +15205,19 @@
         <v>60</v>
       </c>
       <c r="AK109" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO109" t="n">
         <v>55</v>
-      </c>
-      <c r="AL109" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM109" t="n">
-        <v>220</v>
-      </c>
-      <c r="AN109" t="n">
-        <v>70</v>
-      </c>
-      <c r="AO109" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="110">
@@ -15247,22 +15247,22 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="G110" t="n">
         <v>3.4</v>
       </c>
       <c r="H110" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I110" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="J110" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K110" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L110" t="n">
         <v>1.5</v>
@@ -15271,16 +15271,16 @@
         <v>1.1</v>
       </c>
       <c r="N110" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O110" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P110" t="n">
         <v>1.68</v>
       </c>
       <c r="Q110" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R110" t="n">
         <v>1.25</v>
@@ -15289,13 +15289,13 @@
         <v>4.4</v>
       </c>
       <c r="T110" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U110" t="n">
         <v>1.95</v>
       </c>
-      <c r="U110" t="n">
-        <v>1.96</v>
-      </c>
       <c r="V110" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="W110" t="n">
         <v>1.42</v>
@@ -15304,10 +15304,10 @@
         <v>13</v>
       </c>
       <c r="Y110" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z110" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AA110" t="n">
         <v>48</v>
@@ -15319,22 +15319,22 @@
         <v>7.4</v>
       </c>
       <c r="AD110" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE110" t="n">
         <v>40</v>
       </c>
       <c r="AF110" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG110" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH110" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI110" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ110" t="n">
         <v>75</v>
@@ -15385,10 +15385,10 @@
         <v>2.72</v>
       </c>
       <c r="G111" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H111" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="I111" t="n">
         <v>3</v>
@@ -15412,7 +15412,7 @@
         <v>1.37</v>
       </c>
       <c r="P111" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="Q111" t="n">
         <v>2.08</v>
@@ -15424,10 +15424,10 @@
         <v>3.85</v>
       </c>
       <c r="T111" t="n">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="U111" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="V111" t="n">
         <v>1.5</v>
@@ -15523,40 +15523,40 @@
         <v>3.5</v>
       </c>
       <c r="H112" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I112" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="J112" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K112" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L112" t="n">
         <v>1.01</v>
       </c>
       <c r="M112" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N112" t="n">
         <v>2.78</v>
       </c>
       <c r="O112" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P112" t="n">
         <v>1.59</v>
       </c>
       <c r="Q112" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="R112" t="n">
         <v>1.21</v>
       </c>
       <c r="S112" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="T112" t="n">
         <v>2.08</v>
@@ -15571,7 +15571,7 @@
         <v>1.4</v>
       </c>
       <c r="X112" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="Y112" t="n">
         <v>9.4</v>
@@ -15580,37 +15580,37 @@
         <v>19.5</v>
       </c>
       <c r="AA112" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB112" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC112" t="n">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD112" t="n">
         <v>15</v>
       </c>
       <c r="AE112" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AF112" t="n">
         <v>27</v>
       </c>
       <c r="AG112" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH112" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI112" t="n">
         <v>65</v>
       </c>
       <c r="AJ112" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK112" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AL112" t="n">
         <v>90</v>
@@ -15655,7 +15655,7 @@
         <v>7.8</v>
       </c>
       <c r="G113" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="H113" t="n">
         <v>1.4</v>
@@ -15664,19 +15664,19 @@
         <v>1.42</v>
       </c>
       <c r="J113" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="K113" t="n">
         <v>6.4</v>
       </c>
       <c r="L113" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M113" t="n">
         <v>1.02</v>
       </c>
       <c r="N113" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="O113" t="n">
         <v>1.14</v>
@@ -15712,7 +15712,7 @@
         <v>16.5</v>
       </c>
       <c r="Z113" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA113" t="n">
         <v>15</v>
@@ -15721,10 +15721,10 @@
         <v>46</v>
       </c>
       <c r="AC113" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AD113" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE113" t="n">
         <v>15.5</v>
@@ -15733,10 +15733,10 @@
         <v>90</v>
       </c>
       <c r="AG113" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AH113" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI113" t="n">
         <v>32</v>
@@ -15751,7 +15751,7 @@
         <v>85</v>
       </c>
       <c r="AM113" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AN113" t="n">
         <v>80</v>
@@ -15787,10 +15787,10 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G114" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H114" t="n">
         <v>3.2</v>
@@ -15802,7 +15802,7 @@
         <v>3.6</v>
       </c>
       <c r="K114" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="L114" t="n">
         <v>1.34</v>
@@ -15829,10 +15829,10 @@
         <v>2.8</v>
       </c>
       <c r="T114" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U114" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V114" t="n">
         <v>1.43</v>
@@ -15844,7 +15844,7 @@
         <v>18.5</v>
       </c>
       <c r="Y114" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z114" t="n">
         <v>24</v>
@@ -15889,10 +15889,10 @@
         <v>80</v>
       </c>
       <c r="AN114" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AO114" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115">
@@ -15922,7 +15922,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G115" t="n">
         <v>2.86</v>
@@ -15946,7 +15946,7 @@
         <v>1.08</v>
       </c>
       <c r="N115" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O115" t="n">
         <v>1.36</v>
@@ -15955,79 +15955,79 @@
         <v>1.83</v>
       </c>
       <c r="Q115" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="R115" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="S115" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="T115" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U115" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="V115" t="n">
         <v>1.51</v>
       </c>
       <c r="W115" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X115" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y115" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z115" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA115" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB115" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC115" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD115" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE115" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF115" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG115" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH115" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI115" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ115" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AK115" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL115" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM115" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN115" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO115" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="116">
@@ -16057,55 +16057,55 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G116" t="n">
         <v>2.2</v>
       </c>
       <c r="H116" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="I116" t="n">
         <v>3.95</v>
       </c>
       <c r="J116" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K116" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L116" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="M116" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N116" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="O116" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P116" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="R116" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="S116" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="T116" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="U116" t="n">
         <v>2.52</v>
       </c>
       <c r="V116" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W116" t="n">
         <v>1.83</v>
@@ -16114,7 +16114,7 @@
         <v>27</v>
       </c>
       <c r="Y116" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Z116" t="n">
         <v>34</v>
@@ -16123,10 +16123,10 @@
         <v>65</v>
       </c>
       <c r="AB116" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC116" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD116" t="n">
         <v>17.5</v>
@@ -16135,34 +16135,34 @@
         <v>38</v>
       </c>
       <c r="AF116" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG116" t="n">
         <v>12.5</v>
       </c>
       <c r="AH116" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI116" t="n">
         <v>40</v>
       </c>
       <c r="AJ116" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK116" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL116" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AM116" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AN116" t="n">
         <v>10.5</v>
       </c>
       <c r="AO116" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117">
@@ -16192,19 +16192,19 @@
         </is>
       </c>
       <c r="F117" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G117" t="n">
         <v>7.4</v>
-      </c>
-      <c r="G117" t="n">
-        <v>7.8</v>
       </c>
       <c r="H117" t="n">
         <v>1.56</v>
       </c>
       <c r="I117" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="J117" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K117" t="n">
         <v>4.5</v>
@@ -16234,16 +16234,16 @@
         <v>3.85</v>
       </c>
       <c r="T117" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="U117" t="n">
         <v>1.78</v>
       </c>
       <c r="V117" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="W117" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="X117" t="n">
         <v>13</v>
@@ -16381,25 +16381,25 @@
         <v>2.58</v>
       </c>
       <c r="X118" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Y118" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Z118" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA118" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AB118" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AC118" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD118" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE118" t="n">
         <v>70</v>
@@ -16408,22 +16408,22 @@
         <v>13.5</v>
       </c>
       <c r="AG118" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH118" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI118" t="n">
         <v>60</v>
       </c>
       <c r="AJ118" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AK118" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AL118" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AM118" t="n">
         <v>80</v>
@@ -16465,19 +16465,19 @@
         <v>3.2</v>
       </c>
       <c r="G119" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H119" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I119" t="n">
         <v>2.34</v>
       </c>
       <c r="J119" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K119" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L119" t="n">
         <v>1.29</v>
@@ -16492,16 +16492,16 @@
         <v>1.21</v>
       </c>
       <c r="P119" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q119" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R119" t="n">
         <v>1.56</v>
       </c>
       <c r="S119" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T119" t="n">
         <v>1.57</v>
@@ -16513,58 +16513,58 @@
         <v>1.74</v>
       </c>
       <c r="W119" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X119" t="n">
         <v>27</v>
       </c>
       <c r="Y119" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z119" t="n">
         <v>17.5</v>
       </c>
-      <c r="Z119" t="n">
-        <v>21</v>
-      </c>
       <c r="AA119" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AB119" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AC119" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD119" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE119" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AF119" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AG119" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AH119" t="n">
         <v>18</v>
       </c>
       <c r="AI119" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL119" t="n">
         <v>36</v>
       </c>
-      <c r="AJ119" t="n">
+      <c r="AM119" t="n">
         <v>60</v>
       </c>
-      <c r="AK119" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL119" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM119" t="n">
-        <v>75</v>
-      </c>
       <c r="AN119" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AO119" t="n">
         <v>16</v>
@@ -16600,10 +16600,10 @@
         <v>2.78</v>
       </c>
       <c r="G120" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="H120" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I120" t="n">
         <v>2.74</v>
@@ -16648,7 +16648,7 @@
         <v>1.57</v>
       </c>
       <c r="W120" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="X120" t="n">
         <v>18</v>
@@ -16732,112 +16732,112 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="G121" t="n">
         <v>2.12</v>
       </c>
       <c r="H121" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I121" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J121" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K121" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="L121" t="n">
         <v>1.36</v>
       </c>
       <c r="M121" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N121" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="O121" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P121" t="n">
-        <v>2.04</v>
+        <v>2.24</v>
       </c>
       <c r="Q121" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="R121" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="S121" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="T121" t="n">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="U121" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="V121" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W121" t="n">
         <v>1.89</v>
       </c>
       <c r="X121" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y121" t="n">
         <v>18.5</v>
       </c>
-      <c r="Y121" t="n">
-        <v>17</v>
-      </c>
       <c r="Z121" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA121" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB121" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG121" t="n">
         <v>11</v>
       </c>
-      <c r="AC121" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD121" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE121" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF121" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG121" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AH121" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI121" t="n">
         <v>55</v>
       </c>
       <c r="AJ121" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK121" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL121" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM121" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN121" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AO121" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="122">
@@ -16891,16 +16891,16 @@
         <v>1.06</v>
       </c>
       <c r="N122" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O122" t="n">
         <v>1.32</v>
       </c>
       <c r="P122" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q122" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="R122" t="n">
         <v>1.38</v>
@@ -16909,7 +16909,7 @@
         <v>3.4</v>
       </c>
       <c r="T122" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U122" t="n">
         <v>1.95</v>
@@ -16933,7 +16933,7 @@
         <v>15.5</v>
       </c>
       <c r="AB122" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC122" t="n">
         <v>9</v>
@@ -16963,7 +16963,7 @@
         <v>95</v>
       </c>
       <c r="AL122" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AM122" t="n">
         <v>140</v>
@@ -17011,7 +17011,7 @@
         <v>1.36</v>
       </c>
       <c r="I123" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="J123" t="n">
         <v>5.8</v>
@@ -17140,7 +17140,7 @@
         <v>1.37</v>
       </c>
       <c r="G124" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="H124" t="n">
         <v>10</v>
@@ -17149,7 +17149,7 @@
         <v>12</v>
       </c>
       <c r="J124" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K124" t="n">
         <v>5.5</v>
@@ -17158,16 +17158,16 @@
         <v>1.01</v>
       </c>
       <c r="M124" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N124" t="n">
-        <v>1.95</v>
+        <v>3.8</v>
       </c>
       <c r="O124" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P124" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="Q124" t="n">
         <v>1.86</v>
@@ -17179,10 +17179,10 @@
         <v>3.2</v>
       </c>
       <c r="T124" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="U124" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="V124" t="n">
         <v>1.09</v>
@@ -17275,13 +17275,13 @@
         <v>1.64</v>
       </c>
       <c r="G125" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="H125" t="n">
         <v>5.3</v>
       </c>
       <c r="I125" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J125" t="n">
         <v>4.1</v>
@@ -17290,19 +17290,19 @@
         <v>4.7</v>
       </c>
       <c r="L125" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M125" t="n">
         <v>1.04</v>
       </c>
       <c r="N125" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O125" t="n">
         <v>1.22</v>
       </c>
       <c r="P125" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q125" t="n">
         <v>1.76</v>
@@ -17311,28 +17311,28 @@
         <v>1.52</v>
       </c>
       <c r="S125" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="T125" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U125" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="V125" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W125" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="X125" t="n">
         <v>26</v>
       </c>
       <c r="Y125" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Z125" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA125" t="n">
         <v>170</v>
@@ -17341,7 +17341,7 @@
         <v>11</v>
       </c>
       <c r="AC125" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD125" t="n">
         <v>28</v>
@@ -17356,19 +17356,19 @@
         <v>11.5</v>
       </c>
       <c r="AH125" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI125" t="n">
         <v>65</v>
       </c>
       <c r="AJ125" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK125" t="n">
         <v>19.5</v>
       </c>
       <c r="AL125" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM125" t="n">
         <v>110</v>
@@ -17443,28 +17443,28 @@
         <v>1.92</v>
       </c>
       <c r="R126" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="S126" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T126" t="n">
         <v>2.24</v>
       </c>
       <c r="U126" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="V126" t="n">
         <v>1.08</v>
       </c>
       <c r="W126" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="X126" t="n">
         <v>21</v>
       </c>
       <c r="Y126" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Z126" t="n">
         <v>130</v>
@@ -17473,10 +17473,10 @@
         <v>1000</v>
       </c>
       <c r="AB126" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC126" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD126" t="n">
         <v>50</v>
@@ -17491,7 +17491,7 @@
         <v>11.5</v>
       </c>
       <c r="AH126" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AI126" t="n">
         <v>220</v>
@@ -17509,7 +17509,7 @@
         <v>250</v>
       </c>
       <c r="AN126" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="AO126" t="n">
         <v>450</v>
@@ -17581,7 +17581,7 @@
         <v>1.63</v>
       </c>
       <c r="S127" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="T127" t="n">
         <v>2</v>
@@ -17599,7 +17599,7 @@
         <v>34</v>
       </c>
       <c r="Y127" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Z127" t="n">
         <v>1000</v>
@@ -17620,13 +17620,13 @@
         <v>1000</v>
       </c>
       <c r="AF127" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG127" t="n">
         <v>970</v>
       </c>
       <c r="AH127" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AI127" t="n">
         <v>1000</v>
@@ -17677,58 +17677,58 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G128" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="H128" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I128" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="J128" t="n">
         <v>3.4</v>
       </c>
       <c r="K128" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L128" t="n">
         <v>1.01</v>
       </c>
       <c r="M128" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N128" t="n">
-        <v>1.87</v>
+        <v>3.75</v>
       </c>
       <c r="O128" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P128" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="Q128" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R128" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="S128" t="n">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="T128" t="n">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="U128" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="V128" t="n">
         <v>1.35</v>
       </c>
       <c r="W128" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="X128" t="n">
         <v>16</v>
@@ -17746,7 +17746,7 @@
         <v>11</v>
       </c>
       <c r="AC128" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AD128" t="n">
         <v>15.5</v>
@@ -17821,103 +17821,103 @@
         <v>4.1</v>
       </c>
       <c r="I129" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="J129" t="n">
         <v>3.1</v>
       </c>
       <c r="K129" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L129" t="n">
         <v>1.01</v>
       </c>
       <c r="M129" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N129" t="n">
-        <v>1.6</v>
+        <v>2.78</v>
       </c>
       <c r="O129" t="n">
-        <v>1.06</v>
+        <v>1.46</v>
       </c>
       <c r="P129" t="n">
         <v>1.6</v>
       </c>
       <c r="Q129" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="R129" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="S129" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="T129" t="n">
-        <v>1.76</v>
+        <v>2</v>
       </c>
       <c r="U129" t="n">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="V129" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W129" t="n">
         <v>1.78</v>
       </c>
       <c r="X129" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y129" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z129" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA129" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB129" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AC129" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD129" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE129" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF129" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG129" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH129" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI129" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ129" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK129" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL129" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM129" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN129" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO129" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-17.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="G2" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="H2" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="I2" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="J2" t="n">
         <v>4.2</v>
       </c>
       <c r="K2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L2" t="n">
         <v>1.38</v>
@@ -697,55 +697,55 @@
         <v>1.28</v>
       </c>
       <c r="P2" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S2" t="n">
         <v>3.15</v>
       </c>
       <c r="T2" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U2" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="W2" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="X2" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA2" t="n">
         <v>17.5</v>
       </c>
-      <c r="Y2" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>19</v>
-      </c>
       <c r="AB2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE2" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AG2" t="n">
         <v>22</v>
@@ -754,25 +754,25 @@
         <v>20</v>
       </c>
       <c r="AI2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ2" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AK2" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL2" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM2" t="n">
         <v>110</v>
       </c>
       <c r="AN2" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AO2" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="3">
@@ -895,13 +895,13 @@
         <v>34</v>
       </c>
       <c r="AK3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL3" t="n">
         <v>23</v>
       </c>
       <c r="AM3" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AN3" t="n">
         <v>8.4</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H4" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="I4" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="J4" t="n">
         <v>3.7</v>
@@ -967,13 +967,13 @@
         <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q4" t="n">
         <v>1.88</v>
       </c>
       <c r="R4" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S4" t="n">
         <v>3.2</v>
@@ -982,13 +982,13 @@
         <v>1.73</v>
       </c>
       <c r="U4" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="V4" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="W4" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="X4" t="n">
         <v>15</v>
@@ -1006,7 +1006,7 @@
         <v>14.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
         <v>11</v>
@@ -1015,10 +1015,10 @@
         <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH4" t="n">
         <v>17</v>
@@ -1042,7 +1042,7 @@
         <v>34</v>
       </c>
       <c r="AO4" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="5">
@@ -1081,19 +1081,19 @@
         <v>2.26</v>
       </c>
       <c r="I5" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
         <v>5.2</v>
@@ -1105,16 +1105,16 @@
         <v>2.42</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R5" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S5" t="n">
         <v>2.38</v>
       </c>
       <c r="T5" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="U5" t="n">
         <v>2.52</v>
@@ -1129,10 +1129,10 @@
         <v>26</v>
       </c>
       <c r="Y5" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Z5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA5" t="n">
         <v>34</v>
@@ -1144,25 +1144,25 @@
         <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AF5" t="n">
         <v>28</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AH5" t="n">
         <v>17</v>
       </c>
       <c r="AI5" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ5" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
@@ -1174,10 +1174,10 @@
         <v>60</v>
       </c>
       <c r="AN5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="6">
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="G6" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H6" t="n">
         <v>6.2</v>
@@ -1243,7 +1243,7 @@
         <v>1.43</v>
       </c>
       <c r="R6" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="S6" t="n">
         <v>2.04</v>
@@ -1258,37 +1258,37 @@
         <v>1.15</v>
       </c>
       <c r="W6" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="X6" t="n">
         <v>42</v>
       </c>
       <c r="Y6" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="Z6" t="n">
         <v>70</v>
       </c>
       <c r="AA6" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AB6" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AD6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE6" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AF6" t="n">
         <v>13</v>
       </c>
       <c r="AG6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
         <v>24</v>
@@ -1297,16 +1297,16 @@
         <v>980</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL6" t="n">
         <v>32</v>
       </c>
       <c r="AM6" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AN6" t="n">
         <v>4.9</v>
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="G7" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H7" t="n">
-        <v>2.36</v>
+        <v>2.18</v>
       </c>
       <c r="I7" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="J7" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="O7" t="n">
         <v>1.21</v>
       </c>
       <c r="P7" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="R7" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="S7" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="T7" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="U7" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="V7" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="X7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y7" t="n">
         <v>14.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AB7" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD7" t="n">
         <v>11.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF7" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AG7" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH7" t="n">
         <v>15</v>
       </c>
       <c r="AI7" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AJ7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK7" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AL7" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM7" t="n">
         <v>60</v>
       </c>
       <c r="AN7" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AO7" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="8">
@@ -1498,16 +1498,16 @@
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="O8" t="n">
         <v>1.08</v>
       </c>
       <c r="P8" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="Q8" t="n">
         <v>1.33</v>
@@ -1516,7 +1516,7 @@
         <v>1.96</v>
       </c>
       <c r="S8" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T8" t="n">
         <v>1.05</v>
@@ -1528,7 +1528,7 @@
         <v>2.6</v>
       </c>
       <c r="W8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="X8" t="n">
         <v>970</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G10" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H10" t="n">
         <v>1.14</v>
@@ -1762,7 +1762,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H11" t="n">
         <v>2.72</v>
       </c>
-      <c r="G11" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.74</v>
-      </c>
       <c r="I11" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J11" t="n">
         <v>3.15</v>
       </c>
       <c r="K11" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1906,25 +1906,25 @@
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O11" t="n">
         <v>1.39</v>
       </c>
       <c r="P11" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R11" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="T11" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U11" t="n">
         <v>1.98</v>
@@ -1933,7 +1933,7 @@
         <v>1.48</v>
       </c>
       <c r="W11" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="X11" t="n">
         <v>14</v>
@@ -1957,7 +1957,7 @@
         <v>15.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF11" t="n">
         <v>23</v>
@@ -1966,7 +1966,7 @@
         <v>15.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
         <v>65</v>
@@ -1975,19 +1975,19 @@
         <v>60</v>
       </c>
       <c r="AK11" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL11" t="n">
         <v>65</v>
       </c>
       <c r="AM11" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN11" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AO11" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G12" t="n">
         <v>1.8</v>
@@ -2026,7 +2026,7 @@
         <v>5.4</v>
       </c>
       <c r="I12" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J12" t="n">
         <v>3.65</v>
@@ -2035,7 +2035,7 @@
         <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
@@ -2074,13 +2074,13 @@
         <v>13</v>
       </c>
       <c r="Y12" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Z12" t="n">
         <v>60</v>
       </c>
       <c r="AA12" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AB12" t="n">
         <v>11</v>
@@ -2092,7 +2092,7 @@
         <v>24</v>
       </c>
       <c r="AE12" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AF12" t="n">
         <v>10</v>
@@ -2119,7 +2119,7 @@
         <v>160</v>
       </c>
       <c r="AN12" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AO12" t="n">
         <v>130</v>
@@ -2194,7 +2194,7 @@
         <v>3.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.81</v>
+        <v>1.05</v>
       </c>
       <c r="U13" t="n">
         <v>1.73</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="G14" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H14" t="n">
         <v>2.1</v>
@@ -2299,7 +2299,7 @@
         <v>2.34</v>
       </c>
       <c r="J14" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K14" t="n">
         <v>3.5</v>
@@ -2311,34 +2311,34 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="O14" t="n">
         <v>1.01</v>
       </c>
       <c r="P14" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="R14" t="n">
         <v>1.2</v>
       </c>
       <c r="S14" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T14" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U14" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="V14" t="n">
         <v>1.74</v>
       </c>
       <c r="W14" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X14" t="n">
         <v>970</v>
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G15" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H15" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I15" t="n">
         <v>4.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K15" t="n">
         <v>6.8</v>
@@ -2572,7 +2572,7 @@
         <v>3.1</v>
       </c>
       <c r="K16" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L16" t="n">
         <v>1.32</v>
@@ -2602,7 +2602,7 @@
         <v>1.59</v>
       </c>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V16" t="n">
         <v>1.35</v>
@@ -2629,7 +2629,7 @@
         <v>10</v>
       </c>
       <c r="AD16" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AE16" t="n">
         <v>48</v>
@@ -2662,7 +2662,7 @@
         <v>21</v>
       </c>
       <c r="AO16" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G17" t="n">
         <v>1000</v>
       </c>
       <c r="H17" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="I17" t="n">
         <v>1.66</v>
       </c>
       <c r="J17" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="K17" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2725,7 +2725,7 @@
         <v>1.24</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="R17" t="n">
         <v>1.18</v>
@@ -2734,13 +2734,13 @@
         <v>1.26</v>
       </c>
       <c r="T17" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U17" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V17" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="W17" t="n">
         <v>1.04</v>
@@ -2758,28 +2758,28 @@
         <v>26</v>
       </c>
       <c r="AB17" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AC17" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AD17" t="n">
         <v>30</v>
       </c>
       <c r="AE17" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AF17" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="AG17" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="AH17" t="n">
-        <v>460</v>
+        <v>320</v>
       </c>
       <c r="AI17" t="n">
-        <v>910</v>
+        <v>650</v>
       </c>
       <c r="AJ17" t="n">
         <v>1000</v>
@@ -2839,7 +2839,7 @@
         <v>1000</v>
       </c>
       <c r="J18" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K18" t="n">
         <v>1000</v>
@@ -2869,10 +2869,10 @@
         <v>1.36</v>
       </c>
       <c r="T18" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U18" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V18" t="n">
         <v>1.01</v>
@@ -2881,10 +2881,10 @@
         <v>1.01</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z18" t="n">
         <v>1000</v>
@@ -2893,13 +2893,13 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
@@ -2908,10 +2908,10 @@
         <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
@@ -2986,7 +2986,7 @@
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="O19" t="n">
         <v>1.01</v>
@@ -3001,13 +3001,13 @@
         <v>1.18</v>
       </c>
       <c r="S19" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="T19" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U19" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V19" t="n">
         <v>1.01</v>
@@ -3016,10 +3016,10 @@
         <v>1.01</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z19" t="n">
         <v>1000</v>
@@ -3028,13 +3028,13 @@
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE19" t="n">
         <v>1000</v>
@@ -3043,10 +3043,10 @@
         <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI19" t="n">
         <v>1000</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="G20" t="n">
         <v>3.4</v>
@@ -3106,10 +3106,10 @@
         <v>2.28</v>
       </c>
       <c r="I20" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="J20" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K20" t="n">
         <v>3.8</v>
@@ -3127,10 +3127,10 @@
         <v>1.27</v>
       </c>
       <c r="P20" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R20" t="n">
         <v>1.45</v>
@@ -3145,25 +3145,25 @@
         <v>2.34</v>
       </c>
       <c r="V20" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="W20" t="n">
         <v>1.41</v>
       </c>
       <c r="X20" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y20" t="n">
         <v>11.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AA20" t="n">
         <v>29</v>
       </c>
       <c r="AB20" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC20" t="n">
         <v>8.6</v>
@@ -3181,7 +3181,7 @@
         <v>14.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI20" t="n">
         <v>34</v>
@@ -3199,10 +3199,10 @@
         <v>80</v>
       </c>
       <c r="AN20" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AO20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -3232,19 +3232,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="G21" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H21" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I21" t="n">
         <v>3.9</v>
       </c>
       <c r="J21" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K21" t="n">
         <v>4</v>
@@ -3256,34 +3256,34 @@
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O21" t="n">
         <v>1.21</v>
       </c>
       <c r="P21" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="R21" t="n">
         <v>1.59</v>
       </c>
       <c r="S21" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="T21" t="n">
         <v>1.57</v>
       </c>
       <c r="U21" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="V21" t="n">
         <v>1.34</v>
       </c>
       <c r="W21" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="X21" t="n">
         <v>21</v>
@@ -3301,7 +3301,7 @@
         <v>13.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD21" t="n">
         <v>16</v>
@@ -3337,7 +3337,7 @@
         <v>10.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -3367,19 +3367,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G22" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H22" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I22" t="n">
         <v>4.2</v>
       </c>
       <c r="J22" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K22" t="n">
         <v>3.8</v>
@@ -3394,13 +3394,13 @@
         <v>4.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P22" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R22" t="n">
         <v>1.5</v>
@@ -3418,7 +3418,7 @@
         <v>1.31</v>
       </c>
       <c r="W22" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X22" t="n">
         <v>21</v>
@@ -3445,7 +3445,7 @@
         <v>44</v>
       </c>
       <c r="AF22" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG22" t="n">
         <v>10.5</v>
@@ -3454,10 +3454,10 @@
         <v>15.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK22" t="n">
         <v>20</v>
@@ -3472,7 +3472,7 @@
         <v>12</v>
       </c>
       <c r="AO22" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
@@ -3520,13 +3520,13 @@
         <v>4.6</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M23" t="n">
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>1.87</v>
+        <v>2.96</v>
       </c>
       <c r="O23" t="n">
         <v>1.28</v>
@@ -3544,10 +3544,10 @@
         <v>2.68</v>
       </c>
       <c r="T23" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U23" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V23" t="n">
         <v>1.43</v>
@@ -3556,10 +3556,10 @@
         <v>1.39</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z23" t="n">
         <v>1000</v>
@@ -3568,13 +3568,13 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
@@ -3583,10 +3583,10 @@
         <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI23" t="n">
         <v>1000</v>
@@ -3643,7 +3643,7 @@
         <v>2.12</v>
       </c>
       <c r="H24" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I24" t="n">
         <v>4.5</v>
@@ -3652,7 +3652,7 @@
         <v>3.25</v>
       </c>
       <c r="K24" t="n">
-        <v>4.1</v>
+        <v>5.2</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3661,7 +3661,7 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>1.87</v>
+        <v>2.7</v>
       </c>
       <c r="O24" t="n">
         <v>1.27</v>
@@ -3679,10 +3679,10 @@
         <v>2.86</v>
       </c>
       <c r="T24" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U24" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V24" t="n">
         <v>1.29</v>
@@ -3799,16 +3799,16 @@
         <v>6.4</v>
       </c>
       <c r="O25" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P25" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R25" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="S25" t="n">
         <v>2.32</v>
@@ -3817,31 +3817,31 @@
         <v>1.51</v>
       </c>
       <c r="U25" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="V25" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="W25" t="n">
         <v>1.35</v>
       </c>
       <c r="X25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y25" t="n">
         <v>15.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB25" t="n">
         <v>23</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD25" t="n">
         <v>10.5</v>
@@ -3853,13 +3853,13 @@
         <v>32</v>
       </c>
       <c r="AG25" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH25" t="n">
         <v>14</v>
       </c>
       <c r="AI25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ25" t="n">
         <v>70</v>
@@ -3871,13 +3871,13 @@
         <v>34</v>
       </c>
       <c r="AM25" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AN25" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO25" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -3910,16 +3910,16 @@
         <v>2.34</v>
       </c>
       <c r="G26" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H26" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="I26" t="n">
         <v>3.2</v>
       </c>
       <c r="J26" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K26" t="n">
         <v>4.1</v>
@@ -3958,7 +3958,7 @@
         <v>1.46</v>
       </c>
       <c r="W26" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G27" t="n">
         <v>2.1</v>
@@ -4060,7 +4060,7 @@
         <v>4.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M27" t="n">
         <v>1.01</v>
@@ -4078,16 +4078,16 @@
         <v>1.8</v>
       </c>
       <c r="R27" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S27" t="n">
-        <v>1.8</v>
+        <v>2.52</v>
       </c>
       <c r="T27" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U27" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V27" t="n">
         <v>1.27</v>
@@ -4180,19 +4180,19 @@
         <v>1.04</v>
       </c>
       <c r="G28" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="H28" t="n">
         <v>1.04</v>
       </c>
       <c r="I28" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="J28" t="n">
         <v>1.02</v>
       </c>
       <c r="K28" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
@@ -4216,13 +4216,13 @@
         <v>1.12</v>
       </c>
       <c r="S28" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="T28" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U28" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V28" t="n">
         <v>1.01</v>
@@ -4315,19 +4315,19 @@
         <v>1.04</v>
       </c>
       <c r="G29" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="H29" t="n">
         <v>1.04</v>
       </c>
       <c r="I29" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="J29" t="n">
         <v>1.02</v>
       </c>
       <c r="K29" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
@@ -4351,13 +4351,13 @@
         <v>1.12</v>
       </c>
       <c r="S29" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="T29" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U29" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V29" t="n">
         <v>1.01</v>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="G30" t="n">
         <v>2.8</v>
@@ -4456,10 +4456,10 @@
         <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J30" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K30" t="n">
         <v>3.2</v>
@@ -4474,16 +4474,16 @@
         <v>3</v>
       </c>
       <c r="O30" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P30" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="R30" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S30" t="n">
         <v>4.2</v>
@@ -4492,22 +4492,22 @@
         <v>1.9</v>
       </c>
       <c r="U30" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V30" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W30" t="n">
         <v>1.55</v>
       </c>
       <c r="X30" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y30" t="n">
         <v>11</v>
       </c>
       <c r="Z30" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AA30" t="n">
         <v>60</v>
@@ -4522,7 +4522,7 @@
         <v>14.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AF30" t="n">
         <v>20</v>
@@ -4531,13 +4531,13 @@
         <v>13.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI30" t="n">
         <v>60</v>
       </c>
       <c r="AJ30" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK30" t="n">
         <v>980</v>
@@ -4549,7 +4549,7 @@
         <v>150</v>
       </c>
       <c r="AN30" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AO30" t="n">
         <v>55</v>
@@ -4582,25 +4582,25 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="G31" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="H31" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="I31" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="J31" t="n">
         <v>10</v>
       </c>
       <c r="K31" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="L31" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="M31" t="n">
         <v>1.01</v>
@@ -4612,19 +4612,19 @@
         <v>1.1</v>
       </c>
       <c r="P31" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="R31" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="S31" t="n">
         <v>1.8</v>
       </c>
       <c r="T31" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U31" t="n">
         <v>2</v>
@@ -4633,10 +4633,10 @@
         <v>1.05</v>
       </c>
       <c r="W31" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="X31" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Y31" t="n">
         <v>85</v>
@@ -4663,7 +4663,7 @@
         <v>10.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH31" t="n">
         <v>40</v>
@@ -4672,13 +4672,13 @@
         <v>160</v>
       </c>
       <c r="AJ31" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AK31" t="n">
         <v>12.5</v>
       </c>
       <c r="AL31" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM31" t="n">
         <v>150</v>
@@ -4717,10 +4717,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="G32" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="H32" t="n">
         <v>1.81</v>
@@ -4732,7 +4732,7 @@
         <v>3.4</v>
       </c>
       <c r="K32" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
@@ -4741,34 +4741,34 @@
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>2.08</v>
+        <v>4.2</v>
       </c>
       <c r="O32" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P32" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="R32" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S32" t="n">
         <v>2.56</v>
       </c>
       <c r="T32" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="U32" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V32" t="n">
         <v>2</v>
       </c>
       <c r="W32" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
@@ -4855,19 +4855,19 @@
         <v>1.04</v>
       </c>
       <c r="G33" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="H33" t="n">
         <v>1.04</v>
       </c>
       <c r="I33" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="J33" t="n">
         <v>1.02</v>
       </c>
       <c r="K33" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
@@ -4891,13 +4891,13 @@
         <v>1.12</v>
       </c>
       <c r="S33" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="T33" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U33" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V33" t="n">
         <v>1.01</v>
@@ -5011,16 +5011,16 @@
         <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="O34" t="n">
         <v>1.19</v>
       </c>
       <c r="P34" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R34" t="n">
         <v>1.09</v>
@@ -5125,10 +5125,10 @@
         <v>2.6</v>
       </c>
       <c r="G35" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="H35" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I35" t="n">
         <v>3.3</v>
@@ -5137,34 +5137,34 @@
         <v>3.1</v>
       </c>
       <c r="K35" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L35" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="M35" t="n">
         <v>1.1</v>
       </c>
       <c r="N35" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="O35" t="n">
         <v>1.45</v>
       </c>
       <c r="P35" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="R35" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S35" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="T35" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="U35" t="n">
         <v>1.86</v>
@@ -5173,16 +5173,16 @@
         <v>1.43</v>
       </c>
       <c r="W35" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="X35" t="n">
         <v>1000</v>
       </c>
       <c r="Y35" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="Z35" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AA35" t="n">
         <v>65</v>
@@ -5200,7 +5200,7 @@
         <v>980</v>
       </c>
       <c r="AF35" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AG35" t="n">
         <v>14.5</v>
@@ -5224,10 +5224,10 @@
         <v>150</v>
       </c>
       <c r="AN35" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AO35" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36">
@@ -5263,19 +5263,19 @@
         <v>2.62</v>
       </c>
       <c r="H36" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I36" t="n">
         <v>3.6</v>
       </c>
       <c r="J36" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K36" t="n">
         <v>3.2</v>
       </c>
       <c r="L36" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M36" t="n">
         <v>1.08</v>
@@ -5284,10 +5284,10 @@
         <v>3.05</v>
       </c>
       <c r="O36" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P36" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q36" t="n">
         <v>2.28</v>
@@ -5311,25 +5311,25 @@
         <v>1.62</v>
       </c>
       <c r="X36" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z36" t="n">
         <v>28</v>
       </c>
       <c r="AA36" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB36" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD36" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE36" t="n">
         <v>60</v>
@@ -5392,13 +5392,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G37" t="n">
         <v>3.2</v>
       </c>
       <c r="H37" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="I37" t="n">
         <v>3.25</v>
@@ -5407,7 +5407,7 @@
         <v>3.2</v>
       </c>
       <c r="K37" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -5416,16 +5416,16 @@
         <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>2.08</v>
+        <v>1.02</v>
       </c>
       <c r="O37" t="n">
         <v>1.23</v>
       </c>
       <c r="P37" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R37" t="n">
         <v>1.16</v>
@@ -5533,7 +5533,7 @@
         <v>2.26</v>
       </c>
       <c r="H38" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I38" t="n">
         <v>4.8</v>
@@ -5704,7 +5704,7 @@
         <v>2.24</v>
       </c>
       <c r="T39" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="U39" t="n">
         <v>2.48</v>
@@ -5797,22 +5797,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="G40" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="H40" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="I40" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="J40" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K40" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
@@ -5821,7 +5821,7 @@
         <v>1.05</v>
       </c>
       <c r="N40" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="O40" t="n">
         <v>1.23</v>
@@ -5830,7 +5830,7 @@
         <v>2.2</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R40" t="n">
         <v>1.19</v>
@@ -5839,16 +5839,16 @@
         <v>1.7</v>
       </c>
       <c r="T40" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="U40" t="n">
         <v>2.4</v>
       </c>
       <c r="V40" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="W40" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="X40" t="n">
         <v>21</v>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="G41" t="n">
         <v>3.8</v>
@@ -5953,37 +5953,37 @@
         <v>1.43</v>
       </c>
       <c r="M41" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N41" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O41" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P41" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R41" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="S41" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="T41" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="U41" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="V41" t="n">
         <v>1.79</v>
       </c>
       <c r="W41" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X41" t="n">
         <v>1000</v>
@@ -5992,16 +5992,16 @@
         <v>9.4</v>
       </c>
       <c r="Z41" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA41" t="n">
         <v>980</v>
       </c>
       <c r="AB41" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC41" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD41" t="n">
         <v>13</v>
@@ -6091,7 +6091,7 @@
         <v>1.05</v>
       </c>
       <c r="N42" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O42" t="n">
         <v>1.28</v>
@@ -6100,7 +6100,7 @@
         <v>2.1</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R42" t="n">
         <v>1.36</v>
@@ -6205,22 +6205,22 @@
         <v>1.67</v>
       </c>
       <c r="G43" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="H43" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I43" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J43" t="n">
         <v>3.35</v>
       </c>
       <c r="K43" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L43" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M43" t="n">
         <v>1.1</v>
@@ -6241,7 +6241,7 @@
         <v>1.2</v>
       </c>
       <c r="S43" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T43" t="n">
         <v>2.16</v>
@@ -6250,22 +6250,22 @@
         <v>1.65</v>
       </c>
       <c r="V43" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W43" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="X43" t="n">
         <v>12.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z43" t="n">
         <v>60</v>
       </c>
       <c r="AA43" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AB43" t="n">
         <v>7.4</v>
@@ -6286,16 +6286,16 @@
         <v>13</v>
       </c>
       <c r="AH43" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AI43" t="n">
         <v>160</v>
       </c>
       <c r="AJ43" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK43" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL43" t="n">
         <v>70</v>
@@ -6304,10 +6304,10 @@
         <v>280</v>
       </c>
       <c r="AN43" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO43" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44">
@@ -6337,58 +6337,58 @@
         </is>
       </c>
       <c r="F44" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G44" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K44" t="n">
         <v>3.7</v>
       </c>
-      <c r="G44" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K44" t="n">
-        <v>3.95</v>
-      </c>
       <c r="L44" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M44" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N44" t="n">
-        <v>2.94</v>
+        <v>3.2</v>
       </c>
       <c r="O44" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="P44" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.12</v>
+        <v>1.92</v>
       </c>
       <c r="R44" t="n">
         <v>1.2</v>
       </c>
       <c r="S44" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="T44" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="U44" t="n">
-        <v>1.61</v>
+        <v>1.78</v>
       </c>
       <c r="V44" t="n">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="W44" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="X44" t="n">
         <v>1000</v>
@@ -6427,19 +6427,19 @@
         <v>60</v>
       </c>
       <c r="AJ44" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AK44" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AL44" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AM44" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN44" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AO44" t="n">
         <v>980</v>
@@ -6472,16 +6472,16 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="G45" t="n">
         <v>2.18</v>
       </c>
       <c r="H45" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I45" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J45" t="n">
         <v>3.3</v>
@@ -6520,7 +6520,7 @@
         <v>1.93</v>
       </c>
       <c r="V45" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W45" t="n">
         <v>1.84</v>
@@ -6610,34 +6610,34 @@
         <v>2.6</v>
       </c>
       <c r="G46" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="H46" t="n">
         <v>3</v>
       </c>
       <c r="I46" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J46" t="n">
-        <v>2.88</v>
+        <v>2.68</v>
       </c>
       <c r="K46" t="n">
         <v>3.3</v>
       </c>
       <c r="L46" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M46" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N46" t="n">
-        <v>2.5</v>
+        <v>2.24</v>
       </c>
       <c r="O46" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="P46" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="Q46" t="n">
         <v>2.58</v>
@@ -6646,7 +6646,7 @@
         <v>1.18</v>
       </c>
       <c r="S46" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="T46" t="n">
         <v>1.92</v>
@@ -6655,7 +6655,7 @@
         <v>1.7</v>
       </c>
       <c r="V46" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W46" t="n">
         <v>1.52</v>
@@ -6817,7 +6817,7 @@
         <v>12.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AF47" t="n">
         <v>28</v>
@@ -6877,16 +6877,16 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="G48" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I48" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="J48" t="n">
         <v>3.4</v>
@@ -6901,19 +6901,19 @@
         <v>1.1</v>
       </c>
       <c r="N48" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="O48" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="P48" t="n">
         <v>1.65</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R48" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S48" t="n">
         <v>4.5</v>
@@ -6925,10 +6925,10 @@
         <v>1.83</v>
       </c>
       <c r="V48" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="W48" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X48" t="n">
         <v>11.5</v>
@@ -6937,7 +6937,7 @@
         <v>14</v>
       </c>
       <c r="Z48" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA48" t="n">
         <v>140</v>
@@ -6949,10 +6949,10 @@
         <v>8</v>
       </c>
       <c r="AD48" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE48" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AF48" t="n">
         <v>10.5</v>
@@ -6970,7 +6970,7 @@
         <v>24</v>
       </c>
       <c r="AK48" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL48" t="n">
         <v>55</v>
@@ -6979,10 +6979,10 @@
         <v>180</v>
       </c>
       <c r="AN48" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO48" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49">
@@ -7012,16 +7012,16 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="G49" t="n">
         <v>1.54</v>
       </c>
       <c r="H49" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="I49" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J49" t="n">
         <v>4.8</v>
@@ -7045,13 +7045,13 @@
         <v>2.2</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R49" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="S49" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="T49" t="n">
         <v>1.9</v>
@@ -7060,7 +7060,7 @@
         <v>1.98</v>
       </c>
       <c r="V49" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W49" t="n">
         <v>2.88</v>
@@ -7150,13 +7150,13 @@
         <v>1.87</v>
       </c>
       <c r="G50" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="H50" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I50" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="J50" t="n">
         <v>3.5</v>
@@ -7180,13 +7180,13 @@
         <v>1.91</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="R50" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S50" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T50" t="n">
         <v>1.84</v>
@@ -7195,10 +7195,10 @@
         <v>2.04</v>
       </c>
       <c r="V50" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W50" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X50" t="n">
         <v>15</v>
@@ -7225,10 +7225,10 @@
         <v>65</v>
       </c>
       <c r="AF50" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG50" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH50" t="n">
         <v>20</v>
@@ -7444,13 +7444,13 @@
         <v>3.4</v>
       </c>
       <c r="O52" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P52" t="n">
         <v>1.81</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R52" t="n">
         <v>1.3</v>
@@ -7462,7 +7462,7 @@
         <v>1.79</v>
       </c>
       <c r="U52" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V52" t="n">
         <v>1.37</v>
@@ -7552,13 +7552,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="G53" t="n">
         <v>2.5</v>
       </c>
       <c r="H53" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I53" t="n">
         <v>3.9</v>
@@ -7585,13 +7585,13 @@
         <v>1.64</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R53" t="n">
         <v>1.24</v>
       </c>
       <c r="S53" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="T53" t="n">
         <v>1.99</v>
@@ -7606,13 +7606,13 @@
         <v>1.66</v>
       </c>
       <c r="X53" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y53" t="n">
         <v>12.5</v>
       </c>
       <c r="Z53" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA53" t="n">
         <v>90</v>
@@ -7624,13 +7624,13 @@
         <v>7.2</v>
       </c>
       <c r="AD53" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE53" t="n">
         <v>65</v>
       </c>
       <c r="AF53" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG53" t="n">
         <v>13.5</v>
@@ -7642,7 +7642,7 @@
         <v>85</v>
       </c>
       <c r="AJ53" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK53" t="n">
         <v>36</v>
@@ -7654,10 +7654,10 @@
         <v>170</v>
       </c>
       <c r="AN53" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AO53" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54">
@@ -7687,10 +7687,10 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="G54" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="H54" t="n">
         <v>6.8</v>
@@ -7699,7 +7699,7 @@
         <v>7.8</v>
       </c>
       <c r="J54" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K54" t="n">
         <v>4.6</v>
@@ -7711,46 +7711,46 @@
         <v>1.06</v>
       </c>
       <c r="N54" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O54" t="n">
         <v>1.3</v>
       </c>
       <c r="P54" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R54" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S54" t="n">
         <v>3.3</v>
       </c>
       <c r="T54" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="U54" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="V54" t="n">
         <v>1.15</v>
       </c>
       <c r="W54" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="X54" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y54" t="n">
         <v>28</v>
       </c>
       <c r="Z54" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AA54" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AB54" t="n">
         <v>9.4</v>
@@ -7759,7 +7759,7 @@
         <v>10.5</v>
       </c>
       <c r="AD54" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE54" t="n">
         <v>140</v>
@@ -7768,22 +7768,22 @@
         <v>10.5</v>
       </c>
       <c r="AG54" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH54" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI54" t="n">
         <v>130</v>
       </c>
       <c r="AJ54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK54" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL54" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM54" t="n">
         <v>170</v>
@@ -7822,19 +7822,19 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.44</v>
+        <v>2.62</v>
       </c>
       <c r="G55" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="H55" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J55" t="n">
         <v>3.2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3.1</v>
       </c>
       <c r="K55" t="n">
         <v>3.3</v>
@@ -7843,91 +7843,91 @@
         <v>1.01</v>
       </c>
       <c r="M55" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N55" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="O55" t="n">
         <v>1.35</v>
       </c>
       <c r="P55" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="R55" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="S55" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="T55" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U55" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V55" t="n">
         <v>1.45</v>
       </c>
       <c r="W55" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="X55" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y55" t="n">
         <v>12</v>
       </c>
-      <c r="Y55" t="n">
-        <v>15</v>
-      </c>
       <c r="Z55" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AA55" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AB55" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC55" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AD55" t="n">
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE55" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI55" t="n">
         <v>48</v>
       </c>
-      <c r="AF55" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>65</v>
-      </c>
       <c r="AJ55" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AK55" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL55" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AM55" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN55" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AO55" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56">
@@ -7972,7 +7972,7 @@
         <v>5</v>
       </c>
       <c r="K56" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L56" t="n">
         <v>1.35</v>
@@ -7996,13 +7996,13 @@
         <v>1.47</v>
       </c>
       <c r="S56" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T56" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U56" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V56" t="n">
         <v>3.1</v>
@@ -8011,7 +8011,7 @@
         <v>1.13</v>
       </c>
       <c r="X56" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y56" t="n">
         <v>8.6</v>
@@ -8098,7 +8098,7 @@
         <v>26</v>
       </c>
       <c r="H57" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="I57" t="n">
         <v>1.58</v>
@@ -8107,7 +8107,7 @@
         <v>4.3</v>
       </c>
       <c r="K57" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="L57" t="n">
         <v>1.01</v>
@@ -8254,19 +8254,19 @@
         <v>3.45</v>
       </c>
       <c r="O58" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P58" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="R58" t="n">
         <v>1.31</v>
       </c>
       <c r="S58" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T58" t="n">
         <v>1.84</v>
@@ -8371,7 +8371,7 @@
         <v>2.14</v>
       </c>
       <c r="I59" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="J59" t="n">
         <v>2.92</v>
@@ -8410,7 +8410,7 @@
         <v>1.01</v>
       </c>
       <c r="V59" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W59" t="n">
         <v>1.33</v>
@@ -8530,7 +8530,7 @@
         <v>2.9</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R60" t="n">
         <v>1.78</v>
@@ -8542,7 +8542,7 @@
         <v>1.47</v>
       </c>
       <c r="U60" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="V60" t="n">
         <v>1.5</v>
@@ -8551,7 +8551,7 @@
         <v>1.7</v>
       </c>
       <c r="X60" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Y60" t="n">
         <v>21</v>
@@ -8560,7 +8560,7 @@
         <v>25</v>
       </c>
       <c r="AA60" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB60" t="n">
         <v>18.5</v>
@@ -8638,19 +8638,19 @@
         <v>2.32</v>
       </c>
       <c r="H61" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I61" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J61" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K61" t="n">
         <v>3.75</v>
       </c>
-      <c r="K61" t="n">
-        <v>3.8</v>
-      </c>
       <c r="L61" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M61" t="n">
         <v>1.06</v>
@@ -8671,7 +8671,7 @@
         <v>1.47</v>
       </c>
       <c r="S61" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T61" t="n">
         <v>1.67</v>
@@ -8680,7 +8680,7 @@
         <v>2.4</v>
       </c>
       <c r="V61" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W61" t="n">
         <v>1.75</v>
@@ -8698,7 +8698,7 @@
         <v>60</v>
       </c>
       <c r="AB61" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC61" t="n">
         <v>8.199999999999999</v>
@@ -8782,7 +8782,7 @@
         <v>5.7</v>
       </c>
       <c r="K62" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L62" t="n">
         <v>1.35</v>
@@ -8815,13 +8815,13 @@
         <v>1.76</v>
       </c>
       <c r="V62" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W62" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="X62" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="Y62" t="n">
         <v>34</v>
@@ -8857,13 +8857,13 @@
         <v>180</v>
       </c>
       <c r="AJ62" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AK62" t="n">
         <v>14.5</v>
       </c>
       <c r="AL62" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM62" t="n">
         <v>210</v>
@@ -8902,10 +8902,10 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="G63" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="H63" t="n">
         <v>5.7</v>
@@ -8932,10 +8932,10 @@
         <v>1.2</v>
       </c>
       <c r="P63" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="R63" t="n">
         <v>1.63</v>
@@ -8953,7 +8953,7 @@
         <v>1.2</v>
       </c>
       <c r="W63" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="X63" t="n">
         <v>22</v>
@@ -8998,7 +8998,7 @@
         <v>15</v>
       </c>
       <c r="AL63" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM63" t="n">
         <v>70</v>
@@ -9037,16 +9037,16 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="G64" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="H64" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="I64" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J64" t="n">
         <v>3.6</v>
@@ -9061,7 +9061,7 @@
         <v>1.06</v>
       </c>
       <c r="N64" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O64" t="n">
         <v>1.27</v>
@@ -9085,10 +9085,10 @@
         <v>2.4</v>
       </c>
       <c r="V64" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="W64" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="X64" t="n">
         <v>16</v>
@@ -9103,19 +9103,19 @@
         <v>46</v>
       </c>
       <c r="AB64" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC64" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD64" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE64" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF64" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG64" t="n">
         <v>11.5</v>
@@ -9178,10 +9178,10 @@
         <v>1.26</v>
       </c>
       <c r="H65" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="I65" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="J65" t="n">
         <v>7</v>
@@ -9229,7 +9229,7 @@
         <v>26</v>
       </c>
       <c r="Y65" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Z65" t="n">
         <v>150</v>
@@ -9247,7 +9247,7 @@
         <v>55</v>
       </c>
       <c r="AE65" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AF65" t="n">
         <v>7.4</v>
@@ -9259,7 +9259,7 @@
         <v>36</v>
       </c>
       <c r="AI65" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AJ65" t="n">
         <v>8.800000000000001</v>
@@ -9445,7 +9445,7 @@
         <v>3.9</v>
       </c>
       <c r="G67" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="H67" t="n">
         <v>1.81</v>
@@ -9712,22 +9712,22 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="G69" t="n">
         <v>1.91</v>
       </c>
       <c r="H69" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I69" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J69" t="n">
         <v>3.95</v>
       </c>
       <c r="K69" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L69" t="n">
         <v>1.01</v>
@@ -9745,16 +9745,16 @@
         <v>2.4</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R69" t="n">
         <v>1.57</v>
       </c>
       <c r="S69" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="T69" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="U69" t="n">
         <v>2.38</v>
@@ -9766,13 +9766,13 @@
         <v>2.08</v>
       </c>
       <c r="X69" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y69" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z69" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA69" t="n">
         <v>90</v>
@@ -9784,10 +9784,10 @@
         <v>10.5</v>
       </c>
       <c r="AD69" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE69" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF69" t="n">
         <v>14</v>
@@ -9799,7 +9799,7 @@
         <v>17</v>
       </c>
       <c r="AI69" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ69" t="n">
         <v>22</v>
@@ -9811,13 +9811,13 @@
         <v>27</v>
       </c>
       <c r="AM69" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN69" t="n">
         <v>9</v>
       </c>
       <c r="AO69" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70">
@@ -9847,10 +9847,10 @@
         </is>
       </c>
       <c r="F70" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G70" t="n">
         <v>2.24</v>
-      </c>
-      <c r="G70" t="n">
-        <v>2.26</v>
       </c>
       <c r="H70" t="n">
         <v>3.7</v>
@@ -9865,19 +9865,19 @@
         <v>3.55</v>
       </c>
       <c r="L70" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M70" t="n">
         <v>1.08</v>
       </c>
       <c r="N70" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O70" t="n">
         <v>1.39</v>
       </c>
       <c r="P70" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q70" t="n">
         <v>2.18</v>
@@ -9886,10 +9886,10 @@
         <v>1.31</v>
       </c>
       <c r="S70" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T70" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U70" t="n">
         <v>2.08</v>
@@ -9898,22 +9898,22 @@
         <v>1.36</v>
       </c>
       <c r="W70" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X70" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y70" t="n">
         <v>12.5</v>
       </c>
       <c r="Z70" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA70" t="n">
         <v>75</v>
       </c>
       <c r="AB70" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AC70" t="n">
         <v>7.4</v>
@@ -9922,7 +9922,7 @@
         <v>15</v>
       </c>
       <c r="AE70" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AF70" t="n">
         <v>13</v>
@@ -9940,7 +9940,7 @@
         <v>29</v>
       </c>
       <c r="AK70" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL70" t="n">
         <v>42</v>
@@ -9988,10 +9988,10 @@
         <v>1.79</v>
       </c>
       <c r="H71" t="n">
+        <v>5</v>
+      </c>
+      <c r="I71" t="n">
         <v>5.1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>5.2</v>
       </c>
       <c r="J71" t="n">
         <v>4</v>
@@ -10015,10 +10015,10 @@
         <v>2.18</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R71" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S71" t="n">
         <v>3.1</v>
@@ -10027,10 +10027,10 @@
         <v>1.8</v>
       </c>
       <c r="U71" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V71" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W71" t="n">
         <v>2.26</v>
@@ -10048,7 +10048,7 @@
         <v>120</v>
       </c>
       <c r="AB71" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC71" t="n">
         <v>8.800000000000001</v>
@@ -10060,7 +10060,7 @@
         <v>60</v>
       </c>
       <c r="AF71" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG71" t="n">
         <v>9.6</v>
@@ -10117,16 +10117,16 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="G72" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="H72" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I72" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J72" t="n">
         <v>3.35</v>
@@ -10144,10 +10144,10 @@
         <v>3.2</v>
       </c>
       <c r="O72" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P72" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q72" t="n">
         <v>2.32</v>
@@ -10165,10 +10165,10 @@
         <v>1.98</v>
       </c>
       <c r="V72" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="W72" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="X72" t="n">
         <v>11</v>
@@ -10177,7 +10177,7 @@
         <v>10.5</v>
       </c>
       <c r="Z72" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA72" t="n">
         <v>60</v>
@@ -10192,13 +10192,13 @@
         <v>14</v>
       </c>
       <c r="AE72" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF72" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG72" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH72" t="n">
         <v>19.5</v>
@@ -10210,10 +10210,10 @@
         <v>36</v>
       </c>
       <c r="AK72" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL72" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM72" t="n">
         <v>130</v>
@@ -10252,16 +10252,16 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="G73" t="n">
         <v>1.86</v>
       </c>
       <c r="H73" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I73" t="n">
         <v>4.7</v>
-      </c>
-      <c r="I73" t="n">
-        <v>4.8</v>
       </c>
       <c r="J73" t="n">
         <v>4</v>
@@ -10276,13 +10276,13 @@
         <v>1.05</v>
       </c>
       <c r="N73" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O73" t="n">
         <v>1.23</v>
       </c>
       <c r="P73" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q73" t="n">
         <v>1.68</v>
@@ -10291,16 +10291,16 @@
         <v>1.57</v>
       </c>
       <c r="S73" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="T73" t="n">
         <v>1.66</v>
       </c>
       <c r="U73" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V73" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W73" t="n">
         <v>2.16</v>
@@ -10315,7 +10315,7 @@
         <v>36</v>
       </c>
       <c r="AA73" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB73" t="n">
         <v>11.5</v>
@@ -10333,7 +10333,7 @@
         <v>13</v>
       </c>
       <c r="AG73" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH73" t="n">
         <v>16</v>
@@ -10348,7 +10348,7 @@
         <v>16.5</v>
       </c>
       <c r="AL73" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AM73" t="n">
         <v>70</v>
@@ -10390,7 +10390,7 @@
         <v>2.36</v>
       </c>
       <c r="G74" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H74" t="n">
         <v>3</v>
@@ -10414,7 +10414,7 @@
         <v>3.5</v>
       </c>
       <c r="O74" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P74" t="n">
         <v>1.89</v>
@@ -10423,22 +10423,22 @@
         <v>1.97</v>
       </c>
       <c r="R74" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="S74" t="n">
         <v>3.6</v>
       </c>
       <c r="T74" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="U74" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V74" t="n">
         <v>1.41</v>
       </c>
       <c r="W74" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="X74" t="n">
         <v>970</v>
@@ -10450,7 +10450,7 @@
         <v>28</v>
       </c>
       <c r="AA74" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AB74" t="n">
         <v>970</v>
@@ -10459,7 +10459,7 @@
         <v>970</v>
       </c>
       <c r="AD74" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AE74" t="n">
         <v>42</v>
@@ -10471,13 +10471,13 @@
         <v>14</v>
       </c>
       <c r="AH74" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AI74" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ74" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AK74" t="n">
         <v>30</v>
@@ -10522,19 +10522,19 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="G75" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="H75" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="I75" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="J75" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K75" t="n">
         <v>4.9</v>
@@ -10546,22 +10546,22 @@
         <v>1.03</v>
       </c>
       <c r="N75" t="n">
-        <v>4.5</v>
+        <v>2.08</v>
       </c>
       <c r="O75" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P75" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.66</v>
+        <v>1.54</v>
       </c>
       <c r="R75" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S75" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="T75" t="n">
         <v>1.67</v>
@@ -10570,13 +10570,13 @@
         <v>1.92</v>
       </c>
       <c r="V75" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="W75" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="X75" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y75" t="n">
         <v>12</v>
@@ -10660,10 +10660,10 @@
         <v>4.2</v>
       </c>
       <c r="G76" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="H76" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="I76" t="n">
         <v>1.89</v>
@@ -10708,7 +10708,7 @@
         <v>2.12</v>
       </c>
       <c r="W76" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X76" t="n">
         <v>24</v>
@@ -10735,7 +10735,7 @@
         <v>18.5</v>
       </c>
       <c r="AF76" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AG76" t="n">
         <v>18.5</v>
@@ -10747,10 +10747,10 @@
         <v>28</v>
       </c>
       <c r="AJ76" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AK76" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL76" t="n">
         <v>55</v>
@@ -10759,7 +10759,7 @@
         <v>80</v>
       </c>
       <c r="AN76" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AO76" t="n">
         <v>12</v>
@@ -10795,7 +10795,7 @@
         <v>2.18</v>
       </c>
       <c r="G77" t="n">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
       <c r="H77" t="n">
         <v>2.66</v>
@@ -10804,7 +10804,7 @@
         <v>3</v>
       </c>
       <c r="J77" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K77" t="n">
         <v>6.2</v>
@@ -10816,19 +10816,19 @@
         <v>1.01</v>
       </c>
       <c r="N77" t="n">
-        <v>2.18</v>
+        <v>4.5</v>
       </c>
       <c r="O77" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P77" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="R77" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="S77" t="n">
         <v>2.48</v>
@@ -10843,7 +10843,7 @@
         <v>1.5</v>
       </c>
       <c r="W77" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="X77" t="n">
         <v>1000</v>
@@ -10939,7 +10939,7 @@
         <v>1.73</v>
       </c>
       <c r="J78" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K78" t="n">
         <v>4.8</v>
@@ -10975,7 +10975,7 @@
         <v>2.18</v>
       </c>
       <c r="V78" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="W78" t="n">
         <v>1.2</v>
@@ -11071,7 +11071,7 @@
         <v>3.75</v>
       </c>
       <c r="I79" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J79" t="n">
         <v>3.45</v>
@@ -11080,7 +11080,7 @@
         <v>3.9</v>
       </c>
       <c r="L79" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M79" t="n">
         <v>1.07</v>
@@ -11092,7 +11092,7 @@
         <v>1.31</v>
       </c>
       <c r="P79" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q79" t="n">
         <v>1.92</v>
@@ -11212,7 +11212,7 @@
         <v>3.25</v>
       </c>
       <c r="K80" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L80" t="n">
         <v>1.01</v>
@@ -11224,7 +11224,7 @@
         <v>3.1</v>
       </c>
       <c r="O80" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P80" t="n">
         <v>1.72</v>
@@ -11251,7 +11251,7 @@
         <v>1.81</v>
       </c>
       <c r="X80" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="Y80" t="n">
         <v>970</v>
@@ -11269,7 +11269,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD80" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AE80" t="n">
         <v>65</v>
@@ -11299,7 +11299,7 @@
         <v>150</v>
       </c>
       <c r="AN80" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO80" t="n">
         <v>85</v>
@@ -11341,10 +11341,10 @@
         <v>2.4</v>
       </c>
       <c r="I81" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="J81" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K81" t="n">
         <v>4</v>
@@ -11368,13 +11368,13 @@
         <v>1.69</v>
       </c>
       <c r="R81" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S81" t="n">
         <v>2.74</v>
       </c>
       <c r="T81" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U81" t="n">
         <v>2.38</v>
@@ -11389,7 +11389,7 @@
         <v>24</v>
       </c>
       <c r="Y81" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z81" t="n">
         <v>20</v>
@@ -11401,10 +11401,10 @@
         <v>18</v>
       </c>
       <c r="AC81" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD81" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE81" t="n">
         <v>27</v>
@@ -11413,16 +11413,16 @@
         <v>23</v>
       </c>
       <c r="AG81" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH81" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI81" t="n">
         <v>38</v>
       </c>
       <c r="AJ81" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AK81" t="n">
         <v>32</v>
@@ -11431,7 +11431,7 @@
         <v>38</v>
       </c>
       <c r="AM81" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN81" t="n">
         <v>26</v>
@@ -11605,19 +11605,19 @@
         <v>2.86</v>
       </c>
       <c r="G83" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H83" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="I83" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="J83" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K83" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L83" t="n">
         <v>1.34</v>
@@ -11626,58 +11626,58 @@
         <v>1.07</v>
       </c>
       <c r="N83" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="O83" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="P83" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="R83" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="S83" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="T83" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="U83" t="n">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="V83" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="W83" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X83" t="n">
         <v>1000</v>
       </c>
       <c r="Y83" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z83" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA83" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB83" t="n">
         <v>16</v>
       </c>
       <c r="AC83" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD83" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE83" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF83" t="n">
         <v>29</v>
@@ -11686,10 +11686,10 @@
         <v>18.5</v>
       </c>
       <c r="AH83" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI83" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ83" t="n">
         <v>70</v>
@@ -11767,16 +11767,16 @@
         <v>1.41</v>
       </c>
       <c r="P84" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R84" t="n">
         <v>1.24</v>
       </c>
       <c r="S84" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="T84" t="n">
         <v>1.83</v>
@@ -11785,7 +11785,7 @@
         <v>1.7</v>
       </c>
       <c r="V84" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="W84" t="n">
         <v>1.21</v>
@@ -11881,7 +11881,7 @@
         <v>1.48</v>
       </c>
       <c r="I85" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="J85" t="n">
         <v>4.5</v>
@@ -11890,7 +11890,7 @@
         <v>5.1</v>
       </c>
       <c r="L85" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="M85" t="n">
         <v>1.05</v>
@@ -11905,13 +11905,13 @@
         <v>2.04</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R85" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S85" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="T85" t="n">
         <v>1.84</v>
@@ -11920,7 +11920,7 @@
         <v>1.86</v>
       </c>
       <c r="V85" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="W85" t="n">
         <v>1.13</v>
@@ -12148,19 +12148,19 @@
         <v>3.95</v>
       </c>
       <c r="H87" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="I87" t="n">
         <v>2.36</v>
       </c>
       <c r="J87" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K87" t="n">
         <v>3.15</v>
       </c>
-      <c r="K87" t="n">
-        <v>3.2</v>
-      </c>
       <c r="L87" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="M87" t="n">
         <v>1.12</v>
@@ -12187,7 +12187,7 @@
         <v>2.12</v>
       </c>
       <c r="U87" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V87" t="n">
         <v>1.73</v>
@@ -12277,16 +12277,16 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G88" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H88" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I88" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="J88" t="n">
         <v>3.05</v>
@@ -12301,16 +12301,16 @@
         <v>1.05</v>
       </c>
       <c r="N88" t="n">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="O88" t="n">
         <v>1.44</v>
       </c>
       <c r="P88" t="n">
-        <v>1.58</v>
+        <v>1.71</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R88" t="n">
         <v>1.22</v>
@@ -12319,16 +12319,16 @@
         <v>3.95</v>
       </c>
       <c r="T88" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="U88" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="V88" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="W88" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X88" t="n">
         <v>15</v>
@@ -12343,19 +12343,19 @@
         <v>55</v>
       </c>
       <c r="AB88" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC88" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD88" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE88" t="n">
         <v>48</v>
       </c>
       <c r="AF88" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AG88" t="n">
         <v>21</v>
@@ -12370,7 +12370,7 @@
         <v>95</v>
       </c>
       <c r="AK88" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL88" t="n">
         <v>90</v>
@@ -12421,10 +12421,10 @@
         <v>6</v>
       </c>
       <c r="I89" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J89" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K89" t="n">
         <v>4.1</v>
@@ -12436,34 +12436,34 @@
         <v>1.07</v>
       </c>
       <c r="N89" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O89" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P89" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R89" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S89" t="n">
         <v>3.75</v>
       </c>
       <c r="T89" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U89" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V89" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W89" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="X89" t="n">
         <v>13.5</v>
@@ -12475,7 +12475,7 @@
         <v>55</v>
       </c>
       <c r="AA89" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AB89" t="n">
         <v>7.6</v>
@@ -12589,10 +12589,10 @@
         <v>3.5</v>
       </c>
       <c r="T90" t="n">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="U90" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V90" t="n">
         <v>1.34</v>
@@ -12685,7 +12685,7 @@
         <v>1.52</v>
       </c>
       <c r="G91" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="H91" t="n">
         <v>6.2</v>
@@ -12694,31 +12694,31 @@
         <v>6.8</v>
       </c>
       <c r="J91" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K91" t="n">
         <v>5.2</v>
       </c>
       <c r="L91" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M91" t="n">
         <v>1.02</v>
       </c>
       <c r="N91" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="O91" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P91" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="Q91" t="n">
         <v>1.45</v>
       </c>
       <c r="R91" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="S91" t="n">
         <v>2.1</v>
@@ -12727,7 +12727,7 @@
         <v>1.6</v>
       </c>
       <c r="U91" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="V91" t="n">
         <v>1.17</v>
@@ -12736,10 +12736,10 @@
         <v>2.8</v>
       </c>
       <c r="X91" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Y91" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Z91" t="n">
         <v>65</v>
@@ -12748,46 +12748,46 @@
         <v>180</v>
       </c>
       <c r="AB91" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC91" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD91" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AE91" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AF91" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AG91" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH91" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI91" t="n">
         <v>60</v>
       </c>
       <c r="AJ91" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AK91" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AL91" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AM91" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN91" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AO91" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92">
@@ -12832,13 +12832,13 @@
         <v>3.75</v>
       </c>
       <c r="K92" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L92" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M92" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N92" t="n">
         <v>5</v>
@@ -12853,13 +12853,13 @@
         <v>1.61</v>
       </c>
       <c r="R92" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S92" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="T92" t="n">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="U92" t="n">
         <v>2.48</v>
@@ -12907,7 +12907,7 @@
         <v>34</v>
       </c>
       <c r="AJ92" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK92" t="n">
         <v>36</v>
@@ -12958,16 +12958,16 @@
         <v>3.75</v>
       </c>
       <c r="H93" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="I93" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="J93" t="n">
         <v>3</v>
       </c>
       <c r="K93" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="L93" t="n">
         <v>1.01</v>
@@ -13087,16 +13087,16 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="G94" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="H94" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="I94" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="J94" t="n">
         <v>4.8</v>
@@ -13111,13 +13111,13 @@
         <v>1.05</v>
       </c>
       <c r="N94" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O94" t="n">
         <v>1.26</v>
       </c>
       <c r="P94" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q94" t="n">
         <v>1.77</v>
@@ -13126,31 +13126,31 @@
         <v>1.47</v>
       </c>
       <c r="S94" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="T94" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U94" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V94" t="n">
         <v>1.13</v>
       </c>
       <c r="W94" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="X94" t="n">
         <v>18.5</v>
       </c>
       <c r="Y94" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z94" t="n">
         <v>75</v>
       </c>
       <c r="AA94" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AB94" t="n">
         <v>8.6</v>
@@ -13162,10 +13162,10 @@
         <v>30</v>
       </c>
       <c r="AE94" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF94" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AG94" t="n">
         <v>9.6</v>
@@ -13231,7 +13231,7 @@
         <v>4.4</v>
       </c>
       <c r="I95" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J95" t="n">
         <v>3.85</v>
@@ -13261,7 +13261,7 @@
         <v>1.47</v>
       </c>
       <c r="S95" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="T95" t="n">
         <v>1.69</v>
@@ -13270,16 +13270,16 @@
         <v>2.18</v>
       </c>
       <c r="V95" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W95" t="n">
         <v>2.12</v>
       </c>
       <c r="X95" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y95" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z95" t="n">
         <v>46</v>
@@ -13288,13 +13288,13 @@
         <v>120</v>
       </c>
       <c r="AB95" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC95" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD95" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE95" t="n">
         <v>70</v>
@@ -13303,31 +13303,31 @@
         <v>15</v>
       </c>
       <c r="AG95" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH95" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI95" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ95" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AK95" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL95" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM95" t="n">
         <v>100</v>
       </c>
       <c r="AN95" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO95" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96">
@@ -13360,10 +13360,10 @@
         <v>3.85</v>
       </c>
       <c r="G96" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H96" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I96" t="n">
         <v>2.32</v>
@@ -13387,13 +13387,13 @@
         <v>1.44</v>
       </c>
       <c r="P96" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="Q96" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R96" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S96" t="n">
         <v>4.2</v>
@@ -13408,10 +13408,10 @@
         <v>1.75</v>
       </c>
       <c r="W96" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X96" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Y96" t="n">
         <v>9</v>
@@ -13444,7 +13444,7 @@
         <v>21</v>
       </c>
       <c r="AI96" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ96" t="n">
         <v>100</v>
@@ -13519,7 +13519,7 @@
         <v>3.65</v>
       </c>
       <c r="O97" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P97" t="n">
         <v>1.91</v>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1.97</v>
+        <v>1.04</v>
       </c>
       <c r="G98" t="n">
         <v>2.62</v>
@@ -13636,7 +13636,7 @@
         <v>3.15</v>
       </c>
       <c r="I98" t="n">
-        <v>5.1</v>
+        <v>970</v>
       </c>
       <c r="J98" t="n">
         <v>2.78</v>
@@ -13675,7 +13675,7 @@
         <v>1.01</v>
       </c>
       <c r="V98" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="W98" t="n">
         <v>1.61</v>
@@ -13762,7 +13762,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G99" t="n">
         <v>2.64</v>
@@ -13774,7 +13774,7 @@
         <v>4.1</v>
       </c>
       <c r="J99" t="n">
-        <v>2.7</v>
+        <v>2.98</v>
       </c>
       <c r="K99" t="n">
         <v>3.5</v>
@@ -13798,10 +13798,10 @@
         <v>2.3</v>
       </c>
       <c r="R99" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S99" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="T99" t="n">
         <v>1.01</v>
@@ -13810,7 +13810,7 @@
         <v>1.01</v>
       </c>
       <c r="V99" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W99" t="n">
         <v>1.6</v>
@@ -13906,7 +13906,7 @@
         <v>2.32</v>
       </c>
       <c r="I100" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="J100" t="n">
         <v>2.88</v>
@@ -14002,7 +14002,7 @@
         <v>110</v>
       </c>
       <c r="AO100" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="101">
@@ -14050,7 +14050,7 @@
         <v>4.2</v>
       </c>
       <c r="L101" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M101" t="n">
         <v>1.07</v>
@@ -14062,10 +14062,10 @@
         <v>1.34</v>
       </c>
       <c r="P101" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="R101" t="n">
         <v>1.29</v>
@@ -14305,19 +14305,19 @@
         <v>4.3</v>
       </c>
       <c r="G103" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="H103" t="n">
         <v>1.76</v>
       </c>
       <c r="I103" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="J103" t="n">
         <v>4.2</v>
       </c>
       <c r="K103" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L103" t="n">
         <v>1.01</v>
@@ -14341,7 +14341,7 @@
         <v>1.6</v>
       </c>
       <c r="S103" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="T103" t="n">
         <v>1.62</v>
@@ -14353,7 +14353,7 @@
         <v>2.16</v>
       </c>
       <c r="W103" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="X103" t="n">
         <v>1000</v>
@@ -14437,7 +14437,7 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="G104" t="n">
         <v>3.1</v>
@@ -14446,7 +14446,7 @@
         <v>2.58</v>
       </c>
       <c r="I104" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J104" t="n">
         <v>3.25</v>
@@ -14497,7 +14497,7 @@
         <v>14</v>
       </c>
       <c r="Z104" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA104" t="n">
         <v>40</v>
@@ -14572,7 +14572,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="G105" t="n">
         <v>1.22</v>
@@ -14581,13 +14581,13 @@
         <v>15.5</v>
       </c>
       <c r="I105" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="J105" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="K105" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L105" t="n">
         <v>1.19</v>
@@ -14596,37 +14596,37 @@
         <v>1.01</v>
       </c>
       <c r="N105" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O105" t="n">
         <v>1.11</v>
       </c>
       <c r="P105" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="R105" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="S105" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="T105" t="n">
         <v>1.89</v>
       </c>
       <c r="U105" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V105" t="n">
         <v>1.06</v>
       </c>
       <c r="W105" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="X105" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Y105" t="n">
         <v>70</v>
@@ -14647,7 +14647,7 @@
         <v>60</v>
       </c>
       <c r="AE105" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AF105" t="n">
         <v>12</v>
@@ -14659,7 +14659,7 @@
         <v>36</v>
       </c>
       <c r="AI105" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ105" t="n">
         <v>12</v>
@@ -14677,7 +14677,7 @@
         <v>3.1</v>
       </c>
       <c r="AO105" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="106">
@@ -14716,7 +14716,7 @@
         <v>1.42</v>
       </c>
       <c r="I106" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="J106" t="n">
         <v>4</v>
@@ -14725,7 +14725,7 @@
         <v>5.2</v>
       </c>
       <c r="L106" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="M106" t="n">
         <v>1.01</v>
@@ -14737,7 +14737,7 @@
         <v>1.31</v>
       </c>
       <c r="P106" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="Q106" t="n">
         <v>1.92</v>
@@ -14755,7 +14755,7 @@
         <v>1.01</v>
       </c>
       <c r="V106" t="n">
-        <v>2.92</v>
+        <v>2.76</v>
       </c>
       <c r="W106" t="n">
         <v>1.08</v>
@@ -14842,13 +14842,13 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="G107" t="n">
         <v>1.49</v>
       </c>
       <c r="H107" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="I107" t="n">
         <v>9.199999999999999</v>
@@ -14869,7 +14869,7 @@
         <v>3.7</v>
       </c>
       <c r="O107" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P107" t="n">
         <v>1.91</v>
@@ -14878,7 +14878,7 @@
         <v>2.06</v>
       </c>
       <c r="R107" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S107" t="n">
         <v>3.8</v>
@@ -14899,7 +14899,7 @@
         <v>14</v>
       </c>
       <c r="Y107" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z107" t="n">
         <v>75</v>
@@ -14923,13 +14923,13 @@
         <v>7.6</v>
       </c>
       <c r="AG107" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH107" t="n">
         <v>30</v>
       </c>
       <c r="AI107" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AJ107" t="n">
         <v>12.5</v>
@@ -14938,13 +14938,13 @@
         <v>16.5</v>
       </c>
       <c r="AL107" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM107" t="n">
         <v>210</v>
       </c>
       <c r="AN107" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AO107" t="n">
         <v>250</v>
@@ -14980,16 +14980,16 @@
         <v>1.68</v>
       </c>
       <c r="G108" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="H108" t="n">
         <v>4.4</v>
       </c>
       <c r="I108" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="J108" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K108" t="n">
         <v>5.9</v>
@@ -15001,25 +15001,25 @@
         <v>1.01</v>
       </c>
       <c r="N108" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="O108" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P108" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="Q108" t="n">
         <v>1.5</v>
       </c>
       <c r="R108" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="S108" t="n">
         <v>2.24</v>
       </c>
       <c r="T108" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="U108" t="n">
         <v>1.98</v>
@@ -15031,10 +15031,10 @@
         <v>2.18</v>
       </c>
       <c r="X108" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Y108" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Z108" t="n">
         <v>44</v>
@@ -15079,7 +15079,7 @@
         <v>80</v>
       </c>
       <c r="AN108" t="n">
-        <v>8.4</v>
+        <v>970</v>
       </c>
       <c r="AO108" t="n">
         <v>48</v>
@@ -15118,10 +15118,10 @@
         <v>7</v>
       </c>
       <c r="H109" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I109" t="n">
         <v>1.58</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1.59</v>
       </c>
       <c r="J109" t="n">
         <v>4.5</v>
@@ -15133,7 +15133,7 @@
         <v>1.41</v>
       </c>
       <c r="M109" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N109" t="n">
         <v>3.9</v>
@@ -15151,25 +15151,25 @@
         <v>1.38</v>
       </c>
       <c r="S109" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T109" t="n">
         <v>2.06</v>
       </c>
       <c r="U109" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V109" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="W109" t="n">
         <v>1.16</v>
       </c>
       <c r="X109" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y109" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Z109" t="n">
         <v>8.6</v>
@@ -15196,7 +15196,7 @@
         <v>26</v>
       </c>
       <c r="AH109" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI109" t="n">
         <v>38</v>
@@ -15247,16 +15247,16 @@
         </is>
       </c>
       <c r="F110" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="G110" t="n">
         <v>5.3</v>
       </c>
-      <c r="G110" t="n">
-        <v>5.4</v>
-      </c>
       <c r="H110" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="I110" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="J110" t="n">
         <v>5</v>
@@ -15277,7 +15277,7 @@
         <v>1.11</v>
       </c>
       <c r="P110" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q110" t="n">
         <v>1.34</v>
@@ -15286,7 +15286,7 @@
         <v>2.16</v>
       </c>
       <c r="S110" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="T110" t="n">
         <v>1.46</v>
@@ -15295,10 +15295,10 @@
         <v>3.05</v>
       </c>
       <c r="V110" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="W110" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X110" t="n">
         <v>44</v>
@@ -15388,7 +15388,7 @@
         <v>3.95</v>
       </c>
       <c r="H111" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="I111" t="n">
         <v>2.44</v>
@@ -15406,7 +15406,7 @@
         <v>1.01</v>
       </c>
       <c r="N111" t="n">
-        <v>1.02</v>
+        <v>1.87</v>
       </c>
       <c r="O111" t="n">
         <v>1.25</v>
@@ -15415,16 +15415,16 @@
         <v>1.87</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="R111" t="n">
         <v>1.18</v>
       </c>
       <c r="S111" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="T111" t="n">
-        <v>1.56</v>
+        <v>1.76</v>
       </c>
       <c r="U111" t="n">
         <v>2</v>
@@ -15517,10 +15517,10 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="G112" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="H112" t="n">
         <v>10.5</v>
@@ -15529,10 +15529,10 @@
         <v>13</v>
       </c>
       <c r="J112" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="K112" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="L112" t="n">
         <v>1.17</v>
@@ -15541,7 +15541,7 @@
         <v>1.01</v>
       </c>
       <c r="N112" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="O112" t="n">
         <v>1.12</v>
@@ -15550,13 +15550,13 @@
         <v>3.25</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="R112" t="n">
         <v>1.89</v>
       </c>
       <c r="S112" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="T112" t="n">
         <v>1.77</v>
@@ -15568,7 +15568,7 @@
         <v>1.08</v>
       </c>
       <c r="W112" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="X112" t="n">
         <v>48</v>
@@ -15610,7 +15610,7 @@
         <v>12</v>
       </c>
       <c r="AK112" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AL112" t="n">
         <v>32</v>
@@ -15661,7 +15661,7 @@
         <v>5.5</v>
       </c>
       <c r="I113" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J113" t="n">
         <v>3.5</v>
@@ -15682,7 +15682,7 @@
         <v>1.5</v>
       </c>
       <c r="P113" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q113" t="n">
         <v>2.52</v>
@@ -15703,7 +15703,7 @@
         <v>1.21</v>
       </c>
       <c r="W113" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="X113" t="n">
         <v>9.199999999999999</v>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="G114" t="n">
         <v>1.84</v>
@@ -15796,7 +15796,7 @@
         <v>5.3</v>
       </c>
       <c r="I114" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J114" t="n">
         <v>3.65</v>
@@ -15811,13 +15811,13 @@
         <v>1.09</v>
       </c>
       <c r="N114" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O114" t="n">
         <v>1.39</v>
       </c>
       <c r="P114" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q114" t="n">
         <v>2.14</v>
@@ -15829,10 +15829,10 @@
         <v>4</v>
       </c>
       <c r="T114" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U114" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V114" t="n">
         <v>1.21</v>
@@ -15934,7 +15934,7 @@
         <v>1.6</v>
       </c>
       <c r="J115" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K115" t="n">
         <v>4.8</v>
@@ -15943,7 +15943,7 @@
         <v>1.26</v>
       </c>
       <c r="M115" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N115" t="n">
         <v>5.4</v>
@@ -15952,19 +15952,19 @@
         <v>1.17</v>
       </c>
       <c r="P115" t="n">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="R115" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="S115" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="T115" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="U115" t="n">
         <v>2.34</v>
@@ -15976,7 +15976,7 @@
         <v>1.17</v>
       </c>
       <c r="X115" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y115" t="n">
         <v>15.5</v>
@@ -16057,22 +16057,22 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G116" t="n">
         <v>2.02</v>
       </c>
       <c r="H116" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I116" t="n">
         <v>4.4</v>
       </c>
       <c r="J116" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K116" t="n">
         <v>3.75</v>
-      </c>
-      <c r="K116" t="n">
-        <v>3.8</v>
       </c>
       <c r="L116" t="n">
         <v>1.4</v>
@@ -16081,7 +16081,7 @@
         <v>1.07</v>
       </c>
       <c r="N116" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O116" t="n">
         <v>1.32</v>
@@ -16102,7 +16102,7 @@
         <v>1.81</v>
       </c>
       <c r="U116" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V116" t="n">
         <v>1.29</v>
@@ -16192,22 +16192,22 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="G117" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I117" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J117" t="n">
         <v>3</v>
       </c>
       <c r="K117" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L117" t="n">
         <v>1.59</v>
@@ -16216,7 +16216,7 @@
         <v>1.13</v>
       </c>
       <c r="N117" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="O117" t="n">
         <v>1.57</v>
@@ -16225,7 +16225,7 @@
         <v>1.54</v>
       </c>
       <c r="Q117" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="R117" t="n">
         <v>1.19</v>
@@ -16234,22 +16234,22 @@
         <v>5.5</v>
       </c>
       <c r="T117" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="U117" t="n">
         <v>1.8</v>
       </c>
       <c r="V117" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W117" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X117" t="n">
         <v>8</v>
       </c>
       <c r="Y117" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z117" t="n">
         <v>18</v>
@@ -16264,7 +16264,7 @@
         <v>7</v>
       </c>
       <c r="AD117" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE117" t="n">
         <v>46</v>
@@ -16285,7 +16285,7 @@
         <v>55</v>
       </c>
       <c r="AK117" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AL117" t="n">
         <v>75</v>
@@ -16297,7 +16297,7 @@
         <v>55</v>
       </c>
       <c r="AO117" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118">
@@ -16336,40 +16336,40 @@
         <v>2.58</v>
       </c>
       <c r="I118" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="J118" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K118" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L118" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="M118" t="n">
         <v>1.1</v>
       </c>
       <c r="N118" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O118" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P118" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q118" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="R118" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S118" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T118" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="U118" t="n">
         <v>1.95</v>
@@ -16387,7 +16387,7 @@
         <v>10</v>
       </c>
       <c r="Z118" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AA118" t="n">
         <v>48</v>
@@ -16408,7 +16408,7 @@
         <v>24</v>
       </c>
       <c r="AG118" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH118" t="n">
         <v>22</v>
@@ -16429,7 +16429,7 @@
         <v>160</v>
       </c>
       <c r="AN118" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO118" t="n">
         <v>40</v>
@@ -16756,13 +16756,13 @@
         <v>1.12</v>
       </c>
       <c r="N121" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="O121" t="n">
         <v>1.51</v>
       </c>
       <c r="P121" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="Q121" t="n">
         <v>2.48</v>
@@ -16789,13 +16789,13 @@
         <v>11.5</v>
       </c>
       <c r="Y121" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z121" t="n">
         <v>16.5</v>
       </c>
       <c r="AA121" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AB121" t="n">
         <v>10.5</v>
@@ -16828,16 +16828,16 @@
         <v>48</v>
       </c>
       <c r="AL121" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM121" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN121" t="n">
         <v>60</v>
       </c>
       <c r="AO121" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122">
@@ -16879,7 +16879,7 @@
         <v>3.3</v>
       </c>
       <c r="J122" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K122" t="n">
         <v>3.75</v>
@@ -16891,28 +16891,28 @@
         <v>1.05</v>
       </c>
       <c r="N122" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O122" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P122" t="n">
         <v>2.22</v>
       </c>
       <c r="Q122" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="R122" t="n">
         <v>1.5</v>
       </c>
       <c r="S122" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="T122" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U122" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V122" t="n">
         <v>1.43</v>
@@ -17017,7 +17017,7 @@
         <v>5.6</v>
       </c>
       <c r="K123" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L123" t="n">
         <v>1.21</v>
@@ -17041,16 +17041,16 @@
         <v>1.86</v>
       </c>
       <c r="S123" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="T123" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U123" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V123" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="W123" t="n">
         <v>1.13</v>
@@ -17059,13 +17059,13 @@
         <v>38</v>
       </c>
       <c r="Y123" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z123" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA123" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AB123" t="n">
         <v>46</v>
@@ -17074,7 +17074,7 @@
         <v>16.5</v>
       </c>
       <c r="AD123" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE123" t="n">
         <v>15.5</v>
@@ -17086,7 +17086,7 @@
         <v>30</v>
       </c>
       <c r="AH123" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI123" t="n">
         <v>32</v>
@@ -17137,19 +17137,19 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G124" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="H124" t="n">
         <v>2.88</v>
       </c>
       <c r="I124" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="J124" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K124" t="n">
         <v>3.5</v>
@@ -17161,34 +17161,34 @@
         <v>1.08</v>
       </c>
       <c r="N124" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O124" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P124" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R124" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S124" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T124" t="n">
         <v>1.84</v>
       </c>
-      <c r="Q124" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R124" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S124" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="T124" t="n">
-        <v>1.74</v>
-      </c>
       <c r="U124" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V124" t="n">
         <v>1.51</v>
       </c>
       <c r="W124" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X124" t="n">
         <v>1000</v>
@@ -17206,7 +17206,7 @@
         <v>1000</v>
       </c>
       <c r="AC124" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD124" t="n">
         <v>1000</v>
@@ -17272,16 +17272,16 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="G125" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="H125" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I125" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J125" t="n">
         <v>3.6</v>
@@ -17299,31 +17299,31 @@
         <v>5.6</v>
       </c>
       <c r="O125" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P125" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="Q125" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="R125" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="S125" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="T125" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="U125" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="V125" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W125" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="X125" t="n">
         <v>26</v>
@@ -17371,7 +17371,7 @@
         <v>28</v>
       </c>
       <c r="AM125" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AN125" t="n">
         <v>10.5</v>
@@ -17407,16 +17407,16 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="G126" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="H126" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I126" t="n">
         <v>1.56</v>
-      </c>
-      <c r="I126" t="n">
-        <v>1.58</v>
       </c>
       <c r="J126" t="n">
         <v>4.3</v>
@@ -17431,7 +17431,7 @@
         <v>1.08</v>
       </c>
       <c r="N126" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O126" t="n">
         <v>1.36</v>
@@ -17452,19 +17452,19 @@
         <v>2.2</v>
       </c>
       <c r="U126" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V126" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="W126" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="X126" t="n">
         <v>13</v>
       </c>
       <c r="Y126" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Z126" t="n">
         <v>8.199999999999999</v>
@@ -17476,7 +17476,7 @@
         <v>21</v>
       </c>
       <c r="AC126" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD126" t="n">
         <v>10</v>
@@ -17491,19 +17491,19 @@
         <v>29</v>
       </c>
       <c r="AH126" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI126" t="n">
         <v>46</v>
       </c>
       <c r="AJ126" t="n">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="AK126" t="n">
         <v>140</v>
       </c>
       <c r="AL126" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AM126" t="n">
         <v>190</v>
@@ -17512,7 +17512,7 @@
         <v>200</v>
       </c>
       <c r="AO126" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127">
@@ -17542,16 +17542,16 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="G127" t="n">
         <v>1.59</v>
       </c>
       <c r="H127" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I127" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J127" t="n">
         <v>4.7</v>
@@ -17560,7 +17560,7 @@
         <v>5.3</v>
       </c>
       <c r="L127" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M127" t="n">
         <v>1.03</v>
@@ -17569,31 +17569,31 @@
         <v>5.5</v>
       </c>
       <c r="O127" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P127" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="R127" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="S127" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="T127" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="U127" t="n">
         <v>2.28</v>
       </c>
       <c r="V127" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W127" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="X127" t="n">
         <v>32</v>
@@ -17611,22 +17611,22 @@
         <v>12.5</v>
       </c>
       <c r="AC127" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD127" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE127" t="n">
         <v>70</v>
       </c>
       <c r="AF127" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG127" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH127" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI127" t="n">
         <v>60</v>
@@ -17638,7 +17638,7 @@
         <v>17</v>
       </c>
       <c r="AL127" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM127" t="n">
         <v>90</v>
@@ -17677,22 +17677,22 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="G128" t="n">
-        <v>3.25</v>
+        <v>2.96</v>
       </c>
       <c r="H128" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="I128" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="J128" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="K128" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L128" t="n">
         <v>1.29</v>
@@ -17701,85 +17701,85 @@
         <v>1.04</v>
       </c>
       <c r="N128" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O128" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P128" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="Q128" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="R128" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S128" t="n">
         <v>2.6</v>
       </c>
       <c r="T128" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="U128" t="n">
         <v>2.58</v>
       </c>
       <c r="V128" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="W128" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="X128" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Y128" t="n">
         <v>15</v>
       </c>
       <c r="Z128" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AA128" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB128" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC128" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD128" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE128" t="n">
         <v>23</v>
       </c>
       <c r="AF128" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG128" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH128" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI128" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK128" t="n">
         <v>30</v>
       </c>
-      <c r="AJ128" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK128" t="n">
-        <v>32</v>
-      </c>
       <c r="AL128" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM128" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN128" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO128" t="n">
         <v>15.5</v>
@@ -17812,10 +17812,10 @@
         </is>
       </c>
       <c r="F129" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G129" t="n">
         <v>2.76</v>
-      </c>
-      <c r="G129" t="n">
-        <v>2.8</v>
       </c>
       <c r="H129" t="n">
         <v>2.7</v>
@@ -17824,10 +17824,10 @@
         <v>2.74</v>
       </c>
       <c r="J129" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K129" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L129" t="n">
         <v>1.34</v>
@@ -17857,13 +17857,13 @@
         <v>1.6</v>
       </c>
       <c r="U129" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="V129" t="n">
         <v>1.57</v>
       </c>
       <c r="W129" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X129" t="n">
         <v>18</v>
@@ -17896,7 +17896,7 @@
         <v>12.5</v>
       </c>
       <c r="AH129" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI129" t="n">
         <v>34</v>
@@ -17947,22 +17947,22 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="G130" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H130" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I130" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J130" t="n">
         <v>3.65</v>
       </c>
       <c r="K130" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L130" t="n">
         <v>1.35</v>
@@ -17992,19 +17992,19 @@
         <v>1.66</v>
       </c>
       <c r="U130" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="V130" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W130" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X130" t="n">
         <v>21</v>
       </c>
       <c r="Y130" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z130" t="n">
         <v>32</v>
@@ -18013,10 +18013,10 @@
         <v>75</v>
       </c>
       <c r="AB130" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC130" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD130" t="n">
         <v>18</v>
@@ -18028,7 +18028,7 @@
         <v>15.5</v>
       </c>
       <c r="AG130" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH130" t="n">
         <v>16.5</v>
@@ -18040,7 +18040,7 @@
         <v>25</v>
       </c>
       <c r="AK130" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AL130" t="n">
         <v>34</v>
@@ -18085,13 +18085,13 @@
         <v>6.2</v>
       </c>
       <c r="G131" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="H131" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="I131" t="n">
         <v>1.65</v>
-      </c>
-      <c r="I131" t="n">
-        <v>1.67</v>
       </c>
       <c r="J131" t="n">
         <v>4.1</v>
@@ -18100,22 +18100,22 @@
         <v>4.3</v>
       </c>
       <c r="L131" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M131" t="n">
         <v>1.06</v>
       </c>
       <c r="N131" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="O131" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P131" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q131" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R131" t="n">
         <v>1.38</v>
@@ -18130,10 +18130,10 @@
         <v>1.95</v>
       </c>
       <c r="V131" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="W131" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="X131" t="n">
         <v>15</v>
@@ -18151,7 +18151,7 @@
         <v>20</v>
       </c>
       <c r="AC131" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD131" t="n">
         <v>9.800000000000001</v>
@@ -18160,7 +18160,7 @@
         <v>17</v>
       </c>
       <c r="AF131" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG131" t="n">
         <v>24</v>
@@ -18187,7 +18187,7 @@
         <v>120</v>
       </c>
       <c r="AO131" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="132">
@@ -18223,16 +18223,16 @@
         <v>12</v>
       </c>
       <c r="H132" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I132" t="n">
         <v>1.36</v>
       </c>
-      <c r="I132" t="n">
-        <v>1.38</v>
-      </c>
       <c r="J132" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="K132" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L132" t="n">
         <v>1.31</v>
@@ -18241,7 +18241,7 @@
         <v>1.04</v>
       </c>
       <c r="N132" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="O132" t="n">
         <v>1.23</v>
@@ -18253,7 +18253,7 @@
         <v>1.7</v>
       </c>
       <c r="R132" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="S132" t="n">
         <v>2.8</v>
@@ -18262,19 +18262,19 @@
         <v>2.14</v>
       </c>
       <c r="U132" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="V132" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="W132" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="X132" t="n">
         <v>21</v>
       </c>
       <c r="Y132" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z132" t="n">
         <v>8.199999999999999</v>
@@ -18298,7 +18298,7 @@
         <v>110</v>
       </c>
       <c r="AG132" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AH132" t="n">
         <v>30</v>
@@ -18313,7 +18313,7 @@
         <v>200</v>
       </c>
       <c r="AL132" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AM132" t="n">
         <v>180</v>
@@ -18388,13 +18388,13 @@
         <v>1.74</v>
       </c>
       <c r="R133" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S133" t="n">
-        <v>2.78</v>
+        <v>2.94</v>
       </c>
       <c r="T133" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="U133" t="n">
         <v>1.59</v>
@@ -18487,13 +18487,13 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="G134" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H134" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I134" t="n">
         <v>5.9</v>
@@ -18502,61 +18502,61 @@
         <v>4.1</v>
       </c>
       <c r="K134" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L134" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M134" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N134" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="O134" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P134" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q134" t="n">
         <v>1.77</v>
       </c>
       <c r="R134" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="S134" t="n">
-        <v>2.64</v>
+        <v>2.8</v>
       </c>
       <c r="T134" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U134" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V134" t="n">
         <v>1.2</v>
       </c>
       <c r="W134" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="X134" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y134" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z134" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AA134" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB134" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC134" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD134" t="n">
         <v>28</v>
@@ -18568,19 +18568,19 @@
         <v>12</v>
       </c>
       <c r="AG134" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH134" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI134" t="n">
         <v>65</v>
       </c>
       <c r="AJ134" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK134" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL134" t="n">
         <v>32</v>
@@ -18589,10 +18589,10 @@
         <v>110</v>
       </c>
       <c r="AN134" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO134" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="135">
@@ -18661,10 +18661,10 @@
         <v>1.42</v>
       </c>
       <c r="S135" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T135" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="U135" t="n">
         <v>1.71</v>
@@ -18685,7 +18685,7 @@
         <v>130</v>
       </c>
       <c r="AA135" t="n">
-        <v>620</v>
+        <v>1000</v>
       </c>
       <c r="AB135" t="n">
         <v>8.800000000000001</v>
@@ -18760,7 +18760,7 @@
         <v>1.23</v>
       </c>
       <c r="G136" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="H136" t="n">
         <v>12.5</v>
@@ -18772,7 +18772,7 @@
         <v>6</v>
       </c>
       <c r="K136" t="n">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="L136" t="n">
         <v>1.01</v>
@@ -18781,10 +18781,10 @@
         <v>1.01</v>
       </c>
       <c r="N136" t="n">
-        <v>5.5</v>
+        <v>2.76</v>
       </c>
       <c r="O136" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P136" t="n">
         <v>2.54</v>
@@ -18805,10 +18805,10 @@
         <v>1.58</v>
       </c>
       <c r="V136" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="W136" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="X136" t="n">
         <v>34</v>
@@ -18892,16 +18892,16 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="G137" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="H137" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I137" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J137" t="n">
         <v>3.4</v>
@@ -18916,13 +18916,13 @@
         <v>1.07</v>
       </c>
       <c r="N137" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O137" t="n">
         <v>1.3</v>
       </c>
       <c r="P137" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="Q137" t="n">
         <v>1.92</v>
@@ -18940,10 +18940,10 @@
         <v>2.18</v>
       </c>
       <c r="V137" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="W137" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="X137" t="n">
         <v>16</v>
@@ -18961,7 +18961,7 @@
         <v>11</v>
       </c>
       <c r="AC137" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD137" t="n">
         <v>15.5</v>
@@ -19027,16 +19027,16 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G138" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="H138" t="n">
         <v>4.1</v>
       </c>
       <c r="I138" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J138" t="n">
         <v>3.1</v>
@@ -19078,7 +19078,7 @@
         <v>1.26</v>
       </c>
       <c r="W138" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="X138" t="n">
         <v>11</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO6"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.48</v>
+        <v>2.82</v>
       </c>
       <c r="G2" t="n">
-        <v>2.54</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="K2" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="L2" t="n">
-        <v>2.12</v>
+        <v>2.7</v>
       </c>
       <c r="M2" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="N2" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="P2" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="S2" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="T2" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="U2" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="V2" t="n">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="W2" t="n">
-        <v>1.66</v>
+        <v>1.54</v>
       </c>
       <c r="X2" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB2" t="n">
         <v>7.2</v>
       </c>
-      <c r="Y2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>6.8</v>
-      </c>
       <c r="AC2" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD2" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF2" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ2" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM2" t="n">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="AN2" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AO2" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,531 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20:07:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Queretaro</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.44</v>
+        <v>2.16</v>
       </c>
       <c r="G3" t="n">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
-        <v>9.6</v>
+        <v>4.4</v>
       </c>
       <c r="I3" t="n">
-        <v>10.5</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>4.8</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>4.9</v>
+        <v>3.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>3.95</v>
+        <v>2.74</v>
       </c>
       <c r="O3" t="n">
-        <v>1.32</v>
+        <v>1.56</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.93</v>
+        <v>2.68</v>
       </c>
       <c r="R3" t="n">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="S3" t="n">
-        <v>3.8</v>
+        <v>5.6</v>
       </c>
       <c r="T3" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="V3" t="n">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="W3" t="n">
-        <v>3.2</v>
+        <v>1.83</v>
       </c>
       <c r="X3" t="n">
-        <v>15.5</v>
+        <v>8.4</v>
       </c>
       <c r="Y3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO3" t="n">
         <v>120</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>100</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>370</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>190</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>180</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>270</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2026-01-17</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20:20:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Atletico Nacional Medellin</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Boyaca Chico</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="H4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="I4" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W4" t="n">
-        <v>5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>220</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>210</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>200</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>440</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>130</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>310</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>340</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2026-01-17</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Tigres</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Toluca</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2026-01-17</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Atletico Bucaramanga</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Millonarios</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="X6" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>210</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>42</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
